--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="691">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2080,6 +2080,36 @@
   </si>
   <si>
     <t>tt2488496</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda 3</t>
+  </si>
+  <si>
+    <t>tt2267968</t>
+  </si>
+  <si>
+    <t>The Smurfs</t>
+  </si>
+  <si>
+    <t>tt0472181</t>
+  </si>
+  <si>
+    <t>tt2017020</t>
+  </si>
+  <si>
+    <r>
+      <t>The Smurfs 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2442,10 +2472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D343"/>
+  <dimension ref="A1:D346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="C341" sqref="C341:C343"/>
+    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="C343" sqref="C343:C346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6223,6 +6253,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A344" t="s">
+        <v>685</v>
+      </c>
+      <c r="B344" t="s">
+        <v>686</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A345" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B345" t="s">
+        <v>688</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A346" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B346" t="s">
+        <v>689</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="697">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2110,6 +2110,25 @@
       </rPr>
       <t> </t>
     </r>
+  </si>
+  <si>
+    <t>The A-Team</t>
+  </si>
+  <si>
+    <t>tt0429493</t>
+  </si>
+  <si>
+    <t>Total Recall</t>
+  </si>
+  <si>
+    <t>tt1386703</t>
+  </si>
+  <si>
+    <t>Land of Storms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt2474310</t>
   </si>
 </sst>
 </file>
@@ -2472,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D346"/>
+  <dimension ref="A1:D349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="C343" sqref="C343:C346"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="D348" sqref="D348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6286,6 +6305,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A347" t="s">
+        <v>691</v>
+      </c>
+      <c r="B347" t="s">
+        <v>692</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A348" t="s">
+        <v>693</v>
+      </c>
+      <c r="B348" t="s">
+        <v>694</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A349" t="s">
+        <v>695</v>
+      </c>
+      <c r="B349" t="s">
+        <v>696</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="707">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2129,6 +2129,36 @@
   </si>
   <si>
     <t>tt2474310</t>
+  </si>
+  <si>
+    <t>17 Again</t>
+  </si>
+  <si>
+    <t>tt0974661</t>
+  </si>
+  <si>
+    <t>Match Point</t>
+  </si>
+  <si>
+    <t>tt0416320</t>
+  </si>
+  <si>
+    <t>Reefer Madness</t>
+  </si>
+  <si>
+    <t>tt0404364</t>
+  </si>
+  <si>
+    <t>Holding The Man</t>
+  </si>
+  <si>
+    <t>tt3671542</t>
+  </si>
+  <si>
+    <t>Fight Club</t>
+  </si>
+  <si>
+    <t>tt0137523</t>
   </si>
 </sst>
 </file>
@@ -2491,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D349"/>
+  <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="D348" sqref="D348"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="C349" sqref="C349:C354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6338,6 +6368,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A350" t="s">
+        <v>697</v>
+      </c>
+      <c r="B350" t="s">
+        <v>698</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A351" t="s">
+        <v>699</v>
+      </c>
+      <c r="B351" t="s">
+        <v>700</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A352" t="s">
+        <v>701</v>
+      </c>
+      <c r="B352" t="s">
+        <v>702</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A353" t="s">
+        <v>703</v>
+      </c>
+      <c r="B353" t="s">
+        <v>704</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A354" t="s">
+        <v>705</v>
+      </c>
+      <c r="B354" t="s">
+        <v>706</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="710">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2159,6 +2159,17 @@
   </si>
   <si>
     <t>tt0137523</t>
+  </si>
+  <si>
+    <t>/images/poster/Arrow Season 02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/images/poster/12 Years A Slave.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/images/poster/</t>
   </si>
 </sst>
 </file>
@@ -2523,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="C349" sqref="C349:C354"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E350" sqref="E350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2532,7 +2543,7 @@
     <col min="1" max="1" width="67.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -2559,6 +2570,9 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -2570,6 +2584,9 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -2581,6 +2598,9 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -2592,6 +2612,9 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -2603,6 +2626,9 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -2614,6 +2640,9 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -2625,6 +2654,9 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -2636,6 +2668,9 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -2647,6 +2682,9 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -2658,6 +2696,9 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -2669,6 +2710,9 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
@@ -2680,6 +2724,9 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -2691,6 +2738,9 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -2702,6 +2752,9 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -2713,8 +2766,11 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2724,8 +2780,11 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2794,11 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2746,8 +2808,11 @@
       <c r="C19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2757,8 +2822,11 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2768,8 +2836,11 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2779,8 +2850,11 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2790,8 +2864,11 @@
       <c r="C23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -2801,8 +2878,11 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2812,8 +2892,11 @@
       <c r="C25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -2823,8 +2906,11 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2834,8 +2920,11 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -2845,8 +2934,11 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -2856,8 +2948,11 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +2962,11 @@
       <c r="C30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -2878,8 +2976,11 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -2889,8 +2990,11 @@
       <c r="C32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -2900,8 +3004,11 @@
       <c r="C33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -2911,8 +3018,11 @@
       <c r="C34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -2922,8 +3032,11 @@
       <c r="C35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -2933,8 +3046,11 @@
       <c r="C36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -2944,8 +3060,11 @@
       <c r="C37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D37" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -2955,8 +3074,11 @@
       <c r="C38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -2966,8 +3088,11 @@
       <c r="C39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2977,8 +3102,11 @@
       <c r="C40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -2988,8 +3116,11 @@
       <c r="C41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D41" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -2999,8 +3130,11 @@
       <c r="C42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D42" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -3010,8 +3144,11 @@
       <c r="C43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -3021,8 +3158,11 @@
       <c r="C44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D44" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -3032,8 +3172,11 @@
       <c r="C45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D45" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -3043,8 +3186,11 @@
       <c r="C46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D46" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -3054,8 +3200,11 @@
       <c r="C47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D47" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -3065,8 +3214,11 @@
       <c r="C48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D48" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -3076,8 +3228,11 @@
       <c r="C49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D49" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -3087,8 +3242,11 @@
       <c r="C50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D50" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -3098,8 +3256,11 @@
       <c r="C51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D51" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -3109,8 +3270,11 @@
       <c r="C52" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D52" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -3120,8 +3284,11 @@
       <c r="C53" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D53" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -3131,8 +3298,11 @@
       <c r="C54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D54" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -3142,8 +3312,11 @@
       <c r="C55" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D55" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -3153,8 +3326,11 @@
       <c r="C56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D56" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -3164,8 +3340,11 @@
       <c r="C57" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D57" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -3175,8 +3354,11 @@
       <c r="C58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D58" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -3186,8 +3368,11 @@
       <c r="C59" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D59" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -3197,8 +3382,11 @@
       <c r="C60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D60" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -3208,8 +3396,11 @@
       <c r="C61" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D61" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -3219,8 +3410,11 @@
       <c r="C62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D62" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>115</v>
       </c>
@@ -3230,8 +3424,11 @@
       <c r="C63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D63" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -3241,8 +3438,11 @@
       <c r="C64" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D64" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -3252,8 +3452,11 @@
       <c r="C65" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D65" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -3263,8 +3466,11 @@
       <c r="C66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D66" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>119</v>
       </c>
@@ -3274,8 +3480,11 @@
       <c r="C67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D67" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -3285,8 +3494,11 @@
       <c r="C68" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D68" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -3296,8 +3508,11 @@
       <c r="C69" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D69" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>150</v>
       </c>
@@ -3307,8 +3522,11 @@
       <c r="C70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D70" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>151</v>
       </c>
@@ -3318,8 +3536,11 @@
       <c r="C71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D71" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -3329,8 +3550,11 @@
       <c r="C72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D72" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -3340,8 +3564,11 @@
       <c r="C73" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D73" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -3351,8 +3578,11 @@
       <c r="C74" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D74" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -3362,8 +3592,11 @@
       <c r="C75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D75" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -3373,8 +3606,11 @@
       <c r="C76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D76" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>157</v>
       </c>
@@ -3384,8 +3620,11 @@
       <c r="C77" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D77" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -3395,8 +3634,11 @@
       <c r="C78" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D78" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>159</v>
       </c>
@@ -3406,8 +3648,11 @@
       <c r="C79" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D79" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>160</v>
       </c>
@@ -3417,8 +3662,11 @@
       <c r="C80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D80" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -3428,8 +3676,11 @@
       <c r="C81" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D81" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -3439,8 +3690,11 @@
       <c r="C82" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D82" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -3450,8 +3704,11 @@
       <c r="C83" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D83" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -3461,8 +3718,11 @@
       <c r="C84" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D84" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -3472,8 +3732,11 @@
       <c r="C85" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D85" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>166</v>
       </c>
@@ -3483,8 +3746,11 @@
       <c r="C86" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D86" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>167</v>
       </c>
@@ -3494,8 +3760,11 @@
       <c r="C87" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D87" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>168</v>
       </c>
@@ -3505,8 +3774,11 @@
       <c r="C88" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D88" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -3516,8 +3788,11 @@
       <c r="C89" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D89" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>170</v>
       </c>
@@ -3527,8 +3802,11 @@
       <c r="C90" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D90" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>171</v>
       </c>
@@ -3538,8 +3816,11 @@
       <c r="C91" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D91" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>172</v>
       </c>
@@ -3549,8 +3830,11 @@
       <c r="C92" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D92" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>173</v>
       </c>
@@ -3560,8 +3844,11 @@
       <c r="C93" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D93" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>174</v>
       </c>
@@ -3571,8 +3858,11 @@
       <c r="C94" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D94" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>175</v>
       </c>
@@ -3582,8 +3872,11 @@
       <c r="C95" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D95" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>176</v>
       </c>
@@ -3593,8 +3886,11 @@
       <c r="C96" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D96" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>177</v>
       </c>
@@ -3604,8 +3900,11 @@
       <c r="C97" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D97" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>178</v>
       </c>
@@ -3615,8 +3914,11 @@
       <c r="C98" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D98" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -3626,8 +3928,11 @@
       <c r="C99" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D99" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>180</v>
       </c>
@@ -3637,8 +3942,11 @@
       <c r="C100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D100" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>181</v>
       </c>
@@ -3648,8 +3956,11 @@
       <c r="C101" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D101" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>182</v>
       </c>
@@ -3659,8 +3970,11 @@
       <c r="C102" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D102" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>183</v>
       </c>
@@ -3670,8 +3984,11 @@
       <c r="C103" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D103" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -3681,8 +3998,11 @@
       <c r="C104" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D104" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>185</v>
       </c>
@@ -3692,8 +4012,11 @@
       <c r="C105" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D105" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -3703,8 +4026,11 @@
       <c r="C106" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D106" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>187</v>
       </c>
@@ -3714,8 +4040,11 @@
       <c r="C107" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D107" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>188</v>
       </c>
@@ -3725,8 +4054,11 @@
       <c r="C108" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D108" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>189</v>
       </c>
@@ -3736,8 +4068,11 @@
       <c r="C109" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D109" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>190</v>
       </c>
@@ -3747,8 +4082,11 @@
       <c r="C110" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D110" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>191</v>
       </c>
@@ -3758,8 +4096,11 @@
       <c r="C111" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D111" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>192</v>
       </c>
@@ -3769,8 +4110,11 @@
       <c r="C112" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D112" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>193</v>
       </c>
@@ -3780,8 +4124,11 @@
       <c r="C113" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D113" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>194</v>
       </c>
@@ -3791,8 +4138,11 @@
       <c r="C114" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D114" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>195</v>
       </c>
@@ -3802,8 +4152,11 @@
       <c r="C115" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D115" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>196</v>
       </c>
@@ -3813,8 +4166,11 @@
       <c r="C116" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D116" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>197</v>
       </c>
@@ -3824,8 +4180,11 @@
       <c r="C117" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D117" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>198</v>
       </c>
@@ -3835,8 +4194,11 @@
       <c r="C118" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D118" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>199</v>
       </c>
@@ -3846,8 +4208,11 @@
       <c r="C119" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D119" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>200</v>
       </c>
@@ -3857,8 +4222,11 @@
       <c r="C120" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D120" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>201</v>
       </c>
@@ -3868,8 +4236,11 @@
       <c r="C121" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D121" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>202</v>
       </c>
@@ -3879,8 +4250,11 @@
       <c r="C122" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D122" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>203</v>
       </c>
@@ -3890,8 +4264,11 @@
       <c r="C123" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D123" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>204</v>
       </c>
@@ -3901,8 +4278,11 @@
       <c r="C124" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D124" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>205</v>
       </c>
@@ -3912,8 +4292,11 @@
       <c r="C125" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D125" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>206</v>
       </c>
@@ -3923,8 +4306,11 @@
       <c r="C126" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D126" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>207</v>
       </c>
@@ -3934,8 +4320,11 @@
       <c r="C127" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D127" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>208</v>
       </c>
@@ -3945,8 +4334,11 @@
       <c r="C128" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D128" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>209</v>
       </c>
@@ -3956,8 +4348,11 @@
       <c r="C129" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D129" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>210</v>
       </c>
@@ -3967,8 +4362,11 @@
       <c r="C130" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D130" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>211</v>
       </c>
@@ -3978,8 +4376,11 @@
       <c r="C131" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D131" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>212</v>
       </c>
@@ -3989,8 +4390,11 @@
       <c r="C132" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D132" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>213</v>
       </c>
@@ -4000,8 +4404,11 @@
       <c r="C133" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D133" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>214</v>
       </c>
@@ -4011,8 +4418,11 @@
       <c r="C134" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D134" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>215</v>
       </c>
@@ -4022,8 +4432,11 @@
       <c r="C135" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D135" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>216</v>
       </c>
@@ -4033,8 +4446,11 @@
       <c r="C136" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D136" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>217</v>
       </c>
@@ -4044,8 +4460,11 @@
       <c r="C137" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D137" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>218</v>
       </c>
@@ -4055,8 +4474,11 @@
       <c r="C138" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D138" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>213</v>
       </c>
@@ -4066,8 +4488,11 @@
       <c r="C139" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D139" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>219</v>
       </c>
@@ -4077,8 +4502,11 @@
       <c r="C140" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D140" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>220</v>
       </c>
@@ -4088,8 +4516,11 @@
       <c r="C141" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D141" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>221</v>
       </c>
@@ -4099,8 +4530,11 @@
       <c r="C142" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D142" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>222</v>
       </c>
@@ -4110,8 +4544,11 @@
       <c r="C143" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D143" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>223</v>
       </c>
@@ -4121,8 +4558,11 @@
       <c r="C144" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D144" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>224</v>
       </c>
@@ -4132,8 +4572,11 @@
       <c r="C145" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D145" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>225</v>
       </c>
@@ -4143,8 +4586,11 @@
       <c r="C146" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D146" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>226</v>
       </c>
@@ -4154,8 +4600,11 @@
       <c r="C147" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D147" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>227</v>
       </c>
@@ -4165,8 +4614,11 @@
       <c r="C148" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D148" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>228</v>
       </c>
@@ -4176,8 +4628,11 @@
       <c r="C149" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D149" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>229</v>
       </c>
@@ -4187,8 +4642,11 @@
       <c r="C150" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D150" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>230</v>
       </c>
@@ -4198,8 +4656,11 @@
       <c r="C151" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D151" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>231</v>
       </c>
@@ -4209,8 +4670,11 @@
       <c r="C152" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D152" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>232</v>
       </c>
@@ -4220,8 +4684,11 @@
       <c r="C153" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D153" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>233</v>
       </c>
@@ -4231,8 +4698,11 @@
       <c r="C154" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D154" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>234</v>
       </c>
@@ -4242,8 +4712,11 @@
       <c r="C155" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D155" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>235</v>
       </c>
@@ -4253,8 +4726,11 @@
       <c r="C156" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D156" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>236</v>
       </c>
@@ -4264,8 +4740,11 @@
       <c r="C157" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D157" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>237</v>
       </c>
@@ -4275,8 +4754,11 @@
       <c r="C158" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D158" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>238</v>
       </c>
@@ -4286,8 +4768,11 @@
       <c r="C159" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D159" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>239</v>
       </c>
@@ -4297,8 +4782,11 @@
       <c r="C160" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D160" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>240</v>
       </c>
@@ -4308,8 +4796,11 @@
       <c r="C161" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D161" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>241</v>
       </c>
@@ -4319,8 +4810,11 @@
       <c r="C162" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D162" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>242</v>
       </c>
@@ -4330,8 +4824,11 @@
       <c r="C163" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D163" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>243</v>
       </c>
@@ -4341,16 +4838,22 @@
       <c r="C164" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D164" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>244</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D165" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>245</v>
       </c>
@@ -4360,8 +4863,11 @@
       <c r="C166" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D166" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>246</v>
       </c>
@@ -4371,8 +4877,11 @@
       <c r="C167" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D167" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>247</v>
       </c>
@@ -4382,8 +4891,11 @@
       <c r="C168" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D168" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>248</v>
       </c>
@@ -4393,8 +4905,11 @@
       <c r="C169" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D169" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>249</v>
       </c>
@@ -4404,8 +4919,11 @@
       <c r="C170" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D170" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>250</v>
       </c>
@@ -4415,8 +4933,11 @@
       <c r="C171" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D171" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>251</v>
       </c>
@@ -4426,8 +4947,11 @@
       <c r="C172" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D172" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>252</v>
       </c>
@@ -4437,8 +4961,11 @@
       <c r="C173" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D173" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>253</v>
       </c>
@@ -4448,8 +4975,11 @@
       <c r="C174" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D174" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>254</v>
       </c>
@@ -4459,8 +4989,11 @@
       <c r="C175" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D175" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>255</v>
       </c>
@@ -4470,8 +5003,11 @@
       <c r="C176" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D176" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>256</v>
       </c>
@@ -4481,8 +5017,11 @@
       <c r="C177" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D177" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>257</v>
       </c>
@@ -4492,8 +5031,11 @@
       <c r="C178" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D178" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>258</v>
       </c>
@@ -4503,8 +5045,11 @@
       <c r="C179" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D179" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>259</v>
       </c>
@@ -4514,8 +5059,11 @@
       <c r="C180" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D180" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>260</v>
       </c>
@@ -4525,8 +5073,11 @@
       <c r="C181" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D181" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>261</v>
       </c>
@@ -4536,8 +5087,11 @@
       <c r="C182" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D182" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>262</v>
       </c>
@@ -4547,8 +5101,11 @@
       <c r="C183" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D183" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>263</v>
       </c>
@@ -4558,8 +5115,11 @@
       <c r="C184" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D184" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>264</v>
       </c>
@@ -4569,8 +5129,11 @@
       <c r="C185" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D185" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>265</v>
       </c>
@@ -4580,8 +5143,11 @@
       <c r="C186" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D186" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>266</v>
       </c>
@@ -4591,8 +5157,11 @@
       <c r="C187" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D187" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>267</v>
       </c>
@@ -4602,8 +5171,11 @@
       <c r="C188" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D188" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>268</v>
       </c>
@@ -4613,8 +5185,11 @@
       <c r="C189" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D189" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>269</v>
       </c>
@@ -4624,8 +5199,11 @@
       <c r="C190" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D190" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>270</v>
       </c>
@@ -4635,8 +5213,11 @@
       <c r="C191" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D191" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>271</v>
       </c>
@@ -4646,8 +5227,11 @@
       <c r="C192" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D192" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>272</v>
       </c>
@@ -4657,8 +5241,11 @@
       <c r="C193" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D193" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>273</v>
       </c>
@@ -4668,8 +5255,11 @@
       <c r="C194" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D194" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>274</v>
       </c>
@@ -4679,8 +5269,11 @@
       <c r="C195" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D195" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>275</v>
       </c>
@@ -4690,8 +5283,11 @@
       <c r="C196" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D196" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>276</v>
       </c>
@@ -4701,8 +5297,11 @@
       <c r="C197" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D197" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>277</v>
       </c>
@@ -4712,8 +5311,11 @@
       <c r="C198" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D198" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>278</v>
       </c>
@@ -4723,8 +5325,11 @@
       <c r="C199" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D199" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>279</v>
       </c>
@@ -4734,8 +5339,11 @@
       <c r="C200" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D200" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>280</v>
       </c>
@@ -4745,8 +5353,11 @@
       <c r="C201" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D201" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>281</v>
       </c>
@@ -4756,8 +5367,11 @@
       <c r="C202" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D202" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>282</v>
       </c>
@@ -4767,8 +5381,11 @@
       <c r="C203" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D203" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>283</v>
       </c>
@@ -4778,8 +5395,11 @@
       <c r="C204" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D204" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>284</v>
       </c>
@@ -4789,8 +5409,11 @@
       <c r="C205" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D205" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>285</v>
       </c>
@@ -4800,8 +5423,11 @@
       <c r="C206" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D206" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>286</v>
       </c>
@@ -4811,8 +5437,11 @@
       <c r="C207" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D207" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>287</v>
       </c>
@@ -4822,8 +5451,11 @@
       <c r="C208" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D208" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>288</v>
       </c>
@@ -4833,8 +5465,11 @@
       <c r="C209" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D209" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>289</v>
       </c>
@@ -4844,8 +5479,11 @@
       <c r="C210" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D210" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>290</v>
       </c>
@@ -4855,8 +5493,11 @@
       <c r="C211" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D211" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>291</v>
       </c>
@@ -4866,8 +5507,11 @@
       <c r="C212" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D212" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>292</v>
       </c>
@@ -4877,8 +5521,11 @@
       <c r="C213" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D213" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>293</v>
       </c>
@@ -4888,8 +5535,11 @@
       <c r="C214" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D214" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>294</v>
       </c>
@@ -4899,8 +5549,11 @@
       <c r="C215" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D215" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>295</v>
       </c>
@@ -4910,8 +5563,11 @@
       <c r="C216" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D216" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>296</v>
       </c>
@@ -4921,8 +5577,11 @@
       <c r="C217" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D217" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>297</v>
       </c>
@@ -4932,8 +5591,11 @@
       <c r="C218" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D218" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>298</v>
       </c>
@@ -4943,8 +5605,11 @@
       <c r="C219" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D219" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>299</v>
       </c>
@@ -4954,8 +5619,11 @@
       <c r="C220" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D220" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>300</v>
       </c>
@@ -4965,8 +5633,11 @@
       <c r="C221" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D221" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>301</v>
       </c>
@@ -4976,16 +5647,22 @@
       <c r="C222" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D222" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>302</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D223" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>303</v>
       </c>
@@ -4995,8 +5672,11 @@
       <c r="C224" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D224" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>304</v>
       </c>
@@ -5006,8 +5686,11 @@
       <c r="C225" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D225" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>305</v>
       </c>
@@ -5017,8 +5700,11 @@
       <c r="C226" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D226" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>306</v>
       </c>
@@ -5028,8 +5714,11 @@
       <c r="C227" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D227" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>307</v>
       </c>
@@ -5039,8 +5728,11 @@
       <c r="C228" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D228" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>308</v>
       </c>
@@ -5050,8 +5742,11 @@
       <c r="C229" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D229" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>309</v>
       </c>
@@ -5061,8 +5756,11 @@
       <c r="C230" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D230" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>310</v>
       </c>
@@ -5072,8 +5770,11 @@
       <c r="C231" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D231" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>311</v>
       </c>
@@ -5083,8 +5784,11 @@
       <c r="C232" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D232" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>312</v>
       </c>
@@ -5094,8 +5798,11 @@
       <c r="C233" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D233" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>313</v>
       </c>
@@ -5105,8 +5812,11 @@
       <c r="C234" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D234" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>314</v>
       </c>
@@ -5116,8 +5826,11 @@
       <c r="C235" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D235" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>315</v>
       </c>
@@ -5127,8 +5840,11 @@
       <c r="C236" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D236" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>316</v>
       </c>
@@ -5138,8 +5854,11 @@
       <c r="C237" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D237" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>317</v>
       </c>
@@ -5149,8 +5868,11 @@
       <c r="C238" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D238" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>318</v>
       </c>
@@ -5160,8 +5882,11 @@
       <c r="C239" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D239" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>319</v>
       </c>
@@ -5171,8 +5896,11 @@
       <c r="C240" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D240" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>320</v>
       </c>
@@ -5182,8 +5910,11 @@
       <c r="C241" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D241" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>321</v>
       </c>
@@ -5193,8 +5924,11 @@
       <c r="C242" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D242" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>322</v>
       </c>
@@ -5204,8 +5938,11 @@
       <c r="C243" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D243" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>323</v>
       </c>
@@ -5215,8 +5952,11 @@
       <c r="C244" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D244" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>324</v>
       </c>
@@ -5226,8 +5966,11 @@
       <c r="C245" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D245" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>325</v>
       </c>
@@ -5237,8 +5980,11 @@
       <c r="C246" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D246" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>326</v>
       </c>
@@ -5248,8 +5994,11 @@
       <c r="C247" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D247" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>327</v>
       </c>
@@ -5259,8 +6008,11 @@
       <c r="C248" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D248" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>328</v>
       </c>
@@ -5270,8 +6022,11 @@
       <c r="C249" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D249" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>329</v>
       </c>
@@ -5281,8 +6036,11 @@
       <c r="C250" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D250" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>330</v>
       </c>
@@ -5292,8 +6050,11 @@
       <c r="C251" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D251" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>331</v>
       </c>
@@ -5303,8 +6064,11 @@
       <c r="C252" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D252" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>332</v>
       </c>
@@ -5314,8 +6078,11 @@
       <c r="C253" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D253" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>333</v>
       </c>
@@ -5325,8 +6092,11 @@
       <c r="C254" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D254" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>334</v>
       </c>
@@ -5336,8 +6106,11 @@
       <c r="C255" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D255" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>335</v>
       </c>
@@ -5347,8 +6120,11 @@
       <c r="C256" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D256" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>336</v>
       </c>
@@ -5358,8 +6134,11 @@
       <c r="C257" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D257" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>337</v>
       </c>
@@ -5369,8 +6148,11 @@
       <c r="C258" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D258" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>338</v>
       </c>
@@ -5380,8 +6162,11 @@
       <c r="C259" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D259" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>339</v>
       </c>
@@ -5391,8 +6176,11 @@
       <c r="C260" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D260" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>340</v>
       </c>
@@ -5402,8 +6190,11 @@
       <c r="C261" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D261" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>341</v>
       </c>
@@ -5413,8 +6204,11 @@
       <c r="C262" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D262" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>342</v>
       </c>
@@ -5424,8 +6218,11 @@
       <c r="C263" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D263" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>343</v>
       </c>
@@ -5435,8 +6232,11 @@
       <c r="C264" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D264" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>344</v>
       </c>
@@ -5446,8 +6246,11 @@
       <c r="C265" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D265" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>345</v>
       </c>
@@ -5457,8 +6260,11 @@
       <c r="C266" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D266" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>346</v>
       </c>
@@ -5468,8 +6274,11 @@
       <c r="C267" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D267" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>347</v>
       </c>
@@ -5479,8 +6288,11 @@
       <c r="C268" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D268" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>348</v>
       </c>
@@ -5490,8 +6302,11 @@
       <c r="C269" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D269" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>349</v>
       </c>
@@ -5501,8 +6316,11 @@
       <c r="C270" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D270" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>350</v>
       </c>
@@ -5512,8 +6330,11 @@
       <c r="C271" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D271" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>351</v>
       </c>
@@ -5523,8 +6344,11 @@
       <c r="C272" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D272" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>352</v>
       </c>
@@ -5534,8 +6358,11 @@
       <c r="C273" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D273" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>353</v>
       </c>
@@ -5545,8 +6372,11 @@
       <c r="C274" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D274" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>354</v>
       </c>
@@ -5556,8 +6386,11 @@
       <c r="C275" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D275" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>355</v>
       </c>
@@ -5567,8 +6400,11 @@
       <c r="C276" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D276" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>356</v>
       </c>
@@ -5578,8 +6414,11 @@
       <c r="C277" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D277" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>357</v>
       </c>
@@ -5589,8 +6428,11 @@
       <c r="C278" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D278" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>358</v>
       </c>
@@ -5600,8 +6442,11 @@
       <c r="C279" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D279" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>359</v>
       </c>
@@ -5611,8 +6456,11 @@
       <c r="C280" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D280" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>360</v>
       </c>
@@ -5622,8 +6470,11 @@
       <c r="C281" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D281" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>361</v>
       </c>
@@ -5633,8 +6484,11 @@
       <c r="C282" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D282" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>362</v>
       </c>
@@ -5644,8 +6498,11 @@
       <c r="C283" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D283" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>363</v>
       </c>
@@ -5655,8 +6512,11 @@
       <c r="C284" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D284" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>364</v>
       </c>
@@ -5666,8 +6526,11 @@
       <c r="C285" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D285" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>143</v>
       </c>
@@ -5677,8 +6540,11 @@
       <c r="C286" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D286" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>365</v>
       </c>
@@ -5688,8 +6554,11 @@
       <c r="C287" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D287" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>366</v>
       </c>
@@ -5699,8 +6568,11 @@
       <c r="C288" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D288" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>367</v>
       </c>
@@ -5710,8 +6582,11 @@
       <c r="C289" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D289" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>368</v>
       </c>
@@ -5721,8 +6596,11 @@
       <c r="C290" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D290" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>369</v>
       </c>
@@ -5732,8 +6610,11 @@
       <c r="C291" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D291" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>370</v>
       </c>
@@ -5743,8 +6624,11 @@
       <c r="C292" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D292" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>371</v>
       </c>
@@ -5754,8 +6638,11 @@
       <c r="C293" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D293" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>372</v>
       </c>
@@ -5765,8 +6652,11 @@
       <c r="C294" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D294" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>373</v>
       </c>
@@ -5776,8 +6666,11 @@
       <c r="C295" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D295" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>374</v>
       </c>
@@ -5787,8 +6680,11 @@
       <c r="C296" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D296" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>375</v>
       </c>
@@ -5798,8 +6694,11 @@
       <c r="C297" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D297" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>376</v>
       </c>
@@ -5809,8 +6708,11 @@
       <c r="C298" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D298" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>145</v>
       </c>
@@ -5820,8 +6722,11 @@
       <c r="C299" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D299" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>147</v>
       </c>
@@ -5831,16 +6736,22 @@
       <c r="C300" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D300" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>149</v>
       </c>
       <c r="C301" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D301" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>600</v>
       </c>
@@ -5850,8 +6761,11 @@
       <c r="C302" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D302" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>602</v>
       </c>
@@ -5861,8 +6775,11 @@
       <c r="C303" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D303" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>604</v>
       </c>
@@ -5872,8 +6789,11 @@
       <c r="C304" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D304" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>606</v>
       </c>
@@ -5883,8 +6803,11 @@
       <c r="C305" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D305" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>608</v>
       </c>
@@ -5894,8 +6817,11 @@
       <c r="C306" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D306" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>611</v>
       </c>
@@ -5905,8 +6831,11 @@
       <c r="C307" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D307" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>612</v>
       </c>
@@ -5916,8 +6845,11 @@
       <c r="C308" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D308" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>614</v>
       </c>
@@ -5927,8 +6859,11 @@
       <c r="C309" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D309" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>616</v>
       </c>
@@ -5938,8 +6873,11 @@
       <c r="C310" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D310" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>621</v>
       </c>
@@ -5949,8 +6887,11 @@
       <c r="C311" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D311" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>619</v>
       </c>
@@ -5960,8 +6901,11 @@
       <c r="C312" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D312" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>622</v>
       </c>
@@ -5971,8 +6915,11 @@
       <c r="C313" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D313" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>624</v>
       </c>
@@ -5982,8 +6929,11 @@
       <c r="C314" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D314" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>626</v>
       </c>
@@ -5993,8 +6943,11 @@
       <c r="C315" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D315" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>628</v>
       </c>
@@ -6004,8 +6957,11 @@
       <c r="C316" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D316" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>630</v>
       </c>
@@ -6015,8 +6971,11 @@
       <c r="C317" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D317" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>632</v>
       </c>
@@ -6026,8 +6985,11 @@
       <c r="C318" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D318" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>634</v>
       </c>
@@ -6037,8 +6999,11 @@
       <c r="C319" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D319" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>636</v>
       </c>
@@ -6048,8 +7013,11 @@
       <c r="C320" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D320" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>638</v>
       </c>
@@ -6059,8 +7027,11 @@
       <c r="C321" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D321" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>640</v>
       </c>
@@ -6070,8 +7041,11 @@
       <c r="C322" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D322" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>642</v>
       </c>
@@ -6081,8 +7055,11 @@
       <c r="C323" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D323" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>644</v>
       </c>
@@ -6092,8 +7069,11 @@
       <c r="C324" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D324" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>646</v>
       </c>
@@ -6103,8 +7083,11 @@
       <c r="C325" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D325" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>648</v>
       </c>
@@ -6114,8 +7097,11 @@
       <c r="C326" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D326" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>651</v>
       </c>
@@ -6125,8 +7111,11 @@
       <c r="C327" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D327" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>653</v>
       </c>
@@ -6136,8 +7125,11 @@
       <c r="C328" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D328" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>655</v>
       </c>
@@ -6147,8 +7139,11 @@
       <c r="C329" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D329" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>656</v>
       </c>
@@ -6158,8 +7153,11 @@
       <c r="C330" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D330" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>657</v>
       </c>
@@ -6169,8 +7167,11 @@
       <c r="C331" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D331" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>658</v>
       </c>
@@ -6180,8 +7181,11 @@
       <c r="C332" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D332" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>659</v>
       </c>
@@ -6191,8 +7195,11 @@
       <c r="C333" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D333" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>665</v>
       </c>
@@ -6202,8 +7209,11 @@
       <c r="C334" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D334" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
         <v>667</v>
       </c>
@@ -6213,8 +7223,11 @@
       <c r="C335" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D335" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>670</v>
       </c>
@@ -6224,8 +7237,11 @@
       <c r="C336" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D336" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>671</v>
       </c>
@@ -6235,8 +7251,11 @@
       <c r="C337" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D337" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>673</v>
       </c>
@@ -6246,8 +7265,11 @@
       <c r="C338" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D338" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>675</v>
       </c>
@@ -6257,8 +7279,11 @@
       <c r="C339" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D339" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>677</v>
       </c>
@@ -6268,8 +7293,11 @@
       <c r="C340" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D340" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>679</v>
       </c>
@@ -6279,8 +7307,11 @@
       <c r="C341" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D341" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>681</v>
       </c>
@@ -6290,8 +7321,11 @@
       <c r="C342" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D342" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>683</v>
       </c>
@@ -6301,8 +7335,11 @@
       <c r="C343" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D343" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>685</v>
       </c>
@@ -6312,8 +7349,11 @@
       <c r="C344" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D344" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
         <v>687</v>
       </c>
@@ -6323,8 +7363,11 @@
       <c r="C345" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D345" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
         <v>690</v>
       </c>
@@ -6334,8 +7377,11 @@
       <c r="C346" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D346" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>691</v>
       </c>
@@ -6345,8 +7391,11 @@
       <c r="C347" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D347" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>693</v>
       </c>
@@ -6356,8 +7405,11 @@
       <c r="C348" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D348" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>695</v>
       </c>
@@ -6367,8 +7419,11 @@
       <c r="C349" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D349" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>697</v>
       </c>
@@ -6378,8 +7433,11 @@
       <c r="C350" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D350" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>699</v>
       </c>
@@ -6389,8 +7447,11 @@
       <c r="C351" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D351" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>701</v>
       </c>
@@ -6400,8 +7461,11 @@
       <c r="C352" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D352" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>703</v>
       </c>
@@ -6411,8 +7475,11 @@
       <c r="C353" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D353" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>705</v>
       </c>
@@ -6421,6 +7488,9 @@
       </c>
       <c r="C354" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>709</v>
       </c>
     </row>
   </sheetData>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="732">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,9 +470,6 @@
     <t>tt2178470</t>
   </si>
   <si>
-    <t>天龙八部</t>
-  </si>
-  <si>
     <t>E.T. The Extra - Terrestrial</t>
   </si>
   <si>
@@ -1041,12 +1038,6 @@
   </si>
   <si>
     <t>The Lucky One</t>
-  </si>
-  <si>
-    <t>The Machine</t>
-  </si>
-  <si>
-    <t>The Maze Runner</t>
   </si>
   <si>
     <t>The Necessary Death Of Charlie Countryman</t>
@@ -2161,15 +2152,93 @@
     <t>tt0137523</t>
   </si>
   <si>
-    <t>/images/poster/Arrow Season 02.jpg</t>
+    <t>May Who</t>
+  </si>
+  <si>
+    <t>tt5084388</t>
+  </si>
+  <si>
+    <t>Mr. Right</t>
+  </si>
+  <si>
+    <t>tt2091935</t>
+  </si>
+  <si>
+    <t>No regrets</t>
+  </si>
+  <si>
+    <t>tt0996948</t>
+  </si>
+  <si>
+    <t>One More Time</t>
+  </si>
+  <si>
+    <t>tt3662066</t>
+  </si>
+  <si>
+    <t>Permanent Residence</t>
+  </si>
+  <si>
+    <t>tt1386963</t>
+  </si>
+  <si>
+    <t>Soundless Wind Chime</t>
+  </si>
+  <si>
+    <t>tt1360832</t>
+  </si>
+  <si>
+    <t>The Blue Hour</t>
+  </si>
+  <si>
+    <t>tt4536494</t>
+  </si>
+  <si>
+    <t>The Last Match</t>
+  </si>
+  <si>
+    <t>tt2400002</t>
+  </si>
+  <si>
+    <t>Tiger Orange</t>
+  </si>
+  <si>
+    <t>tt2866824</t>
+  </si>
+  <si>
+    <t>The Machine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/images/poster/12 Years A Slave.jpg</t>
+    <t>The Maze Runner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/images/poster/</t>
+    <t>tt1790864</t>
+  </si>
+  <si>
+    <t>tt0827972</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt0843229</t>
+  </si>
+  <si>
+    <t>Return of the Condor Heroes</t>
+  </si>
+  <si>
+    <t>TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honour of the Gods </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt0260931</t>
+  </si>
+  <si>
+    <t>The Demi-Gods and Semi-Devils</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2281,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -2532,10 +2602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D354"/>
+  <dimension ref="A1:D365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E350" sqref="E350"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2570,9 +2640,6 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>708</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -2584,9 +2651,6 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>709</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -2598,9 +2662,7 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -2612,9 +2674,7 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -2626,9 +2686,7 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -2640,9 +2698,7 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -2654,9 +2710,7 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -2668,9 +2722,7 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -2682,9 +2734,7 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -2696,9 +2746,7 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -2710,9 +2758,7 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
@@ -2724,9 +2770,7 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -2738,9 +2782,7 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -2752,9 +2794,7 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -2766,9 +2806,7 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
@@ -2780,9 +2818,7 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
@@ -2794,9 +2830,7 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
@@ -2808,9 +2842,6 @@
       <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s">
-        <v>707</v>
-      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
@@ -2822,9 +2853,7 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
@@ -2836,9 +2865,7 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
@@ -2850,9 +2877,7 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
@@ -2864,9 +2889,7 @@
       <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
@@ -2878,9 +2901,7 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
@@ -2892,9 +2913,7 @@
       <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
@@ -2906,9 +2925,7 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
@@ -2920,9 +2937,7 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
@@ -2934,9 +2949,7 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
@@ -2948,9 +2961,7 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
@@ -2962,9 +2973,7 @@
       <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
@@ -2976,9 +2985,7 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
@@ -2990,9 +2997,7 @@
       <c r="C32" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
@@ -3004,9 +3009,7 @@
       <c r="C33" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
@@ -3018,9 +3021,7 @@
       <c r="C34" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
@@ -3032,9 +3033,7 @@
       <c r="C35" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
@@ -3046,9 +3045,7 @@
       <c r="C36" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
@@ -3060,9 +3057,7 @@
       <c r="C37" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
@@ -3074,9 +3069,7 @@
       <c r="C38" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
@@ -3088,9 +3081,7 @@
       <c r="C39" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
@@ -3102,9 +3093,7 @@
       <c r="C40" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
@@ -3116,9 +3105,7 @@
       <c r="C41" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
@@ -3130,9 +3117,7 @@
       <c r="C42" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
@@ -3144,9 +3129,7 @@
       <c r="C43" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
@@ -3158,9 +3141,7 @@
       <c r="C44" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
@@ -3172,9 +3153,7 @@
       <c r="C45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
@@ -3186,9 +3165,7 @@
       <c r="C46" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
@@ -3200,9 +3177,7 @@
       <c r="C47" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
@@ -3214,9 +3189,7 @@
       <c r="C48" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
@@ -3228,9 +3201,7 @@
       <c r="C49" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
@@ -3242,9 +3213,7 @@
       <c r="C50" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
@@ -3256,9 +3225,7 @@
       <c r="C51" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
@@ -3270,9 +3237,7 @@
       <c r="C52" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
@@ -3284,9 +3249,7 @@
       <c r="C53" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
@@ -3298,9 +3261,7 @@
       <c r="C54" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
@@ -3312,9 +3273,7 @@
       <c r="C55" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
@@ -3326,9 +3285,7 @@
       <c r="C56" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
@@ -3340,9 +3297,7 @@
       <c r="C57" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
@@ -3354,9 +3309,7 @@
       <c r="C58" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
@@ -3368,9 +3321,7 @@
       <c r="C59" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
@@ -3382,9 +3333,7 @@
       <c r="C60" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
@@ -3396,9 +3345,7 @@
       <c r="C61" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
@@ -3410,9 +3357,7 @@
       <c r="C62" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
@@ -3424,9 +3369,7 @@
       <c r="C63" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
@@ -3438,9 +3381,7 @@
       <c r="C64" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
@@ -3452,9 +3393,7 @@
       <c r="C65" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
@@ -3466,9 +3405,7 @@
       <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
@@ -3480,9 +3417,7 @@
       <c r="C67" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
@@ -3494,9 +3429,7 @@
       <c r="C68" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
@@ -3508,209 +3441,179 @@
       <c r="C69" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B70" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B74" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B76" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B77" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B80" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B82" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B84" t="s">
         <v>134</v>
@@ -3718,2817 +3621,2413 @@
       <c r="C84" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B86" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B87" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C87" t="s">
         <v>141</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B88" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B89" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B92" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B93" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B94" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B96" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D96" s="1"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B97" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D97" s="1"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B100" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B101" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B102" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B103" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B104" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D104" s="1"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B105" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D105" s="1"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B106" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D106" s="1"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B107" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D107" s="1"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B108" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B109" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D109" s="1"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B110" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D110" s="1"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B111" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B112" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D112" s="1"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B113" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D113" s="1"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B114" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D114" s="1"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B115" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B116" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D116" s="1"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B117" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D117" s="1"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B118" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D118" s="1"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B119" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B120" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D120" s="1"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B121" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D121" s="1"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B122" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B123" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D123" s="1"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B124" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B125" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D125" s="1"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B126" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D126" s="1"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B127" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D127" s="1"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B128" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D128" s="1"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B129" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D129" s="1"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B130" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B131" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D131" s="1"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B132" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D132" s="1"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B133" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D133" s="1"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B134" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D134" s="1"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B135" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D135" s="1"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B136" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D136" s="1"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B137" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D137" s="1"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B138" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D138" s="1"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B139" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D139" s="1"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B140" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D140" s="1"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B141" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B142" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D142" s="1"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B143" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B144" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D144" s="1"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B145" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D145" s="1"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B146" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D146" s="1"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B147" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B148" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B149" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B150" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B151" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D151" s="1"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B152" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D152" s="1"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B153" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D153" s="1"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B154" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B155" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B156" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B157" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B158" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B159" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B160" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B161" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B162" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B163" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B164" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B166" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B167" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B168" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D168" s="1"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B169" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B170" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B171" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B172" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B173" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B174" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B175" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B176" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D176" s="1"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B177" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D177" s="1"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B178" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D178" s="1"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B179" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D179" s="1"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B180" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D180" s="1"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B181" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D181" s="1"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B182" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B183" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B184" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B185" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D185" s="1"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B186" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D186" s="1"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B187" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D187" s="1"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B188" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D188" s="1"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B189" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D189" s="1"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B190" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D190" s="1"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B191" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D191" s="1"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B192" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D192" s="1"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B193" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D193" s="1"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B194" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B195" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D195" s="1"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B196" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D196" s="1"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B197" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D197" s="1"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B198" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D198" s="1"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B199" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D199" s="1"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B200" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C200" t="s">
         <v>41</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D200" s="1"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B201" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D201" s="1"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B202" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D202" s="1"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B203" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D203" s="1"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B204" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B205" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D205" s="1"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B206" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D206" s="1"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B207" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D207" s="1"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D208" s="1"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B209" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D209" s="1"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B210" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D210" s="1"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B211" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D211" s="1"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B212" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D212" s="1"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B213" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D213" s="1"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B214" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B215" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D215" s="1"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B216" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D216" s="1"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B217" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D217" s="1"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B218" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D218" s="1"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B219" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D219" s="1"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B220" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D220" s="1"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B221" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D221" s="1"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B222" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D222" s="1"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D223" s="1"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B224" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D224" s="1"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B225" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D225" s="1"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B226" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D226" s="1"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B227" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D227" s="1"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B228" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D228" s="1"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B229" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D229" s="1"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B230" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D230" s="1"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B231" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D231" s="1"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B232" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C232" t="s">
         <v>142</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D232" s="1"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B233" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D233" s="1"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B234" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D234" s="1"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B235" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D235" s="1"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B236" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D236" s="1"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B237" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D237" s="1"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B238" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D238" s="1"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B239" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D239" s="1"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B240" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D240" s="1"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B241" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D241" s="1"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B242" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D242" s="1"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B243" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D243" s="1"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B244" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D244" s="1"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B245" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C245" t="s">
         <v>142</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D245" s="1"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B246" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D246" s="1"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B247" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D247" s="1"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B248" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D248" s="1"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B249" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D249" s="1"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B250" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D250" s="1"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B251" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D251" s="1"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B252" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D252" s="1"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B253" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D253" s="1"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B254" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D254" s="1"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B255" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D255" s="1"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B256" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D256" s="1"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B257" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D257" s="1"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B258" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D258" s="1"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B259" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D259" s="1"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B260" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D260" s="1"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>340</v>
+        <v>722</v>
       </c>
       <c r="B261" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D261" s="1"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>341</v>
+        <v>723</v>
       </c>
       <c r="B262" t="s">
-        <v>564</v>
+        <v>724</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D262" s="1"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B263" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D263" s="1"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B264" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
       </c>
-      <c r="D264" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D264" s="1"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B265" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D265" s="1"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B266" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D266" s="1"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B267" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D267" s="1"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B268" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D268" s="1"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B269" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D269" s="1"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B270" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
       </c>
-      <c r="D270" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D270" s="1"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B271" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D271" s="1"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B272" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D272" s="1"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B273" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
       </c>
-      <c r="D273" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D273" s="1"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B274" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
       </c>
-      <c r="D274" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D274" s="1"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B275" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D275" s="1"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B276" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C276" t="s">
         <v>142</v>
       </c>
-      <c r="D276" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D276" s="1"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B277" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
       </c>
-      <c r="D277" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D277" s="1"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B278" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
       </c>
-      <c r="D278" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D278" s="1"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B279" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
       </c>
-      <c r="D279" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D279" s="1"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B280" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D280" s="1"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B281" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
       </c>
-      <c r="D281" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D281" s="1"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B282" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
       </c>
-      <c r="D282" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D282" s="1"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B283" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D283" s="1"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B284" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D284" s="1"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B285" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D285" s="1"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
@@ -6540,177 +6039,151 @@
       <c r="C286" t="s">
         <v>5</v>
       </c>
-      <c r="D286" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D286" s="1"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B287" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D287" s="1"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B288" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
       </c>
-      <c r="D288" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D288" s="1"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B289" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
       </c>
-      <c r="D289" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D289" s="1"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B290" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
       </c>
-      <c r="D290" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D290" s="1"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B291" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
       </c>
-      <c r="D291" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D291" s="1"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B292" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
       </c>
-      <c r="D292" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D292" s="1"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B293" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D293" s="1"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B294" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
       </c>
-      <c r="D294" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D294" s="1"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B295" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
       </c>
-      <c r="D295" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D295" s="1"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B296" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
       </c>
-      <c r="D296" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D296" s="1"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B297" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
       </c>
-      <c r="D297" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D297" s="1"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B298" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
       </c>
-      <c r="D298" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D298" s="1"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
@@ -6722,9 +6195,7 @@
       <c r="C299" t="s">
         <v>5</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D299" s="1"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
@@ -6736,761 +6207,772 @@
       <c r="C300" t="s">
         <v>5</v>
       </c>
-      <c r="D300" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D300" s="1"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A301" t="s">
-        <v>149</v>
+      <c r="A301" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B301" t="s">
+        <v>725</v>
       </c>
       <c r="C301" t="s">
         <v>41</v>
       </c>
-      <c r="D301" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D301" s="1"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B302" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
       </c>
-      <c r="D302" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D302" s="1"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B303" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
       </c>
-      <c r="D303" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D303" s="1"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B304" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
       </c>
-      <c r="D304" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D304" s="1"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B305" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
       </c>
-      <c r="D305" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D305" s="1"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B306" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
       </c>
-      <c r="D306" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D306" s="1"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B307" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
       </c>
-      <c r="D307" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D307" s="1"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B308" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
       </c>
-      <c r="D308" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D308" s="1"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B309" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
       </c>
-      <c r="D309" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D309" s="1"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B310" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
       </c>
-      <c r="D310" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D310" s="1"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B311" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
       </c>
-      <c r="D311" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D311" s="1"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B312" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
       </c>
-      <c r="D312" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D312" s="1"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B313" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
       </c>
-      <c r="D313" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D313" s="1"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B314" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
       </c>
-      <c r="D314" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D314" s="1"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B315" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
       </c>
-      <c r="D315" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D315" s="1"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B316" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
       </c>
-      <c r="D316" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D316" s="1"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B317" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
       </c>
-      <c r="D317" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D317" s="1"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B318" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
       </c>
-      <c r="D318" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D318" s="1"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B319" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
       </c>
-      <c r="D319" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D319" s="1"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B320" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
       </c>
-      <c r="D320" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D320" s="1"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B321" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
       </c>
-      <c r="D321" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D321" s="1"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B322" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
       </c>
-      <c r="D322" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D322" s="1"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B323" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
       </c>
-      <c r="D323" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D323" s="1"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B324" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
       </c>
-      <c r="D324" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D324" s="1"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B325" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
       </c>
-      <c r="D325" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D325" s="1"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B326" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C326" t="s">
-        <v>650</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>709</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="D326" s="1"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B327" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
       </c>
-      <c r="D327" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D327" s="1"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B328" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
       </c>
-      <c r="D328" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D328" s="1"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B329" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
       </c>
-      <c r="D329" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D329" s="1"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B330" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
       </c>
-      <c r="D330" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D330" s="1"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B331" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
       </c>
-      <c r="D331" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D331" s="1"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
       </c>
-      <c r="D332" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D332" s="1"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B333" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
       </c>
-      <c r="D333" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D333" s="1"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B334" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D334" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D334" s="1"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B335" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D335" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D335" s="1"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B336" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D336" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D336" s="1"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B337" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D337" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D337" s="1"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B338" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D338" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D338" s="1"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B339" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D339" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D339" s="1"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B340" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D340" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D340" s="1"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B341" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D341" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D341" s="1"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B342" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D342" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D342" s="1"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B343" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D343" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D343" s="1"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B344" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D344" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D344" s="1"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B345" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D345" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D345" s="1"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B346" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D346" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D346" s="1"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B347" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D347" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D347" s="1"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B348" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D348" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D348" s="1"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B349" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D349" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D349" s="1"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B350" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D350" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D350" s="1"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B351" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D351" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D351" s="1"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B352" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D352" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D352" s="1"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B353" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D353" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="D353" s="1"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
+        <v>702</v>
+      </c>
+      <c r="B354" t="s">
+        <v>703</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D354" s="1"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A355" t="s">
+        <v>704</v>
+      </c>
+      <c r="B355" t="s">
         <v>705</v>
       </c>
-      <c r="B354" t="s">
+      <c r="C355" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A356" t="s">
         <v>706</v>
       </c>
-      <c r="C354" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D354" s="1" t="s">
+      <c r="B356" t="s">
+        <v>707</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A357" t="s">
+        <v>708</v>
+      </c>
+      <c r="B357" t="s">
         <v>709</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A358" t="s">
+        <v>710</v>
+      </c>
+      <c r="B358" t="s">
+        <v>711</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A359" t="s">
+        <v>712</v>
+      </c>
+      <c r="B359" t="s">
+        <v>713</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A360" t="s">
+        <v>714</v>
+      </c>
+      <c r="B360" t="s">
+        <v>715</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A361" t="s">
+        <v>716</v>
+      </c>
+      <c r="B361" t="s">
+        <v>717</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A362" t="s">
+        <v>718</v>
+      </c>
+      <c r="B362" t="s">
+        <v>719</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A363" t="s">
+        <v>720</v>
+      </c>
+      <c r="B363" t="s">
+        <v>721</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A364" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B364" t="s">
+        <v>726</v>
+      </c>
+      <c r="C364" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A365" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B365" t="s">
+        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="744">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2239,6 +2239,42 @@
   </si>
   <si>
     <t>The Demi-Gods and Semi-Devils</t>
+  </si>
+  <si>
+    <t>The Falls</t>
+  </si>
+  <si>
+    <t>tt2306783</t>
+  </si>
+  <si>
+    <t>tt3169740</t>
+  </si>
+  <si>
+    <t>The Falls Testament of Love</t>
+  </si>
+  <si>
+    <t>Silver Linings Playbook</t>
+  </si>
+  <si>
+    <t>tt1045658</t>
+  </si>
+  <si>
+    <t>Side Effects</t>
+  </si>
+  <si>
+    <t>tt2053463</t>
+  </si>
+  <si>
+    <t>Paper Towns</t>
+  </si>
+  <si>
+    <t>tt3622592</t>
+  </si>
+  <si>
+    <t>Dirty Grandpa</t>
+  </si>
+  <si>
+    <t>tt1860213</t>
   </si>
 </sst>
 </file>
@@ -2602,10 +2638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D365"/>
+  <dimension ref="A1:D371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="A301" sqref="A301"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="C370" sqref="C370:C371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6974,6 +7010,75 @@
       <c r="B365" t="s">
         <v>730</v>
       </c>
+      <c r="C365" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A366" t="s">
+        <v>732</v>
+      </c>
+      <c r="B366" t="s">
+        <v>733</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A367" t="s">
+        <v>735</v>
+      </c>
+      <c r="B367" t="s">
+        <v>734</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A368" t="s">
+        <v>736</v>
+      </c>
+      <c r="B368" t="s">
+        <v>737</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A369" t="s">
+        <v>738</v>
+      </c>
+      <c r="B369" t="s">
+        <v>739</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A370" t="s">
+        <v>740</v>
+      </c>
+      <c r="B370" t="s">
+        <v>741</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A371" t="s">
+        <v>742</v>
+      </c>
+      <c r="B371" t="s">
+        <v>743</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="764">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2275,6 +2275,67 @@
   </si>
   <si>
     <t>tt1860213</t>
+  </si>
+  <si>
+    <t>Redwoods</t>
+  </si>
+  <si>
+    <t>tt1252329</t>
+  </si>
+  <si>
+    <t>Pulp Fiction</t>
+  </si>
+  <si>
+    <t>tt0110912</t>
+  </si>
+  <si>
+    <t>Colonia</t>
+  </si>
+  <si>
+    <t>tt4005402</t>
+  </si>
+  <si>
+    <t>tt3902600</t>
+  </si>
+  <si>
+    <t>Doushitemo furetakunai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixed Kebab</t>
+  </si>
+  <si>
+    <t>tt1301308</t>
+  </si>
+  <si>
+    <t>Midnight Special</t>
+  </si>
+  <si>
+    <t>tt2649554</t>
+  </si>
+  <si>
+    <t>Lan Yu</t>
+  </si>
+  <si>
+    <t>tt0292066</t>
+  </si>
+  <si>
+    <t>Bajirao Mastani</t>
+  </si>
+  <si>
+    <t>tt3735246</t>
+  </si>
+  <si>
+    <t>An Early Frost</t>
+  </si>
+  <si>
+    <t>tt0089069</t>
+  </si>
+  <si>
+    <t>Bishonen</t>
+  </si>
+  <si>
+    <t>tt0168496</t>
   </si>
 </sst>
 </file>
@@ -2317,9 +2378,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2638,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D371"/>
+  <dimension ref="A1:D381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="C370" sqref="C370:C371"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="C378" sqref="C378:C381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7080,6 +7145,116 @@
         <v>5</v>
       </c>
     </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A372" t="s">
+        <v>744</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A373" t="s">
+        <v>746</v>
+      </c>
+      <c r="B373" t="s">
+        <v>747</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A374" t="s">
+        <v>748</v>
+      </c>
+      <c r="B374" t="s">
+        <v>749</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A375" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B375" t="s">
+        <v>750</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A376" t="s">
+        <v>752</v>
+      </c>
+      <c r="B376" t="s">
+        <v>753</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A377" t="s">
+        <v>754</v>
+      </c>
+      <c r="B377" t="s">
+        <v>755</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A378" t="s">
+        <v>756</v>
+      </c>
+      <c r="B378" t="s">
+        <v>757</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A379" t="s">
+        <v>758</v>
+      </c>
+      <c r="B379" t="s">
+        <v>759</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A380" t="s">
+        <v>760</v>
+      </c>
+      <c r="B380" t="s">
+        <v>761</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A381" t="s">
+        <v>762</v>
+      </c>
+      <c r="B381" t="s">
+        <v>763</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="774">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2336,6 +2336,37 @@
   </si>
   <si>
     <t>tt0168496</t>
+  </si>
+  <si>
+    <t>High-Rise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt0462335</t>
+  </si>
+  <si>
+    <t>Mustang</t>
+  </si>
+  <si>
+    <t>tt3966404</t>
+  </si>
+  <si>
+    <t>Alex &amp; Eve</t>
+  </si>
+  <si>
+    <t>tt3818286</t>
+  </si>
+  <si>
+    <t>The Emperors New Groove</t>
+  </si>
+  <si>
+    <t>tt0120917</t>
+  </si>
+  <si>
+    <t>Kronks New Groove</t>
+  </si>
+  <si>
+    <t>tt0401398</t>
   </si>
 </sst>
 </file>
@@ -2703,10 +2734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D381"/>
+  <dimension ref="A1:D386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="C378" sqref="C378:C381"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="C381" sqref="C381:C386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7255,6 +7286,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A382" t="s">
+        <v>764</v>
+      </c>
+      <c r="B382" t="s">
+        <v>765</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A383" t="s">
+        <v>766</v>
+      </c>
+      <c r="B383" t="s">
+        <v>767</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A384" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B384" t="s">
+        <v>769</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A385" t="s">
+        <v>770</v>
+      </c>
+      <c r="B385" t="s">
+        <v>771</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A386" t="s">
+        <v>772</v>
+      </c>
+      <c r="B386" t="s">
+        <v>773</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="776">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2367,6 +2367,12 @@
   </si>
   <si>
     <t>tt0401398</t>
+  </si>
+  <si>
+    <t>Sexual Tension Violetas</t>
+  </si>
+  <si>
+    <t>tt2861478</t>
   </si>
 </sst>
 </file>
@@ -2734,10 +2740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D386"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="C381" sqref="C381:C386"/>
+      <selection activeCell="C386" sqref="C386:C387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7341,6 +7347,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A387" t="s">
+        <v>774</v>
+      </c>
+      <c r="B387" t="s">
+        <v>775</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="784">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2373,6 +2373,31 @@
   </si>
   <si>
     <t>tt2861478</t>
+  </si>
+  <si>
+    <t>How to Be Single</t>
+  </si>
+  <si>
+    <t>tt1292566</t>
+  </si>
+  <si>
+    <t>The Witch</t>
+  </si>
+  <si>
+    <t>tt4263482</t>
+  </si>
+  <si>
+    <t>10 Cloverfield Lane</t>
+  </si>
+  <si>
+    <t>tt1179933</t>
+  </si>
+  <si>
+    <t>Deadpool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt1431045</t>
   </si>
 </sst>
 </file>
@@ -2415,13 +2440,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2740,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D391"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="C386" sqref="C386:C387"/>
+      <selection activeCell="B391" sqref="B391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7358,6 +7384,50 @@
         <v>5</v>
       </c>
     </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A388" t="s">
+        <v>776</v>
+      </c>
+      <c r="B388" t="s">
+        <v>777</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A389" t="s">
+        <v>778</v>
+      </c>
+      <c r="B389" t="s">
+        <v>779</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A390" t="s">
+        <v>780</v>
+      </c>
+      <c r="B390" t="s">
+        <v>781</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A391" t="s">
+        <v>782</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="788">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2398,6 +2398,18 @@
   </si>
   <si>
     <t>tt1431045</t>
+  </si>
+  <si>
+    <t>The Mist</t>
+  </si>
+  <si>
+    <t>tt0884328</t>
+  </si>
+  <si>
+    <t>One Flew Over The Cuckoos Nest</t>
+  </si>
+  <si>
+    <t>tt0073486</t>
   </si>
 </sst>
 </file>
@@ -2766,10 +2778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D393"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="B391" sqref="B391"/>
+      <selection activeCell="C392" sqref="C392:C393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7428,6 +7440,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A392" t="s">
+        <v>784</v>
+      </c>
+      <c r="B392" t="s">
+        <v>785</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A393" t="s">
+        <v>786</v>
+      </c>
+      <c r="B393" t="s">
+        <v>787</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="792">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2410,6 +2410,19 @@
   </si>
   <si>
     <t>tt0073486</t>
+  </si>
+  <si>
+    <t>Never Back Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt1023111</t>
+  </si>
+  <si>
+    <t>Gods of Egypt</t>
+  </si>
+  <si>
+    <t>tt2404233</t>
   </si>
 </sst>
 </file>
@@ -2778,10 +2791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D393"/>
+  <dimension ref="A1:D395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="C392" sqref="C392:C393"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="C394" sqref="C394:C395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7462,6 +7475,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A394" t="s">
+        <v>788</v>
+      </c>
+      <c r="B394" t="s">
+        <v>789</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A395" t="s">
+        <v>790</v>
+      </c>
+      <c r="B395" t="s">
+        <v>791</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="796">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2423,6 +2423,18 @@
   </si>
   <si>
     <t>tt2404233</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
+    <t>tt2948356</t>
+  </si>
+  <si>
+    <t>Eddie The Eagle</t>
+  </si>
+  <si>
+    <t>tt1083452</t>
   </si>
 </sst>
 </file>
@@ -2791,10 +2803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D395"/>
+  <dimension ref="A1:D397"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="C394" sqref="C394:C395"/>
+      <selection activeCell="C395" sqref="C395:C397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7497,6 +7509,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A396" t="s">
+        <v>792</v>
+      </c>
+      <c r="B396" t="s">
+        <v>793</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A397" t="s">
+        <v>794</v>
+      </c>
+      <c r="B397" t="s">
+        <v>795</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="799">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2435,6 +2435,16 @@
   </si>
   <si>
     <t>tt1083452</t>
+  </si>
+  <si>
+    <t>The Brothers Grimsby</t>
+  </si>
+  <si>
+    <t>tt3381008</t>
+  </si>
+  <si>
+    <t>TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2803,10 +2813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D397"/>
+  <dimension ref="A1:D398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="C395" sqref="C395:C397"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4957,7 +4967,7 @@
         <v>480</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>798</v>
       </c>
       <c r="D179" s="1"/>
     </row>
@@ -7528,6 +7538,17 @@
         <v>795</v>
       </c>
       <c r="C397" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A398" t="s">
+        <v>796</v>
+      </c>
+      <c r="B398" t="s">
+        <v>797</v>
+      </c>
+      <c r="C398" s="5" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="803">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2445,6 +2445,18 @@
   <si>
     <t>TV</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial Intelligence AI</t>
+  </si>
+  <si>
+    <t>tt0212720</t>
+  </si>
+  <si>
+    <t>The Mermaid</t>
+  </si>
+  <si>
+    <t>tt4701660</t>
   </si>
 </sst>
 </file>
@@ -2813,10 +2825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D398"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="C398" sqref="C398:C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7552,6 +7564,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A399" t="s">
+        <v>799</v>
+      </c>
+      <c r="B399" t="s">
+        <v>800</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A400" t="s">
+        <v>801</v>
+      </c>
+      <c r="B400" t="s">
+        <v>802</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="808">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2457,6 +2457,22 @@
   </si>
   <si>
     <t>tt4701660</t>
+  </si>
+  <si>
+    <t>Queer as Folk </t>
+  </si>
+  <si>
+    <t>Looking</t>
+  </si>
+  <si>
+    <t>tt2581458</t>
+  </si>
+  <si>
+    <t>tt0262985</t>
+  </si>
+  <si>
+    <t>TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2825,10 +2841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D400"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="C398" sqref="C398:C400"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="C401" sqref="C401:C402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7586,6 +7602,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A401" t="s">
+        <v>803</v>
+      </c>
+      <c r="B401" t="s">
+        <v>806</v>
+      </c>
+      <c r="C401" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A402" t="s">
+        <v>804</v>
+      </c>
+      <c r="B402" t="s">
+        <v>805</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="812">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2473,6 +2473,18 @@
   <si>
     <t>TV</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miracles from Heaven</t>
+  </si>
+  <si>
+    <t>tt4257926</t>
+  </si>
+  <si>
+    <t>The Huntsman Winters War</t>
+  </si>
+  <si>
+    <t>tt2381991</t>
   </si>
 </sst>
 </file>
@@ -2841,10 +2853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D402"/>
+  <dimension ref="A1:D404"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="C401" sqref="C401:C402"/>
+      <selection activeCell="C404" sqref="C404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7624,6 +7636,28 @@
         <v>807</v>
       </c>
     </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A403" t="s">
+        <v>808</v>
+      </c>
+      <c r="B403" t="s">
+        <v>809</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A404" t="s">
+        <v>810</v>
+      </c>
+      <c r="B404" t="s">
+        <v>811</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="816">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2485,6 +2485,18 @@
   </si>
   <si>
     <t>tt2381991</t>
+  </si>
+  <si>
+    <t>Hardcore Henry</t>
+  </si>
+  <si>
+    <t>tt3072482</t>
+  </si>
+  <si>
+    <t>The Giver</t>
+  </si>
+  <si>
+    <t>tt0435651</t>
   </si>
 </sst>
 </file>
@@ -2853,10 +2865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D404"/>
+  <dimension ref="A1:D406"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="C404" sqref="C404"/>
+      <selection activeCell="C404" sqref="C404:C406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7658,6 +7670,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A405" t="s">
+        <v>812</v>
+      </c>
+      <c r="B405" t="s">
+        <v>813</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A406" t="s">
+        <v>814</v>
+      </c>
+      <c r="B406" t="s">
+        <v>815</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="820">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2497,6 +2497,18 @@
   </si>
   <si>
     <t>tt0435651</t>
+  </si>
+  <si>
+    <t>Batman v Superman: Dawn of Justice</t>
+  </si>
+  <si>
+    <t>tt2975590</t>
+  </si>
+  <si>
+    <t>The Angry Birds Movie</t>
+  </si>
+  <si>
+    <t>tt1985949</t>
   </si>
 </sst>
 </file>
@@ -2865,10 +2877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D406"/>
+  <dimension ref="A1:D408"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="C404" sqref="C404:C406"/>
+      <selection activeCell="C406" sqref="C406:C408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7692,6 +7704,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A407" t="s">
+        <v>816</v>
+      </c>
+      <c r="B407" t="s">
+        <v>817</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A408" t="s">
+        <v>818</v>
+      </c>
+      <c r="B408" t="s">
+        <v>819</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="824">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2509,6 +2509,18 @@
   </si>
   <si>
     <t>tt1985949</t>
+  </si>
+  <si>
+    <t>Demolition</t>
+  </si>
+  <si>
+    <t>The Trip</t>
+  </si>
+  <si>
+    <t>tt1172049</t>
+  </si>
+  <si>
+    <t>tt0250067</t>
   </si>
 </sst>
 </file>
@@ -2551,13 +2563,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -2877,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D408"/>
+  <dimension ref="A1:D410"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="C406" sqref="C406:C408"/>
+      <selection activeCell="C408" sqref="C408:C410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7726,6 +7739,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A409" t="s">
+        <v>820</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="C409" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A410" t="s">
+        <v>821</v>
+      </c>
+      <c r="B410" t="s">
+        <v>823</v>
+      </c>
+      <c r="C410" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="830">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2521,6 +2521,24 @@
   </si>
   <si>
     <t>tt0250067</t>
+  </si>
+  <si>
+    <t>I Robot</t>
+  </si>
+  <si>
+    <t>tt0343818</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>tt0803096</t>
+  </si>
+  <si>
+    <t>The Jungle Book</t>
+  </si>
+  <si>
+    <t>tt3040964</t>
   </si>
 </sst>
 </file>
@@ -2890,10 +2908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D410"/>
+  <dimension ref="A1:D413"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="C408" sqref="C408:C410"/>
+      <selection activeCell="C412" sqref="C412:C413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7761,6 +7779,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A411" t="s">
+        <v>824</v>
+      </c>
+      <c r="B411" t="s">
+        <v>825</v>
+      </c>
+      <c r="C411" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A412" t="s">
+        <v>826</v>
+      </c>
+      <c r="B412" t="s">
+        <v>827</v>
+      </c>
+      <c r="C412" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A413" t="s">
+        <v>828</v>
+      </c>
+      <c r="B413" t="s">
+        <v>829</v>
+      </c>
+      <c r="C413" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="834">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2539,6 +2539,19 @@
   </si>
   <si>
     <t>tt3040964</t>
+  </si>
+  <si>
+    <t>Neighbors 2 Sorority Rising</t>
+  </si>
+  <si>
+    <t>tt4438848</t>
+  </si>
+  <si>
+    <t>X-Men Apocalypse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt3385516</t>
   </si>
 </sst>
 </file>
@@ -2908,10 +2921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D413"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="C412" sqref="C412:C413"/>
+      <selection activeCell="C414" sqref="C414:C415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7812,6 +7825,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A414" t="s">
+        <v>830</v>
+      </c>
+      <c r="B414" t="s">
+        <v>831</v>
+      </c>
+      <c r="C414" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A415" t="s">
+        <v>832</v>
+      </c>
+      <c r="B415" t="s">
+        <v>833</v>
+      </c>
+      <c r="C415" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="838">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2552,6 +2552,18 @@
   </si>
   <si>
     <t>tt3385516</t>
+  </si>
+  <si>
+    <t>Now You See Me 2</t>
+  </si>
+  <si>
+    <t>tt3110958</t>
+  </si>
+  <si>
+    <t>Sundown</t>
+  </si>
+  <si>
+    <t>tt2381213</t>
   </si>
 </sst>
 </file>
@@ -2594,13 +2606,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2921,10 +2934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D415"/>
+  <dimension ref="A1:D417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="C414" sqref="C414:C415"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="C415" sqref="C415:C417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7847,6 +7860,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A416" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B416" t="s">
+        <v>835</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A417" t="s">
+        <v>836</v>
+      </c>
+      <c r="B417" t="s">
+        <v>837</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="853">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2564,6 +2564,52 @@
   </si>
   <si>
     <t>tt2381213</t>
+  </si>
+  <si>
+    <t>Wiener Dog</t>
+  </si>
+  <si>
+    <t>tt4144190</t>
+  </si>
+  <si>
+    <t>The Conjuring 2</t>
+  </si>
+  <si>
+    <t>tt3065204</t>
+  </si>
+  <si>
+    <t>The Neon Demon</t>
+  </si>
+  <si>
+    <t>tt1974419</t>
+  </si>
+  <si>
+    <t>Maximum Ride</t>
+  </si>
+  <si>
+    <t>tt0825283</t>
+  </si>
+  <si>
+    <t>Teenage Mutant Ninja Turtles Out of the Shadows</t>
+  </si>
+  <si>
+    <t>tt3949660</t>
+  </si>
+  <si>
+    <t>Captain America Civil War</t>
+  </si>
+  <si>
+    <t>tt3498820</t>
+  </si>
+  <si>
+    <t>tt5595168</t>
+  </si>
+  <si>
+    <t>Movie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kingsglaive: Final Fantasy XV</t>
   </si>
 </sst>
 </file>
@@ -2606,13 +2652,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2934,10 +2981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D417"/>
+  <dimension ref="A1:D424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="C415" sqref="C415:C417"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="A424" sqref="A424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7882,6 +7929,83 @@
         <v>5</v>
       </c>
     </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A418" t="s">
+        <v>838</v>
+      </c>
+      <c r="B418" t="s">
+        <v>839</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A419" t="s">
+        <v>840</v>
+      </c>
+      <c r="B419" t="s">
+        <v>841</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A420" t="s">
+        <v>842</v>
+      </c>
+      <c r="B420" t="s">
+        <v>843</v>
+      </c>
+      <c r="C420" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A421" t="s">
+        <v>844</v>
+      </c>
+      <c r="B421" t="s">
+        <v>845</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A422" t="s">
+        <v>846</v>
+      </c>
+      <c r="B422" t="s">
+        <v>847</v>
+      </c>
+      <c r="C422" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A423" t="s">
+        <v>848</v>
+      </c>
+      <c r="B423" t="s">
+        <v>849</v>
+      </c>
+      <c r="C423" s="8" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A424" t="s">
+        <v>852</v>
+      </c>
+      <c r="B424" t="s">
+        <v>850</v>
+      </c>
+      <c r="C424" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="875">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2610,6 +2610,73 @@
   </si>
   <si>
     <t>Kingsglaive: Final Fantasy XV</t>
+  </si>
+  <si>
+    <t>The Legend of Tarzan</t>
+  </si>
+  <si>
+    <t>tt0918940</t>
+  </si>
+  <si>
+    <t>Kill Your Darlings</t>
+  </si>
+  <si>
+    <t>tt1311071</t>
+  </si>
+  <si>
+    <t>The Shallows</t>
+  </si>
+  <si>
+    <t>tt4052882</t>
+  </si>
+  <si>
+    <t>Mike and Dave Need Wedding Dates</t>
+  </si>
+  <si>
+    <t>tt2823054</t>
+  </si>
+  <si>
+    <t>Battle Los Angeles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt1217613</t>
+  </si>
+  <si>
+    <t>Alice Through the Looking Glass</t>
+  </si>
+  <si>
+    <t>tt2567026</t>
+  </si>
+  <si>
+    <t>Ghostbusters</t>
+  </si>
+  <si>
+    <t>tt1289401</t>
+  </si>
+  <si>
+    <t>Independence Day Resurgence</t>
+  </si>
+  <si>
+    <t>tt1628841</t>
+  </si>
+  <si>
+    <t>Swiss Army Man</t>
+  </si>
+  <si>
+    <t>tt4034354</t>
+  </si>
+  <si>
+    <t>Hunt for the Wilderpeople</t>
+  </si>
+  <si>
+    <t>tt4698684</t>
+  </si>
+  <si>
+    <t>Farewell My Concubine</t>
+  </si>
+  <si>
+    <t>tt0106332</t>
   </si>
 </sst>
 </file>
@@ -2652,13 +2719,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2981,10 +3050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D424"/>
+  <dimension ref="A1:D435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="C433" sqref="C433:C435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8006,6 +8075,127 @@
         <v>5</v>
       </c>
     </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A425" t="s">
+        <v>853</v>
+      </c>
+      <c r="B425" t="s">
+        <v>854</v>
+      </c>
+      <c r="C425" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A426" t="s">
+        <v>855</v>
+      </c>
+      <c r="B426" t="s">
+        <v>856</v>
+      </c>
+      <c r="C426" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A427" t="s">
+        <v>857</v>
+      </c>
+      <c r="B427" t="s">
+        <v>858</v>
+      </c>
+      <c r="C427" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A428" t="s">
+        <v>859</v>
+      </c>
+      <c r="B428" t="s">
+        <v>860</v>
+      </c>
+      <c r="C428" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A429" t="s">
+        <v>861</v>
+      </c>
+      <c r="B429" t="s">
+        <v>862</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A430" t="s">
+        <v>863</v>
+      </c>
+      <c r="B430" t="s">
+        <v>864</v>
+      </c>
+      <c r="C430" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A431" t="s">
+        <v>865</v>
+      </c>
+      <c r="B431" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="C431" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A432" t="s">
+        <v>867</v>
+      </c>
+      <c r="B432" t="s">
+        <v>868</v>
+      </c>
+      <c r="C432" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A433" t="s">
+        <v>869</v>
+      </c>
+      <c r="B433" t="s">
+        <v>870</v>
+      </c>
+      <c r="C433" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A434" t="s">
+        <v>871</v>
+      </c>
+      <c r="B434" t="s">
+        <v>872</v>
+      </c>
+      <c r="C434" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A435" t="s">
+        <v>873</v>
+      </c>
+      <c r="B435" t="s">
+        <v>874</v>
+      </c>
+      <c r="C435" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="887">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2677,6 +2677,43 @@
   </si>
   <si>
     <t>tt0106332</t>
+  </si>
+  <si>
+    <t>Ice Age: Collision Course</t>
+  </si>
+  <si>
+    <t>tt3416828</t>
+  </si>
+  <si>
+    <t>Star Trek Beyond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt2660888</t>
+  </si>
+  <si>
+    <t>Hum Aapke Hain Koun...!</t>
+  </si>
+  <si>
+    <t>tt0110076</t>
+  </si>
+  <si>
+    <t>Silip Daughters Of Eve</t>
+  </si>
+  <si>
+    <t>tt0292236</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>tt4437216</t>
+  </si>
+  <si>
+    <t>London Town</t>
+  </si>
+  <si>
+    <t>tt1724597</t>
   </si>
 </sst>
 </file>
@@ -3050,10 +3087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D435"/>
+  <dimension ref="A1:D441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="C433" sqref="C433:C435"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="C440" sqref="C440:C441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8196,6 +8233,72 @@
         <v>5</v>
       </c>
     </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A436" t="s">
+        <v>875</v>
+      </c>
+      <c r="B436" t="s">
+        <v>876</v>
+      </c>
+      <c r="C436" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A437" t="s">
+        <v>877</v>
+      </c>
+      <c r="B437" t="s">
+        <v>878</v>
+      </c>
+      <c r="C437" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A438" t="s">
+        <v>879</v>
+      </c>
+      <c r="B438" t="s">
+        <v>880</v>
+      </c>
+      <c r="C438" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A439" t="s">
+        <v>881</v>
+      </c>
+      <c r="B439" t="s">
+        <v>882</v>
+      </c>
+      <c r="C439" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A440" t="s">
+        <v>883</v>
+      </c>
+      <c r="B440" t="s">
+        <v>884</v>
+      </c>
+      <c r="C440" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A441" t="s">
+        <v>885</v>
+      </c>
+      <c r="B441" t="s">
+        <v>886</v>
+      </c>
+      <c r="C441" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="893">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2714,6 +2714,24 @@
   </si>
   <si>
     <t>tt1724597</t>
+  </si>
+  <si>
+    <t>Captain Fantastic</t>
+  </si>
+  <si>
+    <t>tt3553976</t>
+  </si>
+  <si>
+    <t>tt1104083</t>
+  </si>
+  <si>
+    <t>Minority Report</t>
+  </si>
+  <si>
+    <t>tt0181689</t>
+  </si>
+  <si>
+    <t>Little Ashes</t>
   </si>
 </sst>
 </file>
@@ -3087,10 +3105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D441"/>
+  <dimension ref="A1:D444"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="C440" sqref="C440:C441"/>
+      <selection activeCell="C443" sqref="C443:C444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8299,6 +8317,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A442" t="s">
+        <v>887</v>
+      </c>
+      <c r="B442" t="s">
+        <v>888</v>
+      </c>
+      <c r="C442" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A443" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="B443" t="s">
+        <v>889</v>
+      </c>
+      <c r="C443" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A444" t="s">
+        <v>890</v>
+      </c>
+      <c r="B444" t="s">
+        <v>891</v>
+      </c>
+      <c r="C444" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="901">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2732,6 +2732,31 @@
   </si>
   <si>
     <t>Little Ashes</t>
+  </si>
+  <si>
+    <t>King Cobra</t>
+  </si>
+  <si>
+    <t>tt5129682</t>
+  </si>
+  <si>
+    <t>Finding Dory</t>
+  </si>
+  <si>
+    <t>tt2277860</t>
+  </si>
+  <si>
+    <t>The BFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt3691740</t>
+  </si>
+  <si>
+    <t>Nine Lives</t>
+  </si>
+  <si>
+    <t>tt4383594</t>
   </si>
 </sst>
 </file>
@@ -3105,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D444"/>
+  <dimension ref="A1:D448"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="C443" sqref="C443:C444"/>
+      <selection activeCell="C445" sqref="C445:C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8350,6 +8375,50 @@
         <v>5</v>
       </c>
     </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A445" t="s">
+        <v>893</v>
+      </c>
+      <c r="B445" t="s">
+        <v>894</v>
+      </c>
+      <c r="C445" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A446" t="s">
+        <v>895</v>
+      </c>
+      <c r="B446" t="s">
+        <v>896</v>
+      </c>
+      <c r="C446" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A447" t="s">
+        <v>897</v>
+      </c>
+      <c r="B447" t="s">
+        <v>898</v>
+      </c>
+      <c r="C447" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A448" t="s">
+        <v>899</v>
+      </c>
+      <c r="B448" t="s">
+        <v>900</v>
+      </c>
+      <c r="C448" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="911">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2757,6 +2757,38 @@
   </si>
   <si>
     <t>tt4383594</t>
+  </si>
+  <si>
+    <t>Kubo and the Two Strings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt4302938</t>
+  </si>
+  <si>
+    <t>Suicide Squad</t>
+  </si>
+  <si>
+    <t>tt1386697</t>
+  </si>
+  <si>
+    <t>Pete's Dragon</t>
+  </si>
+  <si>
+    <t>tt2788732</t>
+  </si>
+  <si>
+    <t>Officer Downe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt4439102</t>
+  </si>
+  <si>
+    <t>Dont Think Twice</t>
+  </si>
+  <si>
+    <t>tt4972062</t>
   </si>
 </sst>
 </file>
@@ -3130,10 +3162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D448"/>
+  <dimension ref="A1:D453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="C445" sqref="C445:C448"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="C448" sqref="C448:C453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8419,6 +8451,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A449" t="s">
+        <v>901</v>
+      </c>
+      <c r="B449" t="s">
+        <v>902</v>
+      </c>
+      <c r="C449" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A450" t="s">
+        <v>903</v>
+      </c>
+      <c r="B450" t="s">
+        <v>904</v>
+      </c>
+      <c r="C450" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A451" t="s">
+        <v>905</v>
+      </c>
+      <c r="B451" t="s">
+        <v>906</v>
+      </c>
+      <c r="C451" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A452" t="s">
+        <v>907</v>
+      </c>
+      <c r="B452" t="s">
+        <v>908</v>
+      </c>
+      <c r="C452" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A453" t="s">
+        <v>909</v>
+      </c>
+      <c r="B453" t="s">
+        <v>910</v>
+      </c>
+      <c r="C453" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="921">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2789,6 +2789,36 @@
   </si>
   <si>
     <t>tt4972062</t>
+  </si>
+  <si>
+    <t>Miss Peregrines Home for Peculiar Children</t>
+  </si>
+  <si>
+    <t>tt1935859</t>
+  </si>
+  <si>
+    <t>Storks</t>
+  </si>
+  <si>
+    <t>tt4624424</t>
+  </si>
+  <si>
+    <t>The Magnificent Seven</t>
+  </si>
+  <si>
+    <t>tt2404435</t>
+  </si>
+  <si>
+    <t>Max Steel</t>
+  </si>
+  <si>
+    <t>tt1472584</t>
+  </si>
+  <si>
+    <t>Spectral</t>
+  </si>
+  <si>
+    <t>tt2106651</t>
   </si>
 </sst>
 </file>
@@ -3162,10 +3192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D453"/>
+  <dimension ref="A1:D458"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="C448" sqref="C448:C453"/>
+      <selection activeCell="C453" sqref="C453:C458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8506,6 +8536,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A454" t="s">
+        <v>911</v>
+      </c>
+      <c r="B454" t="s">
+        <v>912</v>
+      </c>
+      <c r="C454" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A455" t="s">
+        <v>913</v>
+      </c>
+      <c r="B455" t="s">
+        <v>914</v>
+      </c>
+      <c r="C455" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A456" t="s">
+        <v>915</v>
+      </c>
+      <c r="B456" t="s">
+        <v>916</v>
+      </c>
+      <c r="C456" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A457" t="s">
+        <v>917</v>
+      </c>
+      <c r="B457" t="s">
+        <v>918</v>
+      </c>
+      <c r="C457" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A458" t="s">
+        <v>919</v>
+      </c>
+      <c r="B458" t="s">
+        <v>920</v>
+      </c>
+      <c r="C458" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="931">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2819,6 +2819,38 @@
   </si>
   <si>
     <t>tt2106651</t>
+  </si>
+  <si>
+    <t>Green is Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt5143704</t>
+  </si>
+  <si>
+    <t>tt0472033</t>
+  </si>
+  <si>
+    <t>The Day The Earth Stood Still</t>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt0970416</t>
+  </si>
+  <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <t>tt3062096</t>
+  </si>
+  <si>
+    <t>The Great Wall</t>
+  </si>
+  <si>
+    <t>tt2034800</t>
   </si>
 </sst>
 </file>
@@ -2861,7 +2893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2875,6 +2907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3192,10 +3225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D458"/>
+  <dimension ref="A1:D463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="C453" sqref="C453:C458"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="C458" sqref="C458:C463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8591,6 +8624,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A459" t="s">
+        <v>921</v>
+      </c>
+      <c r="B459" t="s">
+        <v>922</v>
+      </c>
+      <c r="C459" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A460" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="B460" t="s">
+        <v>923</v>
+      </c>
+      <c r="C460" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A461" t="s">
+        <v>924</v>
+      </c>
+      <c r="B461" t="s">
+        <v>926</v>
+      </c>
+      <c r="C461" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A462" t="s">
+        <v>927</v>
+      </c>
+      <c r="B462" t="s">
+        <v>928</v>
+      </c>
+      <c r="C462" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A463" t="s">
+        <v>929</v>
+      </c>
+      <c r="B463" t="s">
+        <v>930</v>
+      </c>
+      <c r="C463" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="937">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2851,6 +2851,26 @@
   </si>
   <si>
     <t>tt2034800</t>
+  </si>
+  <si>
+    <t>Hidden Figures</t>
+  </si>
+  <si>
+    <t>tt4846340</t>
+  </si>
+  <si>
+    <t>tt5074352</t>
+  </si>
+  <si>
+    <t>Dangal </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hickey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt2122355</t>
   </si>
 </sst>
 </file>
@@ -3225,10 +3245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D463"/>
+  <dimension ref="A1:D466"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="C458" sqref="C458:C463"/>
+      <selection activeCell="C463" sqref="C463:C466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8679,6 +8699,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A464" t="s">
+        <v>931</v>
+      </c>
+      <c r="B464" t="s">
+        <v>932</v>
+      </c>
+      <c r="C464" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A465" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="B465" t="s">
+        <v>933</v>
+      </c>
+      <c r="C465" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A466" t="s">
+        <v>935</v>
+      </c>
+      <c r="B466" t="s">
+        <v>936</v>
+      </c>
+      <c r="C466" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="949">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2871,6 +2871,44 @@
   </si>
   <si>
     <t>tt2122355</t>
+  </si>
+  <si>
+    <t>tt3783958</t>
+  </si>
+  <si>
+    <t>La La Land</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad Kids of Crestview Academy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt3349578</t>
+  </si>
+  <si>
+    <t>A Monster Calls</t>
+  </si>
+  <si>
+    <t>tt3416532</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Fantastic Beasts and Where to Find Them</t>
+  </si>
+  <si>
+    <t>tt3183660</t>
+  </si>
+  <si>
+    <t>tt2543164</t>
+  </si>
+  <si>
+    <t>A Street Cat Named Bob</t>
+  </si>
+  <si>
+    <t>tt3606888</t>
   </si>
 </sst>
 </file>
@@ -3245,10 +3283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D466"/>
+  <dimension ref="A1:D472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="C463" sqref="C463:C466"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="C466" sqref="C466:C472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8732,6 +8770,72 @@
         <v>5</v>
       </c>
     </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A467" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="B467" t="s">
+        <v>937</v>
+      </c>
+      <c r="C467" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A468" t="s">
+        <v>939</v>
+      </c>
+      <c r="B468" t="s">
+        <v>940</v>
+      </c>
+      <c r="C468" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A469" t="s">
+        <v>941</v>
+      </c>
+      <c r="B469" t="s">
+        <v>942</v>
+      </c>
+      <c r="C469" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A470" t="s">
+        <v>943</v>
+      </c>
+      <c r="B470" t="s">
+        <v>946</v>
+      </c>
+      <c r="C470" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A471" t="s">
+        <v>944</v>
+      </c>
+      <c r="B471" t="s">
+        <v>945</v>
+      </c>
+      <c r="C471" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A472" t="s">
+        <v>947</v>
+      </c>
+      <c r="B472" t="s">
+        <v>948</v>
+      </c>
+      <c r="C472" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="959">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2095,7 +2095,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2910,22 +2910,52 @@
   <si>
     <t>tt3606888</t>
   </si>
+  <si>
+    <t>tt1302559</t>
+  </si>
+  <si>
+    <t>The String</t>
+  </si>
+  <si>
+    <t>tt2924590</t>
+  </si>
+  <si>
+    <t>Snails in the Rain </t>
+  </si>
+  <si>
+    <t>Lion </t>
+  </si>
+  <si>
+    <t>tt3741834</t>
+  </si>
+  <si>
+    <t>iBoy </t>
+  </si>
+  <si>
+    <t>tt3171832</t>
+  </si>
+  <si>
+    <t>Antique</t>
+  </si>
+  <si>
+    <t>tt1205551</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3283,21 +3313,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D472"/>
+  <dimension ref="A1:D477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="C466" sqref="C466:C472"/>
+    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
+      <selection activeCell="C472" sqref="C472:C477"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.5" customWidth="1"/>
+    <col min="1" max="1" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3311,7 +3341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3322,7 +3352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3333,7 +3363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3345,7 +3375,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3357,7 +3387,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3369,7 +3399,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3381,7 +3411,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3393,7 +3423,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3405,7 +3435,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3417,7 +3447,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3429,7 +3459,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -3441,7 +3471,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3453,7 +3483,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3465,7 +3495,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -3477,7 +3507,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3489,7 +3519,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -3501,7 +3531,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -3513,7 +3543,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3524,7 +3554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -3536,7 +3566,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -3548,7 +3578,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -3560,7 +3590,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -3572,7 +3602,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -3584,7 +3614,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -3596,7 +3626,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -3608,7 +3638,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -3620,7 +3650,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -3632,7 +3662,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -3644,7 +3674,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -3656,7 +3686,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -3668,7 +3698,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -3680,7 +3710,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -3692,7 +3722,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -3704,7 +3734,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -3716,7 +3746,7 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -3728,7 +3758,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -3740,7 +3770,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -3752,7 +3782,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -3764,7 +3794,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -3776,7 +3806,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -3788,7 +3818,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -3800,7 +3830,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -3812,7 +3842,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -3824,7 +3854,7 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -3836,7 +3866,7 @@
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -3848,7 +3878,7 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -3860,7 +3890,7 @@
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -3872,7 +3902,7 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -3884,7 +3914,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -3896,7 +3926,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -3908,7 +3938,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -3920,7 +3950,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -3932,7 +3962,7 @@
       </c>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -3944,7 +3974,7 @@
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -3956,7 +3986,7 @@
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -3968,7 +3998,7 @@
       </c>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -3980,7 +4010,7 @@
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -3992,7 +4022,7 @@
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -4004,7 +4034,7 @@
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -4016,7 +4046,7 @@
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -4028,7 +4058,7 @@
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -4040,7 +4070,7 @@
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>115</v>
       </c>
@@ -4052,7 +4082,7 @@
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -4064,7 +4094,7 @@
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -4076,7 +4106,7 @@
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -4088,7 +4118,7 @@
       </c>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>119</v>
       </c>
@@ -4100,7 +4130,7 @@
       </c>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -4112,7 +4142,7 @@
       </c>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -4124,7 +4154,7 @@
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -4136,7 +4166,7 @@
       </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -4148,7 +4178,7 @@
       </c>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -4160,7 +4190,7 @@
       </c>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -4172,7 +4202,7 @@
       </c>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -4184,7 +4214,7 @@
       </c>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>154</v>
       </c>
@@ -4196,7 +4226,7 @@
       </c>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -4208,7 +4238,7 @@
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>156</v>
       </c>
@@ -4220,7 +4250,7 @@
       </c>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>157</v>
       </c>
@@ -4232,7 +4262,7 @@
       </c>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -4244,7 +4274,7 @@
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -4256,7 +4286,7 @@
       </c>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -4268,7 +4298,7 @@
       </c>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -4280,7 +4310,7 @@
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -4292,7 +4322,7 @@
       </c>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -4304,7 +4334,7 @@
       </c>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>164</v>
       </c>
@@ -4316,7 +4346,7 @@
       </c>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>165</v>
       </c>
@@ -4328,7 +4358,7 @@
       </c>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>166</v>
       </c>
@@ -4340,7 +4370,7 @@
       </c>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -4352,7 +4382,7 @@
       </c>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>168</v>
       </c>
@@ -4364,7 +4394,7 @@
       </c>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>169</v>
       </c>
@@ -4376,7 +4406,7 @@
       </c>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>170</v>
       </c>
@@ -4388,7 +4418,7 @@
       </c>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>171</v>
       </c>
@@ -4400,7 +4430,7 @@
       </c>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>172</v>
       </c>
@@ -4412,7 +4442,7 @@
       </c>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>173</v>
       </c>
@@ -4424,7 +4454,7 @@
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>174</v>
       </c>
@@ -4436,7 +4466,7 @@
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>175</v>
       </c>
@@ -4448,7 +4478,7 @@
       </c>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>176</v>
       </c>
@@ -4460,7 +4490,7 @@
       </c>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -4472,7 +4502,7 @@
       </c>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>178</v>
       </c>
@@ -4484,7 +4514,7 @@
       </c>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>179</v>
       </c>
@@ -4496,7 +4526,7 @@
       </c>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>180</v>
       </c>
@@ -4508,7 +4538,7 @@
       </c>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>181</v>
       </c>
@@ -4520,7 +4550,7 @@
       </c>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>182</v>
       </c>
@@ -4532,7 +4562,7 @@
       </c>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>183</v>
       </c>
@@ -4544,7 +4574,7 @@
       </c>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>184</v>
       </c>
@@ -4556,7 +4586,7 @@
       </c>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>185</v>
       </c>
@@ -4568,7 +4598,7 @@
       </c>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>186</v>
       </c>
@@ -4580,7 +4610,7 @@
       </c>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -4592,7 +4622,7 @@
       </c>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>188</v>
       </c>
@@ -4604,7 +4634,7 @@
       </c>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>189</v>
       </c>
@@ -4616,7 +4646,7 @@
       </c>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>190</v>
       </c>
@@ -4628,7 +4658,7 @@
       </c>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>191</v>
       </c>
@@ -4640,7 +4670,7 @@
       </c>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>192</v>
       </c>
@@ -4652,7 +4682,7 @@
       </c>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>193</v>
       </c>
@@ -4664,7 +4694,7 @@
       </c>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>194</v>
       </c>
@@ -4676,7 +4706,7 @@
       </c>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>195</v>
       </c>
@@ -4688,7 +4718,7 @@
       </c>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>196</v>
       </c>
@@ -4700,7 +4730,7 @@
       </c>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>197</v>
       </c>
@@ -4712,7 +4742,7 @@
       </c>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>198</v>
       </c>
@@ -4724,7 +4754,7 @@
       </c>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>199</v>
       </c>
@@ -4736,7 +4766,7 @@
       </c>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>200</v>
       </c>
@@ -4748,7 +4778,7 @@
       </c>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>201</v>
       </c>
@@ -4760,7 +4790,7 @@
       </c>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>202</v>
       </c>
@@ -4772,7 +4802,7 @@
       </c>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>203</v>
       </c>
@@ -4784,7 +4814,7 @@
       </c>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>204</v>
       </c>
@@ -4796,7 +4826,7 @@
       </c>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>205</v>
       </c>
@@ -4808,7 +4838,7 @@
       </c>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>206</v>
       </c>
@@ -4820,7 +4850,7 @@
       </c>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>207</v>
       </c>
@@ -4832,7 +4862,7 @@
       </c>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>208</v>
       </c>
@@ -4844,7 +4874,7 @@
       </c>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>209</v>
       </c>
@@ -4856,7 +4886,7 @@
       </c>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>210</v>
       </c>
@@ -4868,7 +4898,7 @@
       </c>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>211</v>
       </c>
@@ -4880,7 +4910,7 @@
       </c>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>212</v>
       </c>
@@ -4892,7 +4922,7 @@
       </c>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>213</v>
       </c>
@@ -4904,7 +4934,7 @@
       </c>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>214</v>
       </c>
@@ -4916,7 +4946,7 @@
       </c>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>215</v>
       </c>
@@ -4928,7 +4958,7 @@
       </c>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>216</v>
       </c>
@@ -4940,7 +4970,7 @@
       </c>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>217</v>
       </c>
@@ -4952,7 +4982,7 @@
       </c>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>212</v>
       </c>
@@ -4964,7 +4994,7 @@
       </c>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>218</v>
       </c>
@@ -4976,7 +5006,7 @@
       </c>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>219</v>
       </c>
@@ -4988,7 +5018,7 @@
       </c>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>220</v>
       </c>
@@ -5000,7 +5030,7 @@
       </c>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>221</v>
       </c>
@@ -5012,7 +5042,7 @@
       </c>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>222</v>
       </c>
@@ -5024,7 +5054,7 @@
       </c>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>223</v>
       </c>
@@ -5036,7 +5066,7 @@
       </c>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>224</v>
       </c>
@@ -5048,7 +5078,7 @@
       </c>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>225</v>
       </c>
@@ -5060,7 +5090,7 @@
       </c>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>226</v>
       </c>
@@ -5072,7 +5102,7 @@
       </c>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>227</v>
       </c>
@@ -5084,7 +5114,7 @@
       </c>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>228</v>
       </c>
@@ -5096,7 +5126,7 @@
       </c>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>229</v>
       </c>
@@ -5108,7 +5138,7 @@
       </c>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>230</v>
       </c>
@@ -5120,7 +5150,7 @@
       </c>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>231</v>
       </c>
@@ -5132,7 +5162,7 @@
       </c>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>232</v>
       </c>
@@ -5144,7 +5174,7 @@
       </c>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>233</v>
       </c>
@@ -5156,7 +5186,7 @@
       </c>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>234</v>
       </c>
@@ -5168,7 +5198,7 @@
       </c>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>235</v>
       </c>
@@ -5180,7 +5210,7 @@
       </c>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>236</v>
       </c>
@@ -5192,7 +5222,7 @@
       </c>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>237</v>
       </c>
@@ -5204,7 +5234,7 @@
       </c>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>238</v>
       </c>
@@ -5216,7 +5246,7 @@
       </c>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>239</v>
       </c>
@@ -5228,7 +5258,7 @@
       </c>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>240</v>
       </c>
@@ -5240,7 +5270,7 @@
       </c>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>241</v>
       </c>
@@ -5252,7 +5282,7 @@
       </c>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>242</v>
       </c>
@@ -5264,7 +5294,7 @@
       </c>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>243</v>
       </c>
@@ -5273,7 +5303,7 @@
       </c>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>244</v>
       </c>
@@ -5285,7 +5315,7 @@
       </c>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>245</v>
       </c>
@@ -5297,7 +5327,7 @@
       </c>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>246</v>
       </c>
@@ -5309,7 +5339,7 @@
       </c>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>247</v>
       </c>
@@ -5321,7 +5351,7 @@
       </c>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>248</v>
       </c>
@@ -5333,7 +5363,7 @@
       </c>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>249</v>
       </c>
@@ -5345,7 +5375,7 @@
       </c>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>250</v>
       </c>
@@ -5357,7 +5387,7 @@
       </c>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>251</v>
       </c>
@@ -5369,7 +5399,7 @@
       </c>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>252</v>
       </c>
@@ -5381,7 +5411,7 @@
       </c>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>253</v>
       </c>
@@ -5393,7 +5423,7 @@
       </c>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>254</v>
       </c>
@@ -5405,7 +5435,7 @@
       </c>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>255</v>
       </c>
@@ -5417,7 +5447,7 @@
       </c>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>256</v>
       </c>
@@ -5429,7 +5459,7 @@
       </c>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>257</v>
       </c>
@@ -5441,7 +5471,7 @@
       </c>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>258</v>
       </c>
@@ -5453,7 +5483,7 @@
       </c>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>259</v>
       </c>
@@ -5465,7 +5495,7 @@
       </c>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>260</v>
       </c>
@@ -5477,7 +5507,7 @@
       </c>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>261</v>
       </c>
@@ -5489,7 +5519,7 @@
       </c>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>262</v>
       </c>
@@ -5501,7 +5531,7 @@
       </c>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>263</v>
       </c>
@@ -5513,7 +5543,7 @@
       </c>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>264</v>
       </c>
@@ -5525,7 +5555,7 @@
       </c>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>265</v>
       </c>
@@ -5537,7 +5567,7 @@
       </c>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>266</v>
       </c>
@@ -5549,7 +5579,7 @@
       </c>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>267</v>
       </c>
@@ -5561,7 +5591,7 @@
       </c>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>268</v>
       </c>
@@ -5573,7 +5603,7 @@
       </c>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>269</v>
       </c>
@@ -5585,7 +5615,7 @@
       </c>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>270</v>
       </c>
@@ -5597,7 +5627,7 @@
       </c>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>271</v>
       </c>
@@ -5609,7 +5639,7 @@
       </c>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>272</v>
       </c>
@@ -5621,7 +5651,7 @@
       </c>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>273</v>
       </c>
@@ -5633,7 +5663,7 @@
       </c>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>274</v>
       </c>
@@ -5645,7 +5675,7 @@
       </c>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>275</v>
       </c>
@@ -5657,7 +5687,7 @@
       </c>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>276</v>
       </c>
@@ -5669,7 +5699,7 @@
       </c>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>277</v>
       </c>
@@ -5681,7 +5711,7 @@
       </c>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>278</v>
       </c>
@@ -5693,7 +5723,7 @@
       </c>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>279</v>
       </c>
@@ -5705,7 +5735,7 @@
       </c>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>280</v>
       </c>
@@ -5717,7 +5747,7 @@
       </c>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>281</v>
       </c>
@@ -5729,7 +5759,7 @@
       </c>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>282</v>
       </c>
@@ -5741,7 +5771,7 @@
       </c>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>283</v>
       </c>
@@ -5753,7 +5783,7 @@
       </c>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>284</v>
       </c>
@@ -5765,7 +5795,7 @@
       </c>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>285</v>
       </c>
@@ -5777,7 +5807,7 @@
       </c>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>286</v>
       </c>
@@ -5789,7 +5819,7 @@
       </c>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>287</v>
       </c>
@@ -5801,7 +5831,7 @@
       </c>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>288</v>
       </c>
@@ -5813,7 +5843,7 @@
       </c>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>289</v>
       </c>
@@ -5825,7 +5855,7 @@
       </c>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>290</v>
       </c>
@@ -5837,7 +5867,7 @@
       </c>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>291</v>
       </c>
@@ -5849,7 +5879,7 @@
       </c>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>292</v>
       </c>
@@ -5861,7 +5891,7 @@
       </c>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>293</v>
       </c>
@@ -5873,7 +5903,7 @@
       </c>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>294</v>
       </c>
@@ -5885,7 +5915,7 @@
       </c>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>295</v>
       </c>
@@ -5897,7 +5927,7 @@
       </c>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>296</v>
       </c>
@@ -5909,7 +5939,7 @@
       </c>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>297</v>
       </c>
@@ -5921,7 +5951,7 @@
       </c>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>298</v>
       </c>
@@ -5933,7 +5963,7 @@
       </c>
       <c r="D220" s="1"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>299</v>
       </c>
@@ -5945,7 +5975,7 @@
       </c>
       <c r="D221" s="1"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>300</v>
       </c>
@@ -5957,7 +5987,7 @@
       </c>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>301</v>
       </c>
@@ -5966,7 +5996,7 @@
       </c>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>302</v>
       </c>
@@ -5978,7 +6008,7 @@
       </c>
       <c r="D224" s="1"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>303</v>
       </c>
@@ -5990,7 +6020,7 @@
       </c>
       <c r="D225" s="1"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>304</v>
       </c>
@@ -6002,7 +6032,7 @@
       </c>
       <c r="D226" s="1"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>305</v>
       </c>
@@ -6014,7 +6044,7 @@
       </c>
       <c r="D227" s="1"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>306</v>
       </c>
@@ -6026,7 +6056,7 @@
       </c>
       <c r="D228" s="1"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>307</v>
       </c>
@@ -6038,7 +6068,7 @@
       </c>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>308</v>
       </c>
@@ -6050,7 +6080,7 @@
       </c>
       <c r="D230" s="1"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>309</v>
       </c>
@@ -6062,7 +6092,7 @@
       </c>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>310</v>
       </c>
@@ -6074,7 +6104,7 @@
       </c>
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>311</v>
       </c>
@@ -6086,7 +6116,7 @@
       </c>
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>312</v>
       </c>
@@ -6098,7 +6128,7 @@
       </c>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>313</v>
       </c>
@@ -6110,7 +6140,7 @@
       </c>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>314</v>
       </c>
@@ -6122,7 +6152,7 @@
       </c>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>315</v>
       </c>
@@ -6134,7 +6164,7 @@
       </c>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>316</v>
       </c>
@@ -6146,7 +6176,7 @@
       </c>
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>317</v>
       </c>
@@ -6158,7 +6188,7 @@
       </c>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>318</v>
       </c>
@@ -6170,7 +6200,7 @@
       </c>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>319</v>
       </c>
@@ -6182,7 +6212,7 @@
       </c>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>320</v>
       </c>
@@ -6194,7 +6224,7 @@
       </c>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>321</v>
       </c>
@@ -6206,7 +6236,7 @@
       </c>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>322</v>
       </c>
@@ -6218,7 +6248,7 @@
       </c>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>323</v>
       </c>
@@ -6230,7 +6260,7 @@
       </c>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>324</v>
       </c>
@@ -6242,7 +6272,7 @@
       </c>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>325</v>
       </c>
@@ -6254,7 +6284,7 @@
       </c>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>326</v>
       </c>
@@ -6266,7 +6296,7 @@
       </c>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>327</v>
       </c>
@@ -6278,7 +6308,7 @@
       </c>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>328</v>
       </c>
@@ -6290,7 +6320,7 @@
       </c>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>329</v>
       </c>
@@ -6302,7 +6332,7 @@
       </c>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>330</v>
       </c>
@@ -6314,7 +6344,7 @@
       </c>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>331</v>
       </c>
@@ -6326,7 +6356,7 @@
       </c>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>332</v>
       </c>
@@ -6338,7 +6368,7 @@
       </c>
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>333</v>
       </c>
@@ -6350,7 +6380,7 @@
       </c>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>334</v>
       </c>
@@ -6362,7 +6392,7 @@
       </c>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>335</v>
       </c>
@@ -6374,7 +6404,7 @@
       </c>
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>336</v>
       </c>
@@ -6386,7 +6416,7 @@
       </c>
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>337</v>
       </c>
@@ -6398,7 +6428,7 @@
       </c>
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>338</v>
       </c>
@@ -6410,7 +6440,7 @@
       </c>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>722</v>
       </c>
@@ -6422,7 +6452,7 @@
       </c>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>723</v>
       </c>
@@ -6434,7 +6464,7 @@
       </c>
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>339</v>
       </c>
@@ -6446,7 +6476,7 @@
       </c>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>340</v>
       </c>
@@ -6458,7 +6488,7 @@
       </c>
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>341</v>
       </c>
@@ -6470,7 +6500,7 @@
       </c>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>342</v>
       </c>
@@ -6482,7 +6512,7 @@
       </c>
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>343</v>
       </c>
@@ -6494,7 +6524,7 @@
       </c>
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>344</v>
       </c>
@@ -6506,7 +6536,7 @@
       </c>
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>345</v>
       </c>
@@ -6518,7 +6548,7 @@
       </c>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>346</v>
       </c>
@@ -6530,7 +6560,7 @@
       </c>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>347</v>
       </c>
@@ -6542,7 +6572,7 @@
       </c>
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>348</v>
       </c>
@@ -6554,7 +6584,7 @@
       </c>
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>349</v>
       </c>
@@ -6566,7 +6596,7 @@
       </c>
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>350</v>
       </c>
@@ -6578,7 +6608,7 @@
       </c>
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>351</v>
       </c>
@@ -6590,7 +6620,7 @@
       </c>
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>352</v>
       </c>
@@ -6602,7 +6632,7 @@
       </c>
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>353</v>
       </c>
@@ -6614,7 +6644,7 @@
       </c>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>354</v>
       </c>
@@ -6626,7 +6656,7 @@
       </c>
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>355</v>
       </c>
@@ -6638,7 +6668,7 @@
       </c>
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>356</v>
       </c>
@@ -6650,7 +6680,7 @@
       </c>
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>357</v>
       </c>
@@ -6662,7 +6692,7 @@
       </c>
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>358</v>
       </c>
@@ -6674,7 +6704,7 @@
       </c>
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>359</v>
       </c>
@@ -6686,7 +6716,7 @@
       </c>
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>360</v>
       </c>
@@ -6698,7 +6728,7 @@
       </c>
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>361</v>
       </c>
@@ -6710,7 +6740,7 @@
       </c>
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>143</v>
       </c>
@@ -6722,7 +6752,7 @@
       </c>
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>362</v>
       </c>
@@ -6734,7 +6764,7 @@
       </c>
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>363</v>
       </c>
@@ -6746,7 +6776,7 @@
       </c>
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>364</v>
       </c>
@@ -6758,7 +6788,7 @@
       </c>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>365</v>
       </c>
@@ -6770,7 +6800,7 @@
       </c>
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>366</v>
       </c>
@@ -6782,7 +6812,7 @@
       </c>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>367</v>
       </c>
@@ -6794,7 +6824,7 @@
       </c>
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>368</v>
       </c>
@@ -6806,7 +6836,7 @@
       </c>
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>369</v>
       </c>
@@ -6818,7 +6848,7 @@
       </c>
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>370</v>
       </c>
@@ -6830,7 +6860,7 @@
       </c>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>371</v>
       </c>
@@ -6842,7 +6872,7 @@
       </c>
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>372</v>
       </c>
@@ -6854,7 +6884,7 @@
       </c>
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>373</v>
       </c>
@@ -6866,7 +6896,7 @@
       </c>
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>145</v>
       </c>
@@ -6878,7 +6908,7 @@
       </c>
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>147</v>
       </c>
@@ -6890,7 +6920,7 @@
       </c>
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:4">
       <c r="A301" s="2" t="s">
         <v>731</v>
       </c>
@@ -6902,7 +6932,7 @@
       </c>
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>597</v>
       </c>
@@ -6914,7 +6944,7 @@
       </c>
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>599</v>
       </c>
@@ -6926,7 +6956,7 @@
       </c>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>601</v>
       </c>
@@ -6938,7 +6968,7 @@
       </c>
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>603</v>
       </c>
@@ -6950,7 +6980,7 @@
       </c>
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>605</v>
       </c>
@@ -6962,7 +6992,7 @@
       </c>
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>608</v>
       </c>
@@ -6974,7 +7004,7 @@
       </c>
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>609</v>
       </c>
@@ -6986,7 +7016,7 @@
       </c>
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>611</v>
       </c>
@@ -6998,7 +7028,7 @@
       </c>
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>613</v>
       </c>
@@ -7010,7 +7040,7 @@
       </c>
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>618</v>
       </c>
@@ -7022,7 +7052,7 @@
       </c>
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>616</v>
       </c>
@@ -7034,7 +7064,7 @@
       </c>
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>619</v>
       </c>
@@ -7046,7 +7076,7 @@
       </c>
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>621</v>
       </c>
@@ -7058,7 +7088,7 @@
       </c>
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>623</v>
       </c>
@@ -7070,7 +7100,7 @@
       </c>
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>625</v>
       </c>
@@ -7082,7 +7112,7 @@
       </c>
       <c r="D316" s="1"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>627</v>
       </c>
@@ -7094,7 +7124,7 @@
       </c>
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>629</v>
       </c>
@@ -7106,7 +7136,7 @@
       </c>
       <c r="D318" s="1"/>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>631</v>
       </c>
@@ -7118,7 +7148,7 @@
       </c>
       <c r="D319" s="1"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>633</v>
       </c>
@@ -7130,7 +7160,7 @@
       </c>
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>635</v>
       </c>
@@ -7142,7 +7172,7 @@
       </c>
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>637</v>
       </c>
@@ -7154,7 +7184,7 @@
       </c>
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>639</v>
       </c>
@@ -7166,7 +7196,7 @@
       </c>
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>641</v>
       </c>
@@ -7178,7 +7208,7 @@
       </c>
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>643</v>
       </c>
@@ -7190,7 +7220,7 @@
       </c>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>645</v>
       </c>
@@ -7202,7 +7232,7 @@
       </c>
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>648</v>
       </c>
@@ -7214,7 +7244,7 @@
       </c>
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>650</v>
       </c>
@@ -7226,7 +7256,7 @@
       </c>
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>652</v>
       </c>
@@ -7238,7 +7268,7 @@
       </c>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>653</v>
       </c>
@@ -7250,7 +7280,7 @@
       </c>
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>654</v>
       </c>
@@ -7262,7 +7292,7 @@
       </c>
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>655</v>
       </c>
@@ -7274,7 +7304,7 @@
       </c>
       <c r="D332" s="1"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>656</v>
       </c>
@@ -7286,7 +7316,7 @@
       </c>
       <c r="D333" s="1"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>662</v>
       </c>
@@ -7298,7 +7328,7 @@
       </c>
       <c r="D334" s="1"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
         <v>664</v>
       </c>
@@ -7310,7 +7340,7 @@
       </c>
       <c r="D335" s="1"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>667</v>
       </c>
@@ -7322,7 +7352,7 @@
       </c>
       <c r="D336" s="1"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>668</v>
       </c>
@@ -7334,7 +7364,7 @@
       </c>
       <c r="D337" s="1"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>670</v>
       </c>
@@ -7346,7 +7376,7 @@
       </c>
       <c r="D338" s="1"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>672</v>
       </c>
@@ -7358,7 +7388,7 @@
       </c>
       <c r="D339" s="1"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>674</v>
       </c>
@@ -7370,7 +7400,7 @@
       </c>
       <c r="D340" s="1"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>676</v>
       </c>
@@ -7382,7 +7412,7 @@
       </c>
       <c r="D341" s="1"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>678</v>
       </c>
@@ -7394,7 +7424,7 @@
       </c>
       <c r="D342" s="1"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>680</v>
       </c>
@@ -7406,7 +7436,7 @@
       </c>
       <c r="D343" s="1"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>682</v>
       </c>
@@ -7418,7 +7448,7 @@
       </c>
       <c r="D344" s="1"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
         <v>684</v>
       </c>
@@ -7430,7 +7460,7 @@
       </c>
       <c r="D345" s="1"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
         <v>687</v>
       </c>
@@ -7442,7 +7472,7 @@
       </c>
       <c r="D346" s="1"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>688</v>
       </c>
@@ -7454,7 +7484,7 @@
       </c>
       <c r="D347" s="1"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>690</v>
       </c>
@@ -7466,7 +7496,7 @@
       </c>
       <c r="D348" s="1"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>692</v>
       </c>
@@ -7478,7 +7508,7 @@
       </c>
       <c r="D349" s="1"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>694</v>
       </c>
@@ -7490,7 +7520,7 @@
       </c>
       <c r="D350" s="1"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>696</v>
       </c>
@@ -7502,7 +7532,7 @@
       </c>
       <c r="D351" s="1"/>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>698</v>
       </c>
@@ -7514,7 +7544,7 @@
       </c>
       <c r="D352" s="1"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>700</v>
       </c>
@@ -7526,7 +7556,7 @@
       </c>
       <c r="D353" s="1"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>702</v>
       </c>
@@ -7538,7 +7568,7 @@
       </c>
       <c r="D354" s="1"/>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>704</v>
       </c>
@@ -7549,7 +7579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>706</v>
       </c>
@@ -7560,7 +7590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>708</v>
       </c>
@@ -7571,7 +7601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>710</v>
       </c>
@@ -7582,7 +7612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>712</v>
       </c>
@@ -7593,7 +7623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>714</v>
       </c>
@@ -7604,7 +7634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>716</v>
       </c>
@@ -7615,7 +7645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>718</v>
       </c>
@@ -7626,7 +7656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>720</v>
       </c>
@@ -7637,7 +7667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:4">
       <c r="A364" s="2" t="s">
         <v>727</v>
       </c>
@@ -7648,7 +7678,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:4">
       <c r="A365" s="2" t="s">
         <v>729</v>
       </c>
@@ -7659,7 +7689,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>732</v>
       </c>
@@ -7670,7 +7700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>735</v>
       </c>
@@ -7681,7 +7711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>736</v>
       </c>
@@ -7692,7 +7722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>738</v>
       </c>
@@ -7703,7 +7733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>740</v>
       </c>
@@ -7714,7 +7744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>742</v>
       </c>
@@ -7725,7 +7755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>744</v>
       </c>
@@ -7736,7 +7766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>746</v>
       </c>
@@ -7747,7 +7777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>748</v>
       </c>
@@ -7758,7 +7788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:3">
       <c r="A375" s="4" t="s">
         <v>751</v>
       </c>
@@ -7769,7 +7799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>752</v>
       </c>
@@ -7780,7 +7810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>754</v>
       </c>
@@ -7791,7 +7821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>756</v>
       </c>
@@ -7802,7 +7832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>758</v>
       </c>
@@ -7813,7 +7843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>760</v>
       </c>
@@ -7824,7 +7854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>762</v>
       </c>
@@ -7835,7 +7865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>764</v>
       </c>
@@ -7846,7 +7876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
         <v>766</v>
       </c>
@@ -7857,7 +7887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:3">
       <c r="A384" s="4" t="s">
         <v>768</v>
       </c>
@@ -7868,7 +7898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
         <v>770</v>
       </c>
@@ -7879,7 +7909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:3">
       <c r="A386" t="s">
         <v>772</v>
       </c>
@@ -7890,7 +7920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:3">
       <c r="A387" t="s">
         <v>774</v>
       </c>
@@ -7901,7 +7931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:3">
       <c r="A388" t="s">
         <v>776</v>
       </c>
@@ -7912,7 +7942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:3">
       <c r="A389" t="s">
         <v>778</v>
       </c>
@@ -7923,7 +7953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:3">
       <c r="A390" t="s">
         <v>780</v>
       </c>
@@ -7934,7 +7964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:3">
       <c r="A391" t="s">
         <v>782</v>
       </c>
@@ -7945,7 +7975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:3">
       <c r="A392" t="s">
         <v>784</v>
       </c>
@@ -7956,7 +7986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:3">
       <c r="A393" t="s">
         <v>786</v>
       </c>
@@ -7967,7 +7997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:3">
       <c r="A394" t="s">
         <v>788</v>
       </c>
@@ -7978,7 +8008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:3">
       <c r="A395" t="s">
         <v>790</v>
       </c>
@@ -7989,7 +8019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:3">
       <c r="A396" t="s">
         <v>792</v>
       </c>
@@ -8000,7 +8030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:3">
       <c r="A397" t="s">
         <v>794</v>
       </c>
@@ -8011,7 +8041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:3">
       <c r="A398" t="s">
         <v>796</v>
       </c>
@@ -8022,7 +8052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
         <v>799</v>
       </c>
@@ -8033,7 +8063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:3">
       <c r="A400" t="s">
         <v>801</v>
       </c>
@@ -8044,7 +8074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
         <v>803</v>
       </c>
@@ -8055,7 +8085,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
         <v>804</v>
       </c>
@@ -8066,7 +8096,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
         <v>808</v>
       </c>
@@ -8077,7 +8107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
         <v>810</v>
       </c>
@@ -8088,7 +8118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
         <v>812</v>
       </c>
@@ -8099,7 +8129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:3">
       <c r="A406" t="s">
         <v>814</v>
       </c>
@@ -8110,7 +8140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:3">
       <c r="A407" t="s">
         <v>816</v>
       </c>
@@ -8121,7 +8151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
         <v>818</v>
       </c>
@@ -8132,7 +8162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
         <v>820</v>
       </c>
@@ -8143,7 +8173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
         <v>821</v>
       </c>
@@ -8154,7 +8184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
         <v>824</v>
       </c>
@@ -8165,7 +8195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
         <v>826</v>
       </c>
@@ -8176,7 +8206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
         <v>828</v>
       </c>
@@ -8187,7 +8217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
         <v>830</v>
       </c>
@@ -8198,7 +8228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
         <v>832</v>
       </c>
@@ -8209,7 +8239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:3">
       <c r="A416" s="7" t="s">
         <v>834</v>
       </c>
@@ -8220,7 +8250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
         <v>836</v>
       </c>
@@ -8231,7 +8261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
         <v>838</v>
       </c>
@@ -8242,7 +8272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
         <v>840</v>
       </c>
@@ -8253,7 +8283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
         <v>842</v>
       </c>
@@ -8264,7 +8294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
         <v>844</v>
       </c>
@@ -8275,7 +8305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
         <v>846</v>
       </c>
@@ -8286,7 +8316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
         <v>848</v>
       </c>
@@ -8297,7 +8327,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
         <v>852</v>
       </c>
@@ -8308,7 +8338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
         <v>853</v>
       </c>
@@ -8319,7 +8349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
         <v>855</v>
       </c>
@@ -8330,7 +8360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
         <v>857</v>
       </c>
@@ -8341,7 +8371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
         <v>859</v>
       </c>
@@ -8352,7 +8382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
         <v>861</v>
       </c>
@@ -8363,7 +8393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
         <v>863</v>
       </c>
@@ -8374,7 +8404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
         <v>865</v>
       </c>
@@ -8385,7 +8415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
         <v>867</v>
       </c>
@@ -8396,7 +8426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
         <v>869</v>
       </c>
@@ -8407,7 +8437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
         <v>871</v>
       </c>
@@ -8418,7 +8448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
         <v>873</v>
       </c>
@@ -8429,7 +8459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
         <v>875</v>
       </c>
@@ -8440,7 +8470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
         <v>877</v>
       </c>
@@ -8451,7 +8481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:3">
       <c r="A438" t="s">
         <v>879</v>
       </c>
@@ -8462,7 +8492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
         <v>881</v>
       </c>
@@ -8473,7 +8503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
         <v>883</v>
       </c>
@@ -8484,7 +8514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:3">
       <c r="A441" t="s">
         <v>885</v>
       </c>
@@ -8495,7 +8525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:3">
       <c r="A442" t="s">
         <v>887</v>
       </c>
@@ -8506,7 +8536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:3">
       <c r="A443" s="10" t="s">
         <v>892</v>
       </c>
@@ -8517,7 +8547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:3">
       <c r="A444" t="s">
         <v>890</v>
       </c>
@@ -8528,7 +8558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:3">
       <c r="A445" t="s">
         <v>893</v>
       </c>
@@ -8539,7 +8569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:3">
       <c r="A446" t="s">
         <v>895</v>
       </c>
@@ -8550,7 +8580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:3">
       <c r="A447" t="s">
         <v>897</v>
       </c>
@@ -8561,7 +8591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:3">
       <c r="A448" t="s">
         <v>899</v>
       </c>
@@ -8572,7 +8602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:3">
       <c r="A449" t="s">
         <v>901</v>
       </c>
@@ -8583,7 +8613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
         <v>903</v>
       </c>
@@ -8594,7 +8624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:3">
       <c r="A451" t="s">
         <v>905</v>
       </c>
@@ -8605,7 +8635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:3">
       <c r="A452" t="s">
         <v>907</v>
       </c>
@@ -8616,7 +8646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:3">
       <c r="A453" t="s">
         <v>909</v>
       </c>
@@ -8627,7 +8657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:3">
       <c r="A454" t="s">
         <v>911</v>
       </c>
@@ -8638,7 +8668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:3">
       <c r="A455" t="s">
         <v>913</v>
       </c>
@@ -8649,7 +8679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:3">
       <c r="A456" t="s">
         <v>915</v>
       </c>
@@ -8660,7 +8690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:3">
       <c r="A457" t="s">
         <v>917</v>
       </c>
@@ -8671,7 +8701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:3">
       <c r="A458" t="s">
         <v>919</v>
       </c>
@@ -8682,7 +8712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:3">
       <c r="A459" t="s">
         <v>921</v>
       </c>
@@ -8693,7 +8723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:3">
       <c r="A460" s="11" t="s">
         <v>925</v>
       </c>
@@ -8704,7 +8734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:3">
       <c r="A461" t="s">
         <v>924</v>
       </c>
@@ -8715,7 +8745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:3">
       <c r="A462" t="s">
         <v>927</v>
       </c>
@@ -8726,7 +8756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:3">
       <c r="A463" t="s">
         <v>929</v>
       </c>
@@ -8737,7 +8767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:3">
       <c r="A464" t="s">
         <v>931</v>
       </c>
@@ -8748,7 +8778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:3">
       <c r="A465" s="10" t="s">
         <v>934</v>
       </c>
@@ -8759,7 +8789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:3">
       <c r="A466" t="s">
         <v>935</v>
       </c>
@@ -8770,7 +8800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:3">
       <c r="A467" s="10" t="s">
         <v>938</v>
       </c>
@@ -8781,7 +8811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:3">
       <c r="A468" t="s">
         <v>939</v>
       </c>
@@ -8792,7 +8822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:3">
       <c r="A469" t="s">
         <v>941</v>
       </c>
@@ -8803,7 +8833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:3">
       <c r="A470" t="s">
         <v>943</v>
       </c>
@@ -8814,7 +8844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:3">
       <c r="A471" t="s">
         <v>944</v>
       </c>
@@ -8825,7 +8855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:3">
       <c r="A472" t="s">
         <v>947</v>
       </c>
@@ -8833,6 +8863,61 @@
         <v>948</v>
       </c>
       <c r="C472" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="B473" t="s">
+        <v>949</v>
+      </c>
+      <c r="C473" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="B474" t="s">
+        <v>951</v>
+      </c>
+      <c r="C474" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
+        <v>953</v>
+      </c>
+      <c r="B475" t="s">
+        <v>954</v>
+      </c>
+      <c r="C475" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
+        <v>955</v>
+      </c>
+      <c r="B476" t="s">
+        <v>956</v>
+      </c>
+      <c r="C476" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
+        <v>957</v>
+      </c>
+      <c r="B477" t="s">
+        <v>958</v>
+      </c>
+      <c r="C477" s="10" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="973">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2939,6 +2939,48 @@
   </si>
   <si>
     <t>tt1205551</t>
+  </si>
+  <si>
+    <t>Bangkok Traffic (Love) Story</t>
+  </si>
+  <si>
+    <t>tt1621642</t>
+  </si>
+  <si>
+    <t>To A Tee</t>
+  </si>
+  <si>
+    <t>tt0907870</t>
+  </si>
+  <si>
+    <t>The Passenger</t>
+  </si>
+  <si>
+    <t>tt3516028</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>tt3588082</t>
+  </si>
+  <si>
+    <t>Scenes From A Gay Marriage</t>
+  </si>
+  <si>
+    <t>tt2011223</t>
+  </si>
+  <si>
+    <t>Underworld Blood Wars</t>
+  </si>
+  <si>
+    <t>tt3717252</t>
+  </si>
+  <si>
+    <t>Solo </t>
+  </si>
+  <si>
+    <t>tt2374196</t>
   </si>
 </sst>
 </file>
@@ -3313,10 +3355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D477"/>
+  <dimension ref="A1:D484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="C472" sqref="C472:C477"/>
+    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="C483" sqref="C483:C484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8921,6 +8963,83 @@
         <v>5</v>
       </c>
     </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="B478" t="s">
+        <v>960</v>
+      </c>
+      <c r="C478" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
+        <v>961</v>
+      </c>
+      <c r="B479" t="s">
+        <v>962</v>
+      </c>
+      <c r="C479" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
+        <v>963</v>
+      </c>
+      <c r="B480" t="s">
+        <v>964</v>
+      </c>
+      <c r="C480" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
+        <v>965</v>
+      </c>
+      <c r="B481" t="s">
+        <v>966</v>
+      </c>
+      <c r="C481" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
+        <v>967</v>
+      </c>
+      <c r="B482" t="s">
+        <v>968</v>
+      </c>
+      <c r="C482" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
+        <v>969</v>
+      </c>
+      <c r="B483" t="s">
+        <v>970</v>
+      </c>
+      <c r="C483" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
+        <v>971</v>
+      </c>
+      <c r="B484" t="s">
+        <v>972</v>
+      </c>
+      <c r="C484" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="979">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2981,6 +2981,24 @@
   </si>
   <si>
     <t>tt2374196</t>
+  </si>
+  <si>
+    <t>Plan B</t>
+  </si>
+  <si>
+    <t>tt1408972</t>
+  </si>
+  <si>
+    <t>Notre Paradis</t>
+  </si>
+  <si>
+    <t>tt1854568</t>
+  </si>
+  <si>
+    <t>Harvest</t>
+  </si>
+  <si>
+    <t>tt1827528</t>
   </si>
 </sst>
 </file>
@@ -3355,10 +3373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D484"/>
+  <dimension ref="A1:D487"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="C483" sqref="C483:C484"/>
+      <selection activeCell="C483" sqref="C483:C486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9040,6 +9058,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
+        <v>973</v>
+      </c>
+      <c r="B485" t="s">
+        <v>974</v>
+      </c>
+      <c r="C485" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
+        <v>975</v>
+      </c>
+      <c r="B486" t="s">
+        <v>976</v>
+      </c>
+      <c r="C486" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
+        <v>977</v>
+      </c>
+      <c r="B487" t="s">
+        <v>978</v>
+      </c>
+      <c r="C487" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="1005">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2999,6 +2999,84 @@
   </si>
   <si>
     <t>tt1827528</t>
+  </si>
+  <si>
+    <t>Eastern Boys</t>
+  </si>
+  <si>
+    <t>tt2991092</t>
+  </si>
+  <si>
+    <t>Eternal Summer</t>
+  </si>
+  <si>
+    <t>tt0885520</t>
+  </si>
+  <si>
+    <t>Five Dances</t>
+  </si>
+  <si>
+    <t>tt2186781</t>
+  </si>
+  <si>
+    <t>Getting Go, the Go Doc Project</t>
+  </si>
+  <si>
+    <t>tt2623502</t>
+  </si>
+  <si>
+    <t>Role Play</t>
+  </si>
+  <si>
+    <t>tt1634300</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>tt3169706</t>
+  </si>
+  <si>
+    <t>Long Term Relationship</t>
+  </si>
+  <si>
+    <t>Lilting</t>
+  </si>
+  <si>
+    <t>tt2560102</t>
+  </si>
+  <si>
+    <t>tt0494253</t>
+  </si>
+  <si>
+    <t>Cuatro lunas</t>
+  </si>
+  <si>
+    <t>tt2260850</t>
+  </si>
+  <si>
+    <t>Assassins Creed</t>
+  </si>
+  <si>
+    <t>tt2094766</t>
+  </si>
+  <si>
+    <t>American Fable</t>
+  </si>
+  <si>
+    <t>Passengers</t>
+  </si>
+  <si>
+    <t>tt1355644</t>
+  </si>
+  <si>
+    <t>tt4671002</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>tt1753460</t>
   </si>
 </sst>
 </file>
@@ -3373,10 +3451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D487"/>
+  <dimension ref="A1:D500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="C483" sqref="C483:C486"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="C499" sqref="C499:C500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9091,6 +9169,149 @@
         <v>5</v>
       </c>
     </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
+        <v>979</v>
+      </c>
+      <c r="B488" t="s">
+        <v>980</v>
+      </c>
+      <c r="C488" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
+        <v>981</v>
+      </c>
+      <c r="B489" t="s">
+        <v>982</v>
+      </c>
+      <c r="C489" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
+        <v>983</v>
+      </c>
+      <c r="B490" t="s">
+        <v>984</v>
+      </c>
+      <c r="C490" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
+        <v>985</v>
+      </c>
+      <c r="B491" t="s">
+        <v>986</v>
+      </c>
+      <c r="C491" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
+        <v>987</v>
+      </c>
+      <c r="B492" t="s">
+        <v>988</v>
+      </c>
+      <c r="C492" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
+        <v>989</v>
+      </c>
+      <c r="B493" t="s">
+        <v>990</v>
+      </c>
+      <c r="C493" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
+        <v>991</v>
+      </c>
+      <c r="B494" t="s">
+        <v>994</v>
+      </c>
+      <c r="C494" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
+        <v>992</v>
+      </c>
+      <c r="B495" t="s">
+        <v>993</v>
+      </c>
+      <c r="C495" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
+        <v>995</v>
+      </c>
+      <c r="B496" t="s">
+        <v>996</v>
+      </c>
+      <c r="C496" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
+        <v>997</v>
+      </c>
+      <c r="B497" t="s">
+        <v>998</v>
+      </c>
+      <c r="C497" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
+        <v>999</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C498" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C499" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C500" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1017">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3077,6 +3077,42 @@
   </si>
   <si>
     <t>tt1753460</t>
+  </si>
+  <si>
+    <t>Lagaan</t>
+  </si>
+  <si>
+    <t>tt0169102</t>
+  </si>
+  <si>
+    <t>Bookends</t>
+  </si>
+  <si>
+    <t>tt1412393</t>
+  </si>
+  <si>
+    <t>Bangkok Love Story</t>
+  </si>
+  <si>
+    <t>Sing</t>
+  </si>
+  <si>
+    <t>tt1135961</t>
+  </si>
+  <si>
+    <t>tt3470600</t>
+  </si>
+  <si>
+    <t>Office Christmas Party</t>
+  </si>
+  <si>
+    <t>tt1711525</t>
+  </si>
+  <si>
+    <t>Juste une Question d'Amour</t>
+  </si>
+  <si>
+    <t>tt0231844</t>
   </si>
 </sst>
 </file>
@@ -3153,7 +3189,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D1048576" totalsRowShown="0">
-  <autoFilter ref="A1:D1048576"/>
+  <sortState ref="A2:D501">
+    <sortCondition ref="A1:A1048576"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Title"/>
     <tableColumn id="2" name="IMDB_ID"/>
@@ -3451,10 +3489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D500"/>
+  <dimension ref="A1:D506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="C499" sqref="C499:C500"/>
+    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501:C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3481,10 +3519,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>780</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>781</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -3492,10 +3530,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3503,10 +3541,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3515,10 +3553,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3527,10 +3565,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>694</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>695</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3539,10 +3577,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3551,10 +3589,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3563,10 +3601,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>631</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>632</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3574,11 +3612,11 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>21</v>
+      <c r="A10" s="11" t="s">
+        <v>925</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>923</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3587,10 +3625,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3599,10 +3637,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3611,10 +3649,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3623,10 +3661,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3635,10 +3673,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>941</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>942</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3647,10 +3685,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3659,10 +3697,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>947</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>948</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3671,10 +3709,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3683,21 +3721,21 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>768</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>769</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3706,10 +3744,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>863</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>864</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3718,10 +3756,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3730,10 +3768,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3742,10 +3780,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3754,10 +3792,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>652</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>661</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3766,10 +3804,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>999</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>1002</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3778,10 +3816,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>760</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>761</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3790,10 +3828,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3802,10 +3840,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>668</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>669</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3814,10 +3852,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>957</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>958</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3826,10 +3864,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3838,10 +3876,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>943</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>946</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3850,22 +3888,22 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>619</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>620</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3874,10 +3912,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>799</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>800</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3886,10 +3924,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>997</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>998</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3898,10 +3936,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>1003</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>1004</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3910,10 +3948,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3922,10 +3960,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>664</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>665</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3934,10 +3972,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3946,10 +3984,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3958,10 +3996,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3970,10 +4008,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>939</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>940</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3982,10 +4020,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3994,10 +4032,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -4006,10 +4044,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -4018,10 +4056,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>758</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>759</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -4030,10 +4068,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -4042,10 +4080,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>959</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>960</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -4054,10 +4092,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -4066,10 +4104,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>816</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>817</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -4078,10 +4116,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>861</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>862</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -4090,10 +4128,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -4102,10 +4140,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -4114,10 +4152,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -4126,10 +4164,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -4138,10 +4176,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -4150,10 +4188,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>762</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>763</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -4162,10 +4200,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>627</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -4174,10 +4212,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -4186,10 +4224,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -4198,10 +4236,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>633</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>634</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -4210,10 +4248,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -4222,10 +4260,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -4234,10 +4272,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>648</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>649</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -4246,10 +4284,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -4258,10 +4296,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -4270,10 +4308,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -4282,10 +4320,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -4294,22 +4332,22 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>848</v>
       </c>
       <c r="B70" t="s">
-        <v>374</v>
+        <v>849</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>851</v>
       </c>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>887</v>
       </c>
       <c r="B71" t="s">
-        <v>375</v>
+        <v>888</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -4318,10 +4356,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>376</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -4330,10 +4368,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>377</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -4342,10 +4380,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>378</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -4354,10 +4392,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>654</v>
       </c>
       <c r="B75" t="s">
-        <v>379</v>
+        <v>658</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -4366,10 +4404,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>380</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -4378,10 +4416,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>381</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -4390,10 +4428,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>382</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -4402,10 +4440,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>383</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -4414,10 +4452,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>384</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -4426,10 +4464,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>748</v>
       </c>
       <c r="B81" t="s">
-        <v>385</v>
+        <v>749</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -4438,10 +4476,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>386</v>
+        <v>102</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -4450,10 +4488,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>621</v>
       </c>
       <c r="B83" t="s">
-        <v>387</v>
+        <v>622</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -4462,10 +4500,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>995</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>996</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -4474,10 +4512,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>934</v>
       </c>
       <c r="B85" t="s">
-        <v>388</v>
+        <v>933</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -4486,10 +4524,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>389</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -4498,22 +4536,22 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>390</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>391</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -4522,10 +4560,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="B89" t="s">
-        <v>392</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -4534,10 +4572,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>393</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -4546,10 +4584,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>394</v>
+        <v>127</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -4558,10 +4596,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>395</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -4570,10 +4608,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>782</v>
       </c>
       <c r="B93" t="s">
-        <v>396</v>
+        <v>783</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -4582,10 +4620,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>820</v>
       </c>
       <c r="B94" t="s">
-        <v>397</v>
+        <v>822</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -4594,10 +4632,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>398</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -4606,10 +4644,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>399</v>
+        <v>130</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -4618,10 +4656,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>742</v>
       </c>
       <c r="B97" t="s">
-        <v>400</v>
+        <v>743</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -4629,11 +4667,11 @@
       <c r="D97" s="1"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>177</v>
+      <c r="A98" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>401</v>
+        <v>131</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -4642,10 +4680,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>402</v>
+        <v>132</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -4654,10 +4692,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>403</v>
+        <v>133</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4666,10 +4704,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>404</v>
+        <v>134</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4678,10 +4716,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>405</v>
+        <v>135</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4690,10 +4728,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>406</v>
+        <v>136</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4702,10 +4740,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>407</v>
+        <v>137</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4714,10 +4752,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>408</v>
+        <v>138</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4726,10 +4764,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>185</v>
+        <v>909</v>
       </c>
       <c r="B106" t="s">
-        <v>409</v>
+        <v>910</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4738,10 +4776,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>186</v>
+        <v>751</v>
       </c>
       <c r="B107" t="s">
-        <v>410</v>
+        <v>750</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4750,10 +4788,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>411</v>
+        <v>139</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4762,10 +4800,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="B109" t="s">
-        <v>412</v>
+        <v>140</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4774,10 +4812,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>189</v>
+        <v>655</v>
       </c>
       <c r="B110" t="s">
-        <v>413</v>
+        <v>659</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4786,10 +4824,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="B111" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4798,10 +4836,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="B112" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4810,10 +4848,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="B113" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4822,10 +4860,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>193</v>
+        <v>979</v>
       </c>
       <c r="B114" t="s">
-        <v>417</v>
+        <v>980</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4834,10 +4872,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="B115" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4846,10 +4884,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>195</v>
+        <v>794</v>
       </c>
       <c r="B116" t="s">
-        <v>419</v>
+        <v>795</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4858,10 +4896,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="B117" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4870,10 +4908,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="B118" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4882,10 +4920,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="B119" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4894,10 +4932,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="B120" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4906,10 +4944,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>200</v>
+        <v>981</v>
       </c>
       <c r="B121" t="s">
-        <v>424</v>
+        <v>982</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4918,10 +4956,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="B122" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4930,10 +4968,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="B123" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4942,10 +4980,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="B124" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4954,10 +4992,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>204</v>
+        <v>944</v>
       </c>
       <c r="B125" t="s">
-        <v>428</v>
+        <v>945</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4966,10 +5004,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B126" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4978,10 +5016,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>206</v>
+        <v>873</v>
       </c>
       <c r="B127" t="s">
-        <v>430</v>
+        <v>874</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4990,10 +5028,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>207</v>
+        <v>702</v>
       </c>
       <c r="B128" t="s">
-        <v>431</v>
+        <v>703</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -5002,10 +5040,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>208</v>
+        <v>895</v>
       </c>
       <c r="B129" t="s">
-        <v>432</v>
+        <v>896</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -5014,10 +5052,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>209</v>
+        <v>983</v>
       </c>
       <c r="B130" t="s">
-        <v>433</v>
+        <v>984</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -5026,10 +5064,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>210</v>
+        <v>611</v>
       </c>
       <c r="B131" t="s">
-        <v>434</v>
+        <v>612</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -5038,10 +5076,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="B132" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -5050,10 +5088,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="B133" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -5062,10 +5100,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="B134" t="s">
-        <v>437</v>
+        <v>134</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -5074,10 +5112,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="B135" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -5086,10 +5124,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="B136" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -5098,22 +5136,22 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="B137" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="D137" s="1"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="B138" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -5122,10 +5160,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="B139" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -5134,10 +5172,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>218</v>
+        <v>985</v>
       </c>
       <c r="B140" t="s">
-        <v>442</v>
+        <v>986</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -5146,10 +5184,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="B141" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -5158,10 +5196,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>220</v>
+        <v>865</v>
       </c>
       <c r="B142" t="s">
-        <v>444</v>
+        <v>866</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -5170,10 +5208,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>221</v>
+        <v>883</v>
       </c>
       <c r="B143" t="s">
-        <v>445</v>
+        <v>884</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -5182,10 +5220,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>222</v>
+        <v>790</v>
       </c>
       <c r="B144" t="s">
-        <v>446</v>
+        <v>791</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -5194,10 +5232,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="B145" t="s">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -5206,10 +5244,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="B146" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -5218,10 +5256,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>225</v>
+        <v>603</v>
       </c>
       <c r="B147" t="s">
-        <v>449</v>
+        <v>604</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -5230,10 +5268,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="B148" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -5242,10 +5280,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="B149" t="s">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -5254,10 +5292,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>228</v>
+        <v>921</v>
       </c>
       <c r="B150" t="s">
-        <v>452</v>
+        <v>922</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -5266,10 +5304,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="B151" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -5278,10 +5316,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="B152" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -5290,10 +5328,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>231</v>
+        <v>812</v>
       </c>
       <c r="B153" t="s">
-        <v>455</v>
+        <v>813</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -5302,10 +5340,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>232</v>
+        <v>635</v>
       </c>
       <c r="B154" t="s">
-        <v>456</v>
+        <v>636</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -5314,10 +5352,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>457</v>
+        <v>401</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -5326,10 +5364,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="B156" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -5338,10 +5376,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="B157" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -5350,10 +5388,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="B158" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -5362,10 +5400,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="B159" t="s">
-        <v>461</v>
+        <v>405</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -5374,10 +5412,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="B160" t="s">
-        <v>462</v>
+        <v>404</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -5386,10 +5424,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="B161" t="s">
-        <v>463</v>
+        <v>402</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -5398,10 +5436,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="B162" t="s">
-        <v>464</v>
+        <v>400</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -5410,10 +5448,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>241</v>
+        <v>977</v>
       </c>
       <c r="B163" t="s">
-        <v>465</v>
+        <v>978</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -5422,10 +5460,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="B164" t="s">
-        <v>466</v>
+        <v>408</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -5434,7 +5472,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>243</v>
+        <v>185</v>
+      </c>
+      <c r="B165" t="s">
+        <v>409</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -5443,10 +5484,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="B166" t="s">
-        <v>467</v>
+        <v>410</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -5455,10 +5496,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>245</v>
+        <v>935</v>
       </c>
       <c r="B167" t="s">
-        <v>468</v>
+        <v>936</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -5467,10 +5508,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>246</v>
-      </c>
-      <c r="B168" t="s">
-        <v>469</v>
+        <v>931</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>932</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -5479,10 +5520,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="B169" t="s">
-        <v>470</v>
+        <v>411</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -5491,10 +5532,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>248</v>
+        <v>764</v>
       </c>
       <c r="B170" t="s">
-        <v>471</v>
+        <v>765</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -5503,10 +5544,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>249</v>
+        <v>700</v>
       </c>
       <c r="B171" t="s">
-        <v>472</v>
+        <v>701</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -5515,22 +5556,22 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>250</v>
+        <v>729</v>
       </c>
       <c r="B172" t="s">
-        <v>473</v>
+        <v>730</v>
       </c>
       <c r="C172" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="B173" t="s">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -5539,10 +5580,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="B174" t="s">
-        <v>475</v>
+        <v>413</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -5551,10 +5592,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="B175" t="s">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -5563,10 +5604,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="B176" t="s">
-        <v>477</v>
+        <v>415</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -5575,10 +5616,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>255</v>
+        <v>776</v>
       </c>
       <c r="B177" t="s">
-        <v>478</v>
+        <v>777</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -5587,10 +5628,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="B178" t="s">
-        <v>479</v>
+        <v>416</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -5599,22 +5640,22 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="B179" t="s">
-        <v>480</v>
+        <v>417</v>
       </c>
       <c r="C179" t="s">
-        <v>798</v>
+        <v>5</v>
       </c>
       <c r="D179" s="1"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>258</v>
+        <v>879</v>
       </c>
       <c r="B180" t="s">
-        <v>481</v>
+        <v>880</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -5623,10 +5664,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>259</v>
+        <v>871</v>
       </c>
       <c r="B181" t="s">
-        <v>482</v>
+        <v>872</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -5635,10 +5676,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="B182" t="s">
-        <v>483</v>
+        <v>418</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -5647,10 +5688,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>261</v>
+        <v>824</v>
       </c>
       <c r="B183" t="s">
-        <v>484</v>
+        <v>825</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -5659,10 +5700,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="B184" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -5671,10 +5712,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>263</v>
+        <v>955</v>
       </c>
       <c r="B185" t="s">
-        <v>486</v>
+        <v>956</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -5683,10 +5724,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>264</v>
+        <v>875</v>
       </c>
       <c r="B186" t="s">
-        <v>487</v>
+        <v>876</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -5695,10 +5736,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="B187" t="s">
-        <v>488</v>
+        <v>420</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -5707,10 +5748,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>266</v>
+        <v>605</v>
       </c>
       <c r="B188" t="s">
-        <v>489</v>
+        <v>606</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -5719,10 +5760,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>267</v>
+        <v>597</v>
       </c>
       <c r="B189" t="s">
-        <v>490</v>
+        <v>598</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -5731,10 +5772,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c r="B190" t="s">
-        <v>491</v>
+        <v>421</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -5743,10 +5784,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>269</v>
+        <v>867</v>
       </c>
       <c r="B191" t="s">
-        <v>492</v>
+        <v>868</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5755,10 +5796,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>270</v>
+        <v>927</v>
       </c>
       <c r="B192" t="s">
-        <v>493</v>
+        <v>928</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -5767,10 +5808,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="B193" t="s">
-        <v>494</v>
+        <v>422</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -5779,10 +5820,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="B194" t="s">
-        <v>495</v>
+        <v>423</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -5791,10 +5832,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>496</v>
+        <v>424</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5803,10 +5844,10 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="B196" t="s">
-        <v>497</v>
+        <v>425</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5815,10 +5856,10 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>275</v>
+        <v>202</v>
       </c>
       <c r="B197" t="s">
-        <v>498</v>
+        <v>426</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5827,10 +5868,10 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="B198" t="s">
-        <v>499</v>
+        <v>427</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5839,10 +5880,10 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="B199" t="s">
-        <v>500</v>
+        <v>428</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5851,22 +5892,22 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="B200" t="s">
-        <v>501</v>
+        <v>429</v>
       </c>
       <c r="C200" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D200" s="1"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>279</v>
+        <v>662</v>
       </c>
       <c r="B201" t="s">
-        <v>502</v>
+        <v>663</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5875,10 +5916,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="B202" t="s">
-        <v>503</v>
+        <v>431</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5887,10 +5928,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>504</v>
+        <v>430</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5899,10 +5940,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="B204" t="s">
-        <v>505</v>
+        <v>432</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5911,10 +5952,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="B205" t="s">
-        <v>506</v>
+        <v>433</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5923,10 +5964,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>284</v>
+        <v>210</v>
       </c>
       <c r="B206" t="s">
-        <v>507</v>
+        <v>434</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5935,10 +5976,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="B207" t="s">
-        <v>508</v>
+        <v>435</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5947,10 +5988,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="B208" t="s">
-        <v>509</v>
+        <v>436</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5959,10 +6000,10 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>510</v>
+        <v>436</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5971,10 +6012,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>511</v>
+        <v>437</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5983,10 +6024,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>289</v>
+        <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5995,10 +6036,10 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="B212" t="s">
-        <v>513</v>
+        <v>440</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -6007,10 +6048,10 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="B213" t="s">
-        <v>514</v>
+        <v>441</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -6019,10 +6060,10 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>292</v>
+        <v>855</v>
       </c>
       <c r="B214" t="s">
-        <v>515</v>
+        <v>856</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -6031,10 +6072,10 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>293</v>
+        <v>893</v>
       </c>
       <c r="B215" t="s">
-        <v>516</v>
+        <v>894</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -6043,10 +6084,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>517</v>
+        <v>439</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -6055,10 +6096,10 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>295</v>
+        <v>852</v>
       </c>
       <c r="B217" t="s">
-        <v>518</v>
+        <v>850</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -6067,10 +6108,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>296</v>
+        <v>650</v>
       </c>
       <c r="B218" t="s">
-        <v>519</v>
+        <v>651</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -6079,10 +6120,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>297</v>
+        <v>772</v>
       </c>
       <c r="B219" t="s">
-        <v>520</v>
+        <v>773</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -6091,10 +6132,10 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>298</v>
+        <v>901</v>
       </c>
       <c r="B220" t="s">
-        <v>521</v>
+        <v>902</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -6103,10 +6144,10 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>299</v>
+        <v>682</v>
       </c>
       <c r="B221" t="s">
-        <v>522</v>
+        <v>683</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -6115,10 +6156,10 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>300</v>
+        <v>938</v>
       </c>
       <c r="B222" t="s">
-        <v>523</v>
+        <v>937</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -6127,19 +6168,22 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>301</v>
-      </c>
-      <c r="C223" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C223" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D223" s="1"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>302</v>
+        <v>756</v>
       </c>
       <c r="B224" t="s">
-        <v>524</v>
+        <v>757</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -6148,10 +6192,10 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>303</v>
+        <v>692</v>
       </c>
       <c r="B225" t="s">
-        <v>525</v>
+        <v>693</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -6160,10 +6204,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="B226" t="s">
-        <v>526</v>
+        <v>442</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -6172,10 +6216,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>305</v>
+        <v>623</v>
       </c>
       <c r="B227" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -6184,10 +6228,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>306</v>
+        <v>219</v>
       </c>
       <c r="B228" t="s">
-        <v>528</v>
+        <v>443</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -6196,10 +6240,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>307</v>
+        <v>220</v>
       </c>
       <c r="B229" t="s">
-        <v>529</v>
+        <v>444</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -6208,10 +6252,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>308</v>
+        <v>221</v>
       </c>
       <c r="B230" t="s">
-        <v>530</v>
+        <v>445</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -6220,10 +6264,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>309</v>
+        <v>992</v>
       </c>
       <c r="B231" t="s">
-        <v>531</v>
+        <v>993</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -6232,22 +6276,22 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>310</v>
+        <v>953</v>
       </c>
       <c r="B232" t="s">
-        <v>532</v>
+        <v>954</v>
       </c>
       <c r="C232" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="D232" s="1"/>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>311</v>
+        <v>892</v>
       </c>
       <c r="B233" t="s">
-        <v>533</v>
+        <v>889</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -6256,10 +6300,10 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>312</v>
+        <v>885</v>
       </c>
       <c r="B234" t="s">
-        <v>534</v>
+        <v>886</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -6268,10 +6312,10 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>313</v>
+        <v>991</v>
       </c>
       <c r="B235" t="s">
-        <v>535</v>
+        <v>994</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -6280,22 +6324,22 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>314</v>
+        <v>804</v>
       </c>
       <c r="B236" t="s">
-        <v>536</v>
+        <v>805</v>
       </c>
       <c r="C236" t="s">
-        <v>5</v>
+        <v>807</v>
       </c>
       <c r="D236" s="1"/>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="B237" t="s">
-        <v>537</v>
+        <v>446</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -6304,10 +6348,10 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="B238" t="s">
-        <v>538</v>
+        <v>447</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -6316,10 +6360,10 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>317</v>
+        <v>224</v>
       </c>
       <c r="B239" t="s">
-        <v>539</v>
+        <v>448</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -6328,10 +6372,10 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>318</v>
+        <v>225</v>
       </c>
       <c r="B240" t="s">
-        <v>540</v>
+        <v>449</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -6340,10 +6384,10 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>319</v>
+        <v>226</v>
       </c>
       <c r="B241" t="s">
-        <v>541</v>
+        <v>450</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -6352,10 +6396,10 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c r="B242" t="s">
-        <v>542</v>
+        <v>451</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -6364,10 +6408,10 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>321</v>
+        <v>228</v>
       </c>
       <c r="B243" t="s">
-        <v>543</v>
+        <v>452</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -6376,10 +6420,10 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="B244" t="s">
-        <v>544</v>
+        <v>453</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -6388,22 +6432,22 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>323</v>
+        <v>230</v>
       </c>
       <c r="B245" t="s">
-        <v>545</v>
+        <v>454</v>
       </c>
       <c r="C245" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="D245" s="1"/>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>324</v>
+        <v>231</v>
       </c>
       <c r="B246" t="s">
-        <v>546</v>
+        <v>455</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -6412,10 +6456,10 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>325</v>
+        <v>232</v>
       </c>
       <c r="B247" t="s">
-        <v>547</v>
+        <v>456</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -6424,10 +6468,10 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>326</v>
+        <v>696</v>
       </c>
       <c r="B248" t="s">
-        <v>548</v>
+        <v>697</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -6436,10 +6480,10 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>327</v>
+        <v>917</v>
       </c>
       <c r="B249" t="s">
-        <v>549</v>
+        <v>918</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -6448,10 +6492,10 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>328</v>
+        <v>844</v>
       </c>
       <c r="B250" t="s">
-        <v>550</v>
+        <v>845</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -6460,10 +6504,10 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>329</v>
+        <v>704</v>
       </c>
       <c r="B251" t="s">
-        <v>551</v>
+        <v>705</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -6472,10 +6516,10 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>330</v>
+        <v>233</v>
       </c>
       <c r="B252" t="s">
-        <v>552</v>
+        <v>457</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -6484,10 +6528,10 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>331</v>
+        <v>235</v>
       </c>
       <c r="B253" t="s">
-        <v>553</v>
+        <v>459</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -6496,10 +6540,10 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
       <c r="B254" t="s">
-        <v>554</v>
+        <v>458</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -6508,10 +6552,10 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>333</v>
+        <v>754</v>
       </c>
       <c r="B255" t="s">
-        <v>555</v>
+        <v>755</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -6520,10 +6564,10 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>334</v>
+        <v>859</v>
       </c>
       <c r="B256" t="s">
-        <v>556</v>
+        <v>860</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -6532,10 +6576,10 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="B257" t="s">
-        <v>557</v>
+        <v>460</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -6544,10 +6588,10 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="B258" t="s">
-        <v>558</v>
+        <v>461</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -6556,10 +6600,10 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>337</v>
+        <v>890</v>
       </c>
       <c r="B259" t="s">
-        <v>559</v>
+        <v>891</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -6568,10 +6612,10 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="B260" t="s">
-        <v>560</v>
+        <v>462</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -6580,10 +6624,10 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>722</v>
+        <v>808</v>
       </c>
       <c r="B261" t="s">
-        <v>561</v>
+        <v>809</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -6592,10 +6636,10 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>723</v>
+        <v>911</v>
       </c>
       <c r="B262" t="s">
-        <v>724</v>
+        <v>912</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -6604,10 +6648,10 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="B263" t="s">
-        <v>562</v>
+        <v>463</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -6616,10 +6660,10 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>340</v>
+        <v>670</v>
       </c>
       <c r="B264" t="s">
-        <v>563</v>
+        <v>671</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -6628,10 +6672,10 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>341</v>
+        <v>752</v>
       </c>
       <c r="B265" t="s">
-        <v>564</v>
+        <v>753</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -6640,10 +6684,10 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>342</v>
+        <v>637</v>
       </c>
       <c r="B266" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -6652,10 +6696,10 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>343</v>
+        <v>240</v>
       </c>
       <c r="B267" t="s">
-        <v>566</v>
+        <v>464</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -6664,10 +6708,10 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>344</v>
+        <v>241</v>
       </c>
       <c r="B268" t="s">
-        <v>567</v>
+        <v>465</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -6676,10 +6720,10 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>345</v>
+        <v>242</v>
       </c>
       <c r="B269" t="s">
-        <v>568</v>
+        <v>466</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -6688,10 +6732,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>346</v>
-      </c>
-      <c r="B270" t="s">
-        <v>569</v>
+        <v>243</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -6700,10 +6741,10 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>347</v>
+        <v>244</v>
       </c>
       <c r="B271" t="s">
-        <v>570</v>
+        <v>467</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -6712,10 +6753,10 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>348</v>
+        <v>245</v>
       </c>
       <c r="B272" t="s">
-        <v>571</v>
+        <v>468</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -6724,10 +6765,10 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>349</v>
+        <v>706</v>
       </c>
       <c r="B273" t="s">
-        <v>572</v>
+        <v>707</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -6736,10 +6777,10 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>350</v>
+        <v>246</v>
       </c>
       <c r="B274" t="s">
-        <v>573</v>
+        <v>469</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -6748,10 +6789,10 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>351</v>
+        <v>667</v>
       </c>
       <c r="B275" t="s">
-        <v>574</v>
+        <v>666</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -6760,22 +6801,22 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="B276" t="s">
-        <v>575</v>
+        <v>470</v>
       </c>
       <c r="C276" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="D276" s="1"/>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>353</v>
+        <v>766</v>
       </c>
       <c r="B277" t="s">
-        <v>576</v>
+        <v>767</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -6784,10 +6825,10 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>354</v>
+        <v>248</v>
       </c>
       <c r="B278" t="s">
-        <v>577</v>
+        <v>471</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -6796,10 +6837,10 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>355</v>
+        <v>830</v>
       </c>
       <c r="B279" t="s">
-        <v>578</v>
+        <v>831</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -6808,10 +6849,10 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>356</v>
+        <v>788</v>
       </c>
       <c r="B280" t="s">
-        <v>579</v>
+        <v>789</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6820,10 +6861,10 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>357</v>
+        <v>249</v>
       </c>
       <c r="B281" t="s">
-        <v>580</v>
+        <v>472</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6832,10 +6873,10 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>358</v>
+        <v>250</v>
       </c>
       <c r="B282" t="s">
-        <v>581</v>
+        <v>473</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6844,10 +6885,10 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>359</v>
+        <v>899</v>
       </c>
       <c r="B283" t="s">
-        <v>582</v>
+        <v>900</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6856,10 +6897,10 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>360</v>
+        <v>251</v>
       </c>
       <c r="B284" t="s">
-        <v>583</v>
+        <v>474</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6868,10 +6909,10 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>361</v>
+        <v>708</v>
       </c>
       <c r="B285" t="s">
-        <v>584</v>
+        <v>709</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6880,10 +6921,10 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="B286" t="s">
-        <v>144</v>
+        <v>475</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6892,10 +6933,10 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>362</v>
+        <v>975</v>
       </c>
       <c r="B287" t="s">
-        <v>585</v>
+        <v>976</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6904,10 +6945,10 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="B288" t="s">
-        <v>586</v>
+        <v>476</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6916,10 +6957,10 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>364</v>
+        <v>834</v>
       </c>
       <c r="B289" t="s">
-        <v>587</v>
+        <v>835</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6928,10 +6969,10 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>365</v>
+        <v>254</v>
       </c>
       <c r="B290" t="s">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6940,10 +6981,10 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="B291" t="s">
-        <v>589</v>
+        <v>478</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6952,10 +6993,10 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>367</v>
+        <v>256</v>
       </c>
       <c r="B292" t="s">
-        <v>590</v>
+        <v>479</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6964,10 +7005,10 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>368</v>
+        <v>608</v>
       </c>
       <c r="B293" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6976,10 +7017,10 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>369</v>
+        <v>907</v>
       </c>
       <c r="B294" t="s">
-        <v>592</v>
+        <v>908</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6988,10 +7029,10 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>370</v>
+        <v>258</v>
       </c>
       <c r="B295" t="s">
-        <v>593</v>
+        <v>481</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -7000,22 +7041,22 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>371</v>
+        <v>257</v>
       </c>
       <c r="B296" t="s">
-        <v>594</v>
+        <v>480</v>
       </c>
       <c r="C296" t="s">
-        <v>5</v>
+        <v>798</v>
       </c>
       <c r="D296" s="1"/>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>372</v>
+        <v>786</v>
       </c>
       <c r="B297" t="s">
-        <v>595</v>
+        <v>787</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -7024,10 +7065,10 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>373</v>
+        <v>710</v>
       </c>
       <c r="B298" t="s">
-        <v>596</v>
+        <v>711</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -7036,10 +7077,10 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="B299" t="s">
-        <v>146</v>
+        <v>482</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -7048,10 +7089,10 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="B300" t="s">
-        <v>148</v>
+        <v>483</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -7060,22 +7101,22 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2" t="s">
-        <v>731</v>
+        <v>262</v>
       </c>
       <c r="B301" t="s">
-        <v>725</v>
+        <v>485</v>
       </c>
       <c r="C301" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D301" s="1"/>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>597</v>
+        <v>740</v>
       </c>
       <c r="B302" t="s">
-        <v>598</v>
+        <v>741</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -7084,10 +7125,10 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>599</v>
+        <v>263</v>
       </c>
       <c r="B303" t="s">
-        <v>600</v>
+        <v>486</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -7096,10 +7137,10 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>601</v>
+        <v>1000</v>
       </c>
       <c r="B304" t="s">
-        <v>602</v>
+        <v>1001</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -7108,10 +7149,10 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>603</v>
+        <v>264</v>
       </c>
       <c r="B305" t="s">
-        <v>604</v>
+        <v>487</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -7120,10 +7161,10 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>605</v>
+        <v>261</v>
       </c>
       <c r="B306" t="s">
-        <v>606</v>
+        <v>484</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -7132,10 +7173,10 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>608</v>
+        <v>265</v>
       </c>
       <c r="B307" t="s">
-        <v>607</v>
+        <v>488</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -7144,10 +7185,10 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>609</v>
+        <v>266</v>
       </c>
       <c r="B308" t="s">
-        <v>610</v>
+        <v>489</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -7156,10 +7197,10 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>611</v>
+        <v>267</v>
       </c>
       <c r="B309" t="s">
-        <v>612</v>
+        <v>490</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -7168,10 +7209,10 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>613</v>
+        <v>712</v>
       </c>
       <c r="B310" t="s">
-        <v>614</v>
+        <v>713</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -7180,10 +7221,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>618</v>
+        <v>905</v>
       </c>
       <c r="B311" t="s">
-        <v>615</v>
+        <v>906</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -7192,10 +7233,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>616</v>
+        <v>268</v>
       </c>
       <c r="B312" t="s">
-        <v>617</v>
+        <v>491</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -7204,10 +7245,10 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>619</v>
+        <v>269</v>
       </c>
       <c r="B313" t="s">
-        <v>620</v>
+        <v>492</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -7216,10 +7257,10 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>621</v>
+        <v>270</v>
       </c>
       <c r="B314" t="s">
-        <v>622</v>
+        <v>493</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -7228,10 +7269,10 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>623</v>
+        <v>271</v>
       </c>
       <c r="B315" t="s">
-        <v>624</v>
+        <v>494</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -7240,10 +7281,10 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>625</v>
+        <v>272</v>
       </c>
       <c r="B316" t="s">
-        <v>626</v>
+        <v>495</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -7252,10 +7293,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>627</v>
+        <v>973</v>
       </c>
       <c r="B317" t="s">
-        <v>628</v>
+        <v>974</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -7264,10 +7305,10 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>629</v>
+        <v>989</v>
       </c>
       <c r="B318" t="s">
-        <v>630</v>
+        <v>990</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -7276,10 +7317,10 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="B319" t="s">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -7288,10 +7329,10 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>633</v>
+        <v>273</v>
       </c>
       <c r="B320" t="s">
-        <v>634</v>
+        <v>496</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -7300,10 +7341,10 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>635</v>
+        <v>274</v>
       </c>
       <c r="B321" t="s">
-        <v>636</v>
+        <v>497</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -7312,10 +7353,10 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>637</v>
+        <v>275</v>
       </c>
       <c r="B322" t="s">
-        <v>638</v>
+        <v>498</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -7324,10 +7365,10 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>639</v>
+        <v>746</v>
       </c>
       <c r="B323" t="s">
-        <v>640</v>
+        <v>747</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -7336,10 +7377,10 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>641</v>
+        <v>276</v>
       </c>
       <c r="B324" t="s">
-        <v>642</v>
+        <v>499</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -7348,10 +7389,10 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>643</v>
+        <v>277</v>
       </c>
       <c r="B325" t="s">
-        <v>644</v>
+        <v>500</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -7360,46 +7401,46 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
       <c r="B326" t="s">
-        <v>646</v>
+        <v>602</v>
       </c>
       <c r="C326" t="s">
-        <v>647</v>
+        <v>5</v>
       </c>
       <c r="D326" s="1"/>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>648</v>
+        <v>803</v>
       </c>
       <c r="B327" t="s">
-        <v>649</v>
+        <v>806</v>
       </c>
       <c r="C327" t="s">
-        <v>5</v>
+        <v>807</v>
       </c>
       <c r="D327" s="1"/>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>650</v>
+        <v>278</v>
       </c>
       <c r="B328" t="s">
-        <v>651</v>
+        <v>501</v>
       </c>
       <c r="C328" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D328" s="1"/>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>652</v>
+        <v>279</v>
       </c>
       <c r="B329" t="s">
-        <v>661</v>
+        <v>502</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -7408,10 +7449,10 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>653</v>
+        <v>280</v>
       </c>
       <c r="B330" t="s">
-        <v>660</v>
+        <v>503</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -7420,10 +7461,10 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>654</v>
-      </c>
-      <c r="B331" t="s">
-        <v>658</v>
+        <v>744</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>745</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -7432,10 +7473,10 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>655</v>
+        <v>698</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>659</v>
+        <v>699</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -7444,22 +7485,22 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>656</v>
+        <v>727</v>
       </c>
       <c r="B333" t="s">
-        <v>657</v>
+        <v>726</v>
       </c>
       <c r="C333" t="s">
-        <v>5</v>
+        <v>728</v>
       </c>
       <c r="D333" s="1"/>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>662</v>
+        <v>281</v>
       </c>
       <c r="B334" t="s">
-        <v>663</v>
+        <v>504</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>5</v>
@@ -7468,10 +7509,10 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>664</v>
+        <v>282</v>
       </c>
       <c r="B335" t="s">
-        <v>665</v>
+        <v>505</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>5</v>
@@ -7480,10 +7521,10 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>667</v>
+        <v>283</v>
       </c>
       <c r="B336" t="s">
-        <v>666</v>
+        <v>506</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>5</v>
@@ -7492,10 +7533,10 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>668</v>
+        <v>987</v>
       </c>
       <c r="B337" t="s">
-        <v>669</v>
+        <v>988</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>5</v>
@@ -7504,10 +7545,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>670</v>
+        <v>284</v>
       </c>
       <c r="B338" t="s">
-        <v>671</v>
+        <v>507</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>5</v>
@@ -7516,10 +7557,10 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>672</v>
+        <v>285</v>
       </c>
       <c r="B339" t="s">
-        <v>673</v>
+        <v>508</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>5</v>
@@ -7528,10 +7569,10 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>674</v>
+        <v>286</v>
       </c>
       <c r="B340" t="s">
-        <v>675</v>
+        <v>509</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>5</v>
@@ -7540,10 +7581,10 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>676</v>
+        <v>967</v>
       </c>
       <c r="B341" t="s">
-        <v>677</v>
+        <v>968</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>5</v>
@@ -7552,10 +7593,10 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>678</v>
+        <v>287</v>
       </c>
       <c r="B342" t="s">
-        <v>679</v>
+        <v>510</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>5</v>
@@ -7564,10 +7605,10 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>680</v>
+        <v>288</v>
       </c>
       <c r="B343" t="s">
-        <v>681</v>
+        <v>511</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>5</v>
@@ -7576,10 +7617,10 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>682</v>
+        <v>289</v>
       </c>
       <c r="B344" t="s">
-        <v>683</v>
+        <v>512</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>5</v>
@@ -7588,10 +7629,10 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>684</v>
+        <v>290</v>
       </c>
       <c r="B345" t="s">
-        <v>685</v>
+        <v>513</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>5</v>
@@ -7600,10 +7641,10 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>687</v>
+        <v>774</v>
       </c>
       <c r="B346" t="s">
-        <v>686</v>
+        <v>775</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>5</v>
@@ -7612,10 +7653,10 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>688</v>
+        <v>291</v>
       </c>
       <c r="B347" t="s">
-        <v>689</v>
+        <v>514</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>5</v>
@@ -7624,10 +7665,10 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>690</v>
+        <v>738</v>
       </c>
       <c r="B348" t="s">
-        <v>691</v>
+        <v>739</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>5</v>
@@ -7636,10 +7677,10 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>692</v>
+        <v>881</v>
       </c>
       <c r="B349" t="s">
-        <v>693</v>
+        <v>882</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>5</v>
@@ -7648,10 +7689,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>694</v>
+        <v>736</v>
       </c>
       <c r="B350" t="s">
-        <v>695</v>
+        <v>737</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>5</v>
@@ -7660,10 +7701,10 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>696</v>
+        <v>292</v>
       </c>
       <c r="B351" t="s">
-        <v>697</v>
+        <v>515</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>5</v>
@@ -7672,10 +7713,10 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>698</v>
+        <v>653</v>
       </c>
       <c r="B352" t="s">
-        <v>699</v>
+        <v>660</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>5</v>
@@ -7684,10 +7725,10 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>700</v>
+        <v>952</v>
       </c>
       <c r="B353" t="s">
-        <v>701</v>
+        <v>951</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>5</v>
@@ -7696,10 +7737,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>702</v>
+        <v>293</v>
       </c>
       <c r="B354" t="s">
-        <v>703</v>
+        <v>516</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>5</v>
@@ -7708,10 +7749,10 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>704</v>
+        <v>294</v>
       </c>
       <c r="B355" t="s">
-        <v>705</v>
+        <v>517</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>5</v>
@@ -7719,10 +7760,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>706</v>
+        <v>971</v>
       </c>
       <c r="B356" t="s">
-        <v>707</v>
+        <v>972</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>5</v>
@@ -7730,10 +7771,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>708</v>
+        <v>295</v>
       </c>
       <c r="B357" t="s">
-        <v>709</v>
+        <v>518</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>5</v>
@@ -7741,10 +7782,10 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="B358" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>5</v>
@@ -7752,10 +7793,10 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>712</v>
+        <v>296</v>
       </c>
       <c r="B359" t="s">
-        <v>713</v>
+        <v>519</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>5</v>
@@ -7763,10 +7804,10 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>714</v>
+        <v>919</v>
       </c>
       <c r="B360" t="s">
-        <v>715</v>
+        <v>920</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>5</v>
@@ -7774,10 +7815,10 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>716</v>
+        <v>297</v>
       </c>
       <c r="B361" t="s">
-        <v>717</v>
+        <v>520</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>5</v>
@@ -7785,10 +7826,10 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>718</v>
+        <v>877</v>
       </c>
       <c r="B362" t="s">
-        <v>719</v>
+        <v>878</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>5</v>
@@ -7796,10 +7837,10 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>720</v>
+        <v>680</v>
       </c>
       <c r="B363" t="s">
-        <v>721</v>
+        <v>681</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>5</v>
@@ -7807,32 +7848,32 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2" t="s">
-        <v>727</v>
+        <v>965</v>
       </c>
       <c r="B364" t="s">
-        <v>726</v>
+        <v>966</v>
       </c>
       <c r="C364" t="s">
-        <v>728</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2" t="s">
-        <v>729</v>
+        <v>298</v>
       </c>
       <c r="B365" t="s">
-        <v>730</v>
+        <v>521</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>732</v>
+        <v>913</v>
       </c>
       <c r="B366" t="s">
-        <v>733</v>
+        <v>914</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>5</v>
@@ -7840,10 +7881,10 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>735</v>
+        <v>299</v>
       </c>
       <c r="B367" t="s">
-        <v>734</v>
+        <v>522</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>5</v>
@@ -7851,10 +7892,10 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>736</v>
+        <v>300</v>
       </c>
       <c r="B368" t="s">
-        <v>737</v>
+        <v>523</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>5</v>
@@ -7862,10 +7903,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>738</v>
+        <v>903</v>
       </c>
       <c r="B369" t="s">
-        <v>739</v>
+        <v>904</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>5</v>
@@ -7873,10 +7914,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>740</v>
+        <v>836</v>
       </c>
       <c r="B370" t="s">
-        <v>741</v>
+        <v>837</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>5</v>
@@ -7884,10 +7925,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>742</v>
+        <v>869</v>
       </c>
       <c r="B371" t="s">
-        <v>743</v>
+        <v>870</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>5</v>
@@ -7895,21 +7936,19 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>744</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>745</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B372" s="10"/>
       <c r="C372" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>746</v>
+        <v>302</v>
       </c>
       <c r="B373" t="s">
-        <v>747</v>
+        <v>524</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>5</v>
@@ -7917,10 +7956,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>748</v>
+        <v>303</v>
       </c>
       <c r="B374" t="s">
-        <v>749</v>
+        <v>525</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>5</v>
@@ -7928,10 +7967,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="4" t="s">
-        <v>751</v>
+        <v>304</v>
       </c>
       <c r="B375" t="s">
-        <v>750</v>
+        <v>526</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>5</v>
@@ -7939,10 +7978,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="B376" t="s">
-        <v>753</v>
+        <v>847</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>5</v>
@@ -7950,10 +7989,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>754</v>
+        <v>305</v>
       </c>
       <c r="B377" t="s">
-        <v>755</v>
+        <v>527</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>5</v>
@@ -7961,10 +8000,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>756</v>
+        <v>625</v>
       </c>
       <c r="B378" t="s">
-        <v>757</v>
+        <v>626</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>5</v>
@@ -7972,10 +8011,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>758</v>
+        <v>639</v>
       </c>
       <c r="B379" t="s">
-        <v>759</v>
+        <v>640</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>5</v>
@@ -7983,10 +8022,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>760</v>
+        <v>678</v>
       </c>
       <c r="B380" t="s">
-        <v>761</v>
+        <v>679</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>5</v>
@@ -7994,10 +8033,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>762</v>
+        <v>672</v>
       </c>
       <c r="B381" t="s">
-        <v>763</v>
+        <v>673</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>5</v>
@@ -8005,10 +8044,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>764</v>
+        <v>306</v>
       </c>
       <c r="B382" t="s">
-        <v>765</v>
+        <v>528</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>5</v>
@@ -8016,10 +8055,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>766</v>
+        <v>307</v>
       </c>
       <c r="B383" t="s">
-        <v>767</v>
+        <v>529</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>5</v>
@@ -8027,10 +8066,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="4" t="s">
-        <v>768</v>
+        <v>818</v>
       </c>
       <c r="B384" t="s">
-        <v>769</v>
+        <v>819</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>5</v>
@@ -8038,10 +8077,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>770</v>
+        <v>308</v>
       </c>
       <c r="B385" t="s">
-        <v>771</v>
+        <v>530</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>5</v>
@@ -8049,10 +8088,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>772</v>
+        <v>688</v>
       </c>
       <c r="B386" t="s">
-        <v>773</v>
+        <v>689</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>5</v>
@@ -8060,10 +8099,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>774</v>
+        <v>309</v>
       </c>
       <c r="B387" t="s">
-        <v>775</v>
+        <v>531</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>5</v>
@@ -8071,10 +8110,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>776</v>
+        <v>897</v>
       </c>
       <c r="B388" t="s">
-        <v>777</v>
+        <v>898</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
@@ -8082,21 +8121,21 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>778</v>
+        <v>310</v>
       </c>
       <c r="B389" t="s">
-        <v>779</v>
+        <v>532</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>780</v>
+        <v>716</v>
       </c>
       <c r="B390" t="s">
-        <v>781</v>
+        <v>717</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
@@ -8104,10 +8143,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>782</v>
+        <v>311</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>783</v>
+        <v>533</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
@@ -8115,10 +8154,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>784</v>
+        <v>312</v>
       </c>
       <c r="B392" t="s">
-        <v>785</v>
+        <v>534</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
@@ -8126,10 +8165,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="B393" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
@@ -8137,10 +8176,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>788</v>
+        <v>313</v>
       </c>
       <c r="B394" t="s">
-        <v>789</v>
+        <v>535</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
@@ -8148,10 +8187,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>790</v>
+        <v>618</v>
       </c>
       <c r="B395" t="s">
-        <v>791</v>
+        <v>615</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
@@ -8159,10 +8198,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>792</v>
+        <v>613</v>
       </c>
       <c r="B396" t="s">
-        <v>793</v>
+        <v>614</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
@@ -8170,10 +8209,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>794</v>
+        <v>616</v>
       </c>
       <c r="B397" t="s">
-        <v>795</v>
+        <v>617</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
@@ -8181,10 +8220,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>796</v>
+        <v>314</v>
       </c>
       <c r="B398" t="s">
-        <v>797</v>
+        <v>536</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
@@ -8192,10 +8231,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>799</v>
+        <v>315</v>
       </c>
       <c r="B399" t="s">
-        <v>800</v>
+        <v>537</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
@@ -8203,10 +8242,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>801</v>
+        <v>316</v>
       </c>
       <c r="B400" t="s">
-        <v>802</v>
+        <v>538</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>5</v>
@@ -8214,43 +8253,43 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>803</v>
+        <v>840</v>
       </c>
       <c r="B401" t="s">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="C401" t="s">
-        <v>807</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>804</v>
+        <v>924</v>
       </c>
       <c r="B402" t="s">
-        <v>805</v>
+        <v>926</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>807</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>808</v>
+        <v>731</v>
       </c>
       <c r="B403" t="s">
-        <v>809</v>
+        <v>725</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>810</v>
+        <v>770</v>
       </c>
       <c r="B404" t="s">
-        <v>811</v>
+        <v>771</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
@@ -8258,10 +8297,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>812</v>
+        <v>317</v>
       </c>
       <c r="B405" t="s">
-        <v>813</v>
+        <v>539</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>5</v>
@@ -8269,10 +8308,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>814</v>
+        <v>732</v>
       </c>
       <c r="B406" t="s">
-        <v>815</v>
+        <v>733</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
@@ -8280,10 +8319,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>816</v>
+        <v>735</v>
       </c>
       <c r="B407" t="s">
-        <v>817</v>
+        <v>734</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
@@ -8291,10 +8330,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>818</v>
+        <v>318</v>
       </c>
       <c r="B408" t="s">
-        <v>819</v>
+        <v>540</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>5</v>
@@ -8302,10 +8341,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>820</v>
+        <v>319</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>822</v>
+        <v>541</v>
       </c>
       <c r="C409" s="6" t="s">
         <v>5</v>
@@ -8313,10 +8352,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>821</v>
+        <v>320</v>
       </c>
       <c r="B410" t="s">
-        <v>823</v>
+        <v>542</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>5</v>
@@ -8324,10 +8363,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>824</v>
+        <v>321</v>
       </c>
       <c r="B411" t="s">
-        <v>825</v>
+        <v>543</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>5</v>
@@ -8335,10 +8374,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>826</v>
+        <v>322</v>
       </c>
       <c r="B412" t="s">
-        <v>827</v>
+        <v>544</v>
       </c>
       <c r="C412" s="6" t="s">
         <v>5</v>
@@ -8346,21 +8385,21 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>828</v>
+        <v>323</v>
       </c>
       <c r="B413" t="s">
-        <v>829</v>
+        <v>545</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>830</v>
+        <v>324</v>
       </c>
       <c r="B414" t="s">
-        <v>831</v>
+        <v>546</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>5</v>
@@ -8368,10 +8407,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="B415" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>5</v>
@@ -8379,10 +8418,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="7" t="s">
-        <v>834</v>
+        <v>641</v>
       </c>
       <c r="B416" t="s">
-        <v>835</v>
+        <v>642</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>5</v>
@@ -8390,10 +8429,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>836</v>
+        <v>325</v>
       </c>
       <c r="B417" t="s">
-        <v>837</v>
+        <v>547</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>5</v>
@@ -8401,10 +8440,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>838</v>
+        <v>929</v>
       </c>
       <c r="B418" t="s">
-        <v>839</v>
+        <v>930</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>5</v>
@@ -8412,10 +8451,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>840</v>
+        <v>326</v>
       </c>
       <c r="B419" t="s">
-        <v>841</v>
+        <v>548</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>5</v>
@@ -8423,10 +8462,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>842</v>
+        <v>327</v>
       </c>
       <c r="B420" t="s">
-        <v>843</v>
+        <v>549</v>
       </c>
       <c r="C420" s="8" t="s">
         <v>5</v>
@@ -8434,10 +8473,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>844</v>
+        <v>328</v>
       </c>
       <c r="B421" t="s">
-        <v>845</v>
+        <v>550</v>
       </c>
       <c r="C421" s="8" t="s">
         <v>5</v>
@@ -8445,10 +8484,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>846</v>
+        <v>329</v>
       </c>
       <c r="B422" t="s">
-        <v>847</v>
+        <v>551</v>
       </c>
       <c r="C422" s="8" t="s">
         <v>5</v>
@@ -8456,21 +8495,21 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>848</v>
+        <v>330</v>
       </c>
       <c r="B423" t="s">
-        <v>849</v>
+        <v>552</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>851</v>
+        <v>5</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>852</v>
+        <v>331</v>
       </c>
       <c r="B424" t="s">
-        <v>850</v>
+        <v>553</v>
       </c>
       <c r="C424" s="8" t="s">
         <v>5</v>
@@ -8478,10 +8517,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>853</v>
+        <v>332</v>
       </c>
       <c r="B425" t="s">
-        <v>854</v>
+        <v>554</v>
       </c>
       <c r="C425" s="8" t="s">
         <v>5</v>
@@ -8489,10 +8528,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>855</v>
+        <v>333</v>
       </c>
       <c r="B426" t="s">
-        <v>856</v>
+        <v>555</v>
       </c>
       <c r="C426" s="8" t="s">
         <v>5</v>
@@ -8500,10 +8539,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>857</v>
+        <v>334</v>
       </c>
       <c r="B427" t="s">
-        <v>858</v>
+        <v>556</v>
       </c>
       <c r="C427" s="8" t="s">
         <v>5</v>
@@ -8511,10 +8550,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>859</v>
+        <v>810</v>
       </c>
       <c r="B428" t="s">
-        <v>860</v>
+        <v>811</v>
       </c>
       <c r="C428" s="8" t="s">
         <v>5</v>
@@ -8522,10 +8561,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>861</v>
+        <v>335</v>
       </c>
       <c r="B429" t="s">
-        <v>862</v>
+        <v>557</v>
       </c>
       <c r="C429" s="8" t="s">
         <v>5</v>
@@ -8533,10 +8572,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>863</v>
+        <v>828</v>
       </c>
       <c r="B430" t="s">
-        <v>864</v>
+        <v>829</v>
       </c>
       <c r="C430" s="8" t="s">
         <v>5</v>
@@ -8544,10 +8583,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>865</v>
+        <v>718</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>866</v>
+        <v>719</v>
       </c>
       <c r="C431" s="10" t="s">
         <v>5</v>
@@ -8555,10 +8594,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>867</v>
+        <v>629</v>
       </c>
       <c r="B432" t="s">
-        <v>868</v>
+        <v>630</v>
       </c>
       <c r="C432" s="10" t="s">
         <v>5</v>
@@ -8566,10 +8605,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>869</v>
+        <v>336</v>
       </c>
       <c r="B433" t="s">
-        <v>870</v>
+        <v>558</v>
       </c>
       <c r="C433" s="10" t="s">
         <v>5</v>
@@ -8577,10 +8616,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="B434" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="C434" s="10" t="s">
         <v>5</v>
@@ -8588,10 +8627,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>873</v>
+        <v>599</v>
       </c>
       <c r="B435" t="s">
-        <v>874</v>
+        <v>600</v>
       </c>
       <c r="C435" s="10" t="s">
         <v>5</v>
@@ -8599,10 +8638,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>875</v>
+        <v>337</v>
       </c>
       <c r="B436" t="s">
-        <v>876</v>
+        <v>559</v>
       </c>
       <c r="C436" s="10" t="s">
         <v>5</v>
@@ -8610,10 +8649,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>877</v>
+        <v>338</v>
       </c>
       <c r="B437" t="s">
-        <v>878</v>
+        <v>560</v>
       </c>
       <c r="C437" s="10" t="s">
         <v>5</v>
@@ -8621,10 +8660,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>879</v>
+        <v>722</v>
       </c>
       <c r="B438" t="s">
-        <v>880</v>
+        <v>561</v>
       </c>
       <c r="C438" s="10" t="s">
         <v>5</v>
@@ -8632,10 +8671,10 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>881</v>
+        <v>915</v>
       </c>
       <c r="B439" t="s">
-        <v>882</v>
+        <v>916</v>
       </c>
       <c r="C439" s="10" t="s">
         <v>5</v>
@@ -8643,10 +8682,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>883</v>
+        <v>723</v>
       </c>
       <c r="B440" t="s">
-        <v>884</v>
+        <v>724</v>
       </c>
       <c r="C440" s="10" t="s">
         <v>5</v>
@@ -8654,10 +8693,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>885</v>
+        <v>801</v>
       </c>
       <c r="B441" t="s">
-        <v>886</v>
+        <v>802</v>
       </c>
       <c r="C441" s="10" t="s">
         <v>5</v>
@@ -8665,10 +8704,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>887</v>
+        <v>784</v>
       </c>
       <c r="B442" t="s">
-        <v>888</v>
+        <v>785</v>
       </c>
       <c r="C442" s="10" t="s">
         <v>5</v>
@@ -8676,10 +8715,10 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="10" t="s">
-        <v>892</v>
+        <v>339</v>
       </c>
       <c r="B443" t="s">
-        <v>889</v>
+        <v>562</v>
       </c>
       <c r="C443" s="10" t="s">
         <v>5</v>
@@ -8687,10 +8726,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>890</v>
+        <v>842</v>
       </c>
       <c r="B444" t="s">
-        <v>891</v>
+        <v>843</v>
       </c>
       <c r="C444" s="10" t="s">
         <v>5</v>
@@ -8698,10 +8737,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>893</v>
+        <v>340</v>
       </c>
       <c r="B445" t="s">
-        <v>894</v>
+        <v>563</v>
       </c>
       <c r="C445" s="10" t="s">
         <v>5</v>
@@ -8709,10 +8748,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>895</v>
+        <v>341</v>
       </c>
       <c r="B446" t="s">
-        <v>896</v>
+        <v>564</v>
       </c>
       <c r="C446" s="10" t="s">
         <v>5</v>
@@ -8720,10 +8759,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>897</v>
+        <v>342</v>
       </c>
       <c r="B447" t="s">
-        <v>898</v>
+        <v>565</v>
       </c>
       <c r="C447" s="10" t="s">
         <v>5</v>
@@ -8731,21 +8770,21 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>899</v>
+        <v>645</v>
       </c>
       <c r="B448" t="s">
-        <v>900</v>
+        <v>646</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>5</v>
+        <v>647</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>901</v>
+        <v>343</v>
       </c>
       <c r="B449" t="s">
-        <v>902</v>
+        <v>566</v>
       </c>
       <c r="C449" s="10" t="s">
         <v>5</v>
@@ -8753,10 +8792,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>903</v>
+        <v>963</v>
       </c>
       <c r="B450" t="s">
-        <v>904</v>
+        <v>964</v>
       </c>
       <c r="C450" s="10" t="s">
         <v>5</v>
@@ -8764,10 +8803,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>905</v>
+        <v>344</v>
       </c>
       <c r="B451" t="s">
-        <v>906</v>
+        <v>567</v>
       </c>
       <c r="C451" s="10" t="s">
         <v>5</v>
@@ -8775,10 +8814,10 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>907</v>
+        <v>345</v>
       </c>
       <c r="B452" t="s">
-        <v>908</v>
+        <v>568</v>
       </c>
       <c r="C452" s="10" t="s">
         <v>5</v>
@@ -8786,10 +8825,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>909</v>
+        <v>346</v>
       </c>
       <c r="B453" t="s">
-        <v>910</v>
+        <v>569</v>
       </c>
       <c r="C453" s="10" t="s">
         <v>5</v>
@@ -8797,10 +8836,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>911</v>
+        <v>347</v>
       </c>
       <c r="B454" t="s">
-        <v>912</v>
+        <v>570</v>
       </c>
       <c r="C454" s="10" t="s">
         <v>5</v>
@@ -8808,10 +8847,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>913</v>
+        <v>348</v>
       </c>
       <c r="B455" t="s">
-        <v>914</v>
+        <v>571</v>
       </c>
       <c r="C455" s="10" t="s">
         <v>5</v>
@@ -8819,10 +8858,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>915</v>
+        <v>349</v>
       </c>
       <c r="B456" t="s">
-        <v>916</v>
+        <v>572</v>
       </c>
       <c r="C456" s="10" t="s">
         <v>5</v>
@@ -8830,10 +8869,10 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>917</v>
+        <v>350</v>
       </c>
       <c r="B457" t="s">
-        <v>918</v>
+        <v>573</v>
       </c>
       <c r="C457" s="10" t="s">
         <v>5</v>
@@ -8841,10 +8880,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>919</v>
+        <v>857</v>
       </c>
       <c r="B458" t="s">
-        <v>920</v>
+        <v>858</v>
       </c>
       <c r="C458" s="10" t="s">
         <v>5</v>
@@ -8852,21 +8891,21 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>921</v>
+        <v>684</v>
       </c>
       <c r="B459" t="s">
-        <v>922</v>
+        <v>685</v>
       </c>
       <c r="C459" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:3">
-      <c r="A460" s="11" t="s">
-        <v>925</v>
+      <c r="A460" s="10" t="s">
+        <v>687</v>
       </c>
       <c r="B460" t="s">
-        <v>923</v>
+        <v>686</v>
       </c>
       <c r="C460" s="10" t="s">
         <v>5</v>
@@ -8874,10 +8913,10 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>924</v>
+        <v>351</v>
       </c>
       <c r="B461" t="s">
-        <v>926</v>
+        <v>574</v>
       </c>
       <c r="C461" s="10" t="s">
         <v>5</v>
@@ -8885,21 +8924,21 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>927</v>
+        <v>352</v>
       </c>
       <c r="B462" t="s">
-        <v>928</v>
+        <v>575</v>
       </c>
       <c r="C462" s="10" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>929</v>
+        <v>950</v>
       </c>
       <c r="B463" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
       <c r="C463" s="10" t="s">
         <v>5</v>
@@ -8907,10 +8946,10 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>931</v>
+        <v>353</v>
       </c>
       <c r="B464" t="s">
-        <v>932</v>
+        <v>576</v>
       </c>
       <c r="C464" s="10" t="s">
         <v>5</v>
@@ -8918,10 +8957,10 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="10" t="s">
-        <v>934</v>
+        <v>676</v>
       </c>
       <c r="B465" t="s">
-        <v>933</v>
+        <v>677</v>
       </c>
       <c r="C465" s="10" t="s">
         <v>5</v>
@@ -8929,10 +8968,10 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>935</v>
+        <v>821</v>
       </c>
       <c r="B466" t="s">
-        <v>936</v>
+        <v>823</v>
       </c>
       <c r="C466" s="10" t="s">
         <v>5</v>
@@ -8940,10 +8979,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="10" t="s">
-        <v>938</v>
+        <v>354</v>
       </c>
       <c r="B467" t="s">
-        <v>937</v>
+        <v>577</v>
       </c>
       <c r="C467" s="10" t="s">
         <v>5</v>
@@ -8951,10 +8990,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>939</v>
+        <v>674</v>
       </c>
       <c r="B468" t="s">
-        <v>940</v>
+        <v>675</v>
       </c>
       <c r="C468" s="10" t="s">
         <v>5</v>
@@ -8962,10 +9001,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>941</v>
+        <v>778</v>
       </c>
       <c r="B469" t="s">
-        <v>942</v>
+        <v>779</v>
       </c>
       <c r="C469" s="10" t="s">
         <v>5</v>
@@ -8973,10 +9012,10 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>943</v>
+        <v>355</v>
       </c>
       <c r="B470" t="s">
-        <v>946</v>
+        <v>578</v>
       </c>
       <c r="C470" s="10" t="s">
         <v>5</v>
@@ -8984,10 +9023,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>944</v>
+        <v>356</v>
       </c>
       <c r="B471" t="s">
-        <v>945</v>
+        <v>579</v>
       </c>
       <c r="C471" s="10" t="s">
         <v>5</v>
@@ -8995,10 +9034,10 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>947</v>
+        <v>720</v>
       </c>
       <c r="B472" t="s">
-        <v>948</v>
+        <v>721</v>
       </c>
       <c r="C472" s="10" t="s">
         <v>5</v>
@@ -9006,10 +9045,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="10" t="s">
-        <v>950</v>
+        <v>358</v>
       </c>
       <c r="B473" t="s">
-        <v>949</v>
+        <v>581</v>
       </c>
       <c r="C473" s="10" t="s">
         <v>5</v>
@@ -9017,10 +9056,10 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="10" t="s">
-        <v>952</v>
+        <v>357</v>
       </c>
       <c r="B474" t="s">
-        <v>951</v>
+        <v>580</v>
       </c>
       <c r="C474" s="10" t="s">
         <v>5</v>
@@ -9028,10 +9067,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="B475" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="C475" s="10" t="s">
         <v>5</v>
@@ -9039,10 +9078,10 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>955</v>
+        <v>359</v>
       </c>
       <c r="B476" t="s">
-        <v>956</v>
+        <v>582</v>
       </c>
       <c r="C476" s="10" t="s">
         <v>5</v>
@@ -9050,10 +9089,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>957</v>
+        <v>690</v>
       </c>
       <c r="B477" t="s">
-        <v>958</v>
+        <v>691</v>
       </c>
       <c r="C477" s="10" t="s">
         <v>5</v>
@@ -9061,10 +9100,10 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="10" t="s">
-        <v>959</v>
+        <v>360</v>
       </c>
       <c r="B478" t="s">
-        <v>960</v>
+        <v>583</v>
       </c>
       <c r="C478" s="10" t="s">
         <v>5</v>
@@ -9072,10 +9111,10 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>961</v>
+        <v>361</v>
       </c>
       <c r="B479" t="s">
-        <v>962</v>
+        <v>584</v>
       </c>
       <c r="C479" s="10" t="s">
         <v>5</v>
@@ -9083,10 +9122,10 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>963</v>
+        <v>143</v>
       </c>
       <c r="B480" t="s">
-        <v>964</v>
+        <v>144</v>
       </c>
       <c r="C480" s="10" t="s">
         <v>5</v>
@@ -9094,10 +9133,10 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="B481" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="C481" s="10" t="s">
         <v>5</v>
@@ -9105,10 +9144,10 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>967</v>
+        <v>362</v>
       </c>
       <c r="B482" t="s">
-        <v>968</v>
+        <v>585</v>
       </c>
       <c r="C482" s="10" t="s">
         <v>5</v>
@@ -9116,10 +9155,10 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>969</v>
+        <v>609</v>
       </c>
       <c r="B483" t="s">
-        <v>970</v>
+        <v>610</v>
       </c>
       <c r="C483" s="10" t="s">
         <v>5</v>
@@ -9127,10 +9166,10 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>971</v>
+        <v>363</v>
       </c>
       <c r="B484" t="s">
-        <v>972</v>
+        <v>586</v>
       </c>
       <c r="C484" s="10" t="s">
         <v>5</v>
@@ -9138,10 +9177,10 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>973</v>
+        <v>643</v>
       </c>
       <c r="B485" t="s">
-        <v>974</v>
+        <v>644</v>
       </c>
       <c r="C485" s="10" t="s">
         <v>5</v>
@@ -9149,10 +9188,10 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>975</v>
+        <v>364</v>
       </c>
       <c r="B486" t="s">
-        <v>976</v>
+        <v>587</v>
       </c>
       <c r="C486" s="10" t="s">
         <v>5</v>
@@ -9160,10 +9199,10 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>977</v>
+        <v>365</v>
       </c>
       <c r="B487" t="s">
-        <v>978</v>
+        <v>588</v>
       </c>
       <c r="C487" s="10" t="s">
         <v>5</v>
@@ -9171,10 +9210,10 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>979</v>
+        <v>366</v>
       </c>
       <c r="B488" t="s">
-        <v>980</v>
+        <v>589</v>
       </c>
       <c r="C488" s="10" t="s">
         <v>5</v>
@@ -9182,10 +9221,10 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>981</v>
+        <v>826</v>
       </c>
       <c r="B489" t="s">
-        <v>982</v>
+        <v>827</v>
       </c>
       <c r="C489" s="10" t="s">
         <v>5</v>
@@ -9193,10 +9232,10 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>983</v>
+        <v>368</v>
       </c>
       <c r="B490" t="s">
-        <v>984</v>
+        <v>591</v>
       </c>
       <c r="C490" s="10" t="s">
         <v>5</v>
@@ -9204,10 +9243,10 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>985</v>
+        <v>367</v>
       </c>
       <c r="B491" t="s">
-        <v>986</v>
+        <v>590</v>
       </c>
       <c r="C491" s="10" t="s">
         <v>5</v>
@@ -9215,10 +9254,10 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>987</v>
+        <v>369</v>
       </c>
       <c r="B492" t="s">
-        <v>988</v>
+        <v>592</v>
       </c>
       <c r="C492" s="10" t="s">
         <v>5</v>
@@ -9226,10 +9265,10 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>989</v>
+        <v>370</v>
       </c>
       <c r="B493" t="s">
-        <v>990</v>
+        <v>593</v>
       </c>
       <c r="C493" s="10" t="s">
         <v>5</v>
@@ -9237,10 +9276,10 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>991</v>
+        <v>371</v>
       </c>
       <c r="B494" t="s">
-        <v>994</v>
+        <v>594</v>
       </c>
       <c r="C494" s="10" t="s">
         <v>5</v>
@@ -9248,10 +9287,10 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>992</v>
+        <v>372</v>
       </c>
       <c r="B495" t="s">
-        <v>993</v>
+        <v>595</v>
       </c>
       <c r="C495" s="10" t="s">
         <v>5</v>
@@ -9259,10 +9298,10 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>995</v>
+        <v>838</v>
       </c>
       <c r="B496" t="s">
-        <v>996</v>
+        <v>839</v>
       </c>
       <c r="C496" s="10" t="s">
         <v>5</v>
@@ -9270,10 +9309,10 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>997</v>
+        <v>373</v>
       </c>
       <c r="B497" t="s">
-        <v>998</v>
+        <v>596</v>
       </c>
       <c r="C497" s="10" t="s">
         <v>5</v>
@@ -9281,10 +9320,10 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>999</v>
+        <v>832</v>
       </c>
       <c r="B498" t="s">
-        <v>1002</v>
+        <v>833</v>
       </c>
       <c r="C498" s="10" t="s">
         <v>5</v>
@@ -9292,10 +9331,10 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>1000</v>
+        <v>145</v>
       </c>
       <c r="B499" t="s">
-        <v>1001</v>
+        <v>146</v>
       </c>
       <c r="C499" s="10" t="s">
         <v>5</v>
@@ -9303,12 +9342,78 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>1003</v>
+        <v>147</v>
       </c>
       <c r="B500" t="s">
-        <v>1004</v>
+        <v>148</v>
       </c>
       <c r="C500" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
+        <v>792</v>
+      </c>
+      <c r="B501" t="s">
+        <v>793</v>
+      </c>
+      <c r="C501" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C502" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C503" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C504" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C505" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C506" s="10" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="1031">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3113,6 +3113,48 @@
   </si>
   <si>
     <t>tt0231844</t>
+  </si>
+  <si>
+    <t>Being 17</t>
+  </si>
+  <si>
+    <t>tt4331970</t>
+  </si>
+  <si>
+    <t>Gone But Not Forgotten</t>
+  </si>
+  <si>
+    <t>tt0375782</t>
+  </si>
+  <si>
+    <t>Cibrâil </t>
+  </si>
+  <si>
+    <t>tt1883160</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>tt1796406</t>
+  </si>
+  <si>
+    <t>Why Him?</t>
+  </si>
+  <si>
+    <t>tt4501244</t>
+  </si>
+  <si>
+    <t>Tangled: Before Ever After</t>
+  </si>
+  <si>
+    <t>tt5533228</t>
+  </si>
+  <si>
+    <t>Resident Evil: The Final Chapter</t>
+  </si>
+  <si>
+    <t>tt2592614</t>
   </si>
 </sst>
 </file>
@@ -3489,10 +3531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D506"/>
+  <dimension ref="A1:D513"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C506"/>
+      <selection activeCell="D501" sqref="D501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9417,6 +9459,83 @@
         <v>5</v>
       </c>
     </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C507" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C508" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C509" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C510" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C512" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C513" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="1039">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3155,6 +3155,30 @@
   </si>
   <si>
     <t>tt2592614</t>
+  </si>
+  <si>
+    <t>Bad Boy Street</t>
+  </si>
+  <si>
+    <t>tt2240764</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>tt3026824</t>
+  </si>
+  <si>
+    <t>Splash</t>
+  </si>
+  <si>
+    <t>tt0088161</t>
+  </si>
+  <si>
+    <t>Gantz: O </t>
+  </si>
+  <si>
+    <t>tt5923962</t>
   </si>
 </sst>
 </file>
@@ -3230,7 +3254,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D1048576" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D1048575" totalsRowShown="0">
   <sortState ref="A2:D501">
     <sortCondition ref="A1:A1048576"/>
   </sortState>
@@ -3531,10 +3555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D513"/>
+  <dimension ref="A1:D516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="D501" sqref="D501"/>
+    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
+      <selection activeCell="C515" sqref="C515:C516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6042,10 +6066,10 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B209" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -6054,10 +6078,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B210" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -6066,10 +6090,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B211" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -6078,10 +6102,10 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B212" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -6090,10 +6114,10 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>217</v>
+        <v>855</v>
       </c>
       <c r="B213" t="s">
-        <v>441</v>
+        <v>856</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -6102,10 +6126,10 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>855</v>
+        <v>893</v>
       </c>
       <c r="B214" t="s">
-        <v>856</v>
+        <v>894</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -6114,10 +6138,10 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>893</v>
+        <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>894</v>
+        <v>439</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -6126,10 +6150,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>852</v>
       </c>
       <c r="B216" t="s">
-        <v>439</v>
+        <v>850</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -6138,10 +6162,10 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>852</v>
+        <v>650</v>
       </c>
       <c r="B217" t="s">
-        <v>850</v>
+        <v>651</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -6150,10 +6174,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>650</v>
+        <v>772</v>
       </c>
       <c r="B218" t="s">
-        <v>651</v>
+        <v>773</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -6162,10 +6186,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>772</v>
+        <v>901</v>
       </c>
       <c r="B219" t="s">
-        <v>773</v>
+        <v>902</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -6174,10 +6198,10 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>901</v>
+        <v>682</v>
       </c>
       <c r="B220" t="s">
-        <v>902</v>
+        <v>683</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -6186,10 +6210,10 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>682</v>
+        <v>938</v>
       </c>
       <c r="B221" t="s">
-        <v>683</v>
+        <v>937</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -6198,34 +6222,34 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>938</v>
+        <v>1005</v>
       </c>
       <c r="B222" t="s">
-        <v>937</v>
-      </c>
-      <c r="C222" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C222" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D222" s="1"/>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>1005</v>
+        <v>756</v>
       </c>
       <c r="B223" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C223" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="C223" t="s">
         <v>5</v>
       </c>
       <c r="D223" s="1"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>756</v>
+        <v>692</v>
       </c>
       <c r="B224" t="s">
-        <v>757</v>
+        <v>693</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -6234,10 +6258,10 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>692</v>
+        <v>218</v>
       </c>
       <c r="B225" t="s">
-        <v>693</v>
+        <v>442</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -6246,10 +6270,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>218</v>
+        <v>623</v>
       </c>
       <c r="B226" t="s">
-        <v>442</v>
+        <v>624</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -6258,10 +6282,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>623</v>
+        <v>219</v>
       </c>
       <c r="B227" t="s">
-        <v>624</v>
+        <v>443</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -6270,10 +6294,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B228" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -6282,10 +6306,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B229" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -6294,10 +6318,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>221</v>
+        <v>992</v>
       </c>
       <c r="B230" t="s">
-        <v>445</v>
+        <v>993</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -6306,10 +6330,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>992</v>
+        <v>953</v>
       </c>
       <c r="B231" t="s">
-        <v>993</v>
+        <v>954</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -6318,10 +6342,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>953</v>
+        <v>892</v>
       </c>
       <c r="B232" t="s">
-        <v>954</v>
+        <v>889</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -6330,10 +6354,10 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B233" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -6342,10 +6366,10 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>885</v>
+        <v>991</v>
       </c>
       <c r="B234" t="s">
-        <v>886</v>
+        <v>994</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -6354,34 +6378,34 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>991</v>
+        <v>804</v>
       </c>
       <c r="B235" t="s">
-        <v>994</v>
+        <v>805</v>
       </c>
       <c r="C235" t="s">
-        <v>5</v>
+        <v>807</v>
       </c>
       <c r="D235" s="1"/>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>804</v>
+        <v>222</v>
       </c>
       <c r="B236" t="s">
-        <v>805</v>
+        <v>446</v>
       </c>
       <c r="C236" t="s">
-        <v>807</v>
+        <v>5</v>
       </c>
       <c r="D236" s="1"/>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B237" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -6390,10 +6414,10 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B238" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -6402,10 +6426,10 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B239" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -6414,10 +6438,10 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B240" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -6426,10 +6450,10 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B241" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -6438,10 +6462,10 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B242" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -6450,10 +6474,10 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B243" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -6462,10 +6486,10 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B244" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -6474,10 +6498,10 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B245" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -6486,10 +6510,10 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B246" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -6498,10 +6522,10 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>232</v>
+        <v>696</v>
       </c>
       <c r="B247" t="s">
-        <v>456</v>
+        <v>697</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -6510,10 +6534,10 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>696</v>
+        <v>917</v>
       </c>
       <c r="B248" t="s">
-        <v>697</v>
+        <v>918</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -6522,10 +6546,10 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>917</v>
+        <v>844</v>
       </c>
       <c r="B249" t="s">
-        <v>918</v>
+        <v>845</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -6534,10 +6558,10 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>844</v>
+        <v>704</v>
       </c>
       <c r="B250" t="s">
-        <v>845</v>
+        <v>705</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -6546,10 +6570,10 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>704</v>
+        <v>233</v>
       </c>
       <c r="B251" t="s">
-        <v>705</v>
+        <v>457</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -6558,10 +6582,10 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B252" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -6570,10 +6594,10 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B253" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -6582,10 +6606,10 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>234</v>
+        <v>754</v>
       </c>
       <c r="B254" t="s">
-        <v>458</v>
+        <v>755</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -6594,10 +6618,10 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>754</v>
+        <v>859</v>
       </c>
       <c r="B255" t="s">
-        <v>755</v>
+        <v>860</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -6606,10 +6630,10 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>859</v>
+        <v>236</v>
       </c>
       <c r="B256" t="s">
-        <v>860</v>
+        <v>460</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -6618,10 +6642,10 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B257" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -6630,10 +6654,10 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>237</v>
+        <v>890</v>
       </c>
       <c r="B258" t="s">
-        <v>461</v>
+        <v>891</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -6642,10 +6666,10 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>890</v>
+        <v>238</v>
       </c>
       <c r="B259" t="s">
-        <v>891</v>
+        <v>462</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -6654,10 +6678,10 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>238</v>
+        <v>808</v>
       </c>
       <c r="B260" t="s">
-        <v>462</v>
+        <v>809</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -6666,10 +6690,10 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>808</v>
+        <v>911</v>
       </c>
       <c r="B261" t="s">
-        <v>809</v>
+        <v>912</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -6678,10 +6702,10 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>911</v>
+        <v>239</v>
       </c>
       <c r="B262" t="s">
-        <v>912</v>
+        <v>463</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -6690,10 +6714,10 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>239</v>
+        <v>670</v>
       </c>
       <c r="B263" t="s">
-        <v>463</v>
+        <v>671</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -6702,10 +6726,10 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>670</v>
+        <v>752</v>
       </c>
       <c r="B264" t="s">
-        <v>671</v>
+        <v>753</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -6714,10 +6738,10 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>752</v>
+        <v>637</v>
       </c>
       <c r="B265" t="s">
-        <v>753</v>
+        <v>638</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -6726,10 +6750,10 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>637</v>
+        <v>240</v>
       </c>
       <c r="B266" t="s">
-        <v>638</v>
+        <v>464</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -6738,10 +6762,10 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B267" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -6750,10 +6774,10 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B268" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -6762,10 +6786,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>242</v>
-      </c>
-      <c r="B269" t="s">
-        <v>466</v>
+        <v>243</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -6774,7 +6795,10 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="B270" t="s">
+        <v>467</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -6783,10 +6807,10 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B271" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -6795,10 +6819,10 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>245</v>
+        <v>706</v>
       </c>
       <c r="B272" t="s">
-        <v>468</v>
+        <v>707</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -6807,10 +6831,10 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>706</v>
+        <v>246</v>
       </c>
       <c r="B273" t="s">
-        <v>707</v>
+        <v>469</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -6819,10 +6843,10 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>246</v>
+        <v>667</v>
       </c>
       <c r="B274" t="s">
-        <v>469</v>
+        <v>666</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -6831,10 +6855,10 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>667</v>
+        <v>247</v>
       </c>
       <c r="B275" t="s">
-        <v>666</v>
+        <v>470</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -6843,10 +6867,10 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>247</v>
+        <v>766</v>
       </c>
       <c r="B276" t="s">
-        <v>470</v>
+        <v>767</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -6855,10 +6879,10 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>766</v>
+        <v>248</v>
       </c>
       <c r="B277" t="s">
-        <v>767</v>
+        <v>471</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -6867,10 +6891,10 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>248</v>
+        <v>830</v>
       </c>
       <c r="B278" t="s">
-        <v>471</v>
+        <v>831</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -6879,10 +6903,10 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>830</v>
+        <v>788</v>
       </c>
       <c r="B279" t="s">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -6891,10 +6915,10 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>788</v>
+        <v>249</v>
       </c>
       <c r="B280" t="s">
-        <v>789</v>
+        <v>472</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6903,10 +6927,10 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B281" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6915,10 +6939,10 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>250</v>
+        <v>899</v>
       </c>
       <c r="B282" t="s">
-        <v>473</v>
+        <v>900</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6927,10 +6951,10 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>899</v>
+        <v>251</v>
       </c>
       <c r="B283" t="s">
-        <v>900</v>
+        <v>474</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6939,10 +6963,10 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>251</v>
+        <v>708</v>
       </c>
       <c r="B284" t="s">
-        <v>474</v>
+        <v>709</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6951,10 +6975,10 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>708</v>
+        <v>252</v>
       </c>
       <c r="B285" t="s">
-        <v>709</v>
+        <v>475</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6963,10 +6987,10 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>252</v>
+        <v>975</v>
       </c>
       <c r="B286" t="s">
-        <v>475</v>
+        <v>976</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6975,10 +6999,10 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>975</v>
+        <v>253</v>
       </c>
       <c r="B287" t="s">
-        <v>976</v>
+        <v>476</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6987,10 +7011,10 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>253</v>
+        <v>834</v>
       </c>
       <c r="B288" t="s">
-        <v>476</v>
+        <v>835</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6999,10 +7023,10 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>834</v>
+        <v>254</v>
       </c>
       <c r="B289" t="s">
-        <v>835</v>
+        <v>477</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -7011,10 +7035,10 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B290" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -7023,10 +7047,10 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B291" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -7035,10 +7059,10 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>256</v>
+        <v>608</v>
       </c>
       <c r="B292" t="s">
-        <v>479</v>
+        <v>607</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -7047,10 +7071,10 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>608</v>
+        <v>907</v>
       </c>
       <c r="B293" t="s">
-        <v>607</v>
+        <v>908</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -7059,10 +7083,10 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>907</v>
+        <v>258</v>
       </c>
       <c r="B294" t="s">
-        <v>908</v>
+        <v>481</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -7071,34 +7095,34 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B295" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C295" t="s">
-        <v>5</v>
+        <v>798</v>
       </c>
       <c r="D295" s="1"/>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>257</v>
+        <v>786</v>
       </c>
       <c r="B296" t="s">
-        <v>480</v>
+        <v>787</v>
       </c>
       <c r="C296" t="s">
-        <v>798</v>
+        <v>5</v>
       </c>
       <c r="D296" s="1"/>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>786</v>
+        <v>710</v>
       </c>
       <c r="B297" t="s">
-        <v>787</v>
+        <v>711</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -7107,10 +7131,10 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>710</v>
+        <v>259</v>
       </c>
       <c r="B298" t="s">
-        <v>711</v>
+        <v>482</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -7119,10 +7143,10 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B299" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -7130,11 +7154,11 @@
       <c r="D299" s="1"/>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" t="s">
-        <v>260</v>
+      <c r="A300" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="B300" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -7142,11 +7166,11 @@
       <c r="D300" s="1"/>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="2" t="s">
-        <v>262</v>
+      <c r="A301" t="s">
+        <v>740</v>
       </c>
       <c r="B301" t="s">
-        <v>485</v>
+        <v>741</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -7155,10 +7179,10 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>740</v>
+        <v>263</v>
       </c>
       <c r="B302" t="s">
-        <v>741</v>
+        <v>486</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -7167,10 +7191,10 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>263</v>
+        <v>1000</v>
       </c>
       <c r="B303" t="s">
-        <v>486</v>
+        <v>1001</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -7179,10 +7203,10 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>1000</v>
+        <v>264</v>
       </c>
       <c r="B304" t="s">
-        <v>1001</v>
+        <v>487</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -7191,10 +7215,10 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B305" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -7203,10 +7227,10 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B306" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -7215,10 +7239,10 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B307" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -7227,10 +7251,10 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B308" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -7239,10 +7263,10 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>267</v>
+        <v>712</v>
       </c>
       <c r="B309" t="s">
-        <v>490</v>
+        <v>713</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -7251,10 +7275,10 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>712</v>
+        <v>905</v>
       </c>
       <c r="B310" t="s">
-        <v>713</v>
+        <v>906</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -7263,10 +7287,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>905</v>
+        <v>268</v>
       </c>
       <c r="B311" t="s">
-        <v>906</v>
+        <v>491</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -7275,10 +7299,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B312" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -7287,10 +7311,10 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B313" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -7299,10 +7323,10 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B314" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -7311,10 +7335,10 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B315" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -7323,10 +7347,10 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>272</v>
+        <v>973</v>
       </c>
       <c r="B316" t="s">
-        <v>495</v>
+        <v>974</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -7335,10 +7359,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
       <c r="B317" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -7347,10 +7371,10 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>989</v>
+        <v>656</v>
       </c>
       <c r="B318" t="s">
-        <v>990</v>
+        <v>657</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -7359,10 +7383,10 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>656</v>
+        <v>273</v>
       </c>
       <c r="B319" t="s">
-        <v>657</v>
+        <v>496</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -7371,10 +7395,10 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B320" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -7383,10 +7407,10 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B321" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -7395,10 +7419,10 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>275</v>
+        <v>746</v>
       </c>
       <c r="B322" t="s">
-        <v>498</v>
+        <v>747</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -7407,10 +7431,10 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>746</v>
+        <v>276</v>
       </c>
       <c r="B323" t="s">
-        <v>747</v>
+        <v>499</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -7419,10 +7443,10 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B324" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -7431,10 +7455,10 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>277</v>
+        <v>601</v>
       </c>
       <c r="B325" t="s">
-        <v>500</v>
+        <v>602</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -7443,46 +7467,46 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>601</v>
+        <v>803</v>
       </c>
       <c r="B326" t="s">
-        <v>602</v>
+        <v>806</v>
       </c>
       <c r="C326" t="s">
-        <v>5</v>
+        <v>807</v>
       </c>
       <c r="D326" s="1"/>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>803</v>
+        <v>278</v>
       </c>
       <c r="B327" t="s">
-        <v>806</v>
+        <v>501</v>
       </c>
       <c r="C327" t="s">
-        <v>807</v>
+        <v>41</v>
       </c>
       <c r="D327" s="1"/>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B328" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C328" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D328" s="1"/>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B329" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -7491,10 +7515,10 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>280</v>
-      </c>
-      <c r="B330" t="s">
-        <v>503</v>
+        <v>744</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>745</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -7503,10 +7527,10 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>744</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>745</v>
+        <v>698</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -7515,34 +7539,34 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>698</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>699</v>
+        <v>727</v>
+      </c>
+      <c r="B332" t="s">
+        <v>726</v>
       </c>
       <c r="C332" t="s">
-        <v>5</v>
+        <v>728</v>
       </c>
       <c r="D332" s="1"/>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>727</v>
+        <v>281</v>
       </c>
       <c r="B333" t="s">
-        <v>726</v>
-      </c>
-      <c r="C333" t="s">
-        <v>728</v>
+        <v>504</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D333" s="1"/>
     </row>
     <row r="334" spans="1:4">
-      <c r="A334" t="s">
-        <v>281</v>
+      <c r="A334" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="B334" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>5</v>
@@ -7550,11 +7574,11 @@
       <c r="D334" s="1"/>
     </row>
     <row r="335" spans="1:4">
-      <c r="A335" s="1" t="s">
-        <v>282</v>
+      <c r="A335" t="s">
+        <v>283</v>
       </c>
       <c r="B335" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>5</v>
@@ -7563,10 +7587,10 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>283</v>
+        <v>987</v>
       </c>
       <c r="B336" t="s">
-        <v>506</v>
+        <v>988</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>5</v>
@@ -7575,10 +7599,10 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>987</v>
+        <v>284</v>
       </c>
       <c r="B337" t="s">
-        <v>988</v>
+        <v>507</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>5</v>
@@ -7587,10 +7611,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B338" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>5</v>
@@ -7599,10 +7623,10 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B339" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>5</v>
@@ -7611,10 +7635,10 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>286</v>
+        <v>967</v>
       </c>
       <c r="B340" t="s">
-        <v>509</v>
+        <v>968</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>5</v>
@@ -7623,10 +7647,10 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>967</v>
+        <v>287</v>
       </c>
       <c r="B341" t="s">
-        <v>968</v>
+        <v>510</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>5</v>
@@ -7635,10 +7659,10 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B342" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>5</v>
@@ -7647,10 +7671,10 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B343" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>5</v>
@@ -7658,11 +7682,11 @@
       <c r="D343" s="1"/>
     </row>
     <row r="344" spans="1:4">
-      <c r="A344" t="s">
-        <v>289</v>
+      <c r="A344" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="B344" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>5</v>
@@ -7671,10 +7695,10 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>290</v>
+        <v>774</v>
       </c>
       <c r="B345" t="s">
-        <v>513</v>
+        <v>775</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>5</v>
@@ -7682,11 +7706,11 @@
       <c r="D345" s="1"/>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="1" t="s">
-        <v>774</v>
+      <c r="A346" t="s">
+        <v>291</v>
       </c>
       <c r="B346" t="s">
-        <v>775</v>
+        <v>514</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>5</v>
@@ -7695,10 +7719,10 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>291</v>
+        <v>738</v>
       </c>
       <c r="B347" t="s">
-        <v>514</v>
+        <v>739</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>5</v>
@@ -7707,10 +7731,10 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>738</v>
+        <v>881</v>
       </c>
       <c r="B348" t="s">
-        <v>739</v>
+        <v>882</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>5</v>
@@ -7719,10 +7743,10 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>881</v>
+        <v>736</v>
       </c>
       <c r="B349" t="s">
-        <v>882</v>
+        <v>737</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>5</v>
@@ -7731,10 +7755,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>736</v>
+        <v>292</v>
       </c>
       <c r="B350" t="s">
-        <v>737</v>
+        <v>515</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>5</v>
@@ -7743,10 +7767,10 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>292</v>
+        <v>653</v>
       </c>
       <c r="B351" t="s">
-        <v>515</v>
+        <v>660</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>5</v>
@@ -7755,10 +7779,10 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>653</v>
+        <v>952</v>
       </c>
       <c r="B352" t="s">
-        <v>660</v>
+        <v>951</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>5</v>
@@ -7767,10 +7791,10 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>952</v>
+        <v>293</v>
       </c>
       <c r="B353" t="s">
-        <v>951</v>
+        <v>516</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>5</v>
@@ -7779,22 +7803,21 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B354" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D354" s="1"/>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>294</v>
+        <v>971</v>
       </c>
       <c r="B355" t="s">
-        <v>517</v>
+        <v>972</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>5</v>
@@ -7802,10 +7825,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>971</v>
+        <v>295</v>
       </c>
       <c r="B356" t="s">
-        <v>972</v>
+        <v>518</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>5</v>
@@ -7813,10 +7836,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>295</v>
+        <v>714</v>
       </c>
       <c r="B357" t="s">
-        <v>518</v>
+        <v>715</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>5</v>
@@ -7824,10 +7847,10 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="s">
-        <v>714</v>
+        <v>296</v>
       </c>
       <c r="B358" t="s">
-        <v>715</v>
+        <v>519</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>5</v>
@@ -7835,10 +7858,10 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>296</v>
+        <v>919</v>
       </c>
       <c r="B359" t="s">
-        <v>519</v>
+        <v>920</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>5</v>
@@ -7846,10 +7869,10 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>919</v>
+        <v>297</v>
       </c>
       <c r="B360" t="s">
-        <v>920</v>
+        <v>520</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>5</v>
@@ -7857,10 +7880,10 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>297</v>
+        <v>877</v>
       </c>
       <c r="B361" t="s">
-        <v>520</v>
+        <v>878</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>5</v>
@@ -7868,43 +7891,43 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>877</v>
+        <v>680</v>
       </c>
       <c r="B362" t="s">
-        <v>878</v>
+        <v>681</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="363" spans="1:4">
-      <c r="A363" t="s">
-        <v>680</v>
+      <c r="A363" s="2" t="s">
+        <v>965</v>
       </c>
       <c r="B363" t="s">
-        <v>681</v>
-      </c>
-      <c r="C363" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C363" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2" t="s">
-        <v>965</v>
+        <v>298</v>
       </c>
       <c r="B364" t="s">
-        <v>966</v>
-      </c>
-      <c r="C364" t="s">
+        <v>521</v>
+      </c>
+      <c r="C364" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:4">
-      <c r="A365" s="2" t="s">
-        <v>298</v>
+      <c r="A365" t="s">
+        <v>913</v>
       </c>
       <c r="B365" t="s">
-        <v>521</v>
+        <v>914</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>5</v>
@@ -7912,10 +7935,10 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>913</v>
+        <v>299</v>
       </c>
       <c r="B366" t="s">
-        <v>914</v>
+        <v>522</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>5</v>
@@ -7923,10 +7946,10 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B367" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>5</v>
@@ -7934,10 +7957,10 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>300</v>
+        <v>903</v>
       </c>
       <c r="B368" t="s">
-        <v>523</v>
+        <v>904</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>5</v>
@@ -7945,10 +7968,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>903</v>
+        <v>836</v>
       </c>
       <c r="B369" t="s">
-        <v>904</v>
+        <v>837</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>5</v>
@@ -7956,10 +7979,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>836</v>
+        <v>869</v>
       </c>
       <c r="B370" t="s">
-        <v>837</v>
+        <v>870</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>5</v>
@@ -7967,52 +7990,52 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>869</v>
-      </c>
-      <c r="B371" t="s">
-        <v>870</v>
-      </c>
-      <c r="C371" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B371" s="10"/>
+      <c r="C371" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>301</v>
-      </c>
-      <c r="B372" s="10"/>
+        <v>302</v>
+      </c>
+      <c r="B372" t="s">
+        <v>524</v>
+      </c>
       <c r="C372" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B373" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:3">
-      <c r="A374" t="s">
-        <v>303</v>
+      <c r="A374" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="B374" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:3">
-      <c r="A375" s="4" t="s">
-        <v>304</v>
+      <c r="A375" t="s">
+        <v>846</v>
       </c>
       <c r="B375" t="s">
-        <v>526</v>
+        <v>847</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>5</v>
@@ -8020,10 +8043,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>846</v>
+        <v>305</v>
       </c>
       <c r="B376" t="s">
-        <v>847</v>
+        <v>527</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>5</v>
@@ -8031,10 +8054,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>305</v>
+        <v>625</v>
       </c>
       <c r="B377" t="s">
-        <v>527</v>
+        <v>626</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>5</v>
@@ -8042,10 +8065,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="B378" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>5</v>
@@ -8053,10 +8076,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>639</v>
+        <v>678</v>
       </c>
       <c r="B379" t="s">
-        <v>640</v>
+        <v>679</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>5</v>
@@ -8064,10 +8087,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B380" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>5</v>
@@ -8075,10 +8098,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>672</v>
+        <v>306</v>
       </c>
       <c r="B381" t="s">
-        <v>673</v>
+        <v>528</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>5</v>
@@ -8086,32 +8109,32 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B382" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="383" spans="1:3">
-      <c r="A383" t="s">
-        <v>307</v>
+      <c r="A383" s="4" t="s">
+        <v>818</v>
       </c>
       <c r="B383" t="s">
-        <v>529</v>
+        <v>819</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:3">
-      <c r="A384" s="4" t="s">
-        <v>818</v>
+      <c r="A384" t="s">
+        <v>308</v>
       </c>
       <c r="B384" t="s">
-        <v>819</v>
+        <v>530</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>5</v>
@@ -8119,10 +8142,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>308</v>
+        <v>688</v>
       </c>
       <c r="B385" t="s">
-        <v>530</v>
+        <v>689</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>5</v>
@@ -8130,10 +8153,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>688</v>
+        <v>309</v>
       </c>
       <c r="B386" t="s">
-        <v>689</v>
+        <v>531</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>5</v>
@@ -8141,43 +8164,43 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>309</v>
+        <v>897</v>
       </c>
       <c r="B387" t="s">
-        <v>531</v>
-      </c>
-      <c r="C387" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C387" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>897</v>
+        <v>310</v>
       </c>
       <c r="B388" t="s">
-        <v>898</v>
+        <v>532</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>310</v>
+        <v>716</v>
       </c>
       <c r="B389" t="s">
-        <v>532</v>
+        <v>717</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>716</v>
-      </c>
-      <c r="B390" t="s">
-        <v>717</v>
+        <v>311</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
@@ -8185,10 +8208,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>311</v>
-      </c>
-      <c r="B391" s="5" t="s">
-        <v>533</v>
+        <v>312</v>
+      </c>
+      <c r="B391" t="s">
+        <v>534</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
@@ -8196,10 +8219,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>312</v>
+        <v>796</v>
       </c>
       <c r="B392" t="s">
-        <v>534</v>
+        <v>797</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
@@ -8207,10 +8230,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>796</v>
+        <v>313</v>
       </c>
       <c r="B393" t="s">
-        <v>797</v>
+        <v>535</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
@@ -8218,10 +8241,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>313</v>
+        <v>618</v>
       </c>
       <c r="B394" t="s">
-        <v>535</v>
+        <v>615</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
@@ -8229,10 +8252,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B395" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
@@ -8240,10 +8263,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B396" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
@@ -8251,10 +8274,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>616</v>
+        <v>314</v>
       </c>
       <c r="B397" t="s">
-        <v>617</v>
+        <v>536</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
@@ -8262,10 +8285,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B398" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
@@ -8273,10 +8296,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B399" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
@@ -8284,54 +8307,54 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>316</v>
+        <v>840</v>
       </c>
       <c r="B400" t="s">
-        <v>538</v>
-      </c>
-      <c r="C400" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="C400" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>840</v>
+        <v>924</v>
       </c>
       <c r="B401" t="s">
-        <v>841</v>
-      </c>
-      <c r="C401" t="s">
+        <v>926</v>
+      </c>
+      <c r="C401" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>924</v>
+        <v>731</v>
       </c>
       <c r="B402" t="s">
-        <v>926</v>
+        <v>725</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>731</v>
+        <v>770</v>
       </c>
       <c r="B403" t="s">
-        <v>725</v>
+        <v>771</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>770</v>
+        <v>317</v>
       </c>
       <c r="B404" t="s">
-        <v>771</v>
+        <v>539</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
@@ -8339,10 +8362,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>317</v>
+        <v>732</v>
       </c>
       <c r="B405" t="s">
-        <v>539</v>
+        <v>733</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>5</v>
@@ -8350,10 +8373,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B406" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
@@ -8361,10 +8384,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>735</v>
+        <v>318</v>
       </c>
       <c r="B407" t="s">
-        <v>734</v>
+        <v>540</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
@@ -8372,21 +8395,21 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>318</v>
-      </c>
-      <c r="B408" t="s">
-        <v>540</v>
-      </c>
-      <c r="C408" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C408" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>319</v>
-      </c>
-      <c r="B409" s="6" t="s">
-        <v>541</v>
+        <v>320</v>
+      </c>
+      <c r="B409" t="s">
+        <v>542</v>
       </c>
       <c r="C409" s="6" t="s">
         <v>5</v>
@@ -8394,10 +8417,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B410" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>5</v>
@@ -8405,10 +8428,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B411" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>5</v>
@@ -8416,54 +8439,54 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B412" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B413" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>324</v>
+        <v>814</v>
       </c>
       <c r="B414" t="s">
-        <v>546</v>
+        <v>815</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:3">
-      <c r="A415" t="s">
-        <v>814</v>
+      <c r="A415" s="7" t="s">
+        <v>641</v>
       </c>
       <c r="B415" t="s">
-        <v>815</v>
-      </c>
-      <c r="C415" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C415" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:3">
-      <c r="A416" s="7" t="s">
-        <v>641</v>
+      <c r="A416" t="s">
+        <v>325</v>
       </c>
       <c r="B416" t="s">
-        <v>642</v>
+        <v>547</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>5</v>
@@ -8471,10 +8494,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>325</v>
+        <v>929</v>
       </c>
       <c r="B417" t="s">
-        <v>547</v>
+        <v>930</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>5</v>
@@ -8482,10 +8505,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>929</v>
+        <v>326</v>
       </c>
       <c r="B418" t="s">
-        <v>930</v>
+        <v>548</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>5</v>
@@ -8493,21 +8516,21 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B419" t="s">
-        <v>548</v>
-      </c>
-      <c r="C419" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C419" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B420" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C420" s="8" t="s">
         <v>5</v>
@@ -8515,10 +8538,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B421" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C421" s="8" t="s">
         <v>5</v>
@@ -8526,10 +8549,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B422" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C422" s="8" t="s">
         <v>5</v>
@@ -8537,10 +8560,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B423" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C423" s="8" t="s">
         <v>5</v>
@@ -8548,10 +8571,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B424" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C424" s="8" t="s">
         <v>5</v>
@@ -8559,10 +8582,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B425" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C425" s="8" t="s">
         <v>5</v>
@@ -8570,10 +8593,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B426" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C426" s="8" t="s">
         <v>5</v>
@@ -8581,10 +8604,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>334</v>
+        <v>810</v>
       </c>
       <c r="B427" t="s">
-        <v>556</v>
+        <v>811</v>
       </c>
       <c r="C427" s="8" t="s">
         <v>5</v>
@@ -8592,10 +8615,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>810</v>
+        <v>335</v>
       </c>
       <c r="B428" t="s">
-        <v>811</v>
+        <v>557</v>
       </c>
       <c r="C428" s="8" t="s">
         <v>5</v>
@@ -8603,10 +8626,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>335</v>
+        <v>828</v>
       </c>
       <c r="B429" t="s">
-        <v>557</v>
+        <v>829</v>
       </c>
       <c r="C429" s="8" t="s">
         <v>5</v>
@@ -8614,21 +8637,21 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>828</v>
-      </c>
-      <c r="B430" t="s">
-        <v>829</v>
-      </c>
-      <c r="C430" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B430" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C430" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>718</v>
-      </c>
-      <c r="B431" s="9" t="s">
-        <v>719</v>
+        <v>629</v>
+      </c>
+      <c r="B431" t="s">
+        <v>630</v>
       </c>
       <c r="C431" s="10" t="s">
         <v>5</v>
@@ -8636,10 +8659,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>629</v>
+        <v>336</v>
       </c>
       <c r="B432" t="s">
-        <v>630</v>
+        <v>558</v>
       </c>
       <c r="C432" s="10" t="s">
         <v>5</v>
@@ -8647,10 +8670,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>336</v>
+        <v>853</v>
       </c>
       <c r="B433" t="s">
-        <v>558</v>
+        <v>854</v>
       </c>
       <c r="C433" s="10" t="s">
         <v>5</v>
@@ -8658,10 +8681,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>853</v>
+        <v>599</v>
       </c>
       <c r="B434" t="s">
-        <v>854</v>
+        <v>600</v>
       </c>
       <c r="C434" s="10" t="s">
         <v>5</v>
@@ -8669,10 +8692,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>599</v>
+        <v>337</v>
       </c>
       <c r="B435" t="s">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="C435" s="10" t="s">
         <v>5</v>
@@ -8680,10 +8703,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B436" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C436" s="10" t="s">
         <v>5</v>
@@ -8691,10 +8714,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>338</v>
+        <v>722</v>
       </c>
       <c r="B437" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C437" s="10" t="s">
         <v>5</v>
@@ -8702,10 +8725,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>722</v>
+        <v>915</v>
       </c>
       <c r="B438" t="s">
-        <v>561</v>
+        <v>916</v>
       </c>
       <c r="C438" s="10" t="s">
         <v>5</v>
@@ -8713,10 +8736,10 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>915</v>
+        <v>723</v>
       </c>
       <c r="B439" t="s">
-        <v>916</v>
+        <v>724</v>
       </c>
       <c r="C439" s="10" t="s">
         <v>5</v>
@@ -8724,10 +8747,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>723</v>
+        <v>801</v>
       </c>
       <c r="B440" t="s">
-        <v>724</v>
+        <v>802</v>
       </c>
       <c r="C440" s="10" t="s">
         <v>5</v>
@@ -8735,32 +8758,32 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="B441" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="C441" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="442" spans="1:3">
-      <c r="A442" t="s">
-        <v>784</v>
+      <c r="A442" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="B442" t="s">
-        <v>785</v>
+        <v>562</v>
       </c>
       <c r="C442" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="443" spans="1:3">
-      <c r="A443" s="10" t="s">
-        <v>339</v>
+      <c r="A443" t="s">
+        <v>842</v>
       </c>
       <c r="B443" t="s">
-        <v>562</v>
+        <v>843</v>
       </c>
       <c r="C443" s="10" t="s">
         <v>5</v>
@@ -8768,10 +8791,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>842</v>
+        <v>340</v>
       </c>
       <c r="B444" t="s">
-        <v>843</v>
+        <v>563</v>
       </c>
       <c r="C444" s="10" t="s">
         <v>5</v>
@@ -8779,10 +8802,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B445" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C445" s="10" t="s">
         <v>5</v>
@@ -8790,10 +8813,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B446" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C446" s="10" t="s">
         <v>5</v>
@@ -8801,32 +8824,32 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>342</v>
+        <v>645</v>
       </c>
       <c r="B447" t="s">
-        <v>565</v>
+        <v>646</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>5</v>
+        <v>647</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>645</v>
+        <v>343</v>
       </c>
       <c r="B448" t="s">
-        <v>646</v>
+        <v>566</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>647</v>
+        <v>5</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>343</v>
+        <v>963</v>
       </c>
       <c r="B449" t="s">
-        <v>566</v>
+        <v>964</v>
       </c>
       <c r="C449" s="10" t="s">
         <v>5</v>
@@ -8834,10 +8857,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>963</v>
+        <v>344</v>
       </c>
       <c r="B450" t="s">
-        <v>964</v>
+        <v>567</v>
       </c>
       <c r="C450" s="10" t="s">
         <v>5</v>
@@ -8845,10 +8868,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B451" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C451" s="10" t="s">
         <v>5</v>
@@ -8856,10 +8879,10 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B452" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C452" s="10" t="s">
         <v>5</v>
@@ -8867,10 +8890,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B453" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C453" s="10" t="s">
         <v>5</v>
@@ -8878,10 +8901,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B454" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C454" s="10" t="s">
         <v>5</v>
@@ -8889,10 +8912,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B455" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C455" s="10" t="s">
         <v>5</v>
@@ -8900,10 +8923,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B456" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C456" s="10" t="s">
         <v>5</v>
@@ -8911,10 +8934,10 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>350</v>
+        <v>857</v>
       </c>
       <c r="B457" t="s">
-        <v>573</v>
+        <v>858</v>
       </c>
       <c r="C457" s="10" t="s">
         <v>5</v>
@@ -8922,32 +8945,32 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>857</v>
+        <v>684</v>
       </c>
       <c r="B458" t="s">
-        <v>858</v>
+        <v>685</v>
       </c>
       <c r="C458" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="459" spans="1:3">
-      <c r="A459" t="s">
-        <v>684</v>
+      <c r="A459" s="10" t="s">
+        <v>687</v>
       </c>
       <c r="B459" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C459" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:3">
-      <c r="A460" s="10" t="s">
-        <v>687</v>
+      <c r="A460" t="s">
+        <v>351</v>
       </c>
       <c r="B460" t="s">
-        <v>686</v>
+        <v>574</v>
       </c>
       <c r="C460" s="10" t="s">
         <v>5</v>
@@ -8955,76 +8978,76 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B461" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>352</v>
+        <v>950</v>
       </c>
       <c r="B462" t="s">
-        <v>575</v>
+        <v>949</v>
       </c>
       <c r="C462" s="10" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>950</v>
+        <v>353</v>
       </c>
       <c r="B463" t="s">
-        <v>949</v>
+        <v>576</v>
       </c>
       <c r="C463" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="464" spans="1:3">
-      <c r="A464" t="s">
-        <v>353</v>
+      <c r="A464" s="10" t="s">
+        <v>676</v>
       </c>
       <c r="B464" t="s">
-        <v>576</v>
+        <v>677</v>
       </c>
       <c r="C464" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="465" spans="1:3">
-      <c r="A465" s="10" t="s">
-        <v>676</v>
+      <c r="A465" t="s">
+        <v>821</v>
       </c>
       <c r="B465" t="s">
-        <v>677</v>
+        <v>823</v>
       </c>
       <c r="C465" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="466" spans="1:3">
-      <c r="A466" t="s">
-        <v>821</v>
+      <c r="A466" s="10" t="s">
+        <v>354</v>
       </c>
       <c r="B466" t="s">
-        <v>823</v>
+        <v>577</v>
       </c>
       <c r="C466" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="467" spans="1:3">
-      <c r="A467" s="10" t="s">
-        <v>354</v>
+      <c r="A467" t="s">
+        <v>674</v>
       </c>
       <c r="B467" t="s">
-        <v>577</v>
+        <v>675</v>
       </c>
       <c r="C467" s="10" t="s">
         <v>5</v>
@@ -9032,10 +9055,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>674</v>
+        <v>778</v>
       </c>
       <c r="B468" t="s">
-        <v>675</v>
+        <v>779</v>
       </c>
       <c r="C468" s="10" t="s">
         <v>5</v>
@@ -9043,10 +9066,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>778</v>
+        <v>355</v>
       </c>
       <c r="B469" t="s">
-        <v>779</v>
+        <v>578</v>
       </c>
       <c r="C469" s="10" t="s">
         <v>5</v>
@@ -9054,10 +9077,10 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B470" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C470" s="10" t="s">
         <v>5</v>
@@ -9065,21 +9088,21 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>356</v>
+        <v>720</v>
       </c>
       <c r="B471" t="s">
-        <v>579</v>
+        <v>721</v>
       </c>
       <c r="C471" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="472" spans="1:3">
-      <c r="A472" t="s">
-        <v>720</v>
+      <c r="A472" s="10" t="s">
+        <v>358</v>
       </c>
       <c r="B472" t="s">
-        <v>721</v>
+        <v>581</v>
       </c>
       <c r="C472" s="10" t="s">
         <v>5</v>
@@ -9087,21 +9110,21 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B473" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C473" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="474" spans="1:3">
-      <c r="A474" s="10" t="s">
-        <v>357</v>
+      <c r="A474" t="s">
+        <v>961</v>
       </c>
       <c r="B474" t="s">
-        <v>580</v>
+        <v>962</v>
       </c>
       <c r="C474" s="10" t="s">
         <v>5</v>
@@ -9109,10 +9132,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>961</v>
+        <v>359</v>
       </c>
       <c r="B475" t="s">
-        <v>962</v>
+        <v>582</v>
       </c>
       <c r="C475" s="10" t="s">
         <v>5</v>
@@ -9120,32 +9143,32 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>359</v>
+        <v>690</v>
       </c>
       <c r="B476" t="s">
-        <v>582</v>
+        <v>691</v>
       </c>
       <c r="C476" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="477" spans="1:3">
-      <c r="A477" t="s">
-        <v>690</v>
+      <c r="A477" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="B477" t="s">
-        <v>691</v>
+        <v>583</v>
       </c>
       <c r="C477" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="478" spans="1:3">
-      <c r="A478" s="10" t="s">
-        <v>360</v>
+      <c r="A478" t="s">
+        <v>361</v>
       </c>
       <c r="B478" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C478" s="10" t="s">
         <v>5</v>
@@ -9153,10 +9176,10 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>361</v>
+        <v>143</v>
       </c>
       <c r="B479" t="s">
-        <v>584</v>
+        <v>144</v>
       </c>
       <c r="C479" s="10" t="s">
         <v>5</v>
@@ -9164,10 +9187,10 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>143</v>
+        <v>969</v>
       </c>
       <c r="B480" t="s">
-        <v>144</v>
+        <v>970</v>
       </c>
       <c r="C480" s="10" t="s">
         <v>5</v>
@@ -9175,10 +9198,10 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>969</v>
+        <v>362</v>
       </c>
       <c r="B481" t="s">
-        <v>970</v>
+        <v>585</v>
       </c>
       <c r="C481" s="10" t="s">
         <v>5</v>
@@ -9186,10 +9209,10 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>362</v>
+        <v>609</v>
       </c>
       <c r="B482" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="C482" s="10" t="s">
         <v>5</v>
@@ -9197,10 +9220,10 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>609</v>
+        <v>363</v>
       </c>
       <c r="B483" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="C483" s="10" t="s">
         <v>5</v>
@@ -9208,10 +9231,10 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>363</v>
+        <v>643</v>
       </c>
       <c r="B484" t="s">
-        <v>586</v>
+        <v>644</v>
       </c>
       <c r="C484" s="10" t="s">
         <v>5</v>
@@ -9219,10 +9242,10 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>643</v>
+        <v>364</v>
       </c>
       <c r="B485" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="C485" s="10" t="s">
         <v>5</v>
@@ -9230,10 +9253,10 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B486" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C486" s="10" t="s">
         <v>5</v>
@@ -9241,10 +9264,10 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B487" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C487" s="10" t="s">
         <v>5</v>
@@ -9252,10 +9275,10 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>366</v>
+        <v>826</v>
       </c>
       <c r="B488" t="s">
-        <v>589</v>
+        <v>827</v>
       </c>
       <c r="C488" s="10" t="s">
         <v>5</v>
@@ -9263,10 +9286,10 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>826</v>
+        <v>368</v>
       </c>
       <c r="B489" t="s">
-        <v>827</v>
+        <v>591</v>
       </c>
       <c r="C489" s="10" t="s">
         <v>5</v>
@@ -9274,10 +9297,10 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B490" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C490" s="10" t="s">
         <v>5</v>
@@ -9285,10 +9308,10 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B491" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C491" s="10" t="s">
         <v>5</v>
@@ -9296,10 +9319,10 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B492" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C492" s="10" t="s">
         <v>5</v>
@@ -9307,10 +9330,10 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B493" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C493" s="10" t="s">
         <v>5</v>
@@ -9318,10 +9341,10 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B494" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C494" s="10" t="s">
         <v>5</v>
@@ -9329,10 +9352,10 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>372</v>
+        <v>838</v>
       </c>
       <c r="B495" t="s">
-        <v>595</v>
+        <v>839</v>
       </c>
       <c r="C495" s="10" t="s">
         <v>5</v>
@@ -9340,10 +9363,10 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>838</v>
+        <v>373</v>
       </c>
       <c r="B496" t="s">
-        <v>839</v>
+        <v>596</v>
       </c>
       <c r="C496" s="10" t="s">
         <v>5</v>
@@ -9351,10 +9374,10 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>373</v>
+        <v>832</v>
       </c>
       <c r="B497" t="s">
-        <v>596</v>
+        <v>833</v>
       </c>
       <c r="C497" s="10" t="s">
         <v>5</v>
@@ -9362,10 +9385,10 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>832</v>
+        <v>145</v>
       </c>
       <c r="B498" t="s">
-        <v>833</v>
+        <v>146</v>
       </c>
       <c r="C498" s="10" t="s">
         <v>5</v>
@@ -9373,10 +9396,10 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B499" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C499" s="10" t="s">
         <v>5</v>
@@ -9384,32 +9407,32 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>147</v>
+        <v>792</v>
       </c>
       <c r="B500" t="s">
-        <v>148</v>
-      </c>
-      <c r="C500" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="C500" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>792</v>
+        <v>1007</v>
       </c>
       <c r="B501" t="s">
-        <v>793</v>
-      </c>
-      <c r="C501" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C501" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B502" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="C502" s="10" t="s">
         <v>5</v>
@@ -9417,10 +9440,10 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B503" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C503" s="10" t="s">
         <v>5</v>
@@ -9428,10 +9451,10 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="B504" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C504" s="10" t="s">
         <v>5</v>
@@ -9439,10 +9462,10 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B505" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C505" s="10" t="s">
         <v>5</v>
@@ -9450,10 +9473,10 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B506" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C506" s="10" t="s">
         <v>5</v>
@@ -9461,10 +9484,10 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B507" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C507" s="10" t="s">
         <v>5</v>
@@ -9472,10 +9495,10 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B508" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C508" s="10" t="s">
         <v>5</v>
@@ -9483,10 +9506,10 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B509" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C509" s="10" t="s">
         <v>5</v>
@@ -9494,10 +9517,10 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B510" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C510" s="10" t="s">
         <v>5</v>
@@ -9505,10 +9528,10 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B511" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C511" s="10" t="s">
         <v>5</v>
@@ -9516,10 +9539,10 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B512" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C512" s="10" t="s">
         <v>5</v>
@@ -9527,12 +9550,45 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B513" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C513" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C514" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C515" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C516" s="10" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1025">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3113,6 +3113,30 @@
   </si>
   <si>
     <t>tt0231844</t>
+  </si>
+  <si>
+    <t>Monster Trucks</t>
+  </si>
+  <si>
+    <t>tt3095734</t>
+  </si>
+  <si>
+    <t>The Book of Eli</t>
+  </si>
+  <si>
+    <t>tt1037705</t>
+  </si>
+  <si>
+    <t>The Awakening</t>
+  </si>
+  <si>
+    <t>tt1687901</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>tt4972582</t>
   </si>
 </sst>
 </file>
@@ -3489,10 +3513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D506"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C506"/>
+      <selection activeCell="C507" sqref="C507:C510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9417,6 +9441,50 @@
         <v>5</v>
       </c>
     </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C507" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C508" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C509" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C510" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="1033">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3137,6 +3137,30 @@
   </si>
   <si>
     <t>tt4972582</t>
+  </si>
+  <si>
+    <t>Believe </t>
+  </si>
+  <si>
+    <t>tt2592094</t>
+  </si>
+  <si>
+    <t>Unbreakable</t>
+  </si>
+  <si>
+    <t>tt0217869</t>
+  </si>
+  <si>
+    <t>The Void</t>
+  </si>
+  <si>
+    <t>tt4255304</t>
+  </si>
+  <si>
+    <t>Ballerina</t>
+  </si>
+  <si>
+    <t>tt2261287</t>
   </si>
 </sst>
 </file>
@@ -3513,10 +3537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D514"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="C507" sqref="C507:C510"/>
+      <selection activeCell="C513" sqref="C513:C514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9485,6 +9509,50 @@
         <v>5</v>
       </c>
     </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C511" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C512" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C513" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C514" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
   </bookViews>
   <sheets>
     <sheet name="media" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="1043">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2095,7 +2095,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3162,22 +3162,52 @@
   <si>
     <t>tt2261287</t>
   </si>
+  <si>
+    <t>Kong: Skull Island</t>
+  </si>
+  <si>
+    <t>tt3731562</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>tt3315342</t>
+  </si>
+  <si>
+    <t>Personal Shopper </t>
+  </si>
+  <si>
+    <t>tt4714782</t>
+  </si>
+  <si>
+    <t>Colossal</t>
+  </si>
+  <si>
+    <t>tt4680182</t>
+  </si>
+  <si>
+    <t>xXx Return of Xander Cage</t>
+  </si>
+  <si>
+    <t>tt1293847</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3220,7 +3250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3251,7 +3281,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3326,6 +3356,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3361,6 +3408,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3537,21 +3601,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D514"/>
+  <dimension ref="A1:D519"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="C513" sqref="C513:C514"/>
+      <selection activeCell="C518" sqref="C518:C519"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" customWidth="1"/>
+    <col min="1" max="1" width="67.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3565,7 +3629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>780</v>
       </c>
@@ -3576,7 +3640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3587,7 +3651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3599,7 +3663,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3611,7 +3675,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>694</v>
       </c>
@@ -3623,7 +3687,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3635,7 +3699,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3647,7 +3711,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>631</v>
       </c>
@@ -3659,7 +3723,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>925</v>
       </c>
@@ -3671,7 +3735,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3683,7 +3747,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3695,7 +3759,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3707,7 +3771,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3719,7 +3783,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>941</v>
       </c>
@@ -3731,7 +3795,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3743,7 +3807,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>947</v>
       </c>
@@ -3755,7 +3819,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3767,7 +3831,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3778,7 +3842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>768</v>
       </c>
@@ -3790,7 +3854,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>863</v>
       </c>
@@ -3802,7 +3866,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3814,7 +3878,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3826,7 +3890,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3838,7 +3902,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>652</v>
       </c>
@@ -3850,7 +3914,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>999</v>
       </c>
@@ -3862,7 +3926,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>760</v>
       </c>
@@ -3874,7 +3938,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3886,7 +3950,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>668</v>
       </c>
@@ -3898,7 +3962,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>957</v>
       </c>
@@ -3910,7 +3974,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3922,7 +3986,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>943</v>
       </c>
@@ -3934,7 +3998,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -3946,7 +4010,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>619</v>
       </c>
@@ -3958,7 +4022,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>799</v>
       </c>
@@ -3970,7 +4034,7 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>997</v>
       </c>
@@ -3982,7 +4046,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>1003</v>
       </c>
@@ -3994,7 +4058,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4006,7 +4070,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>664</v>
       </c>
@@ -4018,7 +4082,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -4030,7 +4094,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -4042,7 +4106,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -4054,7 +4118,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>939</v>
       </c>
@@ -4066,7 +4130,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -4078,7 +4142,7 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -4090,7 +4154,7 @@
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -4102,7 +4166,7 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>758</v>
       </c>
@@ -4114,7 +4178,7 @@
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -4126,7 +4190,7 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>959</v>
       </c>
@@ -4138,7 +4202,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -4150,7 +4214,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>816</v>
       </c>
@@ -4162,7 +4226,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>861</v>
       </c>
@@ -4174,7 +4238,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -4186,7 +4250,7 @@
       </c>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -4198,7 +4262,7 @@
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -4210,7 +4274,7 @@
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -4222,7 +4286,7 @@
       </c>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -4234,7 +4298,7 @@
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>762</v>
       </c>
@@ -4246,7 +4310,7 @@
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>627</v>
       </c>
@@ -4258,7 +4322,7 @@
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -4270,7 +4334,7 @@
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -4282,7 +4346,7 @@
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>633</v>
       </c>
@@ -4294,7 +4358,7 @@
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -4306,7 +4370,7 @@
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -4318,7 +4382,7 @@
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>648</v>
       </c>
@@ -4330,7 +4394,7 @@
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -4342,7 +4406,7 @@
       </c>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4354,7 +4418,7 @@
       </c>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -4366,7 +4430,7 @@
       </c>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -4378,7 +4442,7 @@
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>848</v>
       </c>
@@ -4390,7 +4454,7 @@
       </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>887</v>
       </c>
@@ -4402,7 +4466,7 @@
       </c>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -4414,7 +4478,7 @@
       </c>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -4426,7 +4490,7 @@
       </c>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -4438,7 +4502,7 @@
       </c>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>654</v>
       </c>
@@ -4450,7 +4514,7 @@
       </c>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -4462,7 +4526,7 @@
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>94</v>
       </c>
@@ -4474,7 +4538,7 @@
       </c>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -4486,7 +4550,7 @@
       </c>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -4498,7 +4562,7 @@
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -4510,7 +4574,7 @@
       </c>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>748</v>
       </c>
@@ -4522,7 +4586,7 @@
       </c>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -4534,7 +4598,7 @@
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>621</v>
       </c>
@@ -4546,7 +4610,7 @@
       </c>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>995</v>
       </c>
@@ -4558,7 +4622,7 @@
       </c>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>934</v>
       </c>
@@ -4570,7 +4634,7 @@
       </c>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -4582,7 +4646,7 @@
       </c>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -4594,7 +4658,7 @@
       </c>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -4606,7 +4670,7 @@
       </c>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -4618,7 +4682,7 @@
       </c>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -4630,7 +4694,7 @@
       </c>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -4642,7 +4706,7 @@
       </c>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>109</v>
       </c>
@@ -4654,7 +4718,7 @@
       </c>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>782</v>
       </c>
@@ -4666,7 +4730,7 @@
       </c>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>820</v>
       </c>
@@ -4678,7 +4742,7 @@
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -4690,7 +4754,7 @@
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -4702,7 +4766,7 @@
       </c>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>742</v>
       </c>
@@ -4714,7 +4778,7 @@
       </c>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="10" t="s">
         <v>112</v>
       </c>
@@ -4726,7 +4790,7 @@
       </c>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -4738,7 +4802,7 @@
       </c>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -4750,7 +4814,7 @@
       </c>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -4762,7 +4826,7 @@
       </c>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -4774,7 +4838,7 @@
       </c>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -4786,7 +4850,7 @@
       </c>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -4798,7 +4862,7 @@
       </c>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -4810,7 +4874,7 @@
       </c>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>909</v>
       </c>
@@ -4822,7 +4886,7 @@
       </c>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>751</v>
       </c>
@@ -4834,7 +4898,7 @@
       </c>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -4846,7 +4910,7 @@
       </c>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -4858,7 +4922,7 @@
       </c>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>655</v>
       </c>
@@ -4870,7 +4934,7 @@
       </c>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>149</v>
       </c>
@@ -4882,7 +4946,7 @@
       </c>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>150</v>
       </c>
@@ -4894,7 +4958,7 @@
       </c>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -4906,7 +4970,7 @@
       </c>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>979</v>
       </c>
@@ -4918,7 +4982,7 @@
       </c>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>152</v>
       </c>
@@ -4930,7 +4994,7 @@
       </c>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>794</v>
       </c>
@@ -4942,7 +5006,7 @@
       </c>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>153</v>
       </c>
@@ -4954,7 +5018,7 @@
       </c>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>154</v>
       </c>
@@ -4966,7 +5030,7 @@
       </c>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>155</v>
       </c>
@@ -4978,7 +5042,7 @@
       </c>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>156</v>
       </c>
@@ -4990,7 +5054,7 @@
       </c>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>981</v>
       </c>
@@ -5002,7 +5066,7 @@
       </c>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>157</v>
       </c>
@@ -5014,7 +5078,7 @@
       </c>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>158</v>
       </c>
@@ -5026,7 +5090,7 @@
       </c>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>159</v>
       </c>
@@ -5038,7 +5102,7 @@
       </c>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>944</v>
       </c>
@@ -5050,7 +5114,7 @@
       </c>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>160</v>
       </c>
@@ -5062,7 +5126,7 @@
       </c>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>873</v>
       </c>
@@ -5074,7 +5138,7 @@
       </c>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>702</v>
       </c>
@@ -5086,7 +5150,7 @@
       </c>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>895</v>
       </c>
@@ -5098,7 +5162,7 @@
       </c>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>983</v>
       </c>
@@ -5110,7 +5174,7 @@
       </c>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>611</v>
       </c>
@@ -5122,7 +5186,7 @@
       </c>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>161</v>
       </c>
@@ -5134,7 +5198,7 @@
       </c>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>162</v>
       </c>
@@ -5146,7 +5210,7 @@
       </c>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>163</v>
       </c>
@@ -5158,7 +5222,7 @@
       </c>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>164</v>
       </c>
@@ -5170,7 +5234,7 @@
       </c>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>165</v>
       </c>
@@ -5182,7 +5246,7 @@
       </c>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>166</v>
       </c>
@@ -5194,7 +5258,7 @@
       </c>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>167</v>
       </c>
@@ -5206,7 +5270,7 @@
       </c>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>168</v>
       </c>
@@ -5218,7 +5282,7 @@
       </c>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>985</v>
       </c>
@@ -5230,7 +5294,7 @@
       </c>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>169</v>
       </c>
@@ -5242,7 +5306,7 @@
       </c>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>865</v>
       </c>
@@ -5254,7 +5318,7 @@
       </c>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>883</v>
       </c>
@@ -5266,7 +5330,7 @@
       </c>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>790</v>
       </c>
@@ -5278,7 +5342,7 @@
       </c>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>170</v>
       </c>
@@ -5290,7 +5354,7 @@
       </c>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>172</v>
       </c>
@@ -5302,7 +5366,7 @@
       </c>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>603</v>
       </c>
@@ -5314,7 +5378,7 @@
       </c>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>171</v>
       </c>
@@ -5326,7 +5390,7 @@
       </c>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>173</v>
       </c>
@@ -5338,7 +5402,7 @@
       </c>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>921</v>
       </c>
@@ -5350,7 +5414,7 @@
       </c>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>174</v>
       </c>
@@ -5362,7 +5426,7 @@
       </c>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>175</v>
       </c>
@@ -5374,7 +5438,7 @@
       </c>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>812</v>
       </c>
@@ -5386,7 +5450,7 @@
       </c>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>635</v>
       </c>
@@ -5398,7 +5462,7 @@
       </c>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>177</v>
       </c>
@@ -5410,7 +5474,7 @@
       </c>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>182</v>
       </c>
@@ -5422,7 +5486,7 @@
       </c>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>183</v>
       </c>
@@ -5434,7 +5498,7 @@
       </c>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>179</v>
       </c>
@@ -5446,7 +5510,7 @@
       </c>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>181</v>
       </c>
@@ -5458,7 +5522,7 @@
       </c>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -5470,7 +5534,7 @@
       </c>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>178</v>
       </c>
@@ -5482,7 +5546,7 @@
       </c>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -5494,7 +5558,7 @@
       </c>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>977</v>
       </c>
@@ -5506,7 +5570,7 @@
       </c>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -5518,7 +5582,7 @@
       </c>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -5530,7 +5594,7 @@
       </c>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -5542,7 +5606,7 @@
       </c>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>935</v>
       </c>
@@ -5554,7 +5618,7 @@
       </c>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>931</v>
       </c>
@@ -5566,7 +5630,7 @@
       </c>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>187</v>
       </c>
@@ -5578,7 +5642,7 @@
       </c>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>764</v>
       </c>
@@ -5590,7 +5654,7 @@
       </c>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>700</v>
       </c>
@@ -5602,7 +5666,7 @@
       </c>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>729</v>
       </c>
@@ -5614,7 +5678,7 @@
       </c>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>188</v>
       </c>
@@ -5626,7 +5690,7 @@
       </c>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>189</v>
       </c>
@@ -5638,7 +5702,7 @@
       </c>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>190</v>
       </c>
@@ -5650,7 +5714,7 @@
       </c>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>191</v>
       </c>
@@ -5662,7 +5726,7 @@
       </c>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>776</v>
       </c>
@@ -5674,7 +5738,7 @@
       </c>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -5686,7 +5750,7 @@
       </c>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -5698,7 +5762,7 @@
       </c>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>879</v>
       </c>
@@ -5710,7 +5774,7 @@
       </c>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>871</v>
       </c>
@@ -5722,7 +5786,7 @@
       </c>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -5734,7 +5798,7 @@
       </c>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>824</v>
       </c>
@@ -5746,7 +5810,7 @@
       </c>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>195</v>
       </c>
@@ -5758,7 +5822,7 @@
       </c>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>955</v>
       </c>
@@ -5770,7 +5834,7 @@
       </c>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>875</v>
       </c>
@@ -5782,7 +5846,7 @@
       </c>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>196</v>
       </c>
@@ -5794,7 +5858,7 @@
       </c>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>605</v>
       </c>
@@ -5806,7 +5870,7 @@
       </c>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>597</v>
       </c>
@@ -5818,7 +5882,7 @@
       </c>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>197</v>
       </c>
@@ -5830,7 +5894,7 @@
       </c>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>867</v>
       </c>
@@ -5842,7 +5906,7 @@
       </c>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>927</v>
       </c>
@@ -5854,7 +5918,7 @@
       </c>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>198</v>
       </c>
@@ -5866,7 +5930,7 @@
       </c>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>199</v>
       </c>
@@ -5878,7 +5942,7 @@
       </c>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -5890,7 +5954,7 @@
       </c>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>201</v>
       </c>
@@ -5902,7 +5966,7 @@
       </c>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>202</v>
       </c>
@@ -5914,7 +5978,7 @@
       </c>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>203</v>
       </c>
@@ -5926,7 +5990,7 @@
       </c>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -5938,7 +6002,7 @@
       </c>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -5950,7 +6014,7 @@
       </c>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>662</v>
       </c>
@@ -5962,7 +6026,7 @@
       </c>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>207</v>
       </c>
@@ -5974,7 +6038,7 @@
       </c>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -5986,7 +6050,7 @@
       </c>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>208</v>
       </c>
@@ -5998,7 +6062,7 @@
       </c>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>209</v>
       </c>
@@ -6010,7 +6074,7 @@
       </c>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>210</v>
       </c>
@@ -6022,7 +6086,7 @@
       </c>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>211</v>
       </c>
@@ -6034,7 +6098,7 @@
       </c>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>212</v>
       </c>
@@ -6046,7 +6110,7 @@
       </c>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -6058,7 +6122,7 @@
       </c>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -6070,7 +6134,7 @@
       </c>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -6082,7 +6146,7 @@
       </c>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>216</v>
       </c>
@@ -6094,7 +6158,7 @@
       </c>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>217</v>
       </c>
@@ -6106,7 +6170,7 @@
       </c>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>855</v>
       </c>
@@ -6118,7 +6182,7 @@
       </c>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>893</v>
       </c>
@@ -6130,7 +6194,7 @@
       </c>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -6142,7 +6206,7 @@
       </c>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>852</v>
       </c>
@@ -6154,7 +6218,7 @@
       </c>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>650</v>
       </c>
@@ -6166,7 +6230,7 @@
       </c>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>772</v>
       </c>
@@ -6178,7 +6242,7 @@
       </c>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>901</v>
       </c>
@@ -6190,7 +6254,7 @@
       </c>
       <c r="D220" s="1"/>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>682</v>
       </c>
@@ -6202,7 +6266,7 @@
       </c>
       <c r="D221" s="1"/>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>938</v>
       </c>
@@ -6214,7 +6278,7 @@
       </c>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>1005</v>
       </c>
@@ -6226,7 +6290,7 @@
       </c>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>756</v>
       </c>
@@ -6238,7 +6302,7 @@
       </c>
       <c r="D224" s="1"/>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>692</v>
       </c>
@@ -6250,7 +6314,7 @@
       </c>
       <c r="D225" s="1"/>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>218</v>
       </c>
@@ -6262,7 +6326,7 @@
       </c>
       <c r="D226" s="1"/>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>623</v>
       </c>
@@ -6274,7 +6338,7 @@
       </c>
       <c r="D227" s="1"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>219</v>
       </c>
@@ -6286,7 +6350,7 @@
       </c>
       <c r="D228" s="1"/>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>220</v>
       </c>
@@ -6298,7 +6362,7 @@
       </c>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>221</v>
       </c>
@@ -6310,7 +6374,7 @@
       </c>
       <c r="D230" s="1"/>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>992</v>
       </c>
@@ -6322,7 +6386,7 @@
       </c>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>953</v>
       </c>
@@ -6334,7 +6398,7 @@
       </c>
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>892</v>
       </c>
@@ -6346,7 +6410,7 @@
       </c>
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>885</v>
       </c>
@@ -6358,7 +6422,7 @@
       </c>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>991</v>
       </c>
@@ -6370,7 +6434,7 @@
       </c>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>804</v>
       </c>
@@ -6382,7 +6446,7 @@
       </c>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>222</v>
       </c>
@@ -6394,7 +6458,7 @@
       </c>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>223</v>
       </c>
@@ -6406,7 +6470,7 @@
       </c>
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>224</v>
       </c>
@@ -6418,7 +6482,7 @@
       </c>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>225</v>
       </c>
@@ -6430,7 +6494,7 @@
       </c>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>226</v>
       </c>
@@ -6442,7 +6506,7 @@
       </c>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>227</v>
       </c>
@@ -6454,7 +6518,7 @@
       </c>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>228</v>
       </c>
@@ -6466,7 +6530,7 @@
       </c>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>229</v>
       </c>
@@ -6478,7 +6542,7 @@
       </c>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>230</v>
       </c>
@@ -6490,7 +6554,7 @@
       </c>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>231</v>
       </c>
@@ -6502,7 +6566,7 @@
       </c>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>232</v>
       </c>
@@ -6514,7 +6578,7 @@
       </c>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>696</v>
       </c>
@@ -6526,7 +6590,7 @@
       </c>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>917</v>
       </c>
@@ -6538,7 +6602,7 @@
       </c>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>844</v>
       </c>
@@ -6550,7 +6614,7 @@
       </c>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>704</v>
       </c>
@@ -6562,7 +6626,7 @@
       </c>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>233</v>
       </c>
@@ -6574,7 +6638,7 @@
       </c>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>235</v>
       </c>
@@ -6586,7 +6650,7 @@
       </c>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>234</v>
       </c>
@@ -6598,7 +6662,7 @@
       </c>
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>754</v>
       </c>
@@ -6610,7 +6674,7 @@
       </c>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>859</v>
       </c>
@@ -6622,7 +6686,7 @@
       </c>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>236</v>
       </c>
@@ -6634,7 +6698,7 @@
       </c>
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>237</v>
       </c>
@@ -6646,7 +6710,7 @@
       </c>
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>890</v>
       </c>
@@ -6658,7 +6722,7 @@
       </c>
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>238</v>
       </c>
@@ -6670,7 +6734,7 @@
       </c>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>808</v>
       </c>
@@ -6682,7 +6746,7 @@
       </c>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>911</v>
       </c>
@@ -6694,7 +6758,7 @@
       </c>
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>239</v>
       </c>
@@ -6706,7 +6770,7 @@
       </c>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>670</v>
       </c>
@@ -6718,7 +6782,7 @@
       </c>
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>752</v>
       </c>
@@ -6730,7 +6794,7 @@
       </c>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>637</v>
       </c>
@@ -6742,7 +6806,7 @@
       </c>
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>240</v>
       </c>
@@ -6754,7 +6818,7 @@
       </c>
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>241</v>
       </c>
@@ -6766,7 +6830,7 @@
       </c>
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>242</v>
       </c>
@@ -6778,7 +6842,7 @@
       </c>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>243</v>
       </c>
@@ -6787,7 +6851,7 @@
       </c>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>244</v>
       </c>
@@ -6799,7 +6863,7 @@
       </c>
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>245</v>
       </c>
@@ -6811,7 +6875,7 @@
       </c>
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>706</v>
       </c>
@@ -6823,7 +6887,7 @@
       </c>
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>246</v>
       </c>
@@ -6835,7 +6899,7 @@
       </c>
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>667</v>
       </c>
@@ -6847,7 +6911,7 @@
       </c>
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>247</v>
       </c>
@@ -6859,7 +6923,7 @@
       </c>
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>766</v>
       </c>
@@ -6871,7 +6935,7 @@
       </c>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>248</v>
       </c>
@@ -6883,7 +6947,7 @@
       </c>
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>830</v>
       </c>
@@ -6895,7 +6959,7 @@
       </c>
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>788</v>
       </c>
@@ -6907,7 +6971,7 @@
       </c>
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>249</v>
       </c>
@@ -6919,7 +6983,7 @@
       </c>
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>250</v>
       </c>
@@ -6931,7 +6995,7 @@
       </c>
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>899</v>
       </c>
@@ -6943,7 +7007,7 @@
       </c>
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>251</v>
       </c>
@@ -6955,7 +7019,7 @@
       </c>
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>708</v>
       </c>
@@ -6967,7 +7031,7 @@
       </c>
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>252</v>
       </c>
@@ -6979,7 +7043,7 @@
       </c>
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>975</v>
       </c>
@@ -6991,7 +7055,7 @@
       </c>
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>253</v>
       </c>
@@ -7003,7 +7067,7 @@
       </c>
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>834</v>
       </c>
@@ -7015,7 +7079,7 @@
       </c>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>254</v>
       </c>
@@ -7027,7 +7091,7 @@
       </c>
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>255</v>
       </c>
@@ -7039,7 +7103,7 @@
       </c>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>256</v>
       </c>
@@ -7051,7 +7115,7 @@
       </c>
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>608</v>
       </c>
@@ -7063,7 +7127,7 @@
       </c>
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>907</v>
       </c>
@@ -7075,7 +7139,7 @@
       </c>
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>258</v>
       </c>
@@ -7087,7 +7151,7 @@
       </c>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>257</v>
       </c>
@@ -7099,7 +7163,7 @@
       </c>
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>786</v>
       </c>
@@ -7111,7 +7175,7 @@
       </c>
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>710</v>
       </c>
@@ -7123,7 +7187,7 @@
       </c>
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>259</v>
       </c>
@@ -7135,7 +7199,7 @@
       </c>
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>260</v>
       </c>
@@ -7147,7 +7211,7 @@
       </c>
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" s="2" t="s">
         <v>262</v>
       </c>
@@ -7159,7 +7223,7 @@
       </c>
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>740</v>
       </c>
@@ -7171,7 +7235,7 @@
       </c>
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>263</v>
       </c>
@@ -7183,7 +7247,7 @@
       </c>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>1000</v>
       </c>
@@ -7195,7 +7259,7 @@
       </c>
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>264</v>
       </c>
@@ -7207,7 +7271,7 @@
       </c>
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>261</v>
       </c>
@@ -7219,7 +7283,7 @@
       </c>
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>265</v>
       </c>
@@ -7231,7 +7295,7 @@
       </c>
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>266</v>
       </c>
@@ -7243,7 +7307,7 @@
       </c>
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>267</v>
       </c>
@@ -7255,7 +7319,7 @@
       </c>
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>712</v>
       </c>
@@ -7267,7 +7331,7 @@
       </c>
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>905</v>
       </c>
@@ -7279,7 +7343,7 @@
       </c>
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>268</v>
       </c>
@@ -7291,7 +7355,7 @@
       </c>
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>269</v>
       </c>
@@ -7303,7 +7367,7 @@
       </c>
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>270</v>
       </c>
@@ -7315,7 +7379,7 @@
       </c>
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>271</v>
       </c>
@@ -7327,7 +7391,7 @@
       </c>
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>272</v>
       </c>
@@ -7339,7 +7403,7 @@
       </c>
       <c r="D316" s="1"/>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>973</v>
       </c>
@@ -7351,7 +7415,7 @@
       </c>
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>989</v>
       </c>
@@ -7363,7 +7427,7 @@
       </c>
       <c r="D318" s="1"/>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>656</v>
       </c>
@@ -7375,7 +7439,7 @@
       </c>
       <c r="D319" s="1"/>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
         <v>273</v>
       </c>
@@ -7387,7 +7451,7 @@
       </c>
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>274</v>
       </c>
@@ -7399,7 +7463,7 @@
       </c>
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>275</v>
       </c>
@@ -7411,7 +7475,7 @@
       </c>
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>746</v>
       </c>
@@ -7423,7 +7487,7 @@
       </c>
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>276</v>
       </c>
@@ -7435,7 +7499,7 @@
       </c>
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>277</v>
       </c>
@@ -7447,7 +7511,7 @@
       </c>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>601</v>
       </c>
@@ -7459,7 +7523,7 @@
       </c>
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>803</v>
       </c>
@@ -7471,7 +7535,7 @@
       </c>
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>278</v>
       </c>
@@ -7483,7 +7547,7 @@
       </c>
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
         <v>279</v>
       </c>
@@ -7495,7 +7559,7 @@
       </c>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>280</v>
       </c>
@@ -7507,7 +7571,7 @@
       </c>
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>744</v>
       </c>
@@ -7519,7 +7583,7 @@
       </c>
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>698</v>
       </c>
@@ -7531,7 +7595,7 @@
       </c>
       <c r="D332" s="1"/>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>727</v>
       </c>
@@ -7543,7 +7607,7 @@
       </c>
       <c r="D333" s="1"/>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>281</v>
       </c>
@@ -7555,7 +7619,7 @@
       </c>
       <c r="D334" s="1"/>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A335" s="1" t="s">
         <v>282</v>
       </c>
@@ -7567,7 +7631,7 @@
       </c>
       <c r="D335" s="1"/>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>283</v>
       </c>
@@ -7579,7 +7643,7 @@
       </c>
       <c r="D336" s="1"/>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>987</v>
       </c>
@@ -7591,7 +7655,7 @@
       </c>
       <c r="D337" s="1"/>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>284</v>
       </c>
@@ -7603,7 +7667,7 @@
       </c>
       <c r="D338" s="1"/>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>285</v>
       </c>
@@ -7615,7 +7679,7 @@
       </c>
       <c r="D339" s="1"/>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>286</v>
       </c>
@@ -7627,7 +7691,7 @@
       </c>
       <c r="D340" s="1"/>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>967</v>
       </c>
@@ -7639,7 +7703,7 @@
       </c>
       <c r="D341" s="1"/>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>287</v>
       </c>
@@ -7651,7 +7715,7 @@
       </c>
       <c r="D342" s="1"/>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>288</v>
       </c>
@@ -7663,7 +7727,7 @@
       </c>
       <c r="D343" s="1"/>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>289</v>
       </c>
@@ -7675,7 +7739,7 @@
       </c>
       <c r="D344" s="1"/>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A345" s="1" t="s">
         <v>290</v>
       </c>
@@ -7687,7 +7751,7 @@
       </c>
       <c r="D345" s="1"/>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A346" s="1" t="s">
         <v>774</v>
       </c>
@@ -7699,7 +7763,7 @@
       </c>
       <c r="D346" s="1"/>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
         <v>291</v>
       </c>
@@ -7711,7 +7775,7 @@
       </c>
       <c r="D347" s="1"/>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
         <v>738</v>
       </c>
@@ -7723,7 +7787,7 @@
       </c>
       <c r="D348" s="1"/>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>881</v>
       </c>
@@ -7735,7 +7799,7 @@
       </c>
       <c r="D349" s="1"/>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>736</v>
       </c>
@@ -7747,7 +7811,7 @@
       </c>
       <c r="D350" s="1"/>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>292</v>
       </c>
@@ -7759,7 +7823,7 @@
       </c>
       <c r="D351" s="1"/>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>653</v>
       </c>
@@ -7771,7 +7835,7 @@
       </c>
       <c r="D352" s="1"/>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>952</v>
       </c>
@@ -7783,7 +7847,7 @@
       </c>
       <c r="D353" s="1"/>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>293</v>
       </c>
@@ -7795,7 +7859,7 @@
       </c>
       <c r="D354" s="1"/>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>294</v>
       </c>
@@ -7806,7 +7870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>971</v>
       </c>
@@ -7817,7 +7881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>295</v>
       </c>
@@ -7828,7 +7892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>714</v>
       </c>
@@ -7839,7 +7903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>296</v>
       </c>
@@ -7850,7 +7914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>919</v>
       </c>
@@ -7861,7 +7925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>297</v>
       </c>
@@ -7872,7 +7936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>877</v>
       </c>
@@ -7883,7 +7947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>680</v>
       </c>
@@ -7894,7 +7958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A364" s="2" t="s">
         <v>965</v>
       </c>
@@ -7905,7 +7969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A365" s="2" t="s">
         <v>298</v>
       </c>
@@ -7916,7 +7980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>913</v>
       </c>
@@ -7927,7 +7991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>299</v>
       </c>
@@ -7938,7 +8002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>300</v>
       </c>
@@ -7949,7 +8013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>903</v>
       </c>
@@ -7960,7 +8024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>836</v>
       </c>
@@ -7971,7 +8035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>869</v>
       </c>
@@ -7982,7 +8046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>301</v>
       </c>
@@ -7991,7 +8055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>302</v>
       </c>
@@ -8002,7 +8066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
         <v>303</v>
       </c>
@@ -8013,7 +8077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A375" s="4" t="s">
         <v>304</v>
       </c>
@@ -8024,7 +8088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>846</v>
       </c>
@@ -8035,7 +8099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>305</v>
       </c>
@@ -8046,7 +8110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>625</v>
       </c>
@@ -8057,7 +8121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
         <v>639</v>
       </c>
@@ -8068,7 +8132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
         <v>678</v>
       </c>
@@ -8079,7 +8143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
         <v>672</v>
       </c>
@@ -8090,7 +8154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
         <v>306</v>
       </c>
@@ -8101,7 +8165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>307</v>
       </c>
@@ -8112,7 +8176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A384" s="4" t="s">
         <v>818</v>
       </c>
@@ -8123,7 +8187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
         <v>308</v>
       </c>
@@ -8134,7 +8198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>688</v>
       </c>
@@ -8145,7 +8209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>309</v>
       </c>
@@ -8156,7 +8220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>897</v>
       </c>
@@ -8167,7 +8231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>310</v>
       </c>
@@ -8178,7 +8242,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>716</v>
       </c>
@@ -8189,7 +8253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
         <v>311</v>
       </c>
@@ -8200,7 +8264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
         <v>312</v>
       </c>
@@ -8211,7 +8275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
         <v>796</v>
       </c>
@@ -8222,7 +8286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>313</v>
       </c>
@@ -8233,7 +8297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>618</v>
       </c>
@@ -8244,7 +8308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>613</v>
       </c>
@@ -8255,7 +8319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>616</v>
       </c>
@@ -8266,7 +8330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>314</v>
       </c>
@@ -8277,7 +8341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>315</v>
       </c>
@@ -8288,7 +8352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>316</v>
       </c>
@@ -8299,7 +8363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
         <v>840</v>
       </c>
@@ -8310,7 +8374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
         <v>924</v>
       </c>
@@ -8321,7 +8385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
         <v>731</v>
       </c>
@@ -8332,7 +8396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
         <v>770</v>
       </c>
@@ -8343,7 +8407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A405" t="s">
         <v>317</v>
       </c>
@@ -8354,7 +8418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
         <v>732</v>
       </c>
@@ -8365,7 +8429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
         <v>735</v>
       </c>
@@ -8376,7 +8440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
         <v>318</v>
       </c>
@@ -8387,7 +8451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
         <v>319</v>
       </c>
@@ -8398,7 +8462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
         <v>320</v>
       </c>
@@ -8409,7 +8473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
         <v>321</v>
       </c>
@@ -8420,7 +8484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
         <v>322</v>
       </c>
@@ -8431,7 +8495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
         <v>323</v>
       </c>
@@ -8442,7 +8506,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
         <v>324</v>
       </c>
@@ -8453,7 +8517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
         <v>814</v>
       </c>
@@ -8464,7 +8528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A416" s="7" t="s">
         <v>641</v>
       </c>
@@ -8475,7 +8539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
         <v>325</v>
       </c>
@@ -8486,7 +8550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
         <v>929</v>
       </c>
@@ -8497,7 +8561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
         <v>326</v>
       </c>
@@ -8508,7 +8572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
         <v>327</v>
       </c>
@@ -8519,7 +8583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
         <v>328</v>
       </c>
@@ -8530,7 +8594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
         <v>329</v>
       </c>
@@ -8541,7 +8605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
         <v>330</v>
       </c>
@@ -8552,7 +8616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
         <v>331</v>
       </c>
@@ -8563,7 +8627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
         <v>332</v>
       </c>
@@ -8574,7 +8638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
         <v>333</v>
       </c>
@@ -8585,7 +8649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
         <v>334</v>
       </c>
@@ -8596,7 +8660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
         <v>810</v>
       </c>
@@ -8607,7 +8671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
         <v>335</v>
       </c>
@@ -8618,7 +8682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
         <v>828</v>
       </c>
@@ -8629,7 +8693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
         <v>718</v>
       </c>
@@ -8640,7 +8704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
         <v>629</v>
       </c>
@@ -8651,7 +8715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
         <v>336</v>
       </c>
@@ -8662,7 +8726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
         <v>853</v>
       </c>
@@ -8673,7 +8737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
         <v>599</v>
       </c>
@@ -8684,7 +8748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
         <v>337</v>
       </c>
@@ -8695,7 +8759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
         <v>338</v>
       </c>
@@ -8706,7 +8770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A438" t="s">
         <v>722</v>
       </c>
@@ -8717,7 +8781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A439" t="s">
         <v>915</v>
       </c>
@@ -8728,7 +8792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
         <v>723</v>
       </c>
@@ -8739,7 +8803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
         <v>801</v>
       </c>
@@ -8750,7 +8814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
         <v>784</v>
       </c>
@@ -8761,7 +8825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A443" s="10" t="s">
         <v>339</v>
       </c>
@@ -8772,7 +8836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A444" t="s">
         <v>842</v>
       </c>
@@ -8783,7 +8847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A445" t="s">
         <v>340</v>
       </c>
@@ -8794,7 +8858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
         <v>341</v>
       </c>
@@ -8805,7 +8869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A447" t="s">
         <v>342</v>
       </c>
@@ -8816,7 +8880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A448" t="s">
         <v>645</v>
       </c>
@@ -8827,7 +8891,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A449" t="s">
         <v>343</v>
       </c>
@@ -8838,7 +8902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
         <v>963</v>
       </c>
@@ -8849,7 +8913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
         <v>344</v>
       </c>
@@ -8860,7 +8924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
         <v>345</v>
       </c>
@@ -8871,7 +8935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
         <v>346</v>
       </c>
@@ -8882,7 +8946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
         <v>347</v>
       </c>
@@ -8893,7 +8957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
         <v>348</v>
       </c>
@@ -8904,7 +8968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
         <v>349</v>
       </c>
@@ -8915,7 +8979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
         <v>350</v>
       </c>
@@ -8926,7 +8990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A458" t="s">
         <v>857</v>
       </c>
@@ -8937,7 +9001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A459" t="s">
         <v>684</v>
       </c>
@@ -8948,7 +9012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A460" s="10" t="s">
         <v>687</v>
       </c>
@@ -8959,7 +9023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
         <v>351</v>
       </c>
@@ -8970,7 +9034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A462" t="s">
         <v>352</v>
       </c>
@@ -8981,7 +9045,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A463" t="s">
         <v>950</v>
       </c>
@@ -8992,7 +9056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A464" t="s">
         <v>353</v>
       </c>
@@ -9003,7 +9067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A465" s="10" t="s">
         <v>676</v>
       </c>
@@ -9014,7 +9078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
         <v>821</v>
       </c>
@@ -9025,7 +9089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A467" s="10" t="s">
         <v>354</v>
       </c>
@@ -9036,7 +9100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A468" t="s">
         <v>674</v>
       </c>
@@ -9047,7 +9111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A469" t="s">
         <v>778</v>
       </c>
@@ -9058,7 +9122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A470" t="s">
         <v>355</v>
       </c>
@@ -9069,7 +9133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A471" t="s">
         <v>356</v>
       </c>
@@ -9080,7 +9144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A472" t="s">
         <v>720</v>
       </c>
@@ -9091,7 +9155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A473" s="10" t="s">
         <v>358</v>
       </c>
@@ -9102,7 +9166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A474" s="10" t="s">
         <v>357</v>
       </c>
@@ -9113,7 +9177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A475" t="s">
         <v>961</v>
       </c>
@@ -9124,7 +9188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A476" t="s">
         <v>359</v>
       </c>
@@ -9135,7 +9199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A477" t="s">
         <v>690</v>
       </c>
@@ -9146,7 +9210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A478" s="10" t="s">
         <v>360</v>
       </c>
@@ -9157,7 +9221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A479" t="s">
         <v>361</v>
       </c>
@@ -9168,7 +9232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A480" t="s">
         <v>143</v>
       </c>
@@ -9179,7 +9243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A481" t="s">
         <v>969</v>
       </c>
@@ -9190,7 +9254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A482" t="s">
         <v>362</v>
       </c>
@@ -9201,7 +9265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A483" t="s">
         <v>609</v>
       </c>
@@ -9212,7 +9276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A484" t="s">
         <v>363</v>
       </c>
@@ -9223,7 +9287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A485" t="s">
         <v>643</v>
       </c>
@@ -9234,7 +9298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A486" t="s">
         <v>364</v>
       </c>
@@ -9245,7 +9309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A487" t="s">
         <v>365</v>
       </c>
@@ -9256,7 +9320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A488" t="s">
         <v>366</v>
       </c>
@@ -9267,7 +9331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A489" t="s">
         <v>826</v>
       </c>
@@ -9278,7 +9342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A490" t="s">
         <v>368</v>
       </c>
@@ -9289,7 +9353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A491" t="s">
         <v>367</v>
       </c>
@@ -9300,7 +9364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A492" t="s">
         <v>369</v>
       </c>
@@ -9311,7 +9375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A493" t="s">
         <v>370</v>
       </c>
@@ -9322,7 +9386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A494" t="s">
         <v>371</v>
       </c>
@@ -9333,7 +9397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A495" t="s">
         <v>372</v>
       </c>
@@ -9344,7 +9408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A496" t="s">
         <v>838</v>
       </c>
@@ -9355,7 +9419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A497" t="s">
         <v>373</v>
       </c>
@@ -9366,7 +9430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A498" t="s">
         <v>832</v>
       </c>
@@ -9377,7 +9441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A499" t="s">
         <v>145</v>
       </c>
@@ -9388,7 +9452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A500" t="s">
         <v>147</v>
       </c>
@@ -9399,7 +9463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A501" t="s">
         <v>792</v>
       </c>
@@ -9410,7 +9474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A502" t="s">
         <v>1007</v>
       </c>
@@ -9421,7 +9485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A503" t="s">
         <v>1009</v>
       </c>
@@ -9432,7 +9496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A504" t="s">
         <v>1010</v>
       </c>
@@ -9443,7 +9507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A505" t="s">
         <v>1013</v>
       </c>
@@ -9454,7 +9518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A506" t="s">
         <v>1015</v>
       </c>
@@ -9465,7 +9529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A507" t="s">
         <v>1017</v>
       </c>
@@ -9476,7 +9540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A508" t="s">
         <v>1019</v>
       </c>
@@ -9487,7 +9551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A509" t="s">
         <v>1021</v>
       </c>
@@ -9498,7 +9562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A510" t="s">
         <v>1023</v>
       </c>
@@ -9509,7 +9573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A511" t="s">
         <v>1025</v>
       </c>
@@ -9520,7 +9584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A512" t="s">
         <v>1027</v>
       </c>
@@ -9531,7 +9595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A513" t="s">
         <v>1029</v>
       </c>
@@ -9542,7 +9606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A514" t="s">
         <v>1031</v>
       </c>
@@ -9550,6 +9614,61 @@
         <v>1032</v>
       </c>
       <c r="C514" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A515" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C515" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A516" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C516" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A517" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C517" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A518" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C518" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A519" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C519" s="10" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="1053">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3191,6 +3191,38 @@
   </si>
   <si>
     <t>tt1293847</t>
+  </si>
+  <si>
+    <t>Fist Fight</t>
+  </si>
+  <si>
+    <t>tt3401882</t>
+  </si>
+  <si>
+    <t>Children of Heaven</t>
+  </si>
+  <si>
+    <t>tt0118849</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt0107290</t>
+  </si>
+  <si>
+    <t>The Lost World: Jurassic Park</t>
+  </si>
+  <si>
+    <t>tt0119567</t>
+  </si>
+  <si>
+    <t>Jurassic Park III</t>
+  </si>
+  <si>
+    <t>tt0163025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3601,10 +3633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D519"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="C518" sqref="C518:C519"/>
+    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="C519" sqref="C519:C524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
@@ -9672,6 +9704,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A520" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C520" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A521" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C521" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A522" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C522" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A523" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C523" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A524" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C524" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="1073">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3224,12 +3224,75 @@
     <t>tt0163025</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>A Dog's Purpose</t>
+  </si>
+  <si>
+    <t>tt1753383</t>
+  </si>
+  <si>
+    <t>tt2771200</t>
+  </si>
+  <si>
+    <t>The Boss Baby</t>
+  </si>
+  <si>
+    <t>tt3874544</t>
+  </si>
+  <si>
+    <t>The Shack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt2872518</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>tt0120903</t>
+  </si>
+  <si>
+    <t>X-Men 2</t>
+  </si>
+  <si>
+    <t>tt0290334</t>
+  </si>
+  <si>
+    <t>X-Men The Last Stand</t>
+  </si>
+  <si>
+    <t>tt0376994</t>
+  </si>
+  <si>
+    <t>X-Men Origins Wolverine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt0458525</t>
+  </si>
+  <si>
+    <t>The Wolverine</t>
+  </si>
+  <si>
+    <t>Beauty and the Beast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt1430132</t>
+  </si>
+  <si>
+    <t>John Wick Chapter 2</t>
+  </si>
+  <si>
+    <t>tt4425200</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3242,6 +3305,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3265,21 +3335,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3633,6129 +3695,5889 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D524"/>
+  <dimension ref="A1:D534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
-      <selection activeCell="C519" sqref="C519:C524"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="C532" sqref="C532:C534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="67.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.41796875" customWidth="1"/>
+    <col min="1" max="1" width="67.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.41796875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C59" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C60" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C62" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C64" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C66" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C67" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C68" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+      <c r="C68" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C69" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="C71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C72" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+      <c r="C72" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C74" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C75" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C76" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+      <c r="C76" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C77" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C79" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
+      <c r="C79" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C80" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
+      <c r="C80" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
+      <c r="C81" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C82" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
+      <c r="C82" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C83" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
+      <c r="C83" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
+      <c r="C84" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="C85" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
+      <c r="C85" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C86" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
+      <c r="C86" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C87" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
+      <c r="C87" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C88" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
+      <c r="C88" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C89" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
+      <c r="C89" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C90" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
+      <c r="C90" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C91" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
+      <c r="C91" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C92" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
+      <c r="C92" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="C93" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
+      <c r="C93" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C94" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
+      <c r="C94" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C95" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
+      <c r="C95" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C96" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
+      <c r="C96" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C97" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="10" t="s">
+      <c r="C97" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C98" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
+      <c r="C98" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C99" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
+      <c r="C99" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C100" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C101" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
+      <c r="C101" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C102" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
+      <c r="C102" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C103" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
+      <c r="C103" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C104" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
+      <c r="C104" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C105" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
+      <c r="C105" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="C106" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
+      <c r="C106" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C107" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
+      <c r="C107" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C108" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
+      <c r="C108" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C109" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
+      <c r="C109" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C110" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
+      <c r="C110" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C111" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
+      <c r="C111" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C112" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
+      <c r="C112" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C113" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
+      <c r="C113" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="C114" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
+      <c r="C114" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C115" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
+      <c r="C115" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="C116" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
+      <c r="C116" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C117" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
+      <c r="C117" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C118" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
+      <c r="C118" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C119" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
+      <c r="C119" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C120" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
+      <c r="C120" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C121" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
+      <c r="C121" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C122" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
+      <c r="C122" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C123" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
+      <c r="C123" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C124" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
+      <c r="C124" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="C125" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
+      <c r="C125" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C126" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
+      <c r="C126" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="C127" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
+      <c r="C127" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C128" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
+      <c r="C128" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="C129" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
+      <c r="C129" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="C130" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
+      <c r="C130" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C131" t="s">
-        <v>5</v>
-      </c>
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
+      <c r="C131" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C132" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="1"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
+      <c r="C132" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C133" t="s">
-        <v>5</v>
-      </c>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
+      <c r="C133" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C134" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" s="1"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
+      <c r="C134" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C135" t="s">
-        <v>5</v>
-      </c>
-      <c r="D135" s="1"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
+      <c r="C135" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C136" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="1"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
+      <c r="C136" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D137" s="1"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C138" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
+      <c r="C138" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C139" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" s="1"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
+      <c r="C139" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="C140" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="1"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
+      <c r="C140" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C141" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" s="1"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
+      <c r="C141" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="C142" t="s">
-        <v>5</v>
-      </c>
-      <c r="D142" s="1"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
+      <c r="C142" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="C143" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143" s="1"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
+      <c r="C143" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="C144" t="s">
-        <v>5</v>
-      </c>
-      <c r="D144" s="1"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
+      <c r="C144" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C145" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="1"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
+      <c r="C145" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C146" t="s">
-        <v>5</v>
-      </c>
-      <c r="D146" s="1"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
+      <c r="C146" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C147" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" s="1"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
+      <c r="C147" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C148" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" s="1"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
+      <c r="C148" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C149" t="s">
-        <v>5</v>
-      </c>
-      <c r="D149" s="1"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
+      <c r="C149" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C150" t="s">
-        <v>5</v>
-      </c>
-      <c r="D150" s="1"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A151" t="s">
+      <c r="C150" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C151" t="s">
-        <v>5</v>
-      </c>
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
+      <c r="C151" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C152" t="s">
-        <v>5</v>
-      </c>
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
+      <c r="C152" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C153" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" s="1"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
+      <c r="C153" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C154" t="s">
-        <v>5</v>
-      </c>
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" t="s">
+      <c r="C154" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C155" t="s">
-        <v>5</v>
-      </c>
-      <c r="D155" s="1"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A156" t="s">
+      <c r="C155" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C156" t="s">
-        <v>5</v>
-      </c>
-      <c r="D156" s="1"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
+      <c r="C156" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C157" t="s">
-        <v>5</v>
-      </c>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
+      <c r="C157" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C158" t="s">
-        <v>5</v>
-      </c>
-      <c r="D158" s="1"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
+      <c r="C158" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C159" t="s">
-        <v>5</v>
-      </c>
-      <c r="D159" s="1"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
+      <c r="C159" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C160" t="s">
-        <v>5</v>
-      </c>
-      <c r="D160" s="1"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A161" t="s">
+      <c r="C160" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C161" t="s">
-        <v>5</v>
-      </c>
-      <c r="D161" s="1"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
+      <c r="C161" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C162" t="s">
-        <v>5</v>
-      </c>
-      <c r="D162" s="1"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
+      <c r="C162" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="C163" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163" s="1"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
+      <c r="C163" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C164" t="s">
-        <v>5</v>
-      </c>
-      <c r="D164" s="1"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A165" t="s">
+      <c r="C164" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C165" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" s="1"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A166" t="s">
+      <c r="C165" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C166" t="s">
-        <v>5</v>
-      </c>
-      <c r="D166" s="1"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A167" t="s">
+      <c r="C166" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="C167" t="s">
-        <v>5</v>
-      </c>
-      <c r="D167" s="1"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A168" t="s">
+      <c r="C167" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="C168" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168" s="1"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
+      <c r="C168" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C169" t="s">
-        <v>5</v>
-      </c>
-      <c r="D169" s="1"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A170" t="s">
+      <c r="C169" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C170" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="1"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A171" t="s">
+      <c r="C170" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C171" t="s">
-        <v>5</v>
-      </c>
-      <c r="D171" s="1"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
+      <c r="C171" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D172" s="1"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A173" t="s">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C173" t="s">
-        <v>5</v>
-      </c>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
+      <c r="C173" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C174" t="s">
-        <v>5</v>
-      </c>
-      <c r="D174" s="1"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A175" t="s">
+      <c r="C174" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C175" t="s">
-        <v>5</v>
-      </c>
-      <c r="D175" s="1"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
+      <c r="C175" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C176" t="s">
-        <v>5</v>
-      </c>
-      <c r="D176" s="1"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A177" t="s">
+      <c r="C176" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C177" t="s">
-        <v>5</v>
-      </c>
-      <c r="D177" s="1"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A178" t="s">
+      <c r="C177" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C178" t="s">
-        <v>5</v>
-      </c>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A179" t="s">
+      <c r="C178" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C179" t="s">
-        <v>5</v>
-      </c>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A180" t="s">
+      <c r="C179" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="C180" t="s">
-        <v>5</v>
-      </c>
-      <c r="D180" s="1"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A181" t="s">
+      <c r="C180" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="C181" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181" s="1"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A182" t="s">
+      <c r="C181" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C182" t="s">
-        <v>5</v>
-      </c>
-      <c r="D182" s="1"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A183" t="s">
+      <c r="C182" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C183" t="s">
-        <v>5</v>
-      </c>
-      <c r="D183" s="1"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A184" t="s">
+      <c r="C183" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C184" t="s">
-        <v>5</v>
-      </c>
-      <c r="D184" s="1"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
+      <c r="C184" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="C185" t="s">
-        <v>5</v>
-      </c>
-      <c r="D185" s="1"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A186" t="s">
+      <c r="C185" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="C186" t="s">
-        <v>5</v>
-      </c>
-      <c r="D186" s="1"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
+      <c r="C186" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C187" t="s">
-        <v>5</v>
-      </c>
-      <c r="D187" s="1"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A188" t="s">
+      <c r="C187" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C188" t="s">
-        <v>5</v>
-      </c>
-      <c r="D188" s="1"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
+      <c r="C188" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C189" t="s">
-        <v>5</v>
-      </c>
-      <c r="D189" s="1"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A190" t="s">
+      <c r="C189" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C190" t="s">
-        <v>5</v>
-      </c>
-      <c r="D190" s="1"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A191" t="s">
+      <c r="C190" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C191" t="s">
-        <v>5</v>
-      </c>
-      <c r="D191" s="1"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A192" t="s">
+      <c r="C191" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="C192" t="s">
-        <v>5</v>
-      </c>
-      <c r="D192" s="1"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A193" t="s">
+      <c r="C192" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C193" t="s">
-        <v>5</v>
-      </c>
-      <c r="D193" s="1"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A194" t="s">
+      <c r="C193" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A194" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C194" t="s">
-        <v>5</v>
-      </c>
-      <c r="D194" s="1"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A195" t="s">
+      <c r="C194" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C195" t="s">
-        <v>5</v>
-      </c>
-      <c r="D195" s="1"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A196" t="s">
+      <c r="C195" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C196" t="s">
-        <v>5</v>
-      </c>
-      <c r="D196" s="1"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A197" t="s">
+      <c r="C196" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A197" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C197" t="s">
-        <v>5</v>
-      </c>
-      <c r="D197" s="1"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A198" t="s">
+      <c r="C197" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A198" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C198" t="s">
-        <v>5</v>
-      </c>
-      <c r="D198" s="1"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A199" t="s">
+      <c r="C198" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A199" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C199" t="s">
-        <v>5</v>
-      </c>
-      <c r="D199" s="1"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A200" t="s">
+      <c r="C199" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A200" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C200" t="s">
-        <v>5</v>
-      </c>
-      <c r="D200" s="1"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A201" t="s">
+      <c r="C200" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A201" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C201" t="s">
-        <v>5</v>
-      </c>
-      <c r="D201" s="1"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A202" t="s">
+      <c r="C201" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A202" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C202" t="s">
-        <v>5</v>
-      </c>
-      <c r="D202" s="1"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A203" t="s">
+      <c r="C202" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C203" t="s">
-        <v>5</v>
-      </c>
-      <c r="D203" s="1"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A204" t="s">
+      <c r="C203" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A204" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C204" t="s">
-        <v>5</v>
-      </c>
-      <c r="D204" s="1"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A205" t="s">
+      <c r="C204" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A205" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C205" t="s">
-        <v>5</v>
-      </c>
-      <c r="D205" s="1"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A206" t="s">
+      <c r="C205" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A206" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C206" t="s">
-        <v>5</v>
-      </c>
-      <c r="D206" s="1"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A207" t="s">
+      <c r="C206" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A207" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C207" t="s">
-        <v>5</v>
-      </c>
-      <c r="D207" s="1"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A208" t="s">
+      <c r="C207" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C208" t="s">
-        <v>5</v>
-      </c>
-      <c r="D208" s="1"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A209" t="s">
+      <c r="C208" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C209" t="s">
-        <v>5</v>
-      </c>
-      <c r="D209" s="1"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A210" t="s">
+      <c r="C209" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C210" t="s">
-        <v>5</v>
-      </c>
-      <c r="D210" s="1"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A211" t="s">
+      <c r="C210" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C211" t="s">
-        <v>5</v>
-      </c>
-      <c r="D211" s="1"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A212" t="s">
+      <c r="C211" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C212" t="s">
-        <v>5</v>
-      </c>
-      <c r="D212" s="1"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A213" t="s">
+      <c r="C212" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C213" t="s">
-        <v>5</v>
-      </c>
-      <c r="D213" s="1"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A214" t="s">
+      <c r="C213" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A214" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C214" t="s">
-        <v>5</v>
-      </c>
-      <c r="D214" s="1"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A215" t="s">
+      <c r="C214" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A215" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="C215" t="s">
-        <v>5</v>
-      </c>
-      <c r="D215" s="1"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A216" t="s">
+      <c r="C215" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C216" t="s">
-        <v>5</v>
-      </c>
-      <c r="D216" s="1"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A217" t="s">
+      <c r="C216" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A217" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="C217" t="s">
-        <v>5</v>
-      </c>
-      <c r="D217" s="1"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A218" t="s">
+      <c r="C217" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A218" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C218" t="s">
-        <v>5</v>
-      </c>
-      <c r="D218" s="1"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A219" t="s">
+      <c r="C218" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A219" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C219" t="s">
-        <v>5</v>
-      </c>
-      <c r="D219" s="1"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A220" t="s">
+      <c r="C219" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A220" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="C220" t="s">
-        <v>5</v>
-      </c>
-      <c r="D220" s="1"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A221" t="s">
+      <c r="C220" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C221" t="s">
-        <v>5</v>
-      </c>
-      <c r="D221" s="1"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A222" t="s">
+      <c r="C221" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="C222" t="s">
-        <v>5</v>
-      </c>
-      <c r="D222" s="1"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A223" t="s">
+      <c r="C222" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C223" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D223" s="1"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A224" t="s">
+      <c r="C223" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A224" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C224" t="s">
-        <v>5</v>
-      </c>
-      <c r="D224" s="1"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A225" t="s">
+      <c r="C224" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A225" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C225" t="s">
-        <v>5</v>
-      </c>
-      <c r="D225" s="1"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A226" t="s">
+      <c r="C225" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C226" t="s">
-        <v>5</v>
-      </c>
-      <c r="D226" s="1"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A227" t="s">
+      <c r="C226" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C227" t="s">
-        <v>5</v>
-      </c>
-      <c r="D227" s="1"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A228" t="s">
+      <c r="C227" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A228" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C228" t="s">
-        <v>5</v>
-      </c>
-      <c r="D228" s="1"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A229" t="s">
+      <c r="C228" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A229" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C229" t="s">
-        <v>5</v>
-      </c>
-      <c r="D229" s="1"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A230" t="s">
+      <c r="C229" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A230" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C230" t="s">
-        <v>5</v>
-      </c>
-      <c r="D230" s="1"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A231" t="s">
+      <c r="C230" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A231" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="C231" t="s">
-        <v>5</v>
-      </c>
-      <c r="D231" s="1"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A232" t="s">
+      <c r="C231" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="C232" t="s">
-        <v>5</v>
-      </c>
-      <c r="D232" s="1"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A233" t="s">
+      <c r="C232" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A233" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="C233" t="s">
-        <v>5</v>
-      </c>
-      <c r="D233" s="1"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A234" t="s">
+      <c r="C233" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C234" t="s">
-        <v>5</v>
-      </c>
-      <c r="D234" s="1"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A235" t="s">
+      <c r="C234" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C235" t="s">
-        <v>5</v>
-      </c>
-      <c r="D235" s="1"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A236" t="s">
+      <c r="C235" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="D236" s="1"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A237" t="s">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C237" t="s">
-        <v>5</v>
-      </c>
-      <c r="D237" s="1"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A238" t="s">
+      <c r="C237" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C238" t="s">
-        <v>5</v>
-      </c>
-      <c r="D238" s="1"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A239" t="s">
+      <c r="C238" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C239" t="s">
-        <v>5</v>
-      </c>
-      <c r="D239" s="1"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A240" t="s">
+      <c r="C239" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A240" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C240" t="s">
-        <v>5</v>
-      </c>
-      <c r="D240" s="1"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A241" t="s">
+      <c r="C240" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A241" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C241" t="s">
-        <v>5</v>
-      </c>
-      <c r="D241" s="1"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A242" t="s">
+      <c r="C241" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A242" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C242" t="s">
-        <v>5</v>
-      </c>
-      <c r="D242" s="1"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A243" t="s">
+      <c r="C242" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A243" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C243" t="s">
-        <v>5</v>
-      </c>
-      <c r="D243" s="1"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A244" t="s">
+      <c r="C243" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A244" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C244" t="s">
-        <v>5</v>
-      </c>
-      <c r="D244" s="1"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A245" t="s">
+      <c r="C244" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A245" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C245" t="s">
-        <v>5</v>
-      </c>
-      <c r="D245" s="1"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A246" t="s">
+      <c r="C245" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A246" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C246" t="s">
-        <v>5</v>
-      </c>
-      <c r="D246" s="1"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A247" t="s">
+      <c r="C246" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A247" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C247" t="s">
-        <v>5</v>
-      </c>
-      <c r="D247" s="1"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A248" t="s">
+      <c r="C247" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A248" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C248" t="s">
-        <v>5</v>
-      </c>
-      <c r="D248" s="1"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A249" t="s">
+      <c r="C248" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A249" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="C249" t="s">
-        <v>5</v>
-      </c>
-      <c r="D249" s="1"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A250" t="s">
+      <c r="C249" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A250" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="C250" t="s">
-        <v>5</v>
-      </c>
-      <c r="D250" s="1"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A251" t="s">
+      <c r="C250" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A251" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C251" t="s">
-        <v>5</v>
-      </c>
-      <c r="D251" s="1"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A252" t="s">
+      <c r="C251" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A252" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C252" t="s">
-        <v>5</v>
-      </c>
-      <c r="D252" s="1"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A253" t="s">
+      <c r="C252" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A253" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C253" t="s">
-        <v>5</v>
-      </c>
-      <c r="D253" s="1"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A254" t="s">
+      <c r="C253" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A254" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C254" t="s">
-        <v>5</v>
-      </c>
-      <c r="D254" s="1"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A255" t="s">
+      <c r="C254" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A255" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C255" t="s">
-        <v>5</v>
-      </c>
-      <c r="D255" s="1"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A256" t="s">
+      <c r="C255" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A256" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="C256" t="s">
-        <v>5</v>
-      </c>
-      <c r="D256" s="1"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A257" t="s">
+      <c r="C256" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A257" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C257" t="s">
-        <v>5</v>
-      </c>
-      <c r="D257" s="1"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A258" t="s">
+      <c r="C257" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A258" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C258" t="s">
-        <v>5</v>
-      </c>
-      <c r="D258" s="1"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A259" t="s">
+      <c r="C258" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A259" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="C259" t="s">
-        <v>5</v>
-      </c>
-      <c r="D259" s="1"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A260" t="s">
+      <c r="C259" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A260" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C260" t="s">
-        <v>5</v>
-      </c>
-      <c r="D260" s="1"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A261" t="s">
+      <c r="C260" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A261" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C261" t="s">
-        <v>5</v>
-      </c>
-      <c r="D261" s="1"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A262" t="s">
+      <c r="C261" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A262" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="C262" t="s">
-        <v>5</v>
-      </c>
-      <c r="D262" s="1"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A263" t="s">
+      <c r="C262" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A263" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C263" t="s">
-        <v>5</v>
-      </c>
-      <c r="D263" s="1"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A264" t="s">
+      <c r="C263" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A264" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C264" t="s">
-        <v>5</v>
-      </c>
-      <c r="D264" s="1"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A265" t="s">
+      <c r="C264" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A265" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C265" t="s">
-        <v>5</v>
-      </c>
-      <c r="D265" s="1"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A266" t="s">
+      <c r="C265" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A266" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C266" t="s">
-        <v>5</v>
-      </c>
-      <c r="D266" s="1"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A267" t="s">
+      <c r="C266" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A267" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C267" t="s">
-        <v>5</v>
-      </c>
-      <c r="D267" s="1"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A268" t="s">
+      <c r="C267" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A268" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C268" t="s">
-        <v>5</v>
-      </c>
-      <c r="D268" s="1"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A269" t="s">
+      <c r="C268" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A269" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C269" t="s">
-        <v>5</v>
-      </c>
-      <c r="D269" s="1"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A270" t="s">
+      <c r="C269" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A270" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C270" t="s">
-        <v>5</v>
-      </c>
-      <c r="D270" s="1"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A271" t="s">
+      <c r="C270" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A271" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C271" t="s">
-        <v>5</v>
-      </c>
-      <c r="D271" s="1"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A272" t="s">
+      <c r="C271" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A272" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C272" t="s">
-        <v>5</v>
-      </c>
-      <c r="D272" s="1"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A273" t="s">
+      <c r="C272" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A273" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C273" t="s">
-        <v>5</v>
-      </c>
-      <c r="D273" s="1"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A274" t="s">
+      <c r="C273" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A274" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C274" t="s">
-        <v>5</v>
-      </c>
-      <c r="D274" s="1"/>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A275" t="s">
+      <c r="C274" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A275" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C275" t="s">
-        <v>5</v>
-      </c>
-      <c r="D275" s="1"/>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A276" t="s">
+      <c r="C275" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A276" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C276" t="s">
-        <v>5</v>
-      </c>
-      <c r="D276" s="1"/>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A277" t="s">
+      <c r="C276" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A277" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C277" t="s">
-        <v>5</v>
-      </c>
-      <c r="D277" s="1"/>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A278" t="s">
+      <c r="C277" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A278" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C278" t="s">
-        <v>5</v>
-      </c>
-      <c r="D278" s="1"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A279" t="s">
+      <c r="C278" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A279" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="C279" t="s">
-        <v>5</v>
-      </c>
-      <c r="D279" s="1"/>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A280" t="s">
+      <c r="C279" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A280" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C280" t="s">
-        <v>5</v>
-      </c>
-      <c r="D280" s="1"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A281" t="s">
+      <c r="C280" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A281" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C281" t="s">
-        <v>5</v>
-      </c>
-      <c r="D281" s="1"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A282" t="s">
+      <c r="C281" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A282" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C282" t="s">
-        <v>5</v>
-      </c>
-      <c r="D282" s="1"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A283" t="s">
+      <c r="C282" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A283" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="C283" t="s">
-        <v>5</v>
-      </c>
-      <c r="D283" s="1"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A284" t="s">
+      <c r="C283" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A284" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C284" t="s">
-        <v>5</v>
-      </c>
-      <c r="D284" s="1"/>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A285" t="s">
+      <c r="C284" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A285" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C285" t="s">
-        <v>5</v>
-      </c>
-      <c r="D285" s="1"/>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A286" t="s">
+      <c r="C285" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A286" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C286" t="s">
-        <v>5</v>
-      </c>
-      <c r="D286" s="1"/>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A287" t="s">
+      <c r="C286" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A287" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="C287" t="s">
-        <v>5</v>
-      </c>
-      <c r="D287" s="1"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A288" t="s">
+      <c r="C287" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A288" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C288" t="s">
-        <v>5</v>
-      </c>
-      <c r="D288" s="1"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A289" t="s">
+      <c r="C288" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A289" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="C289" t="s">
-        <v>5</v>
-      </c>
-      <c r="D289" s="1"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A290" t="s">
+      <c r="C289" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A290" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C290" t="s">
-        <v>5</v>
-      </c>
-      <c r="D290" s="1"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A291" t="s">
+      <c r="C290" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A291" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C291" t="s">
-        <v>5</v>
-      </c>
-      <c r="D291" s="1"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A292" t="s">
+      <c r="C291" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A292" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C292" t="s">
-        <v>5</v>
-      </c>
-      <c r="D292" s="1"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A293" t="s">
+      <c r="C292" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A293" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C293" t="s">
-        <v>5</v>
-      </c>
-      <c r="D293" s="1"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A294" t="s">
+      <c r="C293" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A294" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="C294" t="s">
-        <v>5</v>
-      </c>
-      <c r="D294" s="1"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A295" t="s">
+      <c r="C294" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A295" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C295" t="s">
-        <v>5</v>
-      </c>
-      <c r="D295" s="1"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A296" t="s">
+      <c r="C295" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A296" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="D296" s="1"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A297" t="s">
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A297" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="C297" t="s">
-        <v>5</v>
-      </c>
-      <c r="D297" s="1"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A298" t="s">
+      <c r="C297" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A298" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C298" t="s">
-        <v>5</v>
-      </c>
-      <c r="D298" s="1"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A299" t="s">
+      <c r="C298" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A299" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C299" t="s">
-        <v>5</v>
-      </c>
-      <c r="D299" s="1"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A300" t="s">
+      <c r="C299" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A300" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C300" t="s">
-        <v>5</v>
-      </c>
-      <c r="D300" s="1"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A301" s="2" t="s">
+      <c r="C300" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A301" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C301" t="s">
-        <v>5</v>
-      </c>
-      <c r="D301" s="1"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A302" t="s">
+      <c r="C301" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A302" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C302" t="s">
-        <v>5</v>
-      </c>
-      <c r="D302" s="1"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A303" t="s">
+      <c r="C302" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A303" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C303" t="s">
-        <v>5</v>
-      </c>
-      <c r="D303" s="1"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A304" t="s">
+      <c r="C303" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A304" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="C304" t="s">
-        <v>5</v>
-      </c>
-      <c r="D304" s="1"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A305" t="s">
+      <c r="C304" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A305" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C305" t="s">
-        <v>5</v>
-      </c>
-      <c r="D305" s="1"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A306" t="s">
+      <c r="C305" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A306" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C306" t="s">
-        <v>5</v>
-      </c>
-      <c r="D306" s="1"/>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A307" t="s">
+      <c r="C306" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A307" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C307" t="s">
-        <v>5</v>
-      </c>
-      <c r="D307" s="1"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A308" t="s">
+      <c r="C307" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A308" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C308" t="s">
-        <v>5</v>
-      </c>
-      <c r="D308" s="1"/>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A309" t="s">
+      <c r="C308" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A309" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C309" t="s">
-        <v>5</v>
-      </c>
-      <c r="D309" s="1"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A310" t="s">
+      <c r="C309" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A310" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C310" t="s">
-        <v>5</v>
-      </c>
-      <c r="D310" s="1"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A311" t="s">
+      <c r="C310" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A311" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C311" t="s">
-        <v>5</v>
-      </c>
-      <c r="D311" s="1"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A312" t="s">
+      <c r="C311" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A312" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C312" t="s">
-        <v>5</v>
-      </c>
-      <c r="D312" s="1"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A313" t="s">
+      <c r="C312" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A313" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C313" t="s">
-        <v>5</v>
-      </c>
-      <c r="D313" s="1"/>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A314" t="s">
+      <c r="C313" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A314" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C314" t="s">
-        <v>5</v>
-      </c>
-      <c r="D314" s="1"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A315" t="s">
+      <c r="C314" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A315" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C315" t="s">
-        <v>5</v>
-      </c>
-      <c r="D315" s="1"/>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A316" t="s">
+      <c r="C315" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A316" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C316" t="s">
-        <v>5</v>
-      </c>
-      <c r="D316" s="1"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A317" t="s">
+      <c r="C316" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A317" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="C317" t="s">
-        <v>5</v>
-      </c>
-      <c r="D317" s="1"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A318" t="s">
+      <c r="C317" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A318" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="C318" t="s">
-        <v>5</v>
-      </c>
-      <c r="D318" s="1"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A319" t="s">
+      <c r="C318" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A319" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C319" t="s">
-        <v>5</v>
-      </c>
-      <c r="D319" s="1"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A320" t="s">
+      <c r="C319" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A320" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C320" t="s">
-        <v>5</v>
-      </c>
-      <c r="D320" s="1"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A321" t="s">
+      <c r="C320" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A321" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C321" t="s">
-        <v>5</v>
-      </c>
-      <c r="D321" s="1"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A322" t="s">
+      <c r="C321" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A322" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C322" t="s">
-        <v>5</v>
-      </c>
-      <c r="D322" s="1"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A323" t="s">
+      <c r="C322" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A323" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C323" t="s">
-        <v>5</v>
-      </c>
-      <c r="D323" s="1"/>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A324" t="s">
+      <c r="C323" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A324" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C324" t="s">
-        <v>5</v>
-      </c>
-      <c r="D324" s="1"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A325" t="s">
+      <c r="C324" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A325" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C325" t="s">
-        <v>5</v>
-      </c>
-      <c r="D325" s="1"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A326" t="s">
+      <c r="C325" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A326" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C326" t="s">
-        <v>5</v>
-      </c>
-      <c r="D326" s="1"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A327" t="s">
+      <c r="C326" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A327" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C327" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="D327" s="1"/>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A328" t="s">
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A328" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D328" s="1"/>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A329" t="s">
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A329" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C329" t="s">
-        <v>5</v>
-      </c>
-      <c r="D329" s="1"/>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A330" t="s">
+      <c r="C329" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A330" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C330" t="s">
-        <v>5</v>
-      </c>
-      <c r="D330" s="1"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A331" t="s">
+      <c r="C330" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A331" s="1" t="s">
         <v>744</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="C331" t="s">
-        <v>5</v>
-      </c>
-      <c r="D331" s="1"/>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A332" t="s">
+      <c r="C331" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A332" s="1" t="s">
         <v>698</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C332" t="s">
-        <v>5</v>
-      </c>
-      <c r="D332" s="1"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A333" t="s">
+      <c r="C332" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A333" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C333" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="D333" s="1"/>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A334" t="s">
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A334" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="1" t="s">
         <v>504</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D334" s="1"/>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A335" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="1" t="s">
         <v>505</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D335" s="1"/>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A336" t="s">
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A336" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="1" t="s">
         <v>506</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D336" s="1"/>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A337" t="s">
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A337" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="1" t="s">
         <v>988</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D337" s="1"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A338" t="s">
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A338" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="1" t="s">
         <v>507</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D338" s="1"/>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A339" t="s">
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A339" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="1" t="s">
         <v>508</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D339" s="1"/>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A340" t="s">
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A340" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="1" t="s">
         <v>509</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D340" s="1"/>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A341" t="s">
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A341" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="1" t="s">
         <v>968</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D341" s="1"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A342" t="s">
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A342" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="1" t="s">
         <v>510</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D342" s="1"/>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A343" t="s">
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A343" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="1" t="s">
         <v>511</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D343" s="1"/>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A344" t="s">
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A344" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="1" t="s">
         <v>512</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D344" s="1"/>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A345" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="1" t="s">
         <v>513</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D345" s="1"/>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A346" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="1" t="s">
         <v>775</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D346" s="1"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A347" t="s">
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A347" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="1" t="s">
         <v>514</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D347" s="1"/>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A348" t="s">
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A348" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="1" t="s">
         <v>739</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D348" s="1"/>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A349" t="s">
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A349" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="1" t="s">
         <v>882</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D349" s="1"/>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A350" t="s">
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A350" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="1" t="s">
         <v>737</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D350" s="1"/>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A351" t="s">
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A351" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="1" t="s">
         <v>515</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D351" s="1"/>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A352" t="s">
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A352" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="1" t="s">
         <v>660</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D352" s="1"/>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A353" t="s">
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A353" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="1" t="s">
         <v>951</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D353" s="1"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A354" t="s">
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A354" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="1" t="s">
         <v>516</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D354" s="1"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A355" t="s">
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A355" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="1" t="s">
         <v>517</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A356" t="s">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A356" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="1" t="s">
         <v>972</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A357" t="s">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A357" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="1" t="s">
         <v>518</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A358" t="s">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A358" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="1" t="s">
         <v>715</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A359" t="s">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A359" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="1" t="s">
         <v>519</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A360" t="s">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A360" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="1" t="s">
         <v>920</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A361" t="s">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A361" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="1" t="s">
         <v>520</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A362" t="s">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A362" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="1" t="s">
         <v>878</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A363" t="s">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A363" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="1" t="s">
         <v>681</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A364" s="2" t="s">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A364" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="C364" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A365" s="2" t="s">
+      <c r="C364" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A365" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C365" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A366" t="s">
+      <c r="C365" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A366" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C366" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A367" t="s">
+      <c r="C366" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A367" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C367" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A368" t="s">
+      <c r="C367" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A368" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="C368" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A369" t="s">
+      <c r="A369" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="C369" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A370" t="s">
+      <c r="A370" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="C370" s="2" t="s">
+      <c r="C370" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A371" t="s">
+      <c r="A371" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C371" s="2" t="s">
+      <c r="C371" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A372" t="s">
+      <c r="A372" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B372" s="10"/>
-      <c r="C372" s="4" t="s">
+      <c r="C372" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A373" t="s">
+      <c r="A373" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C373" s="4" t="s">
+      <c r="C373" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A374" t="s">
+      <c r="A374" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C374" s="4" t="s">
+      <c r="C374" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A375" s="4" t="s">
+      <c r="A375" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C375" s="4" t="s">
+      <c r="C375" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A376" t="s">
+      <c r="A376" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="C376" s="4" t="s">
+      <c r="C376" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A377" t="s">
+      <c r="A377" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C377" s="4" t="s">
+      <c r="C377" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A378" t="s">
+      <c r="A378" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C378" s="4" t="s">
+      <c r="C378" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A379" t="s">
+      <c r="A379" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C379" s="4" t="s">
+      <c r="C379" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A380" t="s">
+      <c r="A380" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C380" s="4" t="s">
+      <c r="C380" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A381" t="s">
+      <c r="A381" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C381" s="4" t="s">
+      <c r="C381" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A382" t="s">
+      <c r="A382" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C382" s="4" t="s">
+      <c r="C382" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A383" t="s">
+      <c r="A383" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C383" s="4" t="s">
+      <c r="C383" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A384" s="4" t="s">
+      <c r="A384" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C384" s="4" t="s">
+      <c r="C384" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A385" t="s">
+      <c r="A385" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C385" s="4" t="s">
+      <c r="C385" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A386" t="s">
+      <c r="A386" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C386" s="4" t="s">
+      <c r="C386" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A387" t="s">
+      <c r="A387" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C387" s="4" t="s">
+      <c r="C387" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A388" t="s">
+      <c r="A388" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="C388" s="5" t="s">
+      <c r="C388" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A389" t="s">
+      <c r="A389" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C389" s="5" t="s">
+      <c r="C389" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A390" t="s">
+      <c r="A390" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C390" s="5" t="s">
+      <c r="C390" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A391" t="s">
+      <c r="A391" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B391" s="5" t="s">
+      <c r="B391" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C391" s="5" t="s">
+      <c r="C391" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A392" t="s">
+      <c r="A392" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C392" s="5" t="s">
+      <c r="C392" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A393" t="s">
+      <c r="A393" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="C393" s="5" t="s">
+      <c r="C393" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A394" t="s">
+      <c r="A394" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C394" s="5" t="s">
+      <c r="C394" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A395" t="s">
+      <c r="A395" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C395" s="5" t="s">
+      <c r="C395" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A396" t="s">
+      <c r="A396" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C396" s="5" t="s">
+      <c r="C396" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A397" t="s">
+      <c r="A397" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="C397" s="5" t="s">
+      <c r="C397" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A398" t="s">
+      <c r="A398" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C398" s="5" t="s">
+      <c r="C398" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A399" t="s">
+      <c r="A399" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C399" s="5" t="s">
+      <c r="C399" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A400" t="s">
+      <c r="A400" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C400" s="5" t="s">
+      <c r="C400" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A401" t="s">
+      <c r="A401" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C401" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A402" t="s">
+      <c r="A402" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="C402" s="5" t="s">
+      <c r="C402" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A403" t="s">
+      <c r="A403" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C403" s="5" t="s">
+      <c r="C403" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A404" t="s">
+      <c r="A404" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C404" s="5" t="s">
+      <c r="C404" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A405" t="s">
+      <c r="A405" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C405" s="5" t="s">
+      <c r="C405" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A406" t="s">
+      <c r="A406" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C406" s="5" t="s">
+      <c r="C406" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A407" t="s">
+      <c r="A407" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C407" s="5" t="s">
+      <c r="C407" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A408" t="s">
+      <c r="A408" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C408" s="5" t="s">
+      <c r="C408" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A409" t="s">
+      <c r="A409" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B409" s="6" t="s">
+      <c r="B409" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C409" s="6" t="s">
+      <c r="C409" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A410" t="s">
+      <c r="A410" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C410" s="6" t="s">
+      <c r="C410" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A411" t="s">
+      <c r="A411" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C411" s="6" t="s">
+      <c r="C411" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A412" t="s">
+      <c r="A412" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C412" s="6" t="s">
+      <c r="C412" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A413" t="s">
+      <c r="A413" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C413" s="6" t="s">
+      <c r="C413" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A414" t="s">
+      <c r="A414" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C414" s="6" t="s">
+      <c r="C414" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A415" t="s">
+      <c r="A415" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C415" s="6" t="s">
+      <c r="C415" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A416" s="7" t="s">
+      <c r="A416" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C416" s="7" t="s">
+      <c r="C416" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A417" t="s">
+      <c r="A417" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C417" s="7" t="s">
+      <c r="C417" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A418" t="s">
+      <c r="A418" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="C418" s="7" t="s">
+      <c r="C418" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A419" t="s">
+      <c r="A419" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C419" s="7" t="s">
+      <c r="C419" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A420" t="s">
+      <c r="A420" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C420" s="8" t="s">
+      <c r="C420" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A421" t="s">
+      <c r="A421" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C421" s="8" t="s">
+      <c r="C421" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A422" t="s">
+      <c r="A422" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C422" s="8" t="s">
+      <c r="C422" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A423" t="s">
+      <c r="A423" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C423" s="8" t="s">
+      <c r="C423" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A424" t="s">
+      <c r="A424" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C424" s="8" t="s">
+      <c r="C424" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A425" t="s">
+      <c r="A425" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C425" s="8" t="s">
+      <c r="C425" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A426" t="s">
+      <c r="A426" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C426" s="8" t="s">
+      <c r="C426" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A427" t="s">
+      <c r="A427" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C427" s="8" t="s">
+      <c r="C427" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A428" t="s">
+      <c r="A428" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C428" s="8" t="s">
+      <c r="C428" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A429" t="s">
+      <c r="A429" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C429" s="8" t="s">
+      <c r="C429" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A430" t="s">
+      <c r="A430" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="C430" s="8" t="s">
+      <c r="C430" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A431" t="s">
+      <c r="A431" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B431" s="9" t="s">
+      <c r="B431" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C431" s="10" t="s">
+      <c r="C431" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A432" t="s">
+      <c r="A432" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C432" s="10" t="s">
+      <c r="C432" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A433" t="s">
+      <c r="A433" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C433" s="10" t="s">
+      <c r="C433" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A434" t="s">
+      <c r="A434" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="C434" s="10" t="s">
+      <c r="C434" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A435" t="s">
+      <c r="A435" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C435" s="10" t="s">
+      <c r="C435" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A436" t="s">
+      <c r="A436" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C436" s="10" t="s">
+      <c r="C436" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A437" t="s">
+      <c r="A437" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C437" s="10" t="s">
+      <c r="C437" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A438" t="s">
+      <c r="A438" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C438" s="10" t="s">
+      <c r="C438" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A439" t="s">
+      <c r="A439" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="C439" s="10" t="s">
+      <c r="C439" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A440" t="s">
+      <c r="A440" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C440" s="10" t="s">
+      <c r="C440" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A441" t="s">
+      <c r="A441" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C441" s="10" t="s">
+      <c r="C441" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A442" t="s">
+      <c r="A442" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="C442" s="10" t="s">
+      <c r="C442" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A443" s="10" t="s">
+      <c r="A443" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C443" s="10" t="s">
+      <c r="C443" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A444" t="s">
+      <c r="A444" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C444" s="10" t="s">
+      <c r="C444" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A445" t="s">
+      <c r="A445" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C445" s="10" t="s">
+      <c r="C445" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A446" t="s">
+      <c r="A446" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C446" s="10" t="s">
+      <c r="C446" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A447" t="s">
+      <c r="A447" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C447" s="10" t="s">
+      <c r="C447" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A448" t="s">
+      <c r="A448" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C448" s="10" t="s">
+      <c r="C448" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A449" t="s">
+      <c r="A449" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C449" s="10" t="s">
+      <c r="C449" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A450" t="s">
+      <c r="A450" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="C450" s="10" t="s">
+      <c r="C450" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A451" t="s">
+      <c r="A451" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C451" s="10" t="s">
+      <c r="C451" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A452" t="s">
+      <c r="A452" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C452" s="10" t="s">
+      <c r="C452" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A453" t="s">
+      <c r="A453" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C453" s="10" t="s">
+      <c r="C453" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A454" t="s">
+      <c r="A454" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C454" s="10" t="s">
+      <c r="C454" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A455" t="s">
+      <c r="A455" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C455" s="10" t="s">
+      <c r="C455" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A456" t="s">
+      <c r="A456" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C456" s="10" t="s">
+      <c r="C456" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A457" t="s">
+      <c r="A457" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C457" s="10" t="s">
+      <c r="C457" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A458" t="s">
+      <c r="A458" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="C458" s="10" t="s">
+      <c r="C458" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A459" t="s">
+      <c r="A459" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C459" s="10" t="s">
+      <c r="C459" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A460" s="10" t="s">
+      <c r="A460" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C460" s="10" t="s">
+      <c r="C460" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A461" t="s">
+      <c r="A461" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C461" s="10" t="s">
+      <c r="C461" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A462" t="s">
+      <c r="A462" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C462" s="10" t="s">
+      <c r="C462" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A463" t="s">
+      <c r="A463" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="C463" s="10" t="s">
+      <c r="C463" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A464" t="s">
+      <c r="A464" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C464" s="10" t="s">
+      <c r="C464" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A465" s="10" t="s">
+      <c r="A465" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C465" s="10" t="s">
+      <c r="C465" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A466" t="s">
+      <c r="A466" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="C466" s="10" t="s">
+      <c r="C466" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A467" s="10" t="s">
+      <c r="A467" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C467" s="10" t="s">
+      <c r="C467" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A468" t="s">
+      <c r="A468" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C468" s="10" t="s">
+      <c r="C468" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A469" t="s">
+      <c r="A469" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C469" s="10" t="s">
+      <c r="C469" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A470" t="s">
+      <c r="A470" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C470" s="10" t="s">
+      <c r="C470" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A471" t="s">
+      <c r="A471" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C471" s="10" t="s">
+      <c r="C471" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A472" t="s">
+      <c r="A472" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C472" s="10" t="s">
+      <c r="C472" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A473" s="10" t="s">
+      <c r="A473" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C473" s="10" t="s">
+      <c r="C473" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A474" s="10" t="s">
+      <c r="A474" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B474" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C474" s="10" t="s">
+      <c r="C474" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A475" t="s">
+      <c r="A475" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="C475" s="10" t="s">
+      <c r="C475" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A476" t="s">
+      <c r="A476" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C476" s="10" t="s">
+      <c r="C476" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A477" t="s">
+      <c r="A477" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B477" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C477" s="10" t="s">
+      <c r="C477" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A478" s="10" t="s">
+      <c r="A478" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C478" s="10" t="s">
+      <c r="C478" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A479" t="s">
+      <c r="A479" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C479" s="10" t="s">
+      <c r="C479" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A480" t="s">
+      <c r="A480" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C480" s="10" t="s">
+      <c r="C480" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A481" t="s">
+      <c r="A481" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="C481" s="10" t="s">
+      <c r="C481" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A482" t="s">
+      <c r="A482" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C482" s="10" t="s">
+      <c r="C482" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A483" t="s">
+      <c r="A483" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C483" s="10" t="s">
+      <c r="C483" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A484" t="s">
+      <c r="A484" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C484" s="10" t="s">
+      <c r="C484" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A485" t="s">
+      <c r="A485" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C485" s="10" t="s">
+      <c r="C485" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A486" t="s">
+      <c r="A486" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C486" s="10" t="s">
+      <c r="C486" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A487" t="s">
+      <c r="A487" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C487" s="10" t="s">
+      <c r="C487" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A488" t="s">
+      <c r="A488" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C488" s="10" t="s">
+      <c r="C488" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A489" t="s">
+      <c r="A489" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="C489" s="10" t="s">
+      <c r="C489" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A490" t="s">
+      <c r="A490" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C490" s="10" t="s">
+      <c r="C490" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A491" t="s">
+      <c r="A491" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C491" s="10" t="s">
+      <c r="C491" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A492" t="s">
+      <c r="A492" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C492" s="10" t="s">
+      <c r="C492" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A493" t="s">
+      <c r="A493" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C493" s="10" t="s">
+      <c r="C493" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A494" t="s">
+      <c r="A494" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C494" s="10" t="s">
+      <c r="C494" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A495" t="s">
+      <c r="A495" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C495" s="10" t="s">
+      <c r="C495" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A496" t="s">
+      <c r="A496" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="C496" s="10" t="s">
+      <c r="C496" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A497" t="s">
+      <c r="A497" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C497" s="10" t="s">
+      <c r="C497" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A498" t="s">
+      <c r="A498" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="C498" s="10" t="s">
+      <c r="C498" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A499" t="s">
+      <c r="A499" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C499" s="10" t="s">
+      <c r="C499" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A500" t="s">
+      <c r="A500" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C500" s="10" t="s">
+      <c r="C500" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A501" t="s">
+      <c r="A501" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="C501" t="s">
+      <c r="C501" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A502" t="s">
+      <c r="A502" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="C502" s="10" t="s">
+      <c r="C502" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A503" t="s">
+      <c r="A503" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="C503" s="10" t="s">
+      <c r="C503" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A504" t="s">
+      <c r="A504" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C504" s="10" t="s">
+      <c r="C504" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A505" t="s">
+      <c r="A505" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="C505" s="10" t="s">
+      <c r="C505" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A506" t="s">
+      <c r="A506" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="C506" s="10" t="s">
+      <c r="C506" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A507" t="s">
+      <c r="A507" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B507" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C507" s="10" t="s">
+      <c r="C507" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A508" t="s">
+      <c r="A508" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="C508" s="10" t="s">
+      <c r="C508" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A509" t="s">
+      <c r="A509" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C509" s="10" t="s">
+      <c r="C509" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A510" t="s">
+      <c r="A510" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C510" s="10" t="s">
+      <c r="C510" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A511" t="s">
+      <c r="A511" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="C511" t="s">
+      <c r="C511" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A512" t="s">
+      <c r="A512" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B512" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="C512" s="10" t="s">
+      <c r="C512" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A513" t="s">
+      <c r="A513" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B513" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C513" s="10" t="s">
+      <c r="C513" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A514" t="s">
+      <c r="A514" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B514" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="C514" s="10" t="s">
+      <c r="C514" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A515" t="s">
+      <c r="A515" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B515" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="C515" s="10" t="s">
+      <c r="C515" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A516" t="s">
+      <c r="A516" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C516" s="10" t="s">
+      <c r="C516" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A517" t="s">
+      <c r="A517" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B517" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="C517" s="10" t="s">
+      <c r="C517" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A518" t="s">
+      <c r="A518" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B518" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="C518" s="10" t="s">
+      <c r="C518" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A519" t="s">
+      <c r="A519" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B519" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C519" s="10" t="s">
+      <c r="C519" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A520" t="s">
+      <c r="A520" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="C520" s="10" t="s">
+      <c r="C520" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A521" t="s">
+      <c r="A521" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B521" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="C521" s="10" t="s">
+      <c r="C521" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A522" t="s">
+      <c r="A522" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="C522" s="10" t="s">
+      <c r="C522" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A523" t="s">
+      <c r="A523" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B523" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="C523" s="10" t="s">
+      <c r="C523" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A524" t="s">
+      <c r="A524" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B524" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="C524" s="10" t="s">
+      <c r="C524" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A525" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A526" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A527" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A528" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A529" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A530" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A531" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A532" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A533" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A534" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C534" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1077">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2095,7 +2095,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3287,22 +3287,34 @@
   <si>
     <t>tt4425200</t>
   </si>
+  <si>
+    <t>The Green Mile</t>
+  </si>
+  <si>
+    <t>tt0120689</t>
+  </si>
+  <si>
+    <t>Life </t>
+  </si>
+  <si>
+    <t>tt5442430</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3310,7 +3322,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3344,7 +3356,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3375,7 +3387,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3450,23 +3462,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3502,23 +3497,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3695,13 +3673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D534"/>
+  <dimension ref="A1:D536"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="C532" sqref="C532:C534"/>
+      <selection activeCell="C535" sqref="C535:C536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="67.15625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.578125" style="1" bestFit="1" customWidth="1"/>
@@ -3710,7 +3688,7 @@
     <col min="5" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3724,7 +3702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>780</v>
       </c>
@@ -3735,7 +3713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3746,7 +3724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -3757,7 +3735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3768,7 +3746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>694</v>
       </c>
@@ -3779,7 +3757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3790,7 +3768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -3801,7 +3779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>631</v>
       </c>
@@ -3812,7 +3790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>925</v>
       </c>
@@ -3823,7 +3801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -3834,7 +3812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -3845,7 +3823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -3856,7 +3834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -3867,7 +3845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>941</v>
       </c>
@@ -3878,7 +3856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -3889,7 +3867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>947</v>
       </c>
@@ -3900,7 +3878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -3911,7 +3889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -3922,7 +3900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>768</v>
       </c>
@@ -3933,7 +3911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>863</v>
       </c>
@@ -3944,7 +3922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -3955,7 +3933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3966,7 +3944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -3977,7 +3955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>652</v>
       </c>
@@ -3988,7 +3966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>999</v>
       </c>
@@ -3999,7 +3977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>760</v>
       </c>
@@ -4010,7 +3988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -4021,7 +3999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>668</v>
       </c>
@@ -4032,7 +4010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>957</v>
       </c>
@@ -4043,7 +4021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,7 +4032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>943</v>
       </c>
@@ -4065,7 +4043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -4076,7 +4054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>619</v>
       </c>
@@ -4087,7 +4065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>799</v>
       </c>
@@ -4098,7 +4076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>997</v>
       </c>
@@ -4109,7 +4087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>1003</v>
       </c>
@@ -4120,7 +4098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -4131,7 +4109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>664</v>
       </c>
@@ -4142,7 +4120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -4153,7 +4131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -4164,7 +4142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -4175,7 +4153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>939</v>
       </c>
@@ -4186,7 +4164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -4197,7 +4175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -4208,7 +4186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -4219,7 +4197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>758</v>
       </c>
@@ -4230,7 +4208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -4241,7 +4219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>959</v>
       </c>
@@ -4252,7 +4230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -4263,7 +4241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>816</v>
       </c>
@@ -4274,7 +4252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>861</v>
       </c>
@@ -4285,7 +4263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
@@ -4296,7 +4274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -4307,7 +4285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -4318,7 +4296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -4329,7 +4307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -4340,7 +4318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>762</v>
       </c>
@@ -4351,7 +4329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>627</v>
       </c>
@@ -4362,7 +4340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -4373,7 +4351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -4384,7 +4362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>633</v>
       </c>
@@ -4395,7 +4373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -4406,7 +4384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
@@ -4417,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>648</v>
       </c>
@@ -4428,7 +4406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -4439,7 +4417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
@@ -4450,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -4461,7 +4439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
@@ -4472,7 +4450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>848</v>
       </c>
@@ -4483,7 +4461,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>887</v>
       </c>
@@ -4494,7 +4472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
@@ -4505,7 +4483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>88</v>
       </c>
@@ -4516,7 +4494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
@@ -4527,7 +4505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>654</v>
       </c>
@@ -4538,7 +4516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>92</v>
       </c>
@@ -4549,7 +4527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -4560,7 +4538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>96</v>
       </c>
@@ -4571,7 +4549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>97</v>
       </c>
@@ -4582,7 +4560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>99</v>
       </c>
@@ -4593,7 +4571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>748</v>
       </c>
@@ -4604,7 +4582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>101</v>
       </c>
@@ -4615,7 +4593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>621</v>
       </c>
@@ -4626,7 +4604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>995</v>
       </c>
@@ -4637,7 +4615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>934</v>
       </c>
@@ -4648,7 +4626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>103</v>
       </c>
@@ -4659,7 +4637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>104</v>
       </c>
@@ -4670,7 +4648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>105</v>
       </c>
@@ -4681,7 +4659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
@@ -4692,7 +4670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>107</v>
       </c>
@@ -4703,7 +4681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
@@ -4714,7 +4692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>109</v>
       </c>
@@ -4725,7 +4703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>782</v>
       </c>
@@ -4736,7 +4714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>820</v>
       </c>
@@ -4747,7 +4725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>110</v>
       </c>
@@ -4758,7 +4736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>111</v>
       </c>
@@ -4769,7 +4747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>742</v>
       </c>
@@ -4780,7 +4758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>112</v>
       </c>
@@ -4791,7 +4769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>113</v>
       </c>
@@ -4802,7 +4780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>114</v>
       </c>
@@ -4813,7 +4791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>115</v>
       </c>
@@ -4824,7 +4802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>116</v>
       </c>
@@ -4835,7 +4813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>117</v>
       </c>
@@ -4846,7 +4824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>118</v>
       </c>
@@ -4857,7 +4835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>119</v>
       </c>
@@ -4868,7 +4846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>909</v>
       </c>
@@ -4879,7 +4857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>751</v>
       </c>
@@ -4890,7 +4868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
@@ -4901,7 +4879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
@@ -4912,7 +4890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>655</v>
       </c>
@@ -4923,7 +4901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>149</v>
       </c>
@@ -4934,7 +4912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>150</v>
       </c>
@@ -4945,7 +4923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>151</v>
       </c>
@@ -4956,7 +4934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>979</v>
       </c>
@@ -4967,7 +4945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>152</v>
       </c>
@@ -4978,7 +4956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>794</v>
       </c>
@@ -4989,7 +4967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>153</v>
       </c>
@@ -5000,7 +4978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>154</v>
       </c>
@@ -5011,7 +4989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>155</v>
       </c>
@@ -5022,7 +5000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>156</v>
       </c>
@@ -5033,7 +5011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>981</v>
       </c>
@@ -5044,7 +5022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>157</v>
       </c>
@@ -5055,7 +5033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>158</v>
       </c>
@@ -5066,7 +5044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>159</v>
       </c>
@@ -5077,7 +5055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>944</v>
       </c>
@@ -5088,7 +5066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>160</v>
       </c>
@@ -5099,7 +5077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>873</v>
       </c>
@@ -5110,7 +5088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>702</v>
       </c>
@@ -5121,7 +5099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>895</v>
       </c>
@@ -5132,7 +5110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>983</v>
       </c>
@@ -5143,7 +5121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>611</v>
       </c>
@@ -5154,7 +5132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>161</v>
       </c>
@@ -5165,7 +5143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>162</v>
       </c>
@@ -5176,7 +5154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>163</v>
       </c>
@@ -5187,7 +5165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>164</v>
       </c>
@@ -5198,7 +5176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>165</v>
       </c>
@@ -5209,7 +5187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>166</v>
       </c>
@@ -5220,7 +5198,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>167</v>
       </c>
@@ -5231,7 +5209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>168</v>
       </c>
@@ -5242,7 +5220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>985</v>
       </c>
@@ -5253,7 +5231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>169</v>
       </c>
@@ -5264,7 +5242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>865</v>
       </c>
@@ -5275,7 +5253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>883</v>
       </c>
@@ -5286,7 +5264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>790</v>
       </c>
@@ -5297,7 +5275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>170</v>
       </c>
@@ -5308,7 +5286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>172</v>
       </c>
@@ -5319,7 +5297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>603</v>
       </c>
@@ -5330,7 +5308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>171</v>
       </c>
@@ -5341,7 +5319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>173</v>
       </c>
@@ -5352,7 +5330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>921</v>
       </c>
@@ -5363,7 +5341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>174</v>
       </c>
@@ -5374,7 +5352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>175</v>
       </c>
@@ -5385,7 +5363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>812</v>
       </c>
@@ -5396,7 +5374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>635</v>
       </c>
@@ -5407,7 +5385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>177</v>
       </c>
@@ -5418,7 +5396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>182</v>
       </c>
@@ -5429,7 +5407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>183</v>
       </c>
@@ -5440,7 +5418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>179</v>
       </c>
@@ -5451,7 +5429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>181</v>
       </c>
@@ -5462,7 +5440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>180</v>
       </c>
@@ -5473,7 +5451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>178</v>
       </c>
@@ -5484,7 +5462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>176</v>
       </c>
@@ -5495,7 +5473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>977</v>
       </c>
@@ -5506,7 +5484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>184</v>
       </c>
@@ -5517,7 +5495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>185</v>
       </c>
@@ -5528,7 +5506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>186</v>
       </c>
@@ -5539,7 +5517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>935</v>
       </c>
@@ -5550,7 +5528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>931</v>
       </c>
@@ -5561,7 +5539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>187</v>
       </c>
@@ -5572,7 +5550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>764</v>
       </c>
@@ -5583,7 +5561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>700</v>
       </c>
@@ -5594,7 +5572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>729</v>
       </c>
@@ -5605,7 +5583,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>188</v>
       </c>
@@ -5616,7 +5594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>189</v>
       </c>
@@ -5627,7 +5605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>190</v>
       </c>
@@ -5638,7 +5616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>191</v>
       </c>
@@ -5649,7 +5627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>776</v>
       </c>
@@ -5660,7 +5638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>192</v>
       </c>
@@ -5671,7 +5649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>193</v>
       </c>
@@ -5682,7 +5660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>879</v>
       </c>
@@ -5693,7 +5671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>871</v>
       </c>
@@ -5704,7 +5682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>194</v>
       </c>
@@ -5715,7 +5693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>824</v>
       </c>
@@ -5726,7 +5704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>195</v>
       </c>
@@ -5737,7 +5715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>955</v>
       </c>
@@ -5748,7 +5726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>875</v>
       </c>
@@ -5759,7 +5737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>196</v>
       </c>
@@ -5770,7 +5748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>605</v>
       </c>
@@ -5781,7 +5759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>597</v>
       </c>
@@ -5792,7 +5770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>197</v>
       </c>
@@ -5803,7 +5781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>867</v>
       </c>
@@ -5814,7 +5792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>927</v>
       </c>
@@ -5825,7 +5803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>198</v>
       </c>
@@ -5836,7 +5814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>199</v>
       </c>
@@ -5847,7 +5825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>200</v>
       </c>
@@ -5858,7 +5836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>201</v>
       </c>
@@ -5869,7 +5847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>202</v>
       </c>
@@ -5880,7 +5858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>203</v>
       </c>
@@ -5891,7 +5869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>204</v>
       </c>
@@ -5902,7 +5880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>205</v>
       </c>
@@ -5913,7 +5891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>662</v>
       </c>
@@ -5924,7 +5902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>207</v>
       </c>
@@ -5935,7 +5913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
@@ -5946,7 +5924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>208</v>
       </c>
@@ -5957,7 +5935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
         <v>209</v>
       </c>
@@ -5968,7 +5946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
         <v>210</v>
       </c>
@@ -5979,7 +5957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
         <v>211</v>
       </c>
@@ -5990,7 +5968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
@@ -6001,7 +5979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
@@ -6012,7 +5990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
@@ -6023,7 +6001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
@@ -6034,7 +6012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
@@ -6045,7 +6023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
@@ -6056,7 +6034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
         <v>855</v>
       </c>
@@ -6067,7 +6045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
         <v>893</v>
       </c>
@@ -6078,7 +6056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
@@ -6089,7 +6067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
         <v>852</v>
       </c>
@@ -6100,7 +6078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
         <v>650</v>
       </c>
@@ -6111,7 +6089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
         <v>772</v>
       </c>
@@ -6122,7 +6100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
         <v>901</v>
       </c>
@@ -6133,7 +6111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
         <v>682</v>
       </c>
@@ -6144,7 +6122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
         <v>938</v>
       </c>
@@ -6155,7 +6133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
         <v>1005</v>
       </c>
@@ -6166,7 +6144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
         <v>756</v>
       </c>
@@ -6177,7 +6155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
         <v>692</v>
       </c>
@@ -6188,7 +6166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
         <v>218</v>
       </c>
@@ -6199,7 +6177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
         <v>623</v>
       </c>
@@ -6210,7 +6188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
         <v>219</v>
       </c>
@@ -6221,7 +6199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
         <v>220</v>
       </c>
@@ -6232,7 +6210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
         <v>221</v>
       </c>
@@ -6243,7 +6221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
         <v>992</v>
       </c>
@@ -6254,7 +6232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
         <v>953</v>
       </c>
@@ -6265,7 +6243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
         <v>892</v>
       </c>
@@ -6276,7 +6254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
         <v>885</v>
       </c>
@@ -6287,7 +6265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
         <v>991</v>
       </c>
@@ -6298,7 +6276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
         <v>804</v>
       </c>
@@ -6309,7 +6287,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
         <v>222</v>
       </c>
@@ -6320,7 +6298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
         <v>223</v>
       </c>
@@ -6331,7 +6309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
         <v>224</v>
       </c>
@@ -6342,7 +6320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
         <v>225</v>
       </c>
@@ -6353,7 +6331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
         <v>226</v>
       </c>
@@ -6364,7 +6342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
         <v>227</v>
       </c>
@@ -6375,7 +6353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
         <v>228</v>
       </c>
@@ -6386,7 +6364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
         <v>229</v>
       </c>
@@ -6397,7 +6375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
         <v>230</v>
       </c>
@@ -6408,7 +6386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
         <v>231</v>
       </c>
@@ -6419,7 +6397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
         <v>232</v>
       </c>
@@ -6430,7 +6408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
         <v>696</v>
       </c>
@@ -6441,7 +6419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
         <v>917</v>
       </c>
@@ -6452,7 +6430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
         <v>844</v>
       </c>
@@ -6463,7 +6441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
         <v>704</v>
       </c>
@@ -6474,7 +6452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
         <v>233</v>
       </c>
@@ -6485,7 +6463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
         <v>235</v>
       </c>
@@ -6496,7 +6474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
         <v>234</v>
       </c>
@@ -6507,7 +6485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
         <v>754</v>
       </c>
@@ -6518,7 +6496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
         <v>859</v>
       </c>
@@ -6529,7 +6507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
         <v>236</v>
       </c>
@@ -6540,7 +6518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
         <v>237</v>
       </c>
@@ -6551,7 +6529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
         <v>890</v>
       </c>
@@ -6562,7 +6540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
         <v>238</v>
       </c>
@@ -6573,7 +6551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
         <v>808</v>
       </c>
@@ -6584,7 +6562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
         <v>911</v>
       </c>
@@ -6595,7 +6573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
         <v>239</v>
       </c>
@@ -6606,7 +6584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
         <v>670</v>
       </c>
@@ -6617,7 +6595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
         <v>752</v>
       </c>
@@ -6628,7 +6606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
         <v>637</v>
       </c>
@@ -6639,7 +6617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
         <v>240</v>
       </c>
@@ -6650,7 +6628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
         <v>241</v>
       </c>
@@ -6661,7 +6639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
         <v>242</v>
       </c>
@@ -6672,7 +6650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
         <v>243</v>
       </c>
@@ -6680,7 +6658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
         <v>244</v>
       </c>
@@ -6691,7 +6669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
         <v>245</v>
       </c>
@@ -6702,7 +6680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
         <v>706</v>
       </c>
@@ -6713,7 +6691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
         <v>246</v>
       </c>
@@ -6724,7 +6702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
         <v>667</v>
       </c>
@@ -6735,7 +6713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
         <v>247</v>
       </c>
@@ -6746,7 +6724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
         <v>766</v>
       </c>
@@ -6757,7 +6735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
         <v>248</v>
       </c>
@@ -6768,7 +6746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
         <v>830</v>
       </c>
@@ -6779,7 +6757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
         <v>788</v>
       </c>
@@ -6790,7 +6768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
         <v>249</v>
       </c>
@@ -6801,7 +6779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
         <v>250</v>
       </c>
@@ -6812,7 +6790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
         <v>899</v>
       </c>
@@ -6823,7 +6801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
         <v>251</v>
       </c>
@@ -6834,7 +6812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
         <v>708</v>
       </c>
@@ -6845,7 +6823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
         <v>252</v>
       </c>
@@ -6856,7 +6834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
         <v>975</v>
       </c>
@@ -6867,7 +6845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
         <v>253</v>
       </c>
@@ -6878,7 +6856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
         <v>834</v>
       </c>
@@ -6889,7 +6867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
         <v>254</v>
       </c>
@@ -6900,7 +6878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
         <v>255</v>
       </c>
@@ -6911,7 +6889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
         <v>256</v>
       </c>
@@ -6922,7 +6900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
         <v>608</v>
       </c>
@@ -6933,7 +6911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
         <v>907</v>
       </c>
@@ -6944,7 +6922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
         <v>258</v>
       </c>
@@ -6955,7 +6933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
         <v>257</v>
       </c>
@@ -6966,7 +6944,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
         <v>786</v>
       </c>
@@ -6977,7 +6955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
         <v>710</v>
       </c>
@@ -6988,7 +6966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
         <v>259</v>
       </c>
@@ -6999,7 +6977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
         <v>260</v>
       </c>
@@ -7010,7 +6988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
         <v>262</v>
       </c>
@@ -7021,7 +6999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
         <v>740</v>
       </c>
@@ -7032,7 +7010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
         <v>263</v>
       </c>
@@ -7043,7 +7021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
         <v>1000</v>
       </c>
@@ -7054,7 +7032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
         <v>264</v>
       </c>
@@ -7065,7 +7043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
         <v>261</v>
       </c>
@@ -7076,7 +7054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
         <v>265</v>
       </c>
@@ -7087,7 +7065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
         <v>266</v>
       </c>
@@ -7098,7 +7076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
         <v>267</v>
       </c>
@@ -7109,7 +7087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
         <v>712</v>
       </c>
@@ -7120,7 +7098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
         <v>905</v>
       </c>
@@ -7131,7 +7109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
         <v>268</v>
       </c>
@@ -7142,7 +7120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
         <v>269</v>
       </c>
@@ -7153,7 +7131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
         <v>270</v>
       </c>
@@ -7164,7 +7142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
         <v>271</v>
       </c>
@@ -7175,7 +7153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
         <v>272</v>
       </c>
@@ -7186,7 +7164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
         <v>973</v>
       </c>
@@ -7197,7 +7175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
         <v>989</v>
       </c>
@@ -7208,7 +7186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
         <v>656</v>
       </c>
@@ -7219,7 +7197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
         <v>273</v>
       </c>
@@ -7230,7 +7208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
         <v>274</v>
       </c>
@@ -7241,7 +7219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
         <v>275</v>
       </c>
@@ -7252,7 +7230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
         <v>746</v>
       </c>
@@ -7263,7 +7241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
         <v>276</v>
       </c>
@@ -7274,7 +7252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
         <v>277</v>
       </c>
@@ -7285,7 +7263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
         <v>601</v>
       </c>
@@ -7296,7 +7274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
         <v>803</v>
       </c>
@@ -7307,7 +7285,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
         <v>278</v>
       </c>
@@ -7318,7 +7296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
         <v>279</v>
       </c>
@@ -7329,7 +7307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
         <v>280</v>
       </c>
@@ -7340,7 +7318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
         <v>744</v>
       </c>
@@ -7351,7 +7329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
         <v>698</v>
       </c>
@@ -7362,7 +7340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
         <v>727</v>
       </c>
@@ -7373,7 +7351,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
         <v>281</v>
       </c>
@@ -7384,7 +7362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
         <v>282</v>
       </c>
@@ -7395,7 +7373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
         <v>283</v>
       </c>
@@ -7406,7 +7384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
         <v>987</v>
       </c>
@@ -7417,7 +7395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
         <v>284</v>
       </c>
@@ -7428,7 +7406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
         <v>285</v>
       </c>
@@ -7439,7 +7417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
         <v>286</v>
       </c>
@@ -7450,7 +7428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
         <v>967</v>
       </c>
@@ -7461,7 +7439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
         <v>287</v>
       </c>
@@ -7472,7 +7450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
         <v>288</v>
       </c>
@@ -7483,7 +7461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
         <v>289</v>
       </c>
@@ -7494,7 +7472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
         <v>290</v>
       </c>
@@ -7505,7 +7483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
         <v>774</v>
       </c>
@@ -7516,7 +7494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
         <v>291</v>
       </c>
@@ -7527,7 +7505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
         <v>738</v>
       </c>
@@ -7538,7 +7516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
         <v>881</v>
       </c>
@@ -7549,7 +7527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
         <v>736</v>
       </c>
@@ -7560,7 +7538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
         <v>292</v>
       </c>
@@ -7571,7 +7549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
         <v>653</v>
       </c>
@@ -7582,7 +7560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
         <v>952</v>
       </c>
@@ -7593,7 +7571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
         <v>293</v>
       </c>
@@ -7604,7 +7582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
         <v>294</v>
       </c>
@@ -7615,7 +7593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
         <v>971</v>
       </c>
@@ -7626,7 +7604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
         <v>295</v>
       </c>
@@ -7637,7 +7615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
         <v>714</v>
       </c>
@@ -7648,7 +7626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
         <v>296</v>
       </c>
@@ -7659,7 +7637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
         <v>919</v>
       </c>
@@ -7670,7 +7648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
         <v>297</v>
       </c>
@@ -7681,7 +7659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
         <v>877</v>
       </c>
@@ -7692,7 +7670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
         <v>680</v>
       </c>
@@ -7703,7 +7681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
         <v>965</v>
       </c>
@@ -7714,7 +7692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
         <v>298</v>
       </c>
@@ -7725,7 +7703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
         <v>913</v>
       </c>
@@ -7736,7 +7714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
         <v>299</v>
       </c>
@@ -7747,7 +7725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
         <v>300</v>
       </c>
@@ -7758,7 +7736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
         <v>903</v>
       </c>
@@ -7769,7 +7747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
         <v>836</v>
       </c>
@@ -7780,7 +7758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
         <v>869</v>
       </c>
@@ -7791,7 +7769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
         <v>301</v>
       </c>
@@ -7799,7 +7777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
         <v>302</v>
       </c>
@@ -7810,7 +7788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
         <v>303</v>
       </c>
@@ -7821,7 +7799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
         <v>304</v>
       </c>
@@ -7832,7 +7810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
         <v>846</v>
       </c>
@@ -7843,7 +7821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
         <v>305</v>
       </c>
@@ -7854,7 +7832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
         <v>625</v>
       </c>
@@ -7865,7 +7843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
         <v>639</v>
       </c>
@@ -7876,7 +7854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
         <v>678</v>
       </c>
@@ -7887,7 +7865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
         <v>672</v>
       </c>
@@ -7898,7 +7876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
         <v>306</v>
       </c>
@@ -7909,7 +7887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
         <v>307</v>
       </c>
@@ -7920,7 +7898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
         <v>818</v>
       </c>
@@ -7931,7 +7909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
         <v>308</v>
       </c>
@@ -7942,7 +7920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
         <v>688</v>
       </c>
@@ -7953,7 +7931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
         <v>309</v>
       </c>
@@ -7964,7 +7942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
         <v>897</v>
       </c>
@@ -7975,7 +7953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
         <v>310</v>
       </c>
@@ -7986,7 +7964,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
         <v>716</v>
       </c>
@@ -7997,7 +7975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
         <v>311</v>
       </c>
@@ -8008,7 +7986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
         <v>312</v>
       </c>
@@ -8019,7 +7997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
         <v>796</v>
       </c>
@@ -8030,7 +8008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
         <v>313</v>
       </c>
@@ -8041,7 +8019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
         <v>618</v>
       </c>
@@ -8052,7 +8030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
         <v>613</v>
       </c>
@@ -8063,7 +8041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
         <v>616</v>
       </c>
@@ -8074,7 +8052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
         <v>314</v>
       </c>
@@ -8085,7 +8063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
         <v>315</v>
       </c>
@@ -8096,7 +8074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
         <v>316</v>
       </c>
@@ -8107,7 +8085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
         <v>840</v>
       </c>
@@ -8118,7 +8096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
         <v>924</v>
       </c>
@@ -8129,7 +8107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
         <v>731</v>
       </c>
@@ -8140,7 +8118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
         <v>770</v>
       </c>
@@ -8151,7 +8129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
         <v>317</v>
       </c>
@@ -8162,7 +8140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
         <v>732</v>
       </c>
@@ -8173,7 +8151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
         <v>735</v>
       </c>
@@ -8184,7 +8162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
         <v>318</v>
       </c>
@@ -8195,7 +8173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
         <v>319</v>
       </c>
@@ -8206,7 +8184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
         <v>320</v>
       </c>
@@ -8217,7 +8195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
         <v>321</v>
       </c>
@@ -8228,7 +8206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
         <v>322</v>
       </c>
@@ -8239,7 +8217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
         <v>323</v>
       </c>
@@ -8250,7 +8228,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
         <v>324</v>
       </c>
@@ -8261,7 +8239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
         <v>814</v>
       </c>
@@ -8272,7 +8250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
         <v>641</v>
       </c>
@@ -8283,7 +8261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
         <v>325</v>
       </c>
@@ -8294,7 +8272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
         <v>929</v>
       </c>
@@ -8305,7 +8283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
         <v>326</v>
       </c>
@@ -8316,7 +8294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
         <v>327</v>
       </c>
@@ -8327,7 +8305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
         <v>328</v>
       </c>
@@ -8338,7 +8316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
         <v>329</v>
       </c>
@@ -8349,7 +8327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
         <v>330</v>
       </c>
@@ -8360,7 +8338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
         <v>331</v>
       </c>
@@ -8371,7 +8349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
         <v>332</v>
       </c>
@@ -8382,7 +8360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
         <v>333</v>
       </c>
@@ -8393,7 +8371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
         <v>334</v>
       </c>
@@ -8404,7 +8382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
         <v>810</v>
       </c>
@@ -8415,7 +8393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
         <v>335</v>
       </c>
@@ -8426,7 +8404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
         <v>828</v>
       </c>
@@ -8437,7 +8415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
         <v>718</v>
       </c>
@@ -8448,7 +8426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
         <v>629</v>
       </c>
@@ -8459,7 +8437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
         <v>336</v>
       </c>
@@ -8470,7 +8448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
         <v>853</v>
       </c>
@@ -8481,7 +8459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
         <v>599</v>
       </c>
@@ -8492,7 +8470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
         <v>337</v>
       </c>
@@ -8503,7 +8481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
         <v>338</v>
       </c>
@@ -8514,7 +8492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
         <v>722</v>
       </c>
@@ -8525,7 +8503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
         <v>915</v>
       </c>
@@ -8536,7 +8514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
         <v>723</v>
       </c>
@@ -8547,7 +8525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
         <v>801</v>
       </c>
@@ -8558,7 +8536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
         <v>784</v>
       </c>
@@ -8569,7 +8547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
         <v>339</v>
       </c>
@@ -8580,7 +8558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
         <v>842</v>
       </c>
@@ -8591,7 +8569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
         <v>340</v>
       </c>
@@ -8602,7 +8580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
         <v>341</v>
       </c>
@@ -8613,7 +8591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
         <v>342</v>
       </c>
@@ -8624,7 +8602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
         <v>645</v>
       </c>
@@ -8635,7 +8613,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
         <v>343</v>
       </c>
@@ -8646,7 +8624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
         <v>963</v>
       </c>
@@ -8657,7 +8635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
         <v>344</v>
       </c>
@@ -8668,7 +8646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
         <v>345</v>
       </c>
@@ -8679,7 +8657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
         <v>346</v>
       </c>
@@ -8690,7 +8668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
         <v>347</v>
       </c>
@@ -8701,7 +8679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
         <v>348</v>
       </c>
@@ -8712,7 +8690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
         <v>349</v>
       </c>
@@ -8723,7 +8701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
         <v>350</v>
       </c>
@@ -8734,7 +8712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
         <v>857</v>
       </c>
@@ -8745,7 +8723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
         <v>684</v>
       </c>
@@ -8756,7 +8734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
         <v>687</v>
       </c>
@@ -8767,7 +8745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
         <v>351</v>
       </c>
@@ -8778,7 +8756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
         <v>352</v>
       </c>
@@ -8789,7 +8767,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
         <v>950</v>
       </c>
@@ -8800,7 +8778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
         <v>353</v>
       </c>
@@ -8811,7 +8789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
         <v>676</v>
       </c>
@@ -8822,7 +8800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
         <v>821</v>
       </c>
@@ -8833,7 +8811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
         <v>354</v>
       </c>
@@ -8844,7 +8822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
         <v>674</v>
       </c>
@@ -8855,7 +8833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
         <v>778</v>
       </c>
@@ -8866,7 +8844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
         <v>355</v>
       </c>
@@ -8877,7 +8855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
         <v>356</v>
       </c>
@@ -8888,7 +8866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
         <v>720</v>
       </c>
@@ -8899,7 +8877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
         <v>358</v>
       </c>
@@ -8910,7 +8888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
         <v>357</v>
       </c>
@@ -8921,7 +8899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
         <v>961</v>
       </c>
@@ -8932,7 +8910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
         <v>359</v>
       </c>
@@ -8943,7 +8921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
         <v>690</v>
       </c>
@@ -8954,7 +8932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
         <v>360</v>
       </c>
@@ -8965,7 +8943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
         <v>361</v>
       </c>
@@ -8976,7 +8954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:3">
       <c r="A480" s="1" t="s">
         <v>143</v>
       </c>
@@ -8987,7 +8965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:3">
       <c r="A481" s="1" t="s">
         <v>969</v>
       </c>
@@ -8998,7 +8976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
         <v>362</v>
       </c>
@@ -9009,7 +8987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:3">
       <c r="A483" s="1" t="s">
         <v>609</v>
       </c>
@@ -9020,7 +8998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:3">
       <c r="A484" s="1" t="s">
         <v>363</v>
       </c>
@@ -9031,7 +9009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:3">
       <c r="A485" s="1" t="s">
         <v>643</v>
       </c>
@@ -9042,7 +9020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:3">
       <c r="A486" s="1" t="s">
         <v>364</v>
       </c>
@@ -9053,7 +9031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:3">
       <c r="A487" s="1" t="s">
         <v>365</v>
       </c>
@@ -9064,7 +9042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:3">
       <c r="A488" s="1" t="s">
         <v>366</v>
       </c>
@@ -9075,7 +9053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:3">
       <c r="A489" s="1" t="s">
         <v>826</v>
       </c>
@@ -9086,7 +9064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
         <v>368</v>
       </c>
@@ -9097,7 +9075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
         <v>367</v>
       </c>
@@ -9108,7 +9086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:3">
       <c r="A492" s="1" t="s">
         <v>369</v>
       </c>
@@ -9119,7 +9097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
         <v>370</v>
       </c>
@@ -9130,7 +9108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
         <v>371</v>
       </c>
@@ -9141,7 +9119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
         <v>372</v>
       </c>
@@ -9152,7 +9130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:3">
       <c r="A496" s="1" t="s">
         <v>838</v>
       </c>
@@ -9163,7 +9141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:3">
       <c r="A497" s="1" t="s">
         <v>373</v>
       </c>
@@ -9174,7 +9152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
         <v>832</v>
       </c>
@@ -9185,7 +9163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
         <v>145</v>
       </c>
@@ -9196,7 +9174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:3">
       <c r="A500" s="1" t="s">
         <v>147</v>
       </c>
@@ -9207,7 +9185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
         <v>792</v>
       </c>
@@ -9218,7 +9196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:3">
       <c r="A502" s="1" t="s">
         <v>1007</v>
       </c>
@@ -9229,7 +9207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
         <v>1009</v>
       </c>
@@ -9240,7 +9218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
         <v>1010</v>
       </c>
@@ -9251,7 +9229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
         <v>1013</v>
       </c>
@@ -9262,7 +9240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:3">
       <c r="A506" s="1" t="s">
         <v>1015</v>
       </c>
@@ -9273,7 +9251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
         <v>1017</v>
       </c>
@@ -9284,7 +9262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
         <v>1019</v>
       </c>
@@ -9295,7 +9273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
         <v>1021</v>
       </c>
@@ -9306,7 +9284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
         <v>1023</v>
       </c>
@@ -9317,7 +9295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
         <v>1025</v>
       </c>
@@ -9328,7 +9306,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
         <v>1027</v>
       </c>
@@ -9339,7 +9317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
         <v>1029</v>
       </c>
@@ -9350,7 +9328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:3">
       <c r="A514" s="1" t="s">
         <v>1031</v>
       </c>
@@ -9361,7 +9339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
         <v>1033</v>
       </c>
@@ -9372,7 +9350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
         <v>1035</v>
       </c>
@@ -9383,7 +9361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:3">
       <c r="A517" s="1" t="s">
         <v>1037</v>
       </c>
@@ -9394,7 +9372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
         <v>1039</v>
       </c>
@@ -9405,7 +9383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
         <v>1041</v>
       </c>
@@ -9416,7 +9394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
         <v>1043</v>
       </c>
@@ -9427,7 +9405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
         <v>1045</v>
       </c>
@@ -9438,7 +9416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
         <v>1047</v>
       </c>
@@ -9449,7 +9427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
         <v>1049</v>
       </c>
@@ -9460,7 +9438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
         <v>1051</v>
       </c>
@@ -9471,7 +9449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
         <v>1053</v>
       </c>
@@ -9482,7 +9460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
         <v>1069</v>
       </c>
@@ -9493,7 +9471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:3">
       <c r="A527" s="1" t="s">
         <v>1056</v>
       </c>
@@ -9504,7 +9482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
         <v>1058</v>
       </c>
@@ -9515,7 +9493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
         <v>1060</v>
       </c>
@@ -9526,7 +9504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
         <v>1062</v>
       </c>
@@ -9537,7 +9515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
         <v>1064</v>
       </c>
@@ -9548,7 +9526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
         <v>1066</v>
       </c>
@@ -9559,7 +9537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
         <v>1068</v>
       </c>
@@ -9570,7 +9548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
         <v>1071</v>
       </c>
@@ -9578,6 +9556,28 @@
         <v>1072</v>
       </c>
       <c r="C534" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C536" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="1083">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3299,11 +3299,29 @@
   <si>
     <t>tt5442430</t>
   </si>
+  <si>
+    <t>The Help</t>
+  </si>
+  <si>
+    <t>tt1454029</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>tt0434409</t>
+  </si>
+  <si>
+    <t>The Fate of the Furious</t>
+  </si>
+  <si>
+    <t>tt4630562</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -3462,6 +3480,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3497,6 +3532,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3673,10 +3725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D536"/>
+  <dimension ref="A1:D540"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="C535" sqref="C535:C536"/>
+      <selection activeCell="C536" sqref="C536:C540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9581,6 +9633,50 @@
         <v>5</v>
       </c>
     </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="1107">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3316,6 +3316,78 @@
   </si>
   <si>
     <t>tt4630562</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>tt3506934</t>
+  </si>
+  <si>
+    <t>Night Flight</t>
+  </si>
+  <si>
+    <t>tt3717490</t>
+  </si>
+  <si>
+    <t>tt4939496</t>
+  </si>
+  <si>
+    <t>Rainbow Without Colours</t>
+  </si>
+  <si>
+    <t>Song to Song</t>
+  </si>
+  <si>
+    <t>tt2062700</t>
+  </si>
+  <si>
+    <t>Once Upon a Time in Venice</t>
+  </si>
+  <si>
+    <t>tt4694544</t>
+  </si>
+  <si>
+    <t>tt5669936</t>
+  </si>
+  <si>
+    <t>The Recall</t>
+  </si>
+  <si>
+    <t>Love's Coming</t>
+  </si>
+  <si>
+    <t>tt3500478</t>
+  </si>
+  <si>
+    <t>Love Love You</t>
+  </si>
+  <si>
+    <t>tt4941596</t>
+  </si>
+  <si>
+    <t>Smurfs: The Lost Village</t>
+  </si>
+  <si>
+    <t>tt2398241</t>
+  </si>
+  <si>
+    <t>The Pass</t>
+  </si>
+  <si>
+    <t>tt5160154</t>
+  </si>
+  <si>
+    <t>Do You Take This Man</t>
+  </si>
+  <si>
+    <t>tt4723724</t>
+  </si>
+  <si>
+    <t>The Zookeepers Wife</t>
+  </si>
+  <si>
+    <t>tt1730768</t>
   </si>
 </sst>
 </file>
@@ -3365,13 +3437,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3725,10 +3798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D540"/>
+  <dimension ref="A1:D552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="C536" sqref="C536:C540"/>
+    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="C549" sqref="C549:C552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9677,6 +9750,138 @@
         <v>5</v>
       </c>
     </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B542" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="1117">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3388,6 +3388,36 @@
   </si>
   <si>
     <t>tt1730768</t>
+  </si>
+  <si>
+    <t>Water Boyy</t>
+  </si>
+  <si>
+    <t>tt4964550</t>
+  </si>
+  <si>
+    <t>Il Compleanno</t>
+  </si>
+  <si>
+    <t>tt1273204</t>
+  </si>
+  <si>
+    <t>Artemisia</t>
+  </si>
+  <si>
+    <t>tt1405358</t>
+  </si>
+  <si>
+    <t>Heart Attack</t>
+  </si>
+  <si>
+    <t>tt4964598</t>
+  </si>
+  <si>
+    <t>Okja</t>
+  </si>
+  <si>
+    <t>tt3967856</t>
   </si>
 </sst>
 </file>
@@ -3798,10 +3828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D552"/>
+  <dimension ref="A1:D557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
-      <selection activeCell="C549" sqref="C549:C552"/>
+    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
+      <selection activeCell="C556" sqref="C556:C557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9882,6 +9912,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1133">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3418,6 +3418,54 @@
   </si>
   <si>
     <t>tt3967856</t>
+  </si>
+  <si>
+    <t>Wonder Woman</t>
+  </si>
+  <si>
+    <t>tt0451279</t>
+  </si>
+  <si>
+    <t>Alien: Covenant</t>
+  </si>
+  <si>
+    <t>tt2316204</t>
+  </si>
+  <si>
+    <t>My Bromance</t>
+  </si>
+  <si>
+    <t>tt3522738</t>
+  </si>
+  <si>
+    <t>Ghost In The Shell</t>
+  </si>
+  <si>
+    <t>tt1219827</t>
+  </si>
+  <si>
+    <t>Red Wine in the Dark Night</t>
+  </si>
+  <si>
+    <t>tt4556730</t>
+  </si>
+  <si>
+    <t>The Mummy</t>
+  </si>
+  <si>
+    <t>tt2345759</t>
+  </si>
+  <si>
+    <t>How to Win at Checkers (Every Time)</t>
+  </si>
+  <si>
+    <t>tt4370256</t>
+  </si>
+  <si>
+    <t>Pink Moon</t>
+  </si>
+  <si>
+    <t>tt3775450</t>
   </si>
 </sst>
 </file>
@@ -3828,10 +3876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D557"/>
+  <dimension ref="A1:D565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
-      <selection activeCell="C556" sqref="C556:C557"/>
+    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
+      <selection activeCell="C564" sqref="C564:C565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9795,7 +9843,7 @@
       <c r="A542" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B542" s="4" t="s">
+      <c r="B542" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="C542" s="1" t="s">
@@ -9957,13 +10005,101 @@
       </c>
     </row>
     <row r="557" spans="1:3">
-      <c r="A557" s="4" t="s">
+      <c r="A557" s="1" t="s">
         <v>1115</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>1116</v>
       </c>
       <c r="C557" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C564" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C565" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="1141">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3466,6 +3466,30 @@
   </si>
   <si>
     <t>tt3775450</t>
+  </si>
+  <si>
+    <t>Dave Made a Maze</t>
+  </si>
+  <si>
+    <t>tt4457344</t>
+  </si>
+  <si>
+    <t>Guardians of the Galaxy Vol.2</t>
+  </si>
+  <si>
+    <t>tt3896198</t>
+  </si>
+  <si>
+    <t>King Arthur Legend of the Sword</t>
+  </si>
+  <si>
+    <t>tt1972591</t>
+  </si>
+  <si>
+    <t>What Happened to Monday</t>
+  </si>
+  <si>
+    <t>tt1536537</t>
   </si>
 </sst>
 </file>
@@ -3876,10 +3900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D565"/>
+  <dimension ref="A1:D569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="C564" sqref="C564:C565"/>
+    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="C565" sqref="C565:C569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10103,6 +10127,50 @@
         <v>5</v>
       </c>
     </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1153">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3490,6 +3490,42 @@
   </si>
   <si>
     <t>tt1536537</t>
+  </si>
+  <si>
+    <t>Death Note</t>
+  </si>
+  <si>
+    <t>tt1241317</t>
+  </si>
+  <si>
+    <t>In Your Eyes</t>
+  </si>
+  <si>
+    <t>tt2101569</t>
+  </si>
+  <si>
+    <t>Baby Driver</t>
+  </si>
+  <si>
+    <t>tt3890160</t>
+  </si>
+  <si>
+    <t>Despicable Me 3</t>
+  </si>
+  <si>
+    <t>tt3469046</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean Dead Men Tell No Tales</t>
+  </si>
+  <si>
+    <t>tt1790809</t>
+  </si>
+  <si>
+    <t>Transformers The Last Knight</t>
+  </si>
+  <si>
+    <t>tt3371366</t>
   </si>
 </sst>
 </file>
@@ -3900,10 +3936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D569"/>
+  <dimension ref="A1:D575"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
-      <selection activeCell="C565" sqref="C565:C569"/>
+      <selection activeCell="C571" sqref="C571:C575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10171,6 +10207,72 @@
         <v>5</v>
       </c>
     </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1157">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3526,6 +3526,18 @@
   </si>
   <si>
     <t>tt3371366</t>
+  </si>
+  <si>
+    <t>Boy Culture</t>
+  </si>
+  <si>
+    <t>tt0433350</t>
+  </si>
+  <si>
+    <t>Heartstone</t>
+  </si>
+  <si>
+    <t>tt4613254</t>
   </si>
 </sst>
 </file>
@@ -3936,10 +3948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D575"/>
+  <dimension ref="A1:D577"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
-      <selection activeCell="C571" sqref="C571:C575"/>
+      <selection activeCell="C575" sqref="C575:C577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10273,6 +10285,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1161">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3538,6 +3538,18 @@
   </si>
   <si>
     <t>tt4613254</t>
+  </si>
+  <si>
+    <t>Spider-Man Homecoming</t>
+  </si>
+  <si>
+    <t>tt2250912</t>
+  </si>
+  <si>
+    <t>War for the Planet of the Apes</t>
+  </si>
+  <si>
+    <t>tt3450958</t>
   </si>
 </sst>
 </file>
@@ -3948,10 +3960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D577"/>
+  <dimension ref="A1:D579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
-      <selection activeCell="C575" sqref="C575:C577"/>
+    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
+      <selection activeCell="C577" sqref="C577:C579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10307,6 +10319,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1165">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3550,6 +3550,18 @@
   </si>
   <si>
     <t>tt3450958</t>
+  </si>
+  <si>
+    <t>Jungle</t>
+  </si>
+  <si>
+    <t>tt3758172</t>
+  </si>
+  <si>
+    <t>Atomic Blonde</t>
+  </si>
+  <si>
+    <t>tt2406566</t>
   </si>
 </sst>
 </file>
@@ -3960,10 +3972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D579"/>
+  <dimension ref="A1:D581"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="C577" sqref="C577:C579"/>
+      <selection activeCell="C579" sqref="C579:C581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10341,6 +10353,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="580" spans="1:3">
+      <c r="A580" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1183">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3562,6 +3562,60 @@
   </si>
   <si>
     <t>tt2406566</t>
+  </si>
+  <si>
+    <t>tt4857264</t>
+  </si>
+  <si>
+    <t>The Invisible Guest</t>
+  </si>
+  <si>
+    <t>Singularity</t>
+  </si>
+  <si>
+    <t>tt7312940</t>
+  </si>
+  <si>
+    <t>The Space Between Us</t>
+  </si>
+  <si>
+    <t>tt3922818</t>
+  </si>
+  <si>
+    <t>Beyond Skyline</t>
+  </si>
+  <si>
+    <t>tt1724970</t>
+  </si>
+  <si>
+    <t>Kingsman The Secret Service</t>
+  </si>
+  <si>
+    <t>tt2802144</t>
+  </si>
+  <si>
+    <t>Kingsman The Golden Circle</t>
+  </si>
+  <si>
+    <t>tt4649466</t>
+  </si>
+  <si>
+    <t>Bright</t>
+  </si>
+  <si>
+    <t>tt5519340</t>
+  </si>
+  <si>
+    <t>Blade Runner</t>
+  </si>
+  <si>
+    <t>tt1856101</t>
+  </si>
+  <si>
+    <t>Blame</t>
+  </si>
+  <si>
+    <t>tt4607722</t>
   </si>
 </sst>
 </file>
@@ -3972,10 +4026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D581"/>
+  <dimension ref="A1:D590"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="C579" sqref="C579:C581"/>
+      <selection activeCell="C589" sqref="C589:C590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10375,6 +10429,105 @@
         <v>5</v>
       </c>
     </row>
+    <row r="582" spans="1:3">
+      <c r="A582" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="1185">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3616,6 +3616,12 @@
   </si>
   <si>
     <t>tt4607722</t>
+  </si>
+  <si>
+    <t>Professor Marston And The Wonder Women</t>
+  </si>
+  <si>
+    <t>tt6133130</t>
   </si>
 </sst>
 </file>
@@ -4026,10 +4032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D590"/>
+  <dimension ref="A1:D591"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="C589" sqref="C589:C590"/>
+      <selection activeCell="C590" sqref="C590:C591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10528,6 +10534,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="1195">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3622,6 +3622,36 @@
   </si>
   <si>
     <t>tt6133130</t>
+  </si>
+  <si>
+    <t>Please Stand By</t>
+  </si>
+  <si>
+    <t>tt4652650</t>
+  </si>
+  <si>
+    <t>tt2543472</t>
+  </si>
+  <si>
+    <t>Wonder</t>
+  </si>
+  <si>
+    <t>Thor: Ragnarok</t>
+  </si>
+  <si>
+    <t>tt3501632</t>
+  </si>
+  <si>
+    <t>The Shape of Water</t>
+  </si>
+  <si>
+    <t>tt5580390</t>
+  </si>
+  <si>
+    <t>The Cloverfield Paradox</t>
+  </si>
+  <si>
+    <t>tt2548396</t>
   </si>
 </sst>
 </file>
@@ -4032,10 +4062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D591"/>
+  <dimension ref="A1:D596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="C590" sqref="C590:C591"/>
+    <sheetView tabSelected="1" topLeftCell="A580" workbookViewId="0">
+      <selection activeCell="B596" sqref="B596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10545,6 +10575,46 @@
         <v>5</v>
       </c>
     </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
   </bookViews>
   <sheets>
-    <sheet name="media" sheetId="1" r:id="rId1"/>
+    <sheet name="media" sheetId="2" r:id="rId1"/>
+    <sheet name="gay" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1195">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Poster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12 Years A Slave</t>
   </si>
   <si>
@@ -448,10 +445,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Uncanny</t>
   </si>
   <si>
@@ -1964,10 +1957,6 @@
   </si>
   <si>
     <t>tt0118414</t>
-  </si>
-  <si>
-    <t>TV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Born to Dance</t>
@@ -2227,10 +2216,6 @@
     <t>Return of the Condor Heroes</t>
   </si>
   <si>
-    <t>TV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Honour of the Gods </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2443,10 +2428,6 @@
     <t>tt3381008</t>
   </si>
   <si>
-    <t>TV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Artificial Intelligence AI</t>
   </si>
   <si>
@@ -2469,10 +2450,6 @@
   </si>
   <si>
     <t>tt0262985</t>
-  </si>
-  <si>
-    <t>TV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Miracles from Heaven</t>
@@ -2862,10 +2839,6 @@
     <t>tt5074352</t>
   </si>
   <si>
-    <t>Dangal </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hickey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3652,6 +3625,27 @@
   </si>
   <si>
     <t>tt2548396</t>
+  </si>
+  <si>
+    <t>Call Me By Your Name</t>
+  </si>
+  <si>
+    <t>tt5726616</t>
+  </si>
+  <si>
+    <t>tt1464763</t>
+  </si>
+  <si>
+    <t>Mute</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>tt0974015</t>
+  </si>
+  <si>
+    <t>Dangal </t>
   </si>
 </sst>
 </file>
@@ -3727,15 +3721,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D1048576" totalsRowShown="0">
-  <sortState ref="A2:D501">
-    <sortCondition ref="A1:A1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:C1048559" totalsRowShown="0">
+  <sortState ref="A2:C485">
+    <sortCondition ref="A1:A1048559"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="3">
     <tableColumn id="1" name="Title"/>
     <tableColumn id="2" name="IMDB_ID"/>
     <tableColumn id="3" name="Type"/>
-    <tableColumn id="4" name="Poster"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C1048576" totalsRowShown="0">
+  <sortState ref="A2:C501">
+    <sortCondition ref="A1:A1048576"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Title"/>
+    <tableColumn id="2" name="IMDB_ID"/>
+    <tableColumn id="3" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4062,10 +4069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D596"/>
+  <dimension ref="A1:C582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A580" workbookViewId="0">
-      <selection activeCell="B596" sqref="B596"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4077,7 +4084,7 @@
     <col min="5" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4087,6533 +4094,6650 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>947</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>948</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>764</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>765</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>768</v>
+        <v>857</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>769</v>
+        <v>858</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>863</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>864</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>649</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>658</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>652</v>
+        <v>992</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>661</v>
+        <v>995</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>999</v>
+        <v>756</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1002</v>
+        <v>757</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>760</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>761</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>37</v>
+      <c r="A28" s="4" t="s">
+        <v>665</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>666</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>668</v>
+      <c r="A29" s="4" t="s">
+        <v>950</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>669</v>
+        <v>951</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>957</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>958</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>936</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>939</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>943</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>946</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>617</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>618</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>619</v>
+        <v>794</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>620</v>
+        <v>795</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>799</v>
+        <v>990</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>800</v>
+        <v>991</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>997</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>998</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>1003</v>
+        <v>661</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1004</v>
+        <v>662</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>664</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>665</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>932</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>933</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>939</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>940</v>
+        <v>52</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>754</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>755</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>758</v>
+        <v>952</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>759</v>
+        <v>953</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>959</v>
+        <v>810</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>960</v>
+        <v>811</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>855</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>59</v>
+        <v>856</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>816</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>817</v>
+        <v>60</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>861</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>862</v>
+        <v>62</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>625</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>67</v>
+        <v>626</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>68</v>
+      <c r="A57" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>762</v>
+        <v>631</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>763</v>
+        <v>632</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>627</v>
+        <v>73</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>628</v>
+        <v>74</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>72</v>
+      <c r="A61" s="4" t="s">
+        <v>645</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>73</v>
+        <v>646</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>633</v>
+      <c r="A62" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>634</v>
+        <v>80</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>842</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>77</v>
+        <v>843</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>5</v>
+        <v>845</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>648</v>
+        <v>881</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>649</v>
+        <v>882</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>84</v>
+        <v>651</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>85</v>
+        <v>655</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>848</v>
+        <v>91</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>849</v>
+        <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>851</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>887</v>
+        <v>93</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>888</v>
+        <v>94</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>744</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>745</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>90</v>
+        <v>619</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>91</v>
+        <v>620</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
-        <v>654</v>
+      <c r="A75" s="4" t="s">
+        <v>1194</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>658</v>
+        <v>927</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>748</v>
+        <v>107</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>749</v>
+        <v>126</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>101</v>
+        <v>778</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>102</v>
+        <v>779</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>621</v>
+        <v>814</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>622</v>
+        <v>816</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>995</v>
+        <v>109</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>996</v>
+        <v>128</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>934</v>
+        <v>110</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>933</v>
+        <v>129</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>103</v>
+        <v>738</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>122</v>
+        <v>739</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>782</v>
+        <v>903</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>783</v>
+        <v>904</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>820</v>
+        <v>747</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>822</v>
+        <v>746</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>742</v>
+        <v>652</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>131</v>
+        <v>372</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>132</v>
+        <v>373</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>790</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>133</v>
+        <v>791</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>134</v>
+        <v>376</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>135</v>
+        <v>377</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>136</v>
+        <v>378</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>137</v>
+        <v>379</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>119</v>
+        <v>974</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>138</v>
+        <v>975</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>909</v>
+        <v>155</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>910</v>
+        <v>380</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>751</v>
+        <v>156</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>750</v>
+        <v>381</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>139</v>
+        <v>382</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>121</v>
+        <v>937</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>140</v>
+        <v>938</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>655</v>
+        <v>158</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>659</v>
+        <v>383</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>149</v>
+        <v>867</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>374</v>
+        <v>868</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>150</v>
+        <v>699</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>375</v>
+        <v>700</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>151</v>
+        <v>889</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>376</v>
+        <v>890</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>152</v>
+        <v>609</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>377</v>
+        <v>610</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>794</v>
+        <v>159</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>795</v>
+        <v>384</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>379</v>
+        <v>133</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>981</v>
+        <v>164</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>982</v>
+        <v>388</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>159</v>
+        <v>978</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>384</v>
+        <v>979</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>944</v>
+        <v>167</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>945</v>
+        <v>391</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>160</v>
+        <v>859</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>385</v>
+        <v>860</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>702</v>
+        <v>786</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>703</v>
+        <v>787</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>895</v>
+        <v>168</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>896</v>
+        <v>392</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>983</v>
+        <v>170</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>984</v>
+        <v>394</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>163</v>
+        <v>915</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>134</v>
+        <v>916</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>166</v>
+        <v>806</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>390</v>
+        <v>807</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>167</v>
+        <v>633</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>391</v>
+        <v>634</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>985</v>
+        <v>180</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>986</v>
+        <v>404</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>865</v>
+        <v>177</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>866</v>
+        <v>401</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>883</v>
+        <v>179</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>884</v>
+        <v>403</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>790</v>
+        <v>178</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>791</v>
+        <v>402</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>603</v>
+        <v>970</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>604</v>
+        <v>971</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>921</v>
+        <v>184</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>922</v>
+        <v>408</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>174</v>
+        <v>928</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>398</v>
+        <v>929</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>175</v>
+        <v>925</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>399</v>
+        <v>926</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>812</v>
+        <v>185</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>813</v>
+        <v>409</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>635</v>
+        <v>760</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>636</v>
+        <v>761</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>177</v>
+        <v>697</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>401</v>
+        <v>698</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>182</v>
+        <v>725</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>406</v>
+        <v>726</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>178</v>
+        <v>772</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>402</v>
+        <v>773</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>977</v>
+        <v>191</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>978</v>
+        <v>415</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>184</v>
+        <v>873</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>408</v>
+        <v>874</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>185</v>
+        <v>865</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>409</v>
+        <v>866</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>935</v>
+        <v>818</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>936</v>
+        <v>819</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>931</v>
+        <v>193</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>932</v>
+        <v>417</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>187</v>
+        <v>948</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>411</v>
+        <v>949</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>764</v>
+        <v>869</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>765</v>
+        <v>870</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>700</v>
+        <v>194</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>701</v>
+        <v>418</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>729</v>
+        <v>603</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>730</v>
+        <v>604</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>188</v>
+        <v>595</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>412</v>
+        <v>596</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>190</v>
+        <v>861</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>414</v>
+        <v>862</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>191</v>
+        <v>921</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>415</v>
+        <v>922</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>776</v>
+        <v>196</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>777</v>
+        <v>420</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>879</v>
+        <v>199</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>880</v>
+        <v>423</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>871</v>
+        <v>200</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>872</v>
+        <v>424</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>824</v>
+        <v>202</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>825</v>
+        <v>426</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>955</v>
+        <v>659</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>956</v>
+        <v>660</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>875</v>
+        <v>205</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>876</v>
+        <v>429</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>605</v>
+        <v>206</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>606</v>
+        <v>430</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>597</v>
+        <v>207</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>598</v>
+        <v>431</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>867</v>
+        <v>209</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>868</v>
+        <v>433</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>927</v>
+        <v>210</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>928</v>
+        <v>434</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>203</v>
+        <v>849</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>427</v>
+        <v>850</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>204</v>
+        <v>887</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>428</v>
+        <v>888</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>662</v>
+        <v>846</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>663</v>
+        <v>844</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>207</v>
+        <v>647</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>431</v>
+        <v>648</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>206</v>
+        <v>768</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>430</v>
+        <v>769</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>208</v>
+        <v>895</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>432</v>
+        <v>896</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>209</v>
+        <v>679</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>433</v>
+        <v>680</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>210</v>
+        <v>931</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>434</v>
+        <v>930</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>211</v>
+        <v>998</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>435</v>
+        <v>999</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>212</v>
+        <v>752</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>436</v>
+        <v>753</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>212</v>
+        <v>689</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>436</v>
+        <v>690</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>214</v>
+        <v>621</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>438</v>
+        <v>622</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>855</v>
+        <v>219</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>856</v>
+        <v>443</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>893</v>
+        <v>985</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>894</v>
+        <v>986</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>215</v>
+        <v>946</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>439</v>
+        <v>947</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>852</v>
+        <v>886</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>850</v>
+        <v>883</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>650</v>
+        <v>879</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>651</v>
+        <v>880</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>772</v>
+        <v>984</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>773</v>
+        <v>987</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>901</v>
+        <v>799</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>902</v>
+        <v>800</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>682</v>
+        <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>683</v>
+        <v>444</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>938</v>
+        <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>937</v>
+        <v>445</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>1005</v>
+        <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1006</v>
+        <v>446</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>756</v>
+        <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>757</v>
+        <v>447</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>692</v>
+        <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>693</v>
+        <v>448</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>623</v>
+        <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>624</v>
+        <v>450</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>992</v>
+        <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>993</v>
+        <v>454</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>953</v>
+        <v>693</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>954</v>
+        <v>694</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>889</v>
+        <v>912</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>885</v>
+        <v>838</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>886</v>
+        <v>839</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>991</v>
+        <v>701</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>994</v>
+        <v>702</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>804</v>
+        <v>231</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>805</v>
+        <v>455</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>807</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>224</v>
+        <v>750</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>448</v>
+        <v>751</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>225</v>
+        <v>853</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>449</v>
+        <v>854</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>228</v>
+        <v>884</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>452</v>
+        <v>885</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>230</v>
+        <v>802</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>454</v>
+        <v>803</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>231</v>
+        <v>905</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>455</v>
+        <v>906</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>696</v>
+        <v>667</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>917</v>
+        <v>748</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>918</v>
+        <v>749</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>844</v>
+        <v>635</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>845</v>
+        <v>636</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>704</v>
+        <v>238</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>705</v>
+        <v>462</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>458</v>
+        <v>241</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>754</v>
+        <v>242</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>755</v>
+        <v>465</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>859</v>
+        <v>243</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>860</v>
+        <v>466</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>236</v>
+        <v>703</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>460</v>
+        <v>704</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>890</v>
+        <v>664</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>891</v>
+        <v>663</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>808</v>
+        <v>762</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>809</v>
+        <v>763</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>911</v>
+        <v>246</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>912</v>
+        <v>469</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>239</v>
+        <v>824</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>463</v>
+        <v>825</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>670</v>
+        <v>784</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>671</v>
+        <v>785</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>752</v>
+        <v>247</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>753</v>
+        <v>470</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>637</v>
+        <v>248</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>638</v>
+        <v>471</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>240</v>
+        <v>893</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>464</v>
+        <v>894</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>242</v>
+        <v>705</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>466</v>
+        <v>706</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>244</v>
+        <v>968</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>467</v>
+        <v>969</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>706</v>
+        <v>828</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>707</v>
+        <v>829</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>667</v>
+        <v>253</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>666</v>
+        <v>476</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>766</v>
+        <v>606</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>767</v>
+        <v>605</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>248</v>
+        <v>901</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>471</v>
+        <v>902</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>830</v>
+        <v>256</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>831</v>
+        <v>479</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>788</v>
+        <v>255</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>789</v>
+        <v>478</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>249</v>
+        <v>782</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>472</v>
+        <v>783</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
-        <v>250</v>
+        <v>707</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>473</v>
+        <v>708</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>899</v>
+        <v>257</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>900</v>
+        <v>480</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>708</v>
+        <v>260</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>709</v>
+        <v>483</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
-        <v>252</v>
+        <v>736</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>475</v>
+        <v>737</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>975</v>
+        <v>261</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>976</v>
+        <v>484</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>253</v>
+        <v>993</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>476</v>
+        <v>994</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
-        <v>834</v>
+        <v>262</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>835</v>
+        <v>485</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
-        <v>608</v>
+        <v>265</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>607</v>
+        <v>488</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
-        <v>907</v>
+        <v>709</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>908</v>
+        <v>710</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>258</v>
+        <v>899</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>481</v>
+        <v>900</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>798</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
-        <v>786</v>
+        <v>267</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>787</v>
+        <v>490</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
-        <v>710</v>
+        <v>268</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>711</v>
+        <v>491</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>262</v>
+        <v>966</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>485</v>
+        <v>967</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>740</v>
+        <v>982</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>741</v>
+        <v>983</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>263</v>
+        <v>653</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>486</v>
+        <v>654</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>1000</v>
+        <v>271</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1001</v>
+        <v>494</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
-        <v>265</v>
+        <v>742</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>488</v>
+        <v>743</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
-        <v>712</v>
+        <v>599</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>713</v>
+        <v>600</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
-        <v>905</v>
+        <v>798</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>906</v>
+        <v>801</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>494</v>
+        <v>740</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>741</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>272</v>
+        <v>695</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>495</v>
+        <v>696</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>973</v>
+        <v>724</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>974</v>
+        <v>723</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>989</v>
+        <v>279</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>990</v>
+        <v>502</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>656</v>
+        <v>280</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>657</v>
+        <v>503</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>274</v>
+        <v>980</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>497</v>
+        <v>981</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>746</v>
+        <v>283</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>747</v>
+        <v>506</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>277</v>
+        <v>960</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>500</v>
+        <v>961</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>601</v>
+        <v>285</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>803</v>
+        <v>286</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>806</v>
+        <v>509</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>807</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>280</v>
+        <v>770</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>503</v>
+        <v>771</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>745</v>
+        <v>289</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>698</v>
+        <v>734</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>727</v>
+        <v>875</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>728</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>281</v>
+        <v>732</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>504</v>
+        <v>733</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>283</v>
+        <v>650</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>506</v>
+        <v>657</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>987</v>
+        <v>945</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>988</v>
+        <v>944</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>286</v>
+        <v>964</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>509</v>
+        <v>965</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>967</v>
+        <v>293</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>968</v>
+        <v>516</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>287</v>
+        <v>711</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>510</v>
+        <v>712</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>289</v>
+        <v>913</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>512</v>
+        <v>914</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>774</v>
+        <v>871</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>775</v>
+        <v>872</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>291</v>
+        <v>677</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>514</v>
+        <v>678</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>738</v>
+        <v>958</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>739</v>
+        <v>959</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>881</v>
+        <v>296</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>882</v>
+        <v>519</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>736</v>
+        <v>907</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>737</v>
+        <v>908</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>653</v>
+        <v>298</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>660</v>
+        <v>521</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>952</v>
+        <v>897</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>951</v>
+        <v>898</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>293</v>
+        <v>830</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>516</v>
+        <v>831</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>294</v>
+        <v>863</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>517</v>
+        <v>864</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>972</v>
+        <v>299</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>714</v>
+        <v>301</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>715</v>
+        <v>523</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>919</v>
+        <v>840</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>920</v>
+        <v>841</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>877</v>
+        <v>623</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>878</v>
+        <v>624</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>680</v>
+        <v>637</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>681</v>
+        <v>638</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>965</v>
+        <v>675</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>966</v>
+        <v>676</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>298</v>
+        <v>669</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>521</v>
+        <v>670</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>913</v>
+        <v>304</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>914</v>
+        <v>526</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
-        <v>300</v>
+        <v>812</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>523</v>
+        <v>813</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
-        <v>903</v>
+        <v>306</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>904</v>
+        <v>528</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>836</v>
+        <v>685</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>837</v>
+        <v>686</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>869</v>
+        <v>307</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>870</v>
+        <v>529</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>301</v>
+        <v>891</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>892</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>303</v>
+        <v>713</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>525</v>
+        <v>714</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>846</v>
+        <v>310</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>847</v>
+        <v>532</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>305</v>
+        <v>792</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>527</v>
+        <v>793</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>625</v>
+        <v>311</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>626</v>
+        <v>533</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
-        <v>678</v>
+        <v>611</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>679</v>
+        <v>612</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
-        <v>672</v>
+        <v>614</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>673</v>
+        <v>615</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
-        <v>818</v>
+        <v>314</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>819</v>
+        <v>536</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
-        <v>308</v>
+        <v>834</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>530</v>
+        <v>835</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
-        <v>688</v>
+        <v>918</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>689</v>
+        <v>920</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
-        <v>309</v>
+        <v>727</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>531</v>
+        <v>722</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
-        <v>897</v>
+        <v>766</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>898</v>
+        <v>767</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
-        <v>311</v>
+        <v>731</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>533</v>
+        <v>730</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
-        <v>796</v>
+        <v>317</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>797</v>
+        <v>539</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
-        <v>618</v>
+        <v>319</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>615</v>
+        <v>541</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
-        <v>613</v>
+        <v>320</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>614</v>
+        <v>542</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
-        <v>616</v>
+        <v>321</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>617</v>
+        <v>543</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
-        <v>315</v>
+        <v>808</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>537</v>
+        <v>809</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
-        <v>316</v>
+        <v>639</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>538</v>
+        <v>640</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
-        <v>840</v>
+        <v>323</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>841</v>
+        <v>545</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B402" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B402" s="1" t="s">
-        <v>926</v>
-      </c>
       <c r="C402" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
-        <v>731</v>
+        <v>324</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>725</v>
+        <v>546</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
-        <v>770</v>
+        <v>325</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>771</v>
+        <v>547</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
-        <v>732</v>
+        <v>327</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>733</v>
+        <v>549</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
-        <v>735</v>
+        <v>328</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>734</v>
+        <v>550</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
-        <v>322</v>
+        <v>804</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>544</v>
+        <v>805</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
-        <v>324</v>
+        <v>822</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>546</v>
+        <v>823</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
-        <v>814</v>
+        <v>715</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>815</v>
+        <v>716</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
-        <v>929</v>
+        <v>847</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>930</v>
+        <v>848</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>326</v>
+        <v>597</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>548</v>
+        <v>598</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>329</v>
+        <v>719</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>330</v>
+        <v>909</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>552</v>
+        <v>910</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
-        <v>331</v>
+        <v>720</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>553</v>
+        <v>721</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>332</v>
+        <v>796</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>554</v>
+        <v>797</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>333</v>
+        <v>780</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>555</v>
+        <v>781</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>828</v>
+        <v>339</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>829</v>
+        <v>562</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>718</v>
+        <v>340</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>719</v>
+        <v>563</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>853</v>
+        <v>956</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>854</v>
+        <v>957</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>599</v>
+        <v>342</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>722</v>
+        <v>345</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
-        <v>915</v>
+        <v>346</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>916</v>
+        <v>569</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
-        <v>723</v>
+        <v>347</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>724</v>
+        <v>570</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
-        <v>801</v>
+        <v>348</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>802</v>
+        <v>571</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
-        <v>784</v>
+        <v>851</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>785</v>
+        <v>852</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
-        <v>339</v>
+        <v>681</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>562</v>
+        <v>682</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>842</v>
+        <v>684</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>843</v>
+        <v>683</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
-        <v>342</v>
+        <v>943</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>565</v>
+        <v>942</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
-        <v>645</v>
+        <v>351</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>646</v>
+        <v>574</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>647</v>
+        <v>4</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
-        <v>343</v>
+        <v>673</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>566</v>
+        <v>674</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
-        <v>963</v>
+        <v>815</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>964</v>
+        <v>817</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
-        <v>345</v>
+        <v>671</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>568</v>
+        <v>672</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
-        <v>346</v>
+        <v>774</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>569</v>
+        <v>775</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
-        <v>349</v>
+        <v>717</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>572</v>
+        <v>718</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
-        <v>857</v>
+        <v>355</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>858</v>
+        <v>578</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
-        <v>684</v>
+        <v>954</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>685</v>
+        <v>955</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
-        <v>687</v>
+        <v>357</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>686</v>
+        <v>580</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
-        <v>351</v>
+        <v>687</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>574</v>
+        <v>688</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
-        <v>950</v>
+        <v>359</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>949</v>
+        <v>582</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
-        <v>353</v>
+        <v>141</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>576</v>
+        <v>142</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
-        <v>676</v>
+        <v>962</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>677</v>
+        <v>963</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
-        <v>821</v>
+        <v>360</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>823</v>
+        <v>583</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
-        <v>354</v>
+        <v>607</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>577</v>
+        <v>608</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
-        <v>674</v>
+        <v>361</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>675</v>
+        <v>584</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
-        <v>778</v>
+        <v>641</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>779</v>
+        <v>642</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
-        <v>720</v>
+        <v>364</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>721</v>
+        <v>587</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
-        <v>358</v>
+        <v>820</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>581</v>
+        <v>821</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
-        <v>961</v>
+        <v>365</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>962</v>
+        <v>588</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
-        <v>690</v>
+        <v>368</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>691</v>
+        <v>591</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1" t="s">
-        <v>143</v>
+        <v>832</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>144</v>
+        <v>833</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1" t="s">
-        <v>969</v>
+        <v>371</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>970</v>
+        <v>594</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
-        <v>362</v>
+        <v>826</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>585</v>
+        <v>827</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="1" t="s">
-        <v>609</v>
+        <v>143</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>610</v>
+        <v>144</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1" t="s">
-        <v>363</v>
+        <v>145</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>586</v>
+        <v>146</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1" t="s">
-        <v>643</v>
+        <v>788</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="1" t="s">
-        <v>364</v>
+        <v>1000</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>587</v>
+        <v>1001</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1" t="s">
-        <v>365</v>
+        <v>1002</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>588</v>
+        <v>1004</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1" t="s">
-        <v>366</v>
+        <v>1003</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>589</v>
+        <v>1005</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1" t="s">
-        <v>826</v>
+        <v>1006</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>827</v>
+        <v>1007</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
-        <v>368</v>
+        <v>1008</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>591</v>
+        <v>1009</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
-        <v>367</v>
+        <v>1010</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>590</v>
+        <v>1011</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1" t="s">
-        <v>369</v>
+        <v>1012</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>592</v>
+        <v>1013</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
-        <v>370</v>
+        <v>1014</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>593</v>
+        <v>1015</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
-        <v>371</v>
+        <v>1016</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>594</v>
+        <v>1017</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
-        <v>372</v>
+        <v>1018</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>595</v>
+        <v>1019</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1" t="s">
-        <v>838</v>
+        <v>1020</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>839</v>
+        <v>1021</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="1" t="s">
-        <v>373</v>
+        <v>1022</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>596</v>
+        <v>1023</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
-        <v>832</v>
+        <v>1024</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>833</v>
+        <v>1025</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
-        <v>145</v>
+        <v>1026</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>146</v>
+        <v>1027</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1" t="s">
-        <v>147</v>
+        <v>1028</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>148</v>
+        <v>1029</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
-        <v>792</v>
+        <v>1030</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>793</v>
+        <v>1031</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="1" t="s">
-        <v>1007</v>
+        <v>1032</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1008</v>
+        <v>1033</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
-        <v>1009</v>
+        <v>1034</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1011</v>
+        <v>1035</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
-        <v>1010</v>
+        <v>1036</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1012</v>
+        <v>1037</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
-        <v>1013</v>
+        <v>1038</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1014</v>
+        <v>1039</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="1" t="s">
-        <v>1015</v>
+        <v>1040</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1016</v>
+        <v>1041</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
-        <v>1017</v>
+        <v>1042</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1018</v>
+        <v>1043</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
-        <v>1019</v>
+        <v>1044</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1020</v>
+        <v>1045</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
-        <v>1021</v>
+        <v>1046</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1022</v>
+        <v>1047</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
-        <v>1023</v>
+        <v>1062</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1024</v>
+        <v>1048</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
-        <v>1025</v>
+        <v>1049</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1026</v>
+        <v>1050</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
-        <v>1027</v>
+        <v>1051</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1028</v>
+        <v>1052</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
-        <v>1029</v>
+        <v>1053</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1030</v>
+        <v>1054</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="1" t="s">
-        <v>1031</v>
+        <v>1055</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1032</v>
+        <v>1056</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
-        <v>1033</v>
+        <v>1057</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1034</v>
+        <v>1058</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
-        <v>1035</v>
+        <v>1059</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1036</v>
+        <v>1060</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1" t="s">
-        <v>1037</v>
+        <v>1061</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1038</v>
+        <v>1063</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
-        <v>1039</v>
+        <v>1064</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1040</v>
+        <v>1065</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
-        <v>1041</v>
+        <v>1066</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1042</v>
+        <v>1067</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
-        <v>1043</v>
+        <v>1068</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1044</v>
+        <v>1069</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
-        <v>1045</v>
+        <v>1070</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1046</v>
+        <v>1071</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
-        <v>1047</v>
+        <v>1066</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1048</v>
+        <v>1067</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
-        <v>1049</v>
+        <v>1072</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1050</v>
+        <v>1073</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
-        <v>1051</v>
+        <v>1074</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1052</v>
+        <v>1075</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
-        <v>1053</v>
+        <v>1076</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1054</v>
+        <v>1079</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1055</v>
+        <v>1077</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="1" t="s">
-        <v>1056</v>
+        <v>1081</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1057</v>
+        <v>1080</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1059</v>
+        <v>1083</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
-        <v>1060</v>
+        <v>1084</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1061</v>
+        <v>1085</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
-        <v>1062</v>
+        <v>1087</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1063</v>
+        <v>1086</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
-        <v>1064</v>
+        <v>1088</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1065</v>
+        <v>1089</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
-        <v>1066</v>
+        <v>1090</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1067</v>
+        <v>1091</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
-        <v>1068</v>
+        <v>1092</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1070</v>
+        <v>1093</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
-        <v>1071</v>
+        <v>1094</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1072</v>
+        <v>1095</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="1" t="s">
-        <v>1073</v>
+        <v>1096</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1074</v>
+        <v>1097</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="1" t="s">
-        <v>1075</v>
+        <v>1098</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1076</v>
+        <v>1099</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="1" t="s">
-        <v>1077</v>
+        <v>1100</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1078</v>
+        <v>1101</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="1" t="s">
-        <v>1073</v>
+        <v>1102</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1074</v>
+        <v>1103</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="1" t="s">
-        <v>1079</v>
+        <v>1104</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1080</v>
+        <v>1105</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="1" t="s">
-        <v>1081</v>
+        <v>1106</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1082</v>
+        <v>1107</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="1" t="s">
-        <v>1083</v>
+        <v>1108</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1086</v>
+        <v>1109</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="1" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1084</v>
+        <v>1111</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="1" t="s">
-        <v>1088</v>
+        <v>1112</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1087</v>
+        <v>1113</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="1" t="s">
-        <v>1089</v>
+        <v>1114</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1090</v>
+        <v>1115</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="1" t="s">
-        <v>1091</v>
+        <v>1116</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1092</v>
+        <v>1117</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="1" t="s">
-        <v>1094</v>
+        <v>1118</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1093</v>
+        <v>1119</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="547" spans="1:3">
-      <c r="A547" s="1" t="s">
-        <v>1095</v>
+      <c r="A547" s="4" t="s">
+        <v>1120</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>1096</v>
+        <v>1121</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="1" t="s">
-        <v>1097</v>
+        <v>1122</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C548" s="1" t="s">
-        <v>5</v>
+        <v>1123</v>
+      </c>
+      <c r="C548" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="1" t="s">
-        <v>1099</v>
+        <v>1124</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>1100</v>
+        <v>1125</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550" s="1" t="s">
-        <v>1101</v>
+        <v>1126</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1102</v>
+        <v>1127</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="1" t="s">
-        <v>1103</v>
+        <v>1128</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>1104</v>
+        <v>1129</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="1" t="s">
-        <v>1105</v>
+        <v>1130</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1106</v>
+        <v>1131</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="553" spans="1:3">
       <c r="A553" s="1" t="s">
-        <v>1107</v>
+        <v>1132</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>1108</v>
+        <v>1133</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="554" spans="1:3">
       <c r="A554" s="1" t="s">
-        <v>1109</v>
+        <v>1134</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1110</v>
+        <v>1135</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="1" t="s">
-        <v>1111</v>
+        <v>1136</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1112</v>
+        <v>1137</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" s="1" t="s">
-        <v>1113</v>
+        <v>1138</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1114</v>
+        <v>1139</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:3">
       <c r="A557" s="1" t="s">
-        <v>1115</v>
+        <v>1140</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>1116</v>
+        <v>1141</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="558" spans="1:3">
       <c r="A558" s="1" t="s">
-        <v>1117</v>
+        <v>1142</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1118</v>
+        <v>1143</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="559" spans="1:3">
       <c r="A559" s="1" t="s">
-        <v>1119</v>
+        <v>1144</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1120</v>
+        <v>1145</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="560" spans="1:3">
-      <c r="A560" s="1" t="s">
-        <v>1121</v>
+      <c r="A560" s="4" t="s">
+        <v>1146</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1122</v>
+        <v>1147</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="561" spans="1:3">
       <c r="A561" s="1" t="s">
-        <v>1123</v>
+        <v>1148</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>1124</v>
+        <v>1149</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562" spans="1:3">
       <c r="A562" s="1" t="s">
-        <v>1125</v>
+        <v>1150</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1126</v>
+        <v>1151</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="563" spans="1:3">
-      <c r="A563" s="4" t="s">
-        <v>1127</v>
+      <c r="A563" s="1" t="s">
+        <v>1152</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>1128</v>
+        <v>1153</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564" spans="1:3">
       <c r="A564" s="1" t="s">
-        <v>1129</v>
+        <v>1154</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C564" s="4" t="s">
-        <v>5</v>
+        <v>1155</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="565" spans="1:3">
       <c r="A565" s="1" t="s">
-        <v>1131</v>
+        <v>1156</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>1132</v>
+        <v>1157</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566" spans="1:3">
       <c r="A566" s="1" t="s">
-        <v>1133</v>
+        <v>1159</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1134</v>
+        <v>1158</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567" spans="1:3">
-      <c r="A567" s="1" t="s">
-        <v>1135</v>
+      <c r="A567" s="4" t="s">
+        <v>1160</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>1136</v>
+        <v>1161</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="568" spans="1:3">
       <c r="A568" s="1" t="s">
-        <v>1137</v>
+        <v>1162</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>1138</v>
+        <v>1163</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="569" spans="1:3">
-      <c r="A569" s="1" t="s">
-        <v>1139</v>
+      <c r="A569" s="4" t="s">
+        <v>1164</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>1140</v>
+        <v>1165</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="570" spans="1:3">
-      <c r="A570" s="1" t="s">
-        <v>1141</v>
+      <c r="A570" s="4" t="s">
+        <v>1166</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1142</v>
+        <v>1167</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="571" spans="1:3">
-      <c r="A571" s="1" t="s">
-        <v>1143</v>
+      <c r="A571" s="4" t="s">
+        <v>1168</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>1144</v>
+        <v>1169</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="572" spans="1:3">
       <c r="A572" s="1" t="s">
-        <v>1145</v>
+        <v>1170</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1146</v>
+        <v>1171</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="573" spans="1:3">
-      <c r="A573" s="1" t="s">
-        <v>1147</v>
+      <c r="A573" s="4" t="s">
+        <v>1172</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>1148</v>
+        <v>1173</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="574" spans="1:3">
       <c r="A574" s="1" t="s">
-        <v>1149</v>
+        <v>1174</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1150</v>
+        <v>1175</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="575" spans="1:3">
       <c r="A575" s="1" t="s">
-        <v>1151</v>
+        <v>1176</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>1152</v>
+        <v>1177</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="576" spans="1:3">
-      <c r="A576" s="4" t="s">
-        <v>1153</v>
+      <c r="A576" s="1" t="s">
+        <v>1178</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1154</v>
+        <v>1179</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="577" spans="1:3">
-      <c r="A577" s="1" t="s">
-        <v>1155</v>
+      <c r="A577" s="4" t="s">
+        <v>1181</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>1156</v>
+        <v>1180</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="578" spans="1:3">
       <c r="A578" s="1" t="s">
-        <v>1157</v>
+        <v>1182</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1158</v>
+        <v>1183</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="579" spans="1:3">
       <c r="A579" s="1" t="s">
-        <v>1159</v>
+        <v>1184</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>1160</v>
+        <v>1185</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580" spans="1:3">
-      <c r="A580" s="1" t="s">
-        <v>1161</v>
+      <c r="A580" s="4" t="s">
+        <v>1186</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1162</v>
+        <v>1187</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="581" spans="1:3">
-      <c r="A581" s="1" t="s">
-        <v>1163</v>
+      <c r="A581" s="4" t="s">
+        <v>1191</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>1164</v>
+        <v>1190</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" s="1" t="s">
-        <v>1166</v>
+        <v>1192</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>1165</v>
+        <v>1193</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3">
-      <c r="A583" s="4" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B583" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C583" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3">
-      <c r="A584" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B584" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C584" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3">
-      <c r="A585" s="4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B585" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C585" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3">
-      <c r="A586" s="4" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B586" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C586" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3">
-      <c r="A587" s="4" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B587" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C587" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3">
-      <c r="A588" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B588" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C588" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3">
-      <c r="A589" s="4" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B589" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C589" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3">
-      <c r="A590" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B590" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C590" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3">
-      <c r="A591" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B591" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C591" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3">
-      <c r="A592" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B592" s="1" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2">
-      <c r="A593" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C598"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="67.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B593" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2">
-      <c r="A594" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="B594" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2">
-      <c r="A595" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B595" s="1" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2">
-      <c r="A596" s="4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B596" s="1" t="s">
-        <v>1194</v>
-      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" s="3"/>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="4"/>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="C564" s="4"/>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="4"/>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="4"/>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" s="4"/>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" s="4"/>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" s="4"/>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="4"/>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" s="4"/>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="4"/>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="media" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1279">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,9 +361,6 @@
   </si>
   <si>
     <t>Django Unchained</t>
-  </si>
-  <si>
-    <t>Do Comeco Ao Fim</t>
   </si>
   <si>
     <t>Dog Tags</t>
@@ -3646,6 +3643,261 @@
   </si>
   <si>
     <t>Dangal </t>
+  </si>
+  <si>
+    <t>Close-Knit</t>
+  </si>
+  <si>
+    <t>tt5633706</t>
+  </si>
+  <si>
+    <t>Ferdinand</t>
+  </si>
+  <si>
+    <t>tt3411444</t>
+  </si>
+  <si>
+    <t>Love of Siam</t>
+  </si>
+  <si>
+    <t>tt1152282</t>
+  </si>
+  <si>
+    <t>Yes or No</t>
+  </si>
+  <si>
+    <t>tt1906518</t>
+  </si>
+  <si>
+    <t>Addicted </t>
+  </si>
+  <si>
+    <t>tt5975822</t>
+  </si>
+  <si>
+    <t>Being 17</t>
+  </si>
+  <si>
+    <t>tt4331970</t>
+  </si>
+  <si>
+    <t>Gone, But Not Forgotten</t>
+  </si>
+  <si>
+    <t>tt0375782</t>
+  </si>
+  <si>
+    <t>tt1883160</t>
+  </si>
+  <si>
+    <t>The Visitor</t>
+  </si>
+  <si>
+    <t>tt1796406</t>
+  </si>
+  <si>
+    <t>Absent </t>
+  </si>
+  <si>
+    <t>tt4501244</t>
+  </si>
+  <si>
+    <t>tt2240764</t>
+  </si>
+  <si>
+    <t>Bad Boy Street</t>
+  </si>
+  <si>
+    <t>Why Him?</t>
+  </si>
+  <si>
+    <t>tt3026824</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>tt1028532</t>
+  </si>
+  <si>
+    <t>Hachi: A Dog's Tale</t>
+  </si>
+  <si>
+    <t>tt0111161</t>
+  </si>
+  <si>
+    <t>The Shawshank Redemption</t>
+  </si>
+  <si>
+    <t>tt0113497</t>
+  </si>
+  <si>
+    <t>Jumanji</t>
+  </si>
+  <si>
+    <t>tt0416236</t>
+  </si>
+  <si>
+    <t>The Spiderwick Chronicles</t>
+  </si>
+  <si>
+    <t>tt3300442</t>
+  </si>
+  <si>
+    <t>Paternity Leave</t>
+  </si>
+  <si>
+    <t>tt0118971</t>
+  </si>
+  <si>
+    <t>The Devil's Advocate</t>
+  </si>
+  <si>
+    <t>tt1210819</t>
+  </si>
+  <si>
+    <t>The Lone Ranger</t>
+  </si>
+  <si>
+    <t>tt1208717</t>
+  </si>
+  <si>
+    <t>Hormones</t>
+  </si>
+  <si>
+    <t>tt1833845</t>
+  </si>
+  <si>
+    <t>Eating Out: Drama Camp</t>
+  </si>
+  <si>
+    <t>tt0399040</t>
+  </si>
+  <si>
+    <t>My Girl</t>
+  </si>
+  <si>
+    <t>tt1472059</t>
+  </si>
+  <si>
+    <t>Eating Out: All You Can Eat</t>
+  </si>
+  <si>
+    <t>tt1833846</t>
+  </si>
+  <si>
+    <t>Eating Out: The Open Weekend</t>
+  </si>
+  <si>
+    <t>tt2404645</t>
+  </si>
+  <si>
+    <t>The Men Next Door</t>
+  </si>
+  <si>
+    <t>tt1859438</t>
+  </si>
+  <si>
+    <t>A Little Thing Called Love</t>
+  </si>
+  <si>
+    <t>tt2801746</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>tt0870089</t>
+  </si>
+  <si>
+    <t>tt1943765</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>tt0167260</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Return of the King</t>
+  </si>
+  <si>
+    <t>tt0120737</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Fellowship of the Ring</t>
+  </si>
+  <si>
+    <t>tt0433035</t>
+  </si>
+  <si>
+    <t>Real Steel</t>
+  </si>
+  <si>
+    <t>tt0110357</t>
+  </si>
+  <si>
+    <t>The Lion King</t>
+  </si>
+  <si>
+    <t>tt1155056</t>
+  </si>
+  <si>
+    <t>I Love You, Man</t>
+  </si>
+  <si>
+    <t>tt1659337</t>
+  </si>
+  <si>
+    <t>The Perks of Being a Wallflower</t>
+  </si>
+  <si>
+    <t>tt0986264</t>
+  </si>
+  <si>
+    <t>Like Stars on Earth</t>
+  </si>
+  <si>
+    <t>tt0482571</t>
+  </si>
+  <si>
+    <t>The Prestige</t>
+  </si>
+  <si>
+    <t>tt1675434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intouchables </t>
+  </si>
+  <si>
+    <t>Léon</t>
+  </si>
+  <si>
+    <t>tt0110413</t>
+  </si>
+  <si>
+    <t>a vita è bella</t>
+  </si>
+  <si>
+    <t>tt0118799</t>
+  </si>
+  <si>
+    <t>tt0317248</t>
+  </si>
+  <si>
+    <t>Cidade de Deus</t>
+  </si>
+  <si>
+    <t>tt0167261</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Two Towers</t>
+  </si>
+  <si>
+    <t>tt0102926</t>
+  </si>
+  <si>
+    <t>The Silence of the Lambs</t>
   </si>
 </sst>
 </file>
@@ -3721,9 +3973,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:C1048559" totalsRowShown="0">
-  <sortState ref="A2:C485">
-    <sortCondition ref="A1:A1048559"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:C1048476" totalsRowShown="0">
+  <sortState ref="A2:C419">
+    <sortCondition ref="A1:A1048476"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Title"/>
@@ -3735,9 +3987,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C1048576" totalsRowShown="0">
-  <sortState ref="A2:C501">
-    <sortCondition ref="A1:A1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C1048575" totalsRowShown="0">
+  <sortState ref="A2:C500">
+    <sortCondition ref="A1:A1048575"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Title"/>
@@ -4069,10 +4321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C582"/>
+  <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="A499" workbookViewId="0">
+      <selection activeCell="C511" sqref="C511:C522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4097,10 +4349,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>777</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -4141,10 +4393,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -4174,10 +4426,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -4185,10 +4437,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -4240,10 +4492,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>935</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -4251,10 +4503,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>941</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -4284,10 +4536,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -4295,10 +4547,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -4339,10 +4591,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -4350,10 +4602,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -4361,21 +4613,21 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>756</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>757</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>36</v>
+      <c r="A27" s="4" t="s">
+        <v>664</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>665</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -4383,21 +4635,21 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>665</v>
+        <v>949</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>666</v>
+        <v>950</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>950</v>
+      <c r="A29" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>951</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -4405,10 +4657,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>935</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>938</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -4416,32 +4668,32 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>936</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>939</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>616</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>617</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>617</v>
+        <v>793</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>618</v>
+        <v>794</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -4449,10 +4701,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>794</v>
+        <v>989</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>795</v>
+        <v>990</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -4460,10 +4712,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>990</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>991</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -4471,10 +4723,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>660</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>661</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -4482,10 +4734,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>661</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>662</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -4493,10 +4745,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -4504,10 +4756,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -4515,10 +4767,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>931</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>932</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -4526,10 +4778,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>932</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>933</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -4537,10 +4789,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -4548,10 +4800,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -4559,10 +4811,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>753</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>54</v>
+        <v>754</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -4570,10 +4822,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>754</v>
+        <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>755</v>
+        <v>56</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -4581,10 +4833,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>951</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>56</v>
+        <v>952</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -4592,10 +4844,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>952</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>953</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -4603,10 +4855,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>809</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>58</v>
+        <v>810</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -4614,10 +4866,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>810</v>
+        <v>854</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>811</v>
+        <v>855</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -4625,10 +4877,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>855</v>
+        <v>59</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>856</v>
+        <v>60</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -4636,10 +4888,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -4647,10 +4899,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -4658,10 +4910,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -4669,10 +4921,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
@@ -4680,32 +4932,32 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>624</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>68</v>
+        <v>625</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>625</v>
+      <c r="A56" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>626</v>
+        <v>70</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="4" t="s">
-        <v>69</v>
+      <c r="A57" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>70</v>
+        <v>631</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
@@ -4713,10 +4965,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>631</v>
+        <v>73</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>632</v>
+        <v>74</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
@@ -4724,21 +4976,21 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>75</v>
+      <c r="A60" s="4" t="s">
+        <v>644</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>645</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
@@ -4746,21 +4998,21 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
-        <v>645</v>
+        <v>79</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>646</v>
+        <v>80</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="4" t="s">
-        <v>79</v>
+      <c r="A62" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>4</v>
@@ -4768,32 +5020,32 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>841</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>84</v>
+        <v>842</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>4</v>
+        <v>844</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>842</v>
+        <v>880</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>843</v>
+        <v>881</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>845</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>881</v>
+        <v>85</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>882</v>
+        <v>86</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>4</v>
@@ -4801,10 +5053,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
@@ -4812,10 +5064,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>4</v>
@@ -4823,10 +5075,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>89</v>
+        <v>650</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>90</v>
+        <v>654</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
@@ -4834,10 +5086,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>651</v>
+        <v>91</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>655</v>
+        <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>4</v>
@@ -4845,10 +5097,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
@@ -4856,10 +5108,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>4</v>
@@ -4867,10 +5119,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>98</v>
+        <v>743</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>99</v>
+        <v>744</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
@@ -4878,32 +5130,32 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>744</v>
+        <v>618</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>745</v>
+        <v>619</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
-        <v>619</v>
+      <c r="A74" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>620</v>
+        <v>926</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="4" t="s">
-        <v>1194</v>
+      <c r="A75" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>927</v>
+        <v>120</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>4</v>
@@ -4911,7 +5163,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>121</v>
@@ -4922,7 +5174,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>122</v>
@@ -4933,7 +5185,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>123</v>
@@ -4944,7 +5196,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>124</v>
@@ -4955,7 +5207,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>125</v>
@@ -4966,10 +5218,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>107</v>
+        <v>777</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>126</v>
+        <v>778</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>4</v>
@@ -4977,10 +5229,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>778</v>
+        <v>813</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>779</v>
+        <v>815</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
@@ -4988,10 +5240,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>814</v>
+        <v>109</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>816</v>
+        <v>127</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>4</v>
@@ -4999,7 +5251,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>128</v>
@@ -5010,10 +5262,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>110</v>
+        <v>737</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>129</v>
+        <v>738</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>4</v>
@@ -5021,10 +5273,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>738</v>
+        <v>111</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>739</v>
+        <v>129</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>4</v>
@@ -5032,7 +5284,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>130</v>
@@ -5043,7 +5295,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>131</v>
@@ -5054,10 +5306,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>4</v>
@@ -5087,10 +5339,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>118</v>
+        <v>902</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>137</v>
+        <v>903</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>4</v>
@@ -5098,10 +5350,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>903</v>
+        <v>118</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>904</v>
+        <v>137</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>4</v>
@@ -5109,10 +5361,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>747</v>
+        <v>119</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>746</v>
+        <v>138</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
@@ -5120,10 +5372,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>119</v>
+        <v>651</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>138</v>
+        <v>655</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>4</v>
@@ -5131,10 +5383,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>139</v>
+        <v>371</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>4</v>
@@ -5142,10 +5394,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>652</v>
+        <v>147</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>656</v>
+        <v>372</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>4</v>
@@ -5153,10 +5405,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>147</v>
+        <v>789</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>372</v>
+        <v>790</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>4</v>
@@ -5164,10 +5416,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>4</v>
@@ -5175,10 +5427,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>790</v>
+        <v>151</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>791</v>
+        <v>376</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>4</v>
@@ -5186,10 +5438,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>4</v>
@@ -5197,10 +5449,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>4</v>
@@ -5208,10 +5460,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>153</v>
+        <v>973</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>378</v>
+        <v>974</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>4</v>
@@ -5230,10 +5482,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>974</v>
+        <v>155</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>975</v>
+        <v>380</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>4</v>
@@ -5241,10 +5493,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>4</v>
@@ -5252,10 +5504,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>156</v>
+        <v>936</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>381</v>
+        <v>937</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>4</v>
@@ -5274,10 +5526,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>937</v>
+        <v>698</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>938</v>
+        <v>699</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>4</v>
@@ -5285,10 +5537,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>158</v>
+        <v>888</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>383</v>
+        <v>889</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>4</v>
@@ -5296,10 +5548,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>867</v>
+        <v>608</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>868</v>
+        <v>609</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>4</v>
@@ -5307,10 +5559,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>699</v>
+        <v>158</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>700</v>
+        <v>383</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>4</v>
@@ -5318,10 +5570,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>889</v>
+        <v>161</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>890</v>
+        <v>385</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>4</v>
@@ -5329,10 +5581,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>976</v>
+        <v>162</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>977</v>
+        <v>386</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>4</v>
@@ -5340,21 +5592,21 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>609</v>
+        <v>163</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>610</v>
+        <v>387</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>4</v>
@@ -5362,10 +5614,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>4</v>
@@ -5373,10 +5625,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>161</v>
+        <v>858</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>133</v>
+        <v>859</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>4</v>
@@ -5384,10 +5636,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>162</v>
+        <v>876</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>386</v>
+        <v>877</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>4</v>
@@ -5395,10 +5647,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>163</v>
+        <v>785</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>387</v>
+        <v>786</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>4</v>
@@ -5406,21 +5658,21 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>4</v>
@@ -5428,10 +5680,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>166</v>
+        <v>600</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>390</v>
+        <v>601</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>4</v>
@@ -5439,10 +5691,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>978</v>
+        <v>168</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>979</v>
+        <v>392</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>4</v>
@@ -5450,10 +5702,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>167</v>
+        <v>914</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>391</v>
+        <v>915</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>4</v>
@@ -5461,10 +5713,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>859</v>
+        <v>171</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>860</v>
+        <v>395</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>4</v>
@@ -5472,10 +5724,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>877</v>
+        <v>172</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>878</v>
+        <v>396</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>4</v>
@@ -5483,10 +5735,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>4</v>
@@ -5494,10 +5746,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>168</v>
+        <v>632</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>392</v>
+        <v>633</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>4</v>
@@ -5505,10 +5757,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>4</v>
@@ -5516,10 +5768,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>601</v>
+        <v>179</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>602</v>
+        <v>403</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>4</v>
@@ -5527,10 +5779,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>4</v>
@@ -5538,10 +5790,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>4</v>
@@ -5549,10 +5801,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>915</v>
+        <v>178</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>916</v>
+        <v>402</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>4</v>
@@ -5560,10 +5812,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>4</v>
@@ -5571,10 +5823,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>4</v>
@@ -5582,10 +5834,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>806</v>
+        <v>173</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>807</v>
+        <v>397</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>4</v>
@@ -5593,10 +5845,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>633</v>
+        <v>181</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>634</v>
+        <v>405</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>4</v>
@@ -5604,10 +5856,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>4</v>
@@ -5615,10 +5867,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>4</v>
@@ -5626,10 +5878,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>181</v>
+        <v>927</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>405</v>
+        <v>928</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>4</v>
@@ -5637,10 +5889,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>177</v>
+        <v>924</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>401</v>
+        <v>925</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>4</v>
@@ -5648,10 +5900,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>4</v>
@@ -5659,10 +5911,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>178</v>
+        <v>759</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>402</v>
+        <v>760</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>4</v>
@@ -5670,21 +5922,21 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>176</v>
+        <v>724</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>400</v>
+        <v>725</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>4</v>
@@ -5692,10 +5944,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>970</v>
+        <v>186</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>971</v>
+        <v>410</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>4</v>
@@ -5703,10 +5955,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>4</v>
@@ -5714,10 +5966,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>4</v>
@@ -5725,10 +5977,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>184</v>
+        <v>771</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>408</v>
+        <v>772</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>4</v>
@@ -5736,10 +5988,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>928</v>
+        <v>189</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>929</v>
+        <v>413</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>4</v>
@@ -5747,10 +5999,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>925</v>
+        <v>190</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>926</v>
+        <v>414</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>4</v>
@@ -5758,10 +6010,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>185</v>
+        <v>872</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>409</v>
+        <v>873</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>4</v>
@@ -5769,10 +6021,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>760</v>
+        <v>864</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>761</v>
+        <v>865</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>4</v>
@@ -5780,10 +6032,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>697</v>
+        <v>817</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>698</v>
+        <v>818</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>4</v>
@@ -5791,21 +6043,21 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>725</v>
+        <v>192</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>726</v>
+        <v>416</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>186</v>
+        <v>947</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>410</v>
+        <v>948</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>4</v>
@@ -5813,10 +6065,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>187</v>
+        <v>868</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>411</v>
+        <v>869</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>4</v>
@@ -5824,10 +6076,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>188</v>
+        <v>594</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>412</v>
+        <v>595</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>4</v>
@@ -5835,10 +6087,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>4</v>
@@ -5846,10 +6098,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>772</v>
+        <v>860</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>773</v>
+        <v>861</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>4</v>
@@ -5857,10 +6109,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>190</v>
+        <v>920</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>414</v>
+        <v>921</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>4</v>
@@ -5868,10 +6120,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>4</v>
@@ -5879,10 +6131,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>873</v>
+        <v>196</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>874</v>
+        <v>420</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>4</v>
@@ -5890,10 +6142,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>865</v>
+        <v>197</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>866</v>
+        <v>421</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>4</v>
@@ -5901,10 +6153,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>4</v>
@@ -5912,10 +6164,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>818</v>
+        <v>199</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>819</v>
+        <v>423</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>4</v>
@@ -5923,10 +6175,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>4</v>
@@ -5934,10 +6186,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>948</v>
+        <v>202</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>949</v>
+        <v>426</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>4</v>
@@ -5945,10 +6197,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>869</v>
+        <v>658</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>870</v>
+        <v>659</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>4</v>
@@ -5956,10 +6208,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>4</v>
@@ -5967,10 +6219,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>603</v>
+        <v>205</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>604</v>
+        <v>429</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>4</v>
@@ -5978,10 +6230,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>595</v>
+        <v>206</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>596</v>
+        <v>430</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>4</v>
@@ -5989,10 +6241,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>4</v>
@@ -6000,10 +6252,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>861</v>
+        <v>208</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>862</v>
+        <v>432</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>4</v>
@@ -6011,10 +6263,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>921</v>
+        <v>209</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>922</v>
+        <v>433</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>4</v>
@@ -6022,10 +6274,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>4</v>
@@ -6033,10 +6285,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>4</v>
@@ -6044,10 +6296,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>4</v>
@@ -6055,10 +6307,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>4</v>
@@ -6066,10 +6318,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>4</v>
@@ -6077,10 +6329,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>201</v>
+        <v>845</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>425</v>
+        <v>843</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>4</v>
@@ -6088,10 +6340,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>202</v>
+        <v>646</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>4</v>
@@ -6099,10 +6351,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>203</v>
+        <v>767</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>427</v>
+        <v>768</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>4</v>
@@ -6110,10 +6362,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>659</v>
+        <v>894</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>660</v>
+        <v>895</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>4</v>
@@ -6121,10 +6373,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>205</v>
+        <v>678</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>429</v>
+        <v>679</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>4</v>
@@ -6132,10 +6384,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>204</v>
+        <v>930</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>428</v>
+        <v>929</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>4</v>
@@ -6143,10 +6395,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>206</v>
+        <v>997</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>430</v>
+        <v>998</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>4</v>
@@ -6154,10 +6406,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>207</v>
+        <v>688</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>431</v>
+        <v>689</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>4</v>
@@ -6165,10 +6417,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>208</v>
+        <v>620</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>432</v>
+        <v>621</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>4</v>
@@ -6176,10 +6428,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>4</v>
@@ -6187,10 +6439,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>4</v>
@@ -6198,10 +6450,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>210</v>
+        <v>945</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>434</v>
+        <v>946</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>4</v>
@@ -6209,10 +6461,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>211</v>
+        <v>878</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>435</v>
+        <v>879</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>4</v>
@@ -6220,10 +6472,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>4</v>
@@ -6231,10 +6483,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>4</v>
@@ -6242,10 +6494,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>4</v>
@@ -6253,10 +6505,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>849</v>
+        <v>223</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>850</v>
+        <v>447</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>4</v>
@@ -6264,10 +6516,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>887</v>
+        <v>224</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>888</v>
+        <v>448</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>4</v>
@@ -6275,10 +6527,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>4</v>
@@ -6286,10 +6538,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>846</v>
+        <v>227</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>844</v>
+        <v>451</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>4</v>
@@ -6297,10 +6549,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>648</v>
+        <v>228</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>4</v>
@@ -6308,10 +6560,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>768</v>
+        <v>229</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>769</v>
+        <v>453</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>4</v>
@@ -6319,10 +6571,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>895</v>
+        <v>692</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>896</v>
+        <v>693</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>4</v>
@@ -6330,10 +6582,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>679</v>
+        <v>910</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>680</v>
+        <v>911</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>4</v>
@@ -6341,10 +6593,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>931</v>
+        <v>837</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>930</v>
+        <v>838</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>4</v>
@@ -6352,10 +6604,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>998</v>
+        <v>700</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>999</v>
+        <v>701</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>4</v>
@@ -6363,10 +6615,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>752</v>
+        <v>230</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>753</v>
+        <v>454</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>4</v>
@@ -6374,10 +6626,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>689</v>
+        <v>232</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>690</v>
+        <v>456</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>4</v>
@@ -6385,10 +6637,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>4</v>
@@ -6396,10 +6648,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>621</v>
+        <v>749</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>622</v>
+        <v>750</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>4</v>
@@ -6407,10 +6659,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>217</v>
+        <v>852</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>441</v>
+        <v>853</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>4</v>
@@ -6418,10 +6670,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>4</v>
@@ -6429,10 +6681,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>219</v>
+        <v>883</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>443</v>
+        <v>884</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>4</v>
@@ -6440,10 +6692,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>985</v>
+        <v>235</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>986</v>
+        <v>459</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>4</v>
@@ -6451,10 +6703,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>946</v>
+        <v>801</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>947</v>
+        <v>802</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>4</v>
@@ -6462,10 +6714,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>883</v>
+        <v>905</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>4</v>
@@ -6473,10 +6725,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>879</v>
+        <v>236</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>880</v>
+        <v>460</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>4</v>
@@ -6484,10 +6736,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>984</v>
+        <v>666</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>987</v>
+        <v>667</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>4</v>
@@ -6495,21 +6747,21 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>799</v>
+        <v>634</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>800</v>
+        <v>635</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>4</v>
@@ -6517,10 +6769,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>4</v>
@@ -6528,10 +6780,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>4</v>
@@ -6539,10 +6791,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>447</v>
+        <v>240</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>4</v>
@@ -6550,10 +6799,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>4</v>
@@ -6561,10 +6810,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>225</v>
+        <v>702</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>449</v>
+        <v>703</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>4</v>
@@ -6572,10 +6821,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>226</v>
+        <v>663</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>450</v>
+        <v>662</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>4</v>
@@ -6583,10 +6832,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>4</v>
@@ -6594,10 +6843,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>228</v>
+        <v>761</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>452</v>
+        <v>762</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>4</v>
@@ -6605,10 +6854,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>229</v>
+        <v>823</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>453</v>
+        <v>824</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>4</v>
@@ -6616,10 +6865,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>230</v>
+        <v>783</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>454</v>
+        <v>784</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>4</v>
@@ -6627,10 +6876,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>693</v>
+        <v>246</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>694</v>
+        <v>469</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>4</v>
@@ -6638,10 +6887,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>911</v>
+        <v>247</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>912</v>
+        <v>470</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>4</v>
@@ -6649,10 +6898,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>838</v>
+        <v>892</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>839</v>
+        <v>893</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>4</v>
@@ -6660,10 +6909,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>701</v>
+        <v>248</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>702</v>
+        <v>471</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>4</v>
@@ -6671,10 +6920,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>4</v>
@@ -6682,10 +6931,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>233</v>
+        <v>827</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>457</v>
+        <v>828</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>4</v>
@@ -6693,10 +6942,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>4</v>
@@ -6704,10 +6953,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>750</v>
+        <v>252</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>751</v>
+        <v>475</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>4</v>
@@ -6715,10 +6964,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>853</v>
+        <v>253</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>854</v>
+        <v>476</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>4</v>
@@ -6726,10 +6975,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>234</v>
+        <v>605</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>458</v>
+        <v>604</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>4</v>
@@ -6737,10 +6986,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>235</v>
+        <v>900</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>459</v>
+        <v>901</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>4</v>
@@ -6748,10 +6997,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>884</v>
+        <v>255</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>885</v>
+        <v>478</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>4</v>
@@ -6759,21 +7008,21 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>4</v>
@@ -6781,10 +7030,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>905</v>
+        <v>706</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>906</v>
+        <v>707</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>4</v>
@@ -6792,10 +7041,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>4</v>
@@ -6803,10 +7052,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>668</v>
+        <v>257</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>4</v>
@@ -6814,10 +7063,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>748</v>
+        <v>259</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>749</v>
+        <v>482</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>4</v>
@@ -6825,10 +7074,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>635</v>
+        <v>735</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>636</v>
+        <v>736</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>4</v>
@@ -6836,10 +7085,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>4</v>
@@ -6847,10 +7096,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>239</v>
+        <v>992</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>463</v>
+        <v>993</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>4</v>
@@ -6858,10 +7107,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>4</v>
@@ -6869,7 +7118,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>241</v>
+        <v>262</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>4</v>
@@ -6877,10 +7129,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>4</v>
@@ -6888,10 +7140,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>4</v>
@@ -6899,10 +7151,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>703</v>
+        <v>898</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>704</v>
+        <v>899</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>4</v>
@@ -6910,10 +7162,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>4</v>
@@ -6921,10 +7173,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>664</v>
+        <v>266</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>663</v>
+        <v>489</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>4</v>
@@ -6932,10 +7184,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>4</v>
@@ -6943,10 +7195,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>762</v>
+        <v>268</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>763</v>
+        <v>491</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>4</v>
@@ -6954,10 +7206,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>4</v>
@@ -6965,10 +7217,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>824</v>
+        <v>652</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>825</v>
+        <v>653</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>4</v>
@@ -6976,10 +7228,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>784</v>
+        <v>270</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>785</v>
+        <v>493</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>4</v>
@@ -6987,10 +7239,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>4</v>
@@ -6998,10 +7250,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>248</v>
+        <v>741</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>471</v>
+        <v>742</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>4</v>
@@ -7009,10 +7261,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>893</v>
+        <v>273</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>894</v>
+        <v>496</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>4</v>
@@ -7020,10 +7272,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>4</v>
@@ -7031,10 +7283,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>705</v>
+        <v>598</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>706</v>
+        <v>599</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>4</v>
@@ -7042,10 +7294,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>4</v>
@@ -7053,10 +7305,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>968</v>
+        <v>277</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>969</v>
+        <v>500</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>4</v>
@@ -7064,10 +7316,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>251</v>
+        <v>694</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>474</v>
+        <v>695</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>4</v>
@@ -7075,21 +7327,21 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>828</v>
+        <v>723</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>829</v>
+        <v>722</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>4</v>
@@ -7097,10 +7349,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>4</v>
@@ -7108,10 +7360,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>4</v>
@@ -7119,10 +7371,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>606</v>
+        <v>281</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>605</v>
+        <v>504</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>4</v>
@@ -7130,10 +7382,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>901</v>
+        <v>282</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>902</v>
+        <v>505</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>4</v>
@@ -7141,10 +7393,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>4</v>
@@ -7152,21 +7404,21 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>782</v>
+        <v>285</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>783</v>
+        <v>508</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>4</v>
@@ -7174,10 +7426,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
-        <v>707</v>
+        <v>286</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>708</v>
+        <v>509</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>4</v>
@@ -7185,10 +7437,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>4</v>
@@ -7196,10 +7448,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>258</v>
+        <v>733</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>481</v>
+        <v>734</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>4</v>
@@ -7207,10 +7459,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>260</v>
+        <v>874</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>483</v>
+        <v>875</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>4</v>
@@ -7218,10 +7470,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>4</v>
@@ -7229,10 +7481,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>4</v>
@@ -7240,10 +7492,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>993</v>
+        <v>649</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>994</v>
+        <v>656</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>4</v>
@@ -7251,10 +7503,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>4</v>
@@ -7262,10 +7514,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>259</v>
+        <v>963</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>482</v>
+        <v>964</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>4</v>
@@ -7273,10 +7525,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>4</v>
@@ -7284,10 +7536,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>4</v>
@@ -7295,10 +7547,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
-        <v>265</v>
+        <v>912</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>488</v>
+        <v>913</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>4</v>
@@ -7306,10 +7558,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
-        <v>709</v>
+        <v>294</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>710</v>
+        <v>517</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>4</v>
@@ -7317,10 +7569,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>899</v>
+        <v>870</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>900</v>
+        <v>871</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>4</v>
@@ -7328,10 +7580,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
-        <v>266</v>
+        <v>676</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>489</v>
+        <v>677</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>4</v>
@@ -7339,10 +7591,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
-        <v>267</v>
+        <v>957</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>490</v>
+        <v>958</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>4</v>
@@ -7350,10 +7602,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>4</v>
@@ -7361,10 +7613,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>269</v>
+        <v>906</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>492</v>
+        <v>907</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>4</v>
@@ -7372,10 +7624,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>4</v>
@@ -7383,10 +7635,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>966</v>
+        <v>297</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>967</v>
+        <v>520</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>4</v>
@@ -7394,10 +7646,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>982</v>
+        <v>896</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>983</v>
+        <v>897</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>4</v>
@@ -7405,10 +7657,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>653</v>
+        <v>829</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>654</v>
+        <v>830</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>4</v>
@@ -7416,10 +7668,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>271</v>
+        <v>862</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>494</v>
+        <v>863</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>4</v>
@@ -7427,10 +7679,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>495</v>
+        <v>298</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>4</v>
@@ -7438,10 +7687,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>4</v>
@@ -7449,10 +7698,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
-        <v>742</v>
+        <v>300</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>743</v>
+        <v>522</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>4</v>
@@ -7460,10 +7709,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>4</v>
@@ -7471,10 +7720,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
-        <v>275</v>
+        <v>839</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>498</v>
+        <v>840</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>4</v>
@@ -7482,10 +7731,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
-        <v>599</v>
+        <v>302</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>600</v>
+        <v>524</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>4</v>
@@ -7493,32 +7742,32 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
-        <v>798</v>
+        <v>622</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>801</v>
+        <v>623</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
-        <v>276</v>
+        <v>636</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>499</v>
+        <v>637</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
-        <v>277</v>
+        <v>674</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>500</v>
+        <v>675</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>4</v>
@@ -7526,10 +7775,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
-        <v>278</v>
+        <v>668</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>501</v>
+        <v>669</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>4</v>
@@ -7537,10 +7786,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>741</v>
+        <v>303</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>4</v>
@@ -7548,10 +7797,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>695</v>
+        <v>304</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>696</v>
+        <v>526</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>4</v>
@@ -7559,21 +7808,21 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>724</v>
+        <v>811</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>723</v>
+        <v>812</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>4</v>
@@ -7581,10 +7830,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>280</v>
+        <v>684</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>503</v>
+        <v>685</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>4</v>
@@ -7592,10 +7841,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>4</v>
@@ -7603,10 +7852,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>980</v>
+        <v>890</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>981</v>
+        <v>891</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>4</v>
@@ -7614,21 +7863,21 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>4</v>
@@ -7636,10 +7885,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>4</v>
@@ -7647,10 +7896,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>960</v>
+        <v>791</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>961</v>
+        <v>792</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>4</v>
@@ -7658,10 +7907,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>4</v>
@@ -7669,10 +7918,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>286</v>
+        <v>615</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>509</v>
+        <v>612</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>4</v>
@@ -7680,10 +7929,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>287</v>
+        <v>610</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>510</v>
+        <v>611</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>4</v>
@@ -7691,10 +7940,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>288</v>
+        <v>613</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>511</v>
+        <v>614</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>4</v>
@@ -7702,10 +7951,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>770</v>
+        <v>311</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>771</v>
+        <v>533</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>4</v>
@@ -7713,10 +7962,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>4</v>
@@ -7724,10 +7973,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>734</v>
+        <v>313</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>735</v>
+        <v>535</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>4</v>
@@ -7735,10 +7984,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>875</v>
+        <v>833</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>876</v>
+        <v>834</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>4</v>
@@ -7746,10 +7995,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>732</v>
+        <v>917</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>733</v>
+        <v>919</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>4</v>
@@ -7757,21 +8006,21 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>290</v>
+        <v>726</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>513</v>
+        <v>721</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>650</v>
+        <v>765</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>4</v>
@@ -7779,10 +8028,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>945</v>
+        <v>314</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>944</v>
+        <v>536</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>4</v>
@@ -7790,10 +8039,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>4</v>
@@ -7801,10 +8050,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>4</v>
@@ -7812,10 +8061,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>964</v>
+        <v>317</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>965</v>
+        <v>539</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>4</v>
@@ -7823,10 +8072,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>4</v>
@@ -7834,10 +8083,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>711</v>
+        <v>319</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>712</v>
+        <v>541</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>4</v>
@@ -7845,21 +8094,21 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>913</v>
+        <v>321</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>914</v>
+        <v>543</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>4</v>
@@ -7867,10 +8116,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>295</v>
+        <v>807</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>518</v>
+        <v>808</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>4</v>
@@ -7878,10 +8127,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>871</v>
+        <v>638</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>872</v>
+        <v>639</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>4</v>
@@ -7889,10 +8138,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>677</v>
+        <v>322</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>678</v>
+        <v>544</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>4</v>
@@ -7900,10 +8149,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>958</v>
+        <v>922</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>959</v>
+        <v>923</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>4</v>
@@ -7911,10 +8160,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>4</v>
@@ -7922,10 +8171,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>907</v>
+        <v>325</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>908</v>
+        <v>547</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>4</v>
@@ -7933,10 +8182,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>4</v>
@@ -7944,10 +8193,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>4</v>
@@ -7955,10 +8204,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>897</v>
+        <v>328</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>898</v>
+        <v>550</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>4</v>
@@ -7966,10 +8215,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>830</v>
+        <v>329</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>831</v>
+        <v>551</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>4</v>
@@ -7977,10 +8226,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>863</v>
+        <v>330</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>864</v>
+        <v>552</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>4</v>
@@ -7988,7 +8237,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>299</v>
+        <v>331</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>4</v>
@@ -7996,10 +8248,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>300</v>
+        <v>803</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>522</v>
+        <v>804</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>4</v>
@@ -8007,10 +8259,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>4</v>
@@ -8018,10 +8270,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>302</v>
+        <v>821</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>524</v>
+        <v>822</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>4</v>
@@ -8029,10 +8281,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>840</v>
+        <v>626</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>841</v>
+        <v>627</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>4</v>
@@ -8040,10 +8292,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>4</v>
@@ -8051,10 +8303,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>623</v>
+        <v>846</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>624</v>
+        <v>847</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>4</v>
@@ -8062,10 +8314,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>637</v>
+        <v>596</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>638</v>
+        <v>597</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>4</v>
@@ -8073,10 +8325,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>675</v>
+        <v>334</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>4</v>
@@ -8084,10 +8336,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>669</v>
+        <v>335</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>670</v>
+        <v>557</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>4</v>
@@ -8095,10 +8347,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>304</v>
+        <v>718</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>4</v>
@@ -8106,10 +8358,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>305</v>
+        <v>908</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>527</v>
+        <v>909</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>4</v>
@@ -8117,10 +8369,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
-        <v>812</v>
+        <v>719</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>813</v>
+        <v>720</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>4</v>
@@ -8128,10 +8380,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
-        <v>306</v>
+        <v>795</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>528</v>
+        <v>796</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>4</v>
@@ -8139,10 +8391,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>685</v>
+        <v>779</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>686</v>
+        <v>780</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>4</v>
@@ -8150,10 +8402,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>4</v>
@@ -8161,10 +8413,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>891</v>
+        <v>835</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>892</v>
+        <v>836</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>4</v>
@@ -8172,21 +8424,21 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>713</v>
+        <v>338</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>714</v>
+        <v>561</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>4</v>
@@ -8194,21 +8446,21 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>309</v>
+        <v>642</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>531</v>
+        <v>643</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>532</v>
+        <v>563</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>4</v>
@@ -8216,10 +8468,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>792</v>
+        <v>955</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>793</v>
+        <v>956</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>4</v>
@@ -8227,10 +8479,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>4</v>
@@ -8238,10 +8490,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>616</v>
+        <v>342</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>613</v>
+        <v>565</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>4</v>
@@ -8249,10 +8501,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
-        <v>611</v>
+        <v>343</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>612</v>
+        <v>566</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>4</v>
@@ -8260,10 +8512,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
-        <v>614</v>
+        <v>344</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>615</v>
+        <v>567</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>4</v>
@@ -8271,10 +8523,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>4</v>
@@ -8282,10 +8534,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>4</v>
@@ -8293,10 +8545,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
-        <v>314</v>
+        <v>850</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>536</v>
+        <v>851</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>4</v>
@@ -8304,10 +8556,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
-        <v>834</v>
+        <v>680</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>835</v>
+        <v>681</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>4</v>
@@ -8315,10 +8567,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
-        <v>918</v>
+        <v>683</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>920</v>
+        <v>682</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>4</v>
@@ -8326,32 +8578,32 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
-        <v>727</v>
+        <v>348</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>722</v>
+        <v>571</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
-        <v>766</v>
+        <v>349</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>767</v>
+        <v>572</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>4</v>
@@ -8359,10 +8611,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
-        <v>728</v>
+        <v>672</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>729</v>
+        <v>673</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>4</v>
@@ -8370,10 +8622,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
-        <v>731</v>
+        <v>351</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>730</v>
+        <v>574</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>4</v>
@@ -8381,10 +8633,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
-        <v>316</v>
+        <v>670</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>538</v>
+        <v>671</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>4</v>
@@ -8392,10 +8644,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
-        <v>317</v>
+        <v>773</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>539</v>
+        <v>774</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>4</v>
@@ -8403,10 +8655,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>4</v>
@@ -8414,10 +8666,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>4</v>
@@ -8425,10 +8677,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>4</v>
@@ -8436,21 +8688,21 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
-        <v>322</v>
+        <v>686</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>544</v>
+        <v>687</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>4</v>
@@ -8458,10 +8710,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
-        <v>808</v>
+        <v>357</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>809</v>
+        <v>580</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>4</v>
@@ -8469,10 +8721,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
-        <v>639</v>
+        <v>358</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>640</v>
+        <v>581</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>4</v>
@@ -8480,10 +8732,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
-        <v>323</v>
+        <v>140</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>545</v>
+        <v>141</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>4</v>
@@ -8491,10 +8743,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>924</v>
+        <v>962</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>4</v>
@@ -8502,10 +8754,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>4</v>
@@ -8513,10 +8765,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
-        <v>325</v>
+        <v>606</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>547</v>
+        <v>607</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>4</v>
@@ -8524,10 +8776,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>4</v>
@@ -8535,10 +8787,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
-        <v>327</v>
+        <v>640</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>549</v>
+        <v>641</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>4</v>
@@ -8546,10 +8798,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>4</v>
@@ -8557,10 +8809,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>4</v>
@@ -8568,10 +8820,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>4</v>
@@ -8579,10 +8831,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
-        <v>331</v>
+        <v>819</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>553</v>
+        <v>820</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>4</v>
@@ -8590,10 +8842,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>4</v>
@@ -8601,10 +8853,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
-        <v>804</v>
+        <v>366</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>805</v>
+        <v>589</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>4</v>
@@ -8612,10 +8864,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>4</v>
@@ -8623,10 +8875,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>4</v>
@@ -8634,10 +8886,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
-        <v>715</v>
+        <v>370</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>716</v>
+        <v>593</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>4</v>
@@ -8645,10 +8897,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
-        <v>627</v>
+        <v>825</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>628</v>
+        <v>826</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>4</v>
@@ -8656,10 +8908,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
-        <v>334</v>
+        <v>142</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>556</v>
+        <v>143</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>4</v>
@@ -8667,10 +8919,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
-        <v>847</v>
+        <v>144</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>848</v>
+        <v>145</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>4</v>
@@ -8678,10 +8930,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>597</v>
+        <v>787</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>598</v>
+        <v>788</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>4</v>
@@ -8689,10 +8941,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>335</v>
+        <v>1002</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>557</v>
+        <v>1004</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>4</v>
@@ -8700,10 +8952,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>336</v>
+        <v>1005</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>558</v>
+        <v>1006</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>4</v>
@@ -8711,10 +8963,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>719</v>
+        <v>1009</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>559</v>
+        <v>1010</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>4</v>
@@ -8722,10 +8974,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>909</v>
+        <v>1011</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>910</v>
+        <v>1012</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>4</v>
@@ -8733,10 +8985,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>721</v>
+        <v>1013</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>1014</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>4</v>
@@ -8744,10 +8996,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>796</v>
+        <v>1015</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>797</v>
+        <v>1016</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>4</v>
@@ -8755,21 +9007,21 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>780</v>
+        <v>1017</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>781</v>
+        <v>1018</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>337</v>
+        <v>1019</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>560</v>
+        <v>1020</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>4</v>
@@ -8777,10 +9029,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>836</v>
+        <v>1021</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>837</v>
+        <v>1022</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>4</v>
@@ -8788,10 +9040,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>338</v>
+        <v>1023</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>561</v>
+        <v>1024</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>4</v>
@@ -8799,10 +9051,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>339</v>
+        <v>1025</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>562</v>
+        <v>1026</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>4</v>
@@ -8810,10 +9062,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>340</v>
+        <v>1027</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>563</v>
+        <v>1028</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>4</v>
@@ -8821,21 +9073,21 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>643</v>
+        <v>1029</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>644</v>
+        <v>1030</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>341</v>
+        <v>1031</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>564</v>
+        <v>1032</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>4</v>
@@ -8843,10 +9095,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>956</v>
+        <v>1033</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>957</v>
+        <v>1034</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>4</v>
@@ -8854,10 +9106,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>342</v>
+        <v>1035</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>565</v>
+        <v>1036</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>4</v>
@@ -8865,10 +9117,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>343</v>
+        <v>1037</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>566</v>
+        <v>1038</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>4</v>
@@ -8876,10 +9128,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>344</v>
+        <v>1039</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>567</v>
+        <v>1040</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>4</v>
@@ -8887,10 +9139,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>345</v>
+        <v>1041</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>568</v>
+        <v>1042</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>4</v>
@@ -8898,10 +9150,10 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
-        <v>346</v>
+        <v>1043</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>569</v>
+        <v>1044</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>4</v>
@@ -8909,10 +9161,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
-        <v>347</v>
+        <v>1045</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>570</v>
+        <v>1046</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>4</v>
@@ -8920,10 +9172,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
-        <v>348</v>
+        <v>1061</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>571</v>
+        <v>1047</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>4</v>
@@ -8931,10 +9183,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
-        <v>851</v>
+        <v>1048</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>852</v>
+        <v>1049</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>4</v>
@@ -8942,10 +9194,10 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
-        <v>681</v>
+        <v>1050</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>682</v>
+        <v>1051</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>4</v>
@@ -8953,10 +9205,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>684</v>
+        <v>1052</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>683</v>
+        <v>1053</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>4</v>
@@ -8964,10 +9216,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
-        <v>349</v>
+        <v>1054</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>572</v>
+        <v>1055</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>4</v>
@@ -8975,21 +9227,21 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
-        <v>350</v>
+        <v>1056</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>573</v>
+        <v>1057</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
-        <v>943</v>
+        <v>1058</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>942</v>
+        <v>1059</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>4</v>
@@ -8997,10 +9249,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
-        <v>351</v>
+        <v>1060</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>574</v>
+        <v>1062</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>4</v>
@@ -9008,10 +9260,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
-        <v>673</v>
+        <v>1063</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>674</v>
+        <v>1064</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>4</v>
@@ -9019,10 +9271,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
-        <v>815</v>
+        <v>1065</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>817</v>
+        <v>1066</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>4</v>
@@ -9030,10 +9282,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
-        <v>352</v>
+        <v>1067</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>575</v>
+        <v>1068</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>4</v>
@@ -9041,10 +9293,10 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
-        <v>671</v>
+        <v>1069</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>672</v>
+        <v>1070</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>4</v>
@@ -9052,10 +9304,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
-        <v>774</v>
+        <v>1065</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>775</v>
+        <v>1066</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>4</v>
@@ -9063,10 +9315,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
-        <v>353</v>
+        <v>1071</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>576</v>
+        <v>1072</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>4</v>
@@ -9074,10 +9326,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
-        <v>354</v>
+        <v>1073</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>577</v>
+        <v>1074</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>4</v>
@@ -9085,10 +9337,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
-        <v>717</v>
+        <v>1075</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>718</v>
+        <v>1078</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>4</v>
@@ -9096,10 +9348,10 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
-        <v>356</v>
+        <v>1081</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>579</v>
+        <v>1082</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>4</v>
@@ -9107,10 +9359,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
-        <v>355</v>
+        <v>1083</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>578</v>
+        <v>1084</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>4</v>
@@ -9118,10 +9370,10 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
-        <v>954</v>
+        <v>1086</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>955</v>
+        <v>1085</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>4</v>
@@ -9129,10 +9381,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
-        <v>357</v>
+        <v>1091</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>580</v>
+        <v>1092</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>4</v>
@@ -9140,10 +9392,10 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
-        <v>687</v>
+        <v>1097</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>688</v>
+        <v>1098</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>4</v>
@@ -9151,10 +9403,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
-        <v>358</v>
+        <v>1105</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>581</v>
+        <v>1106</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>4</v>
@@ -9162,10 +9414,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
-        <v>359</v>
+        <v>1107</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>582</v>
+        <v>1108</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>4</v>
@@ -9173,10 +9425,10 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
-        <v>141</v>
+        <v>1109</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>142</v>
+        <v>1110</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>4</v>
@@ -9184,10 +9436,10 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
-        <v>962</v>
+        <v>1111</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>963</v>
+        <v>1112</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>4</v>
@@ -9195,21 +9447,21 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
-        <v>360</v>
+        <v>1115</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>583</v>
+        <v>1116</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="467" spans="1:3">
-      <c r="A467" s="1" t="s">
-        <v>607</v>
+      <c r="A467" s="4" t="s">
+        <v>1119</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>608</v>
+        <v>1120</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>4</v>
@@ -9217,10 +9469,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
-        <v>361</v>
+        <v>1125</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>584</v>
+        <v>1126</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>4</v>
@@ -9228,10 +9480,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
-        <v>641</v>
+        <v>1127</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>642</v>
+        <v>1128</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>4</v>
@@ -9239,10 +9491,10 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
-        <v>362</v>
+        <v>1129</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>585</v>
+        <v>1130</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>4</v>
@@ -9250,10 +9502,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
-        <v>363</v>
+        <v>1131</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>586</v>
+        <v>1132</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>4</v>
@@ -9261,10 +9513,10 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
-        <v>364</v>
+        <v>1133</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>587</v>
+        <v>1134</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>4</v>
@@ -9272,10 +9524,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
-        <v>820</v>
+        <v>1135</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>821</v>
+        <v>1136</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>4</v>
@@ -9283,10 +9535,10 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
-        <v>366</v>
+        <v>1137</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>589</v>
+        <v>1138</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>4</v>
@@ -9294,10 +9546,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
-        <v>365</v>
+        <v>1139</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>588</v>
+        <v>1140</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>4</v>
@@ -9305,10 +9557,10 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
-        <v>367</v>
+        <v>1141</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>590</v>
+        <v>1142</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>4</v>
@@ -9316,10 +9568,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
-        <v>368</v>
+        <v>1143</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>591</v>
+        <v>1144</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>4</v>
@@ -9327,10 +9579,10 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
-        <v>369</v>
+        <v>1149</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>592</v>
+        <v>1150</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>4</v>
@@ -9338,10 +9590,10 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
-        <v>370</v>
+        <v>1151</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>593</v>
+        <v>1152</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>4</v>
@@ -9349,10 +9601,10 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1" t="s">
-        <v>832</v>
+        <v>1153</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>833</v>
+        <v>1154</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>4</v>
@@ -9360,10 +9612,10 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1" t="s">
-        <v>371</v>
+        <v>1155</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>594</v>
+        <v>1156</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>4</v>
@@ -9371,21 +9623,21 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
-        <v>826</v>
+        <v>1158</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>827</v>
+        <v>1157</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:3">
-      <c r="A483" s="1" t="s">
-        <v>143</v>
+      <c r="A483" s="4" t="s">
+        <v>1159</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>144</v>
+        <v>1160</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>4</v>
@@ -9393,43 +9645,43 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1" t="s">
-        <v>145</v>
+        <v>1161</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>146</v>
+        <v>1162</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="485" spans="1:3">
-      <c r="A485" s="1" t="s">
-        <v>788</v>
+      <c r="A485" s="4" t="s">
+        <v>1163</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>789</v>
+        <v>1164</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="486" spans="1:3">
-      <c r="A486" s="1" t="s">
-        <v>1000</v>
+      <c r="A486" s="4" t="s">
+        <v>1165</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1001</v>
+        <v>1166</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="487" spans="1:3">
-      <c r="A487" s="1" t="s">
-        <v>1002</v>
+      <c r="A487" s="4" t="s">
+        <v>1167</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1004</v>
+        <v>1168</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>4</v>
@@ -9437,21 +9689,21 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1" t="s">
-        <v>1003</v>
+        <v>1169</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1005</v>
+        <v>1170</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="489" spans="1:3">
-      <c r="A489" s="1" t="s">
-        <v>1006</v>
+      <c r="A489" s="4" t="s">
+        <v>1171</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1007</v>
+        <v>1172</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>4</v>
@@ -9459,10 +9711,10 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
-        <v>1008</v>
+        <v>1173</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1009</v>
+        <v>1174</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>4</v>
@@ -9470,10 +9722,10 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
-        <v>1010</v>
+        <v>1175</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1011</v>
+        <v>1176</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>4</v>
@@ -9481,21 +9733,21 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1" t="s">
-        <v>1012</v>
+        <v>1177</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1013</v>
+        <v>1178</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="493" spans="1:3">
-      <c r="A493" s="1" t="s">
-        <v>1014</v>
+      <c r="A493" s="4" t="s">
+        <v>1180</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1015</v>
+        <v>1179</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>4</v>
@@ -9503,10 +9755,10 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
-        <v>1016</v>
+        <v>1181</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1017</v>
+        <v>1182</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>4</v>
@@ -9514,32 +9766,32 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
-        <v>1018</v>
+        <v>1183</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1019</v>
+        <v>1184</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="496" spans="1:3">
-      <c r="A496" s="1" t="s">
-        <v>1020</v>
+      <c r="A496" s="4" t="s">
+        <v>1185</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1021</v>
+        <v>1186</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:3">
-      <c r="A497" s="1" t="s">
-        <v>1022</v>
+      <c r="A497" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1023</v>
+        <v>1189</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>4</v>
@@ -9547,10 +9799,10 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
-        <v>1024</v>
+        <v>1191</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1025</v>
+        <v>1192</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>4</v>
@@ -9558,32 +9810,32 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
-        <v>1026</v>
+        <v>1196</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1027</v>
+        <v>1197</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="500" spans="1:3">
-      <c r="A500" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C500" s="1" t="s">
+      <c r="A500" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C500" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
-        <v>1030</v>
+        <v>1219</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1031</v>
+        <v>1218</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>4</v>
@@ -9591,21 +9843,21 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="1" t="s">
-        <v>1032</v>
+        <v>1221</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1033</v>
+        <v>1220</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="503" spans="1:3">
-      <c r="A503" s="1" t="s">
-        <v>1034</v>
+      <c r="A503" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1035</v>
+        <v>1222</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>4</v>
@@ -9613,10 +9865,10 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>1037</v>
+        <v>1225</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>4</v>
@@ -9624,10 +9876,10 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
-        <v>1038</v>
+        <v>1229</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1039</v>
+        <v>1228</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>4</v>
@@ -9635,10 +9887,10 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="1" t="s">
-        <v>1040</v>
+        <v>1231</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1041</v>
+        <v>1230</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>4</v>
@@ -9646,10 +9898,10 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>1043</v>
+        <v>1233</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>1232</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>4</v>
@@ -9657,10 +9909,10 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
-        <v>1044</v>
+        <v>1237</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1045</v>
+        <v>1236</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>4</v>
@@ -9668,10 +9920,10 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
-        <v>1046</v>
+        <v>1245</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1047</v>
+        <v>1244</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>4</v>
@@ -9679,10 +9931,10 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
-        <v>1062</v>
+        <v>1252</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1048</v>
+        <v>1251</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>4</v>
@@ -9690,10 +9942,10 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
-        <v>1049</v>
+        <v>1254</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1050</v>
+        <v>1253</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>4</v>
@@ -9701,10 +9953,10 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
-        <v>1051</v>
+        <v>1276</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1052</v>
+        <v>1275</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>4</v>
@@ -9712,10 +9964,10 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
-        <v>1053</v>
+        <v>1256</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1054</v>
+        <v>1255</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>4</v>
@@ -9723,10 +9975,10 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="1" t="s">
-        <v>1055</v>
+        <v>1258</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1056</v>
+        <v>1257</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>4</v>
@@ -9734,10 +9986,10 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
-        <v>1057</v>
+        <v>1262</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1058</v>
+        <v>1261</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>4</v>
@@ -9745,10 +9997,10 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
-        <v>1059</v>
+        <v>1264</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1060</v>
+        <v>1263</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>4</v>
@@ -9756,43 +10008,43 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1" t="s">
-        <v>1061</v>
+        <v>1266</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1063</v>
+        <v>1265</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:3">
-      <c r="A518" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>1065</v>
+      <c r="A518" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>1267</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:3">
-      <c r="A519" s="1" t="s">
-        <v>1066</v>
+      <c r="A519" s="4" t="s">
+        <v>1269</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1067</v>
+        <v>1270</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:3">
-      <c r="A520" s="1" t="s">
-        <v>1068</v>
+      <c r="A520" s="4" t="s">
+        <v>1271</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1069</v>
+        <v>1272</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>4</v>
@@ -9800,10 +10052,10 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
-        <v>1070</v>
+        <v>1274</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1071</v>
+        <v>1273</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>4</v>
@@ -9811,672 +10063,12 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
-        <v>1066</v>
+        <v>1278</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1067</v>
+        <v>1277</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
-      <c r="A523" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
-      <c r="A524" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B525" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C525" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C526" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3">
-      <c r="A527" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C527" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3">
-      <c r="A528" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3">
-      <c r="A529" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C529" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3">
-      <c r="A530" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C530" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3">
-      <c r="A531" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3">
-      <c r="A532" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C532" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3">
-      <c r="A533" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C533" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3">
-      <c r="A534" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C534" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3">
-      <c r="A535" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C535" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3">
-      <c r="A536" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C536" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3">
-      <c r="A537" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3">
-      <c r="A538" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3">
-      <c r="A539" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3">
-      <c r="A540" s="1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B540" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C540" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3">
-      <c r="A541" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C541" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3">
-      <c r="A542" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C542" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3">
-      <c r="A543" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3">
-      <c r="A544" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3">
-      <c r="A545" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3">
-      <c r="A546" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B546" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C546" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3">
-      <c r="A547" s="4" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C547" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3">
-      <c r="A548" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C548" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3">
-      <c r="A549" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B549" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C549" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3">
-      <c r="A550" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C550" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3">
-      <c r="A551" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C551" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3">
-      <c r="A552" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C552" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3">
-      <c r="A553" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3">
-      <c r="A554" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C554" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3">
-      <c r="A555" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C555" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3">
-      <c r="A556" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C556" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3">
-      <c r="A557" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B557" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C557" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3">
-      <c r="A558" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B558" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C558" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3">
-      <c r="A559" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C559" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3">
-      <c r="A560" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B560" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C560" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3">
-      <c r="A561" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C561" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3">
-      <c r="A562" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C562" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3">
-      <c r="A563" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B563" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C563" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3">
-      <c r="A564" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B564" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C564" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3">
-      <c r="A565" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B565" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C565" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3">
-      <c r="A566" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B566" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C566" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3">
-      <c r="A567" s="4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B567" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C567" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3">
-      <c r="A568" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B568" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C568" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3">
-      <c r="A569" s="4" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B569" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C569" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3">
-      <c r="A570" s="4" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B570" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C570" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3">
-      <c r="A571" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C571" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3">
-      <c r="A572" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B572" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C572" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3">
-      <c r="A573" s="4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B573" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C573" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3">
-      <c r="A574" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B574" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C574" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3">
-      <c r="A575" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C575" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3">
-      <c r="A576" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B576" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C576" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3">
-      <c r="A577" s="4" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B577" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C577" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3">
-      <c r="A578" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B578" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C578" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3">
-      <c r="A579" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B579" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C579" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3">
-      <c r="A580" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B580" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C580" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3">
-      <c r="A581" s="4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B581" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C581" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3">
-      <c r="A582" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B582" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C582" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10491,10 +10083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C598"/>
+  <dimension ref="A1:C597"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119:C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10518,10 +10110,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1188</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1189</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -10540,10 +10132,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>997</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -10562,10 +10154,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -10628,10 +10220,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>989</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -10642,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -10661,10 +10253,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>373</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -10672,10 +10264,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>971</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>374</v>
+        <v>972</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -10683,10 +10275,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>972</v>
+        <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>973</v>
+        <v>374</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -10694,29 +10286,1154 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>866</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>375</v>
+        <v>867</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="2:2">
-      <c r="B331" s="3"/>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" s="3"/>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="4"/>
     </row>
     <row r="563" spans="1:3">
-      <c r="A563" s="4"/>
-    </row>
-    <row r="564" spans="1:3">
-      <c r="C564" s="4"/>
-    </row>
-    <row r="576" spans="1:3">
-      <c r="A576" s="4"/>
-    </row>
-    <row r="583" spans="1:1">
-      <c r="A583" s="4"/>
+      <c r="C563" s="4"/>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="4"/>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="4"/>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" s="4"/>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" s="4"/>
@@ -10724,20 +11441,17 @@
     <row r="586" spans="1:1">
       <c r="A586" s="4"/>
     </row>
-    <row r="587" spans="1:1">
-      <c r="A587" s="4"/>
-    </row>
-    <row r="589" spans="1:1">
-      <c r="A589" s="4"/>
-    </row>
-    <row r="593" spans="1:1">
-      <c r="A593" s="4"/>
-    </row>
-    <row r="596" spans="1:1">
-      <c r="A596" s="4"/>
-    </row>
-    <row r="598" spans="1:1">
-      <c r="A598" s="4"/>
+    <row r="588" spans="1:1">
+      <c r="A588" s="4"/>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" s="4"/>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="4"/>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
   </bookViews>
   <sheets>
     <sheet name="media" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1283">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3898,6 +3898,18 @@
   </si>
   <si>
     <t>The Silence of the Lambs</t>
+  </si>
+  <si>
+    <t>Paddington 2</t>
+  </si>
+  <si>
+    <t>tt4468740</t>
+  </si>
+  <si>
+    <t>Jumanji Welcome to the Jungle</t>
+  </si>
+  <si>
+    <t>tt2283362</t>
   </si>
 </sst>
 </file>
@@ -4321,10 +4333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C522"/>
+  <dimension ref="A1:C524"/>
   <sheetViews>
-    <sheetView topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="C511" sqref="C511:C522"/>
+    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="C521" sqref="C521:C523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10072,6 +10084,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10085,8 +10119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119:C120"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:XFD121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D7F3D760-9A66-4AE4-9FEB-7B84D70F134F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="media" sheetId="2" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="1295">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3911,11 +3912,47 @@
   <si>
     <t>tt2283362</t>
   </si>
+  <si>
+    <t>Annihilation</t>
+  </si>
+  <si>
+    <t>tt2798920</t>
+  </si>
+  <si>
+    <t>Game Over Man</t>
+  </si>
+  <si>
+    <t>tt3317234</t>
+  </si>
+  <si>
+    <t>I Kill Giants</t>
+  </si>
+  <si>
+    <t>tt4547194</t>
+  </si>
+  <si>
+    <t>Star Wars The Last Jedi</t>
+  </si>
+  <si>
+    <t>tt2527336</t>
+  </si>
+  <si>
+    <t>The Greatest Showman</t>
+  </si>
+  <si>
+    <t>tt1485796</t>
+  </si>
+  <si>
+    <t>The Titan</t>
+  </si>
+  <si>
+    <t>tt4986098</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -3985,28 +4022,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:C1048476" totalsRowShown="0">
-  <sortState ref="A2:C419">
-    <sortCondition ref="A1:A1048476"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table22" displayName="Table22" ref="A1:C1048475" totalsRowShown="0">
+  <sortState ref="A2:C418">
+    <sortCondition ref="A1:A1048475"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Title"/>
-    <tableColumn id="2" name="IMDB_ID"/>
-    <tableColumn id="3" name="Type"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Title"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="IMDB_ID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C1048575" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C1048575" totalsRowShown="0">
   <sortState ref="A2:C500">
     <sortCondition ref="A1:A1048575"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Title"/>
-    <tableColumn id="2" name="IMDB_ID"/>
-    <tableColumn id="3" name="Type"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Title"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="IMDB_ID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4332,11 +4369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C524"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
-      <selection activeCell="C521" sqref="C521:C523"/>
+    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
+      <selection activeCell="C523" sqref="C523:C529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4471,10 +4508,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -4482,10 +4519,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -4493,10 +4530,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>933</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>934</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -4504,10 +4541,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -4515,10 +4552,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>939</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>940</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -4526,10 +4563,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -4537,10 +4574,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>763</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>764</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -4548,10 +4585,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>763</v>
+        <v>856</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>764</v>
+        <v>857</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -4559,10 +4596,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>856</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>857</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -4570,10 +4607,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -4581,10 +4618,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -4592,10 +4629,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>648</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>657</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -4603,10 +4640,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>648</v>
+        <v>991</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>657</v>
+        <v>994</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -4614,21 +4651,21 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>991</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>994</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>36</v>
+      <c r="A26" s="4" t="s">
+        <v>664</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>665</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -4636,21 +4673,21 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>664</v>
+        <v>949</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>665</v>
+        <v>950</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>949</v>
+      <c r="A28" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>950</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -4658,10 +4695,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>935</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>938</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -4669,32 +4706,32 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>935</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>938</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>616</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>617</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>616</v>
+        <v>793</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>617</v>
+        <v>794</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -4702,10 +4739,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>793</v>
+        <v>989</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>794</v>
+        <v>990</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -4713,10 +4750,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>989</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>990</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -4724,10 +4761,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>660</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>661</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -4735,10 +4772,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>660</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>661</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -4746,10 +4783,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -4757,10 +4794,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -4768,10 +4805,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>931</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>932</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -4779,10 +4816,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>931</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>932</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -4790,10 +4827,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -4801,10 +4838,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -4812,10 +4849,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>753</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>754</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -4823,10 +4860,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>753</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>754</v>
+        <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -4834,10 +4871,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>951</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>56</v>
+        <v>952</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -4845,10 +4882,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>951</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>952</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -4856,10 +4893,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>809</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>58</v>
+        <v>810</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -4867,10 +4904,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>809</v>
+        <v>854</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>810</v>
+        <v>855</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -4878,10 +4915,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>854</v>
+        <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>855</v>
+        <v>60</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -4889,10 +4926,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -4900,10 +4937,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -4911,10 +4948,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -4922,10 +4959,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -4933,32 +4970,32 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>624</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>625</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>624</v>
+      <c r="A55" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>625</v>
+        <v>70</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="4" t="s">
-        <v>69</v>
+      <c r="A56" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>631</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
@@ -4966,10 +5003,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>630</v>
+        <v>73</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>631</v>
+        <v>74</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
@@ -4977,21 +5014,21 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>75</v>
+      <c r="A59" s="4" t="s">
+        <v>644</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>76</v>
+        <v>645</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
@@ -4999,21 +5036,21 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>645</v>
+        <v>80</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="4" t="s">
-        <v>79</v>
+      <c r="A61" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
@@ -5021,32 +5058,32 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>841</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>84</v>
+        <v>842</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>4</v>
+        <v>844</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>841</v>
+        <v>880</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>842</v>
+        <v>881</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>844</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>880</v>
+        <v>85</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>881</v>
+        <v>86</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
@@ -5054,10 +5091,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>4</v>
@@ -5065,10 +5102,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
@@ -5076,10 +5113,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>89</v>
+        <v>650</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>90</v>
+        <v>654</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>4</v>
@@ -5087,10 +5124,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>650</v>
+        <v>91</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>654</v>
+        <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
@@ -5098,10 +5135,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>4</v>
@@ -5109,10 +5146,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
@@ -5120,10 +5157,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>98</v>
+        <v>743</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>99</v>
+        <v>744</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>4</v>
@@ -5131,32 +5168,32 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>743</v>
+        <v>618</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>744</v>
+        <v>619</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
-        <v>618</v>
+      <c r="A73" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>619</v>
+        <v>926</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="4" t="s">
-        <v>1193</v>
+      <c r="A74" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>926</v>
+        <v>120</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>4</v>
@@ -5164,10 +5201,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>4</v>
@@ -5175,10 +5212,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
@@ -5186,10 +5223,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>4</v>
@@ -5197,10 +5234,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>4</v>
@@ -5208,10 +5245,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>4</v>
@@ -5219,10 +5256,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>107</v>
+        <v>777</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>125</v>
+        <v>778</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>4</v>
@@ -5230,10 +5267,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>777</v>
+        <v>813</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>4</v>
@@ -5241,10 +5278,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>813</v>
+        <v>109</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>815</v>
+        <v>127</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
@@ -5252,10 +5289,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>4</v>
@@ -5263,10 +5300,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>110</v>
+        <v>737</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>128</v>
+        <v>738</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>4</v>
@@ -5274,10 +5311,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>737</v>
+        <v>111</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>738</v>
+        <v>129</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>4</v>
@@ -5285,10 +5322,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>4</v>
@@ -5296,10 +5333,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>4</v>
@@ -5307,10 +5344,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>4</v>
@@ -5318,10 +5355,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>4</v>
@@ -5329,10 +5366,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>4</v>
@@ -5340,10 +5377,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>117</v>
+        <v>902</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>136</v>
+        <v>903</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>4</v>
@@ -5351,10 +5388,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>902</v>
+        <v>118</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>903</v>
+        <v>137</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>4</v>
@@ -5362,10 +5399,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>4</v>
@@ -5373,10 +5410,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>119</v>
+        <v>651</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>138</v>
+        <v>655</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
@@ -5384,10 +5421,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>651</v>
+        <v>146</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>655</v>
+        <v>371</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>4</v>
@@ -5395,10 +5432,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>4</v>
@@ -5406,10 +5443,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>147</v>
+        <v>789</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>372</v>
+        <v>790</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>4</v>
@@ -5417,10 +5454,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>789</v>
+        <v>150</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>790</v>
+        <v>375</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>4</v>
@@ -5428,10 +5465,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>4</v>
@@ -5439,10 +5476,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>4</v>
@@ -5450,10 +5487,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>4</v>
@@ -5461,10 +5498,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>153</v>
+        <v>973</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>378</v>
+        <v>974</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>4</v>
@@ -5472,10 +5509,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>974</v>
+        <v>379</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>4</v>
@@ -5483,10 +5520,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>4</v>
@@ -5494,10 +5531,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>4</v>
@@ -5505,10 +5542,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>156</v>
+        <v>936</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>381</v>
+        <v>937</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>4</v>
@@ -5516,10 +5553,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>936</v>
+        <v>157</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>937</v>
+        <v>382</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>4</v>
@@ -5527,10 +5564,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>157</v>
+        <v>698</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>382</v>
+        <v>699</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>4</v>
@@ -5538,10 +5575,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>698</v>
+        <v>888</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>699</v>
+        <v>889</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>4</v>
@@ -5549,10 +5586,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>888</v>
+        <v>608</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>889</v>
+        <v>609</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>4</v>
@@ -5560,10 +5597,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>608</v>
+        <v>158</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>609</v>
+        <v>383</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>4</v>
@@ -5571,10 +5608,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>4</v>
@@ -5582,10 +5619,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>4</v>
@@ -5593,32 +5630,32 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>4</v>
@@ -5626,10 +5663,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>166</v>
+        <v>858</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>390</v>
+        <v>859</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>4</v>
@@ -5637,10 +5674,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>4</v>
@@ -5648,10 +5685,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>876</v>
+        <v>785</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>877</v>
+        <v>786</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>4</v>
@@ -5659,10 +5696,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>785</v>
+        <v>167</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>786</v>
+        <v>391</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>4</v>
@@ -5670,10 +5707,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>4</v>
@@ -5681,10 +5718,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>169</v>
+        <v>600</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>393</v>
+        <v>601</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>4</v>
@@ -5692,10 +5729,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>600</v>
+        <v>168</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>601</v>
+        <v>392</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>4</v>
@@ -5703,10 +5740,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>168</v>
+        <v>914</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>392</v>
+        <v>915</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>4</v>
@@ -5714,10 +5751,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>914</v>
+        <v>171</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>915</v>
+        <v>395</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>4</v>
@@ -5725,10 +5762,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>4</v>
@@ -5736,10 +5773,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>172</v>
+        <v>805</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>396</v>
+        <v>806</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>4</v>
@@ -5747,10 +5784,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>805</v>
+        <v>632</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>806</v>
+        <v>633</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>4</v>
@@ -5758,10 +5795,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>632</v>
+        <v>174</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>633</v>
+        <v>398</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>4</v>
@@ -5769,10 +5806,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>4</v>
@@ -5780,10 +5817,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>4</v>
@@ -5791,10 +5828,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>4</v>
@@ -5802,10 +5839,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>4</v>
@@ -5813,10 +5850,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>4</v>
@@ -5824,10 +5861,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>4</v>
@@ -5835,10 +5872,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>4</v>
@@ -5846,10 +5883,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>4</v>
@@ -5857,10 +5894,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>4</v>
@@ -5868,10 +5905,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>4</v>
@@ -5879,10 +5916,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>183</v>
+        <v>927</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>407</v>
+        <v>928</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>4</v>
@@ -5890,10 +5927,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>4</v>
@@ -5901,10 +5938,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>924</v>
+        <v>184</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>925</v>
+        <v>408</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>4</v>
@@ -5912,10 +5949,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>184</v>
+        <v>759</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>408</v>
+        <v>760</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>4</v>
@@ -5923,32 +5960,32 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>759</v>
+        <v>724</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>760</v>
+        <v>725</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>724</v>
+        <v>185</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>725</v>
+        <v>409</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>4</v>
@@ -5956,10 +5993,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>4</v>
@@ -5967,10 +6004,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>4</v>
@@ -5978,10 +6015,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>188</v>
+        <v>771</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>412</v>
+        <v>772</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>4</v>
@@ -5989,10 +6026,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>771</v>
+        <v>189</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>772</v>
+        <v>413</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>4</v>
@@ -6000,10 +6037,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>4</v>
@@ -6011,10 +6048,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>190</v>
+        <v>872</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>414</v>
+        <v>873</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>4</v>
@@ -6022,10 +6059,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>4</v>
@@ -6033,10 +6070,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>864</v>
+        <v>817</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>865</v>
+        <v>818</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>4</v>
@@ -6044,10 +6081,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>817</v>
+        <v>192</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>818</v>
+        <v>416</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>4</v>
@@ -6055,10 +6092,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>192</v>
+        <v>947</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>416</v>
+        <v>948</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>4</v>
@@ -6066,10 +6103,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>947</v>
+        <v>868</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>948</v>
+        <v>869</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>4</v>
@@ -6077,10 +6114,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>868</v>
+        <v>594</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>869</v>
+        <v>595</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>4</v>
@@ -6088,10 +6125,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>594</v>
+        <v>194</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>595</v>
+        <v>418</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>4</v>
@@ -6099,10 +6136,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>194</v>
+        <v>860</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>418</v>
+        <v>861</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>4</v>
@@ -6110,10 +6147,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>860</v>
+        <v>920</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>861</v>
+        <v>921</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>4</v>
@@ -6121,10 +6158,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>920</v>
+        <v>195</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>921</v>
+        <v>419</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>4</v>
@@ -6132,10 +6169,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>4</v>
@@ -6143,10 +6180,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>4</v>
@@ -6154,10 +6191,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>4</v>
@@ -6165,10 +6202,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>4</v>
@@ -6176,10 +6213,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>4</v>
@@ -6187,10 +6224,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>4</v>
@@ -6198,10 +6235,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>202</v>
+        <v>658</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>426</v>
+        <v>659</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>4</v>
@@ -6209,10 +6246,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>658</v>
+        <v>204</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>659</v>
+        <v>428</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>4</v>
@@ -6220,10 +6257,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>4</v>
@@ -6231,10 +6268,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>4</v>
@@ -6242,10 +6279,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>4</v>
@@ -6253,10 +6290,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>4</v>
@@ -6264,10 +6301,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>4</v>
@@ -6275,10 +6312,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>4</v>
@@ -6286,10 +6323,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>4</v>
@@ -6297,10 +6334,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>4</v>
@@ -6308,10 +6345,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>4</v>
@@ -6319,10 +6356,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>4</v>
@@ -6330,10 +6367,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>212</v>
+        <v>845</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>436</v>
+        <v>843</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>4</v>
@@ -6341,10 +6378,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>845</v>
+        <v>646</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>843</v>
+        <v>647</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>4</v>
@@ -6352,10 +6389,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>646</v>
+        <v>767</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>647</v>
+        <v>768</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>4</v>
@@ -6363,10 +6400,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>767</v>
+        <v>894</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>768</v>
+        <v>895</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>4</v>
@@ -6374,10 +6411,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>894</v>
+        <v>678</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>895</v>
+        <v>679</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>4</v>
@@ -6385,10 +6422,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>678</v>
+        <v>930</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>679</v>
+        <v>929</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>4</v>
@@ -6396,10 +6433,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>930</v>
+        <v>997</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>929</v>
+        <v>998</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>4</v>
@@ -6407,10 +6444,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>997</v>
+        <v>688</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>998</v>
+        <v>689</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>4</v>
@@ -6418,10 +6455,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>688</v>
+        <v>620</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>689</v>
+        <v>621</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>4</v>
@@ -6429,10 +6466,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>620</v>
+        <v>217</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>621</v>
+        <v>441</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>4</v>
@@ -6440,10 +6477,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>4</v>
@@ -6451,10 +6488,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>218</v>
+        <v>945</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>442</v>
+        <v>946</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>4</v>
@@ -6462,10 +6499,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>945</v>
+        <v>878</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>946</v>
+        <v>879</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>4</v>
@@ -6473,10 +6510,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>878</v>
+        <v>219</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>879</v>
+        <v>443</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>4</v>
@@ -6484,10 +6521,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>4</v>
@@ -6495,10 +6532,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>4</v>
@@ -6506,10 +6543,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>4</v>
@@ -6517,10 +6554,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>4</v>
@@ -6528,10 +6565,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>4</v>
@@ -6539,10 +6576,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>4</v>
@@ -6550,10 +6587,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>451</v>
+        <v>228</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>4</v>
@@ -6561,10 +6598,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>452</v>
+        <v>229</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>4</v>
@@ -6572,10 +6609,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>229</v>
+        <v>692</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>453</v>
+        <v>693</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>4</v>
@@ -6583,10 +6620,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>692</v>
+        <v>910</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>693</v>
+        <v>911</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>4</v>
@@ -6594,10 +6631,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>910</v>
+        <v>837</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>911</v>
+        <v>838</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>4</v>
@@ -6605,10 +6642,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>837</v>
+        <v>700</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>838</v>
+        <v>701</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>4</v>
@@ -6616,10 +6653,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>701</v>
+        <v>454</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>4</v>
@@ -6627,10 +6664,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>4</v>
@@ -6638,10 +6675,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>4</v>
@@ -6649,10 +6686,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>231</v>
+        <v>749</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>455</v>
+        <v>750</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>4</v>
@@ -6660,10 +6697,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>749</v>
+        <v>852</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>750</v>
+        <v>853</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>4</v>
@@ -6671,10 +6708,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>852</v>
+        <v>234</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>853</v>
+        <v>458</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>4</v>
@@ -6682,10 +6719,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>234</v>
+        <v>883</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>458</v>
+        <v>884</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>4</v>
@@ -6693,10 +6730,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>883</v>
+        <v>235</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>884</v>
+        <v>459</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>4</v>
@@ -6704,10 +6741,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>235</v>
+        <v>801</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>459</v>
+        <v>802</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>4</v>
@@ -6715,10 +6752,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>801</v>
+        <v>904</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>802</v>
+        <v>905</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>4</v>
@@ -6726,10 +6763,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>904</v>
+        <v>236</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>905</v>
+        <v>460</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>4</v>
@@ -6737,10 +6774,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>236</v>
+        <v>666</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>460</v>
+        <v>667</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>4</v>
@@ -6748,10 +6785,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>4</v>
@@ -6759,10 +6796,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>634</v>
+        <v>237</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>635</v>
+        <v>461</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>4</v>
@@ -6770,10 +6807,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>4</v>
@@ -6781,10 +6818,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>4</v>
@@ -6792,10 +6829,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>463</v>
+        <v>240</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>4</v>
@@ -6803,7 +6837,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>4</v>
@@ -6811,10 +6848,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>242</v>
+        <v>702</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>465</v>
+        <v>703</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>4</v>
@@ -6822,10 +6859,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>702</v>
+        <v>663</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>703</v>
+        <v>662</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>4</v>
@@ -6833,10 +6870,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>663</v>
+        <v>244</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>662</v>
+        <v>467</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>4</v>
@@ -6844,10 +6881,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>244</v>
+        <v>761</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>467</v>
+        <v>762</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>4</v>
@@ -6855,10 +6892,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>761</v>
+        <v>823</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>762</v>
+        <v>824</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>4</v>
@@ -6866,10 +6903,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>823</v>
+        <v>783</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>824</v>
+        <v>784</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>4</v>
@@ -6877,10 +6914,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>783</v>
+        <v>246</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>784</v>
+        <v>469</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>4</v>
@@ -6888,10 +6925,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>4</v>
@@ -6899,10 +6936,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>247</v>
+        <v>892</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>470</v>
+        <v>893</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>4</v>
@@ -6910,10 +6947,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>892</v>
+        <v>248</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>893</v>
+        <v>471</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>4</v>
@@ -6921,10 +6958,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>4</v>
@@ -6932,10 +6969,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>250</v>
+        <v>827</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>473</v>
+        <v>828</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>4</v>
@@ -6943,10 +6980,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>827</v>
+        <v>251</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>828</v>
+        <v>474</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>4</v>
@@ -6954,10 +6991,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>4</v>
@@ -6965,10 +7002,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>4</v>
@@ -6976,10 +7013,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>253</v>
+        <v>605</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>476</v>
+        <v>604</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>4</v>
@@ -6987,10 +7024,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>605</v>
+        <v>900</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>604</v>
+        <v>901</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>4</v>
@@ -6998,10 +7035,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>900</v>
+        <v>255</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>901</v>
+        <v>478</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>4</v>
@@ -7009,32 +7046,32 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>254</v>
+        <v>781</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>477</v>
+        <v>782</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>781</v>
+        <v>706</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>782</v>
+        <v>707</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>4</v>
@@ -7042,10 +7079,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>706</v>
+        <v>256</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>707</v>
+        <v>479</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>4</v>
@@ -7053,10 +7090,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>479</v>
+        <v>257</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>4</v>
@@ -7064,10 +7101,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>480</v>
+        <v>259</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>4</v>
@@ -7075,10 +7112,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>259</v>
+        <v>735</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>482</v>
+        <v>736</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>4</v>
@@ -7086,10 +7123,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>735</v>
+        <v>260</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>736</v>
+        <v>483</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>4</v>
@@ -7097,10 +7134,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>260</v>
+        <v>992</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>483</v>
+        <v>993</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>4</v>
@@ -7108,10 +7145,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>992</v>
+        <v>258</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>993</v>
+        <v>481</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>4</v>
@@ -7119,10 +7156,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>4</v>
@@ -7130,10 +7167,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>4</v>
@@ -7141,10 +7178,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>4</v>
@@ -7152,10 +7189,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>264</v>
+        <v>898</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>487</v>
+        <v>899</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>4</v>
@@ -7163,10 +7200,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>898</v>
+        <v>265</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>899</v>
+        <v>488</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>4</v>
@@ -7174,10 +7211,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>4</v>
@@ -7185,10 +7222,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>4</v>
@@ -7196,10 +7233,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>4</v>
@@ -7207,10 +7244,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>4</v>
@@ -7218,10 +7255,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>269</v>
+        <v>652</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>492</v>
+        <v>653</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>4</v>
@@ -7229,10 +7266,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>652</v>
+        <v>270</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>653</v>
+        <v>493</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>4</v>
@@ -7240,10 +7277,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>4</v>
@@ -7251,10 +7288,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>272</v>
+        <v>741</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>495</v>
+        <v>742</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>4</v>
@@ -7262,10 +7299,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>741</v>
+        <v>273</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>742</v>
+        <v>496</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>4</v>
@@ -7273,10 +7310,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>4</v>
@@ -7284,10 +7321,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>274</v>
+        <v>598</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>4</v>
@@ -7295,10 +7332,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>598</v>
+        <v>276</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>599</v>
+        <v>499</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>4</v>
@@ -7306,10 +7343,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>4</v>
@@ -7317,10 +7354,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>277</v>
+        <v>694</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>500</v>
+        <v>695</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>4</v>
@@ -7328,32 +7365,32 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>694</v>
+        <v>723</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>723</v>
+        <v>278</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>722</v>
+        <v>501</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>4</v>
@@ -7361,10 +7398,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>4</v>
@@ -7372,10 +7409,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>4</v>
@@ -7383,10 +7420,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>4</v>
@@ -7394,10 +7431,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>4</v>
@@ -7405,10 +7442,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>4</v>
@@ -7416,10 +7453,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>4</v>
@@ -7427,10 +7464,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>4</v>
@@ -7438,10 +7475,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>4</v>
@@ -7449,10 +7486,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>288</v>
+        <v>733</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>511</v>
+        <v>734</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>4</v>
@@ -7460,10 +7497,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>733</v>
+        <v>874</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>734</v>
+        <v>875</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>4</v>
@@ -7471,10 +7508,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>874</v>
+        <v>731</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>875</v>
+        <v>732</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>4</v>
@@ -7482,10 +7519,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
-        <v>731</v>
+        <v>289</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>732</v>
+        <v>512</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>4</v>
@@ -7493,10 +7530,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>289</v>
+        <v>649</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>512</v>
+        <v>656</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>4</v>
@@ -7504,10 +7541,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>649</v>
+        <v>290</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>656</v>
+        <v>513</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>4</v>
@@ -7515,10 +7552,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
-        <v>290</v>
+        <v>963</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>513</v>
+        <v>964</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>4</v>
@@ -7526,10 +7563,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>963</v>
+        <v>292</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>964</v>
+        <v>515</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>4</v>
@@ -7537,10 +7574,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>4</v>
@@ -7548,10 +7585,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
-        <v>293</v>
+        <v>912</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>516</v>
+        <v>913</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>4</v>
@@ -7559,10 +7596,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
-        <v>912</v>
+        <v>294</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>913</v>
+        <v>517</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>4</v>
@@ -7570,10 +7607,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
-        <v>294</v>
+        <v>870</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>517</v>
+        <v>871</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>4</v>
@@ -7581,10 +7618,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>870</v>
+        <v>676</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>871</v>
+        <v>677</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>4</v>
@@ -7592,10 +7629,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
-        <v>676</v>
+        <v>957</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>677</v>
+        <v>958</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>4</v>
@@ -7603,10 +7640,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
-        <v>957</v>
+        <v>295</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>958</v>
+        <v>518</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>4</v>
@@ -7614,10 +7651,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
-        <v>295</v>
+        <v>906</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>518</v>
+        <v>907</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>4</v>
@@ -7625,10 +7662,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>906</v>
+        <v>296</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>907</v>
+        <v>519</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>4</v>
@@ -7636,10 +7673,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>4</v>
@@ -7647,10 +7684,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>297</v>
+        <v>896</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>520</v>
+        <v>897</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>4</v>
@@ -7658,10 +7695,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>896</v>
+        <v>829</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>897</v>
+        <v>830</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>4</v>
@@ -7669,10 +7706,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>829</v>
+        <v>862</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>830</v>
+        <v>863</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>4</v>
@@ -7680,10 +7717,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>863</v>
+        <v>298</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>4</v>
@@ -7691,7 +7725,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>4</v>
@@ -7699,10 +7736,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>4</v>
@@ -7710,10 +7747,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>4</v>
@@ -7721,10 +7758,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
-        <v>301</v>
+        <v>839</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>523</v>
+        <v>840</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>4</v>
@@ -7732,10 +7769,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
-        <v>839</v>
+        <v>302</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>840</v>
+        <v>524</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>4</v>
@@ -7743,10 +7780,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
-        <v>302</v>
+        <v>622</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>524</v>
+        <v>623</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>4</v>
@@ -7754,10 +7791,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>4</v>
@@ -7765,10 +7802,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
-        <v>636</v>
+        <v>674</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>637</v>
+        <v>675</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>4</v>
@@ -7776,10 +7813,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>4</v>
@@ -7787,10 +7824,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
-        <v>668</v>
+        <v>303</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>669</v>
+        <v>525</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>4</v>
@@ -7798,10 +7835,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>4</v>
@@ -7809,10 +7846,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>304</v>
+        <v>811</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>526</v>
+        <v>812</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>4</v>
@@ -7820,10 +7857,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>811</v>
+        <v>305</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>812</v>
+        <v>527</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>4</v>
@@ -7831,10 +7868,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>305</v>
+        <v>684</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>527</v>
+        <v>685</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>4</v>
@@ -7842,10 +7879,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>684</v>
+        <v>306</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>685</v>
+        <v>528</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>4</v>
@@ -7853,10 +7890,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>306</v>
+        <v>890</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>528</v>
+        <v>891</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>4</v>
@@ -7864,32 +7901,32 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>890</v>
+        <v>307</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>891</v>
+        <v>529</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>4</v>
@@ -7897,10 +7934,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>309</v>
+        <v>791</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>531</v>
+        <v>792</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>4</v>
@@ -7908,10 +7945,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>791</v>
+        <v>310</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>792</v>
+        <v>532</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>4</v>
@@ -7919,10 +7956,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>310</v>
+        <v>615</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>4</v>
@@ -7930,10 +7967,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>4</v>
@@ -7941,10 +7978,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>4</v>
@@ -7952,10 +7989,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>613</v>
+        <v>311</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>614</v>
+        <v>533</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>4</v>
@@ -7963,10 +8000,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>4</v>
@@ -7974,10 +8011,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>4</v>
@@ -7985,10 +8022,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>313</v>
+        <v>833</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>535</v>
+        <v>834</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>4</v>
@@ -7996,10 +8033,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>833</v>
+        <v>917</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>834</v>
+        <v>919</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>4</v>
@@ -8007,32 +8044,32 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>917</v>
+        <v>726</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>919</v>
+        <v>721</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>726</v>
+        <v>765</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>721</v>
+        <v>766</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>765</v>
+        <v>314</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>766</v>
+        <v>536</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>4</v>
@@ -8040,10 +8077,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>4</v>
@@ -8051,10 +8088,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>4</v>
@@ -8062,10 +8099,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>4</v>
@@ -8073,10 +8110,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>4</v>
@@ -8084,10 +8121,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>4</v>
@@ -8095,32 +8132,32 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>321</v>
+        <v>807</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>543</v>
+        <v>808</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>4</v>
@@ -8128,10 +8165,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>807</v>
+        <v>638</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>808</v>
+        <v>639</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>4</v>
@@ -8139,10 +8176,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>638</v>
+        <v>322</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>639</v>
+        <v>544</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>4</v>
@@ -8150,10 +8187,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>322</v>
+        <v>922</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>544</v>
+        <v>923</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>4</v>
@@ -8161,10 +8198,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>922</v>
+        <v>323</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>923</v>
+        <v>545</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>4</v>
@@ -8172,10 +8209,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>4</v>
@@ -8183,10 +8220,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>4</v>
@@ -8194,10 +8231,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>4</v>
@@ -8205,10 +8242,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>4</v>
@@ -8216,10 +8253,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>4</v>
@@ -8227,10 +8264,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>4</v>
@@ -8238,10 +8275,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>4</v>
@@ -8249,10 +8286,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>331</v>
+        <v>803</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>553</v>
+        <v>804</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>4</v>
@@ -8260,10 +8297,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>803</v>
+        <v>332</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>804</v>
+        <v>554</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>4</v>
@@ -8271,10 +8308,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>332</v>
+        <v>821</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>554</v>
+        <v>822</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>4</v>
@@ -8282,10 +8319,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>821</v>
+        <v>626</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>822</v>
+        <v>627</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>4</v>
@@ -8293,10 +8330,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>626</v>
+        <v>333</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>627</v>
+        <v>555</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>4</v>
@@ -8304,10 +8341,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>333</v>
+        <v>846</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>555</v>
+        <v>847</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>4</v>
@@ -8315,10 +8352,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>846</v>
+        <v>596</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>847</v>
+        <v>597</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>4</v>
@@ -8326,10 +8363,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>596</v>
+        <v>334</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>4</v>
@@ -8337,10 +8374,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>4</v>
@@ -8348,10 +8385,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>335</v>
+        <v>718</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>4</v>
@@ -8359,10 +8396,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>718</v>
+        <v>908</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>558</v>
+        <v>909</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>4</v>
@@ -8370,10 +8407,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>908</v>
+        <v>719</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>909</v>
+        <v>720</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>4</v>
@@ -8381,10 +8418,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
-        <v>719</v>
+        <v>795</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>720</v>
+        <v>796</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>4</v>
@@ -8392,10 +8429,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>4</v>
@@ -8403,10 +8440,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>779</v>
+        <v>336</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>780</v>
+        <v>559</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>4</v>
@@ -8414,10 +8451,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>336</v>
+        <v>835</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>559</v>
+        <v>836</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>4</v>
@@ -8425,10 +8462,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>835</v>
+        <v>337</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>836</v>
+        <v>560</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>4</v>
@@ -8436,10 +8473,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>4</v>
@@ -8447,32 +8484,32 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>338</v>
+        <v>642</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>642</v>
+        <v>340</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>643</v>
+        <v>563</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>340</v>
+        <v>955</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>563</v>
+        <v>956</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>4</v>
@@ -8480,10 +8517,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>955</v>
+        <v>341</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>956</v>
+        <v>564</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>4</v>
@@ -8491,10 +8528,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>4</v>
@@ -8502,10 +8539,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>4</v>
@@ -8513,10 +8550,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>4</v>
@@ -8524,10 +8561,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>4</v>
@@ -8535,10 +8572,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>4</v>
@@ -8546,10 +8583,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>346</v>
+        <v>850</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>569</v>
+        <v>851</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>4</v>
@@ -8557,10 +8594,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
-        <v>850</v>
+        <v>680</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>851</v>
+        <v>681</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>4</v>
@@ -8568,10 +8605,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>4</v>
@@ -8579,10 +8616,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
-        <v>683</v>
+        <v>348</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>682</v>
+        <v>571</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>4</v>
@@ -8590,32 +8627,32 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
-        <v>350</v>
+        <v>672</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>573</v>
+        <v>673</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>4</v>
@@ -8623,10 +8660,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
-        <v>672</v>
+        <v>351</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>673</v>
+        <v>574</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>4</v>
@@ -8634,10 +8671,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
-        <v>351</v>
+        <v>670</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>574</v>
+        <v>671</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>4</v>
@@ -8645,10 +8682,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
-        <v>670</v>
+        <v>773</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>671</v>
+        <v>774</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>4</v>
@@ -8656,10 +8693,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
-        <v>773</v>
+        <v>352</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>774</v>
+        <v>575</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>4</v>
@@ -8667,10 +8704,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>4</v>
@@ -8678,10 +8715,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>4</v>
@@ -8689,10 +8726,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>4</v>
@@ -8700,10 +8737,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
-        <v>356</v>
+        <v>686</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>579</v>
+        <v>687</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>4</v>
@@ -8711,10 +8748,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
-        <v>686</v>
+        <v>357</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>687</v>
+        <v>580</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>4</v>
@@ -8722,10 +8759,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>4</v>
@@ -8733,10 +8770,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
-        <v>358</v>
+        <v>140</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>581</v>
+        <v>141</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>4</v>
@@ -8744,10 +8781,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
-        <v>140</v>
+        <v>961</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>141</v>
+        <v>962</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>4</v>
@@ -8755,10 +8792,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
-        <v>961</v>
+        <v>359</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>962</v>
+        <v>582</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>4</v>
@@ -8766,10 +8803,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
-        <v>359</v>
+        <v>606</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>4</v>
@@ -8777,10 +8814,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
-        <v>606</v>
+        <v>360</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>4</v>
@@ -8788,10 +8825,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
-        <v>360</v>
+        <v>640</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>4</v>
@@ -8799,10 +8836,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
-        <v>640</v>
+        <v>361</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>641</v>
+        <v>584</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>4</v>
@@ -8810,10 +8847,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>4</v>
@@ -8821,10 +8858,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>4</v>
@@ -8832,10 +8869,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
-        <v>363</v>
+        <v>819</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>586</v>
+        <v>820</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>4</v>
@@ -8843,10 +8880,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
-        <v>819</v>
+        <v>365</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>820</v>
+        <v>588</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>4</v>
@@ -8854,10 +8891,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>4</v>
@@ -8865,10 +8902,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>4</v>
@@ -8876,10 +8913,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
-        <v>368</v>
+        <v>831</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>591</v>
+        <v>832</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>4</v>
@@ -8887,10 +8924,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
-        <v>831</v>
+        <v>370</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>832</v>
+        <v>593</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>4</v>
@@ -8898,10 +8935,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
-        <v>370</v>
+        <v>825</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>593</v>
+        <v>826</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>4</v>
@@ -8909,10 +8946,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
-        <v>825</v>
+        <v>142</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>826</v>
+        <v>143</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>4</v>
@@ -8920,10 +8957,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>4</v>
@@ -8931,10 +8968,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
-        <v>144</v>
+        <v>787</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>145</v>
+        <v>788</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>4</v>
@@ -8942,10 +8979,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>787</v>
+        <v>1002</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>788</v>
+        <v>1004</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>4</v>
@@ -8953,10 +8990,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>4</v>
@@ -8964,10 +9001,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>4</v>
@@ -8975,10 +9012,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>4</v>
@@ -8986,10 +9023,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>1014</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>4</v>
@@ -8997,10 +9034,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B424" s="4" t="s">
-        <v>1014</v>
+        <v>1015</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1016</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>4</v>
@@ -9008,32 +9045,32 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>4</v>
@@ -9041,10 +9078,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>4</v>
@@ -9052,10 +9089,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>4</v>
@@ -9063,10 +9100,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>4</v>
@@ -9074,10 +9111,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>4</v>
@@ -9085,10 +9122,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>4</v>
@@ -9096,10 +9133,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>4</v>
@@ -9107,10 +9144,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>4</v>
@@ -9118,10 +9155,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>4</v>
@@ -9129,10 +9166,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>4</v>
@@ -9140,10 +9177,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>4</v>
@@ -9151,10 +9188,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>4</v>
@@ -9162,10 +9199,10 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>4</v>
@@ -9173,10 +9210,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
-        <v>1045</v>
+        <v>1061</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>4</v>
@@ -9184,10 +9221,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>4</v>
@@ -9195,10 +9232,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>4</v>
@@ -9206,10 +9243,10 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>4</v>
@@ -9217,10 +9254,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>4</v>
@@ -9228,10 +9265,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>4</v>
@@ -9239,10 +9276,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>4</v>
@@ -9250,10 +9287,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>4</v>
@@ -9261,10 +9298,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>4</v>
@@ -9272,10 +9309,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>4</v>
@@ -9283,10 +9320,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>4</v>
@@ -9294,10 +9331,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>4</v>
@@ -9305,10 +9342,10 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>4</v>
@@ -9316,10 +9353,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>4</v>
@@ -9327,10 +9364,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>4</v>
@@ -9338,10 +9375,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>4</v>
@@ -9349,10 +9386,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>4</v>
@@ -9360,10 +9397,10 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>4</v>
@@ -9371,10 +9408,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>4</v>
@@ -9382,10 +9419,10 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>4</v>
@@ -9393,10 +9430,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>4</v>
@@ -9404,10 +9441,10 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>4</v>
@@ -9415,10 +9452,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>4</v>
@@ -9426,10 +9463,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>4</v>
@@ -9437,10 +9474,10 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>4</v>
@@ -9448,32 +9485,32 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:3">
-      <c r="A466" s="1" t="s">
-        <v>1115</v>
+      <c r="A466" s="4" t="s">
+        <v>1119</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="467" spans="1:3">
-      <c r="A467" s="4" t="s">
-        <v>1119</v>
+      <c r="A467" s="1" t="s">
+        <v>1125</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>4</v>
@@ -9481,10 +9518,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>4</v>
@@ -9492,10 +9529,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>4</v>
@@ -9503,10 +9540,10 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>4</v>
@@ -9514,10 +9551,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>4</v>
@@ -9525,10 +9562,10 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>4</v>
@@ -9536,10 +9573,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>4</v>
@@ -9547,10 +9584,10 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>4</v>
@@ -9558,10 +9595,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>4</v>
@@ -9569,10 +9606,10 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>4</v>
@@ -9580,10 +9617,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>4</v>
@@ -9591,10 +9628,10 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>4</v>
@@ -9602,10 +9639,10 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>4</v>
@@ -9613,10 +9650,10 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>4</v>
@@ -9624,43 +9661,43 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="482" spans="1:3">
-      <c r="A482" s="1" t="s">
-        <v>1158</v>
+      <c r="A482" s="4" t="s">
+        <v>1159</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:3">
-      <c r="A483" s="4" t="s">
-        <v>1159</v>
+      <c r="A483" s="1" t="s">
+        <v>1161</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="484" spans="1:3">
-      <c r="A484" s="1" t="s">
-        <v>1161</v>
+      <c r="A484" s="4" t="s">
+        <v>1163</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>4</v>
@@ -9668,10 +9705,10 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="4" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>4</v>
@@ -9679,43 +9716,43 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="4" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="487" spans="1:3">
-      <c r="A487" s="4" t="s">
-        <v>1167</v>
+      <c r="A487" s="1" t="s">
+        <v>1169</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:3">
-      <c r="A488" s="1" t="s">
-        <v>1169</v>
+      <c r="A488" s="4" t="s">
+        <v>1171</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="489" spans="1:3">
-      <c r="A489" s="4" t="s">
-        <v>1171</v>
+      <c r="A489" s="1" t="s">
+        <v>1173</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>4</v>
@@ -9723,10 +9760,10 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>4</v>
@@ -9734,32 +9771,32 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="492" spans="1:3">
-      <c r="A492" s="1" t="s">
-        <v>1177</v>
+      <c r="A492" s="4" t="s">
+        <v>1180</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="493" spans="1:3">
-      <c r="A493" s="4" t="s">
-        <v>1180</v>
+      <c r="A493" s="1" t="s">
+        <v>1181</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>4</v>
@@ -9767,21 +9804,21 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="495" spans="1:3">
-      <c r="A495" s="1" t="s">
-        <v>1183</v>
+      <c r="A495" s="4" t="s">
+        <v>1185</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>4</v>
@@ -9789,21 +9826,21 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="4" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:3">
-      <c r="A497" s="4" t="s">
-        <v>1190</v>
+      <c r="A497" s="1" t="s">
+        <v>1191</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>4</v>
@@ -9811,65 +9848,65 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1192</v>
+        <v>1197</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="499" spans="1:3">
-      <c r="A499" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C499" s="1" t="s">
+      <c r="A499" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C499" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="500" spans="1:3">
-      <c r="A500" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B500" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C500" s="4" t="s">
+      <c r="A500" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C500" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="502" spans="1:3">
-      <c r="A502" s="1" t="s">
-        <v>1221</v>
+      <c r="A502" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="503" spans="1:3">
-      <c r="A503" s="4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>1222</v>
+      <c r="A503" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>4</v>
@@ -9877,10 +9914,10 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B504" s="4" t="s">
-        <v>1224</v>
+        <v>1229</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1228</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>4</v>
@@ -9888,10 +9925,10 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>4</v>
@@ -9899,10 +9936,10 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>1230</v>
+        <v>1233</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>1232</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>4</v>
@@ -9910,10 +9947,10 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B507" s="4" t="s">
-        <v>1232</v>
+        <v>1237</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1236</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>4</v>
@@ -9921,10 +9958,10 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
-        <v>1237</v>
+        <v>1245</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1236</v>
+        <v>1244</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>4</v>
@@ -9932,10 +9969,10 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
-        <v>1245</v>
+        <v>1252</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1244</v>
+        <v>1251</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>4</v>
@@ -9943,10 +9980,10 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>4</v>
@@ -9954,10 +9991,10 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
-        <v>1254</v>
+        <v>1276</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1253</v>
+        <v>1275</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>4</v>
@@ -9965,10 +10002,10 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
-        <v>1276</v>
+        <v>1256</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1275</v>
+        <v>1255</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>4</v>
@@ -9976,10 +10013,10 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>4</v>
@@ -9987,10 +10024,10 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="1" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>4</v>
@@ -9998,10 +10035,10 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>4</v>
@@ -10009,32 +10046,32 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:3">
-      <c r="A517" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>1265</v>
+      <c r="A517" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>1267</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:3">
-      <c r="A518" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B518" s="4" t="s">
-        <v>1267</v>
+      <c r="A518" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1270</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>4</v>
@@ -10042,21 +10079,21 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="4" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:3">
-      <c r="A520" s="4" t="s">
-        <v>1271</v>
+      <c r="A520" s="1" t="s">
+        <v>1274</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>4</v>
@@ -10064,10 +10101,10 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>4</v>
@@ -10075,34 +10112,89 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="523" spans="1:3">
-      <c r="A523" s="1" t="s">
-        <v>1279</v>
+      <c r="A523" s="4" t="s">
+        <v>1281</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="524" spans="1:3">
-      <c r="A524" s="4" t="s">
-        <v>1281</v>
+      <c r="A524" s="1" t="s">
+        <v>1283</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C524" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C529" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10116,11 +10208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C597"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:XFD121"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D7F3D760-9A66-4AE4-9FEB-7B84D70F134F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F970BC81-8E14-4867-A57D-2A2A631E84A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="media" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="1297">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3947,6 +3947,12 @@
   </si>
   <si>
     <t>tt4986098</t>
+  </si>
+  <si>
+    <t>tt4500922</t>
+  </si>
+  <si>
+    <t>Maze Runner: The Death Cure</t>
   </si>
 </sst>
 </file>
@@ -4370,10 +4376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C529"/>
+  <dimension ref="A1:C530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
-      <selection activeCell="C523" sqref="C523:C529"/>
+    <sheetView topLeftCell="A506" workbookViewId="0">
+      <selection activeCell="A530" sqref="A530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10198,6 +10204,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10211,8 +10228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C597"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10316,7 +10333,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>1248</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F970BC81-8E14-4867-A57D-2A2A631E84A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{304CCFD3-7A55-4F1B-B1B0-B16E38F11D8F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="1323">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3953,6 +3953,84 @@
   </si>
   <si>
     <t>Maze Runner: The Death Cure</t>
+  </si>
+  <si>
+    <t>Undertow</t>
+  </si>
+  <si>
+    <t>tt1368491</t>
+  </si>
+  <si>
+    <t>Beach Rats</t>
+  </si>
+  <si>
+    <t>tt6303866</t>
+  </si>
+  <si>
+    <t>Boys</t>
+  </si>
+  <si>
+    <t>tt3318220</t>
+  </si>
+  <si>
+    <t>Tremors A Cold Day in Hell</t>
+  </si>
+  <si>
+    <t>tt6086082</t>
+  </si>
+  <si>
+    <t>Black Panther</t>
+  </si>
+  <si>
+    <t>tt1825683</t>
+  </si>
+  <si>
+    <t>In Darkness</t>
+  </si>
+  <si>
+    <t>tt5164184</t>
+  </si>
+  <si>
+    <t>Pacific Rim 2 Uprising</t>
+  </si>
+  <si>
+    <t>tt2557478</t>
+  </si>
+  <si>
+    <t>Peter Rabbit</t>
+  </si>
+  <si>
+    <t>tt5117670</t>
+  </si>
+  <si>
+    <t>Center of My World</t>
+  </si>
+  <si>
+    <t>tt4932154</t>
+  </si>
+  <si>
+    <t>Gods Own Country</t>
+  </si>
+  <si>
+    <t>tt5635086</t>
+  </si>
+  <si>
+    <t>Handsome Devil</t>
+  </si>
+  <si>
+    <t>tt5016946</t>
+  </si>
+  <si>
+    <t>Hoje Eu Quero Voltar Sozinho</t>
+  </si>
+  <si>
+    <t>tt1702014</t>
+  </si>
+  <si>
+    <t>tt6333070</t>
+  </si>
+  <si>
+    <t>Inxeba</t>
   </si>
 </sst>
 </file>
@@ -4376,10 +4454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C530"/>
+  <dimension ref="A1:C535"/>
   <sheetViews>
-    <sheetView topLeftCell="A506" workbookViewId="0">
-      <selection activeCell="A530" sqref="A530"/>
+    <sheetView topLeftCell="A522" workbookViewId="0">
+      <selection activeCell="C531" sqref="C531:C535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10215,6 +10293,61 @@
         <v>4</v>
       </c>
     </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10228,8 +10361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C597"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123:C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11560,6 +11693,94 @@
         <v>4</v>
       </c>
     </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="330" spans="2:2">
       <c r="B330" s="3"/>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{304CCFD3-7A55-4F1B-B1B0-B16E38F11D8F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0853BAFF-99BC-497A-9D23-D18EDFBBEBDB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="1339">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4031,6 +4031,54 @@
   </si>
   <si>
     <t>Inxeba</t>
+  </si>
+  <si>
+    <t>L'inconnu du lac</t>
+  </si>
+  <si>
+    <t>tt2852458</t>
+  </si>
+  <si>
+    <t>Longtime Companion</t>
+  </si>
+  <si>
+    <t>tt0100049</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>tt1365519</t>
+  </si>
+  <si>
+    <t>Love Simon</t>
+  </si>
+  <si>
+    <t>tt5164432</t>
+  </si>
+  <si>
+    <t>Mysterious Skin</t>
+  </si>
+  <si>
+    <t>tt0370986</t>
+  </si>
+  <si>
+    <t>tt1677720</t>
+  </si>
+  <si>
+    <t>Ready Player One</t>
+  </si>
+  <si>
+    <t>Isle of Dogs</t>
+  </si>
+  <si>
+    <t>tt5104604</t>
+  </si>
+  <si>
+    <t>Prayers For Bobby</t>
+  </si>
+  <si>
+    <t>tt1073510</t>
   </si>
 </sst>
 </file>
@@ -4454,10 +4502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C535"/>
+  <dimension ref="A1:C538"/>
   <sheetViews>
     <sheetView topLeftCell="A522" workbookViewId="0">
-      <selection activeCell="C531" sqref="C531:C535"/>
+      <selection activeCell="C536" sqref="C536:C538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10348,6 +10396,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10362,7 +10443,7 @@
   <dimension ref="A1:C597"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123:C128"/>
+      <selection activeCell="C132" sqref="C132:C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11781,6 +11862,61 @@
         <v>4</v>
       </c>
     </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="330" spans="2:2">
       <c r="B330" s="3"/>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0853BAFF-99BC-497A-9D23-D18EDFBBEBDB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F58D6632-B7DF-415E-9037-8713859AEAEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="media" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="1359">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4079,6 +4079,66 @@
   </si>
   <si>
     <t>tt1073510</t>
+  </si>
+  <si>
+    <t>Triple Crossed</t>
+  </si>
+  <si>
+    <t>tt3083006</t>
+  </si>
+  <si>
+    <t>Moonlight</t>
+  </si>
+  <si>
+    <t>tt4975722</t>
+  </si>
+  <si>
+    <t>Cowboys &amp; Angels</t>
+  </si>
+  <si>
+    <t>tt0377701</t>
+  </si>
+  <si>
+    <t>Shared Rooms</t>
+  </si>
+  <si>
+    <t>tt5106400</t>
+  </si>
+  <si>
+    <t>Ocean's Eight</t>
+  </si>
+  <si>
+    <t>tt5164214</t>
+  </si>
+  <si>
+    <t>Deadpool 2</t>
+  </si>
+  <si>
+    <t>tt5463162</t>
+  </si>
+  <si>
+    <t>Avengers Infinity War</t>
+  </si>
+  <si>
+    <t>tt4154756</t>
+  </si>
+  <si>
+    <t>Extinction</t>
+  </si>
+  <si>
+    <t>tt3201640</t>
+  </si>
+  <si>
+    <t>Secret Superstar</t>
+  </si>
+  <si>
+    <t>tt6108090</t>
+  </si>
+  <si>
+    <t>Rampage</t>
+  </si>
+  <si>
+    <t>tt2231461</t>
   </si>
 </sst>
 </file>
@@ -4502,10 +4562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C538"/>
+  <dimension ref="A1:C544"/>
   <sheetViews>
-    <sheetView topLeftCell="A522" workbookViewId="0">
-      <selection activeCell="C536" sqref="C536:C538"/>
+    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
+      <selection activeCell="C538" sqref="C538:C544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10429,6 +10489,72 @@
         <v>4</v>
       </c>
     </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10442,8 +10568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132:C133"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136:C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11917,6 +12043,50 @@
         <v>4</v>
       </c>
     </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="330" spans="2:2">
       <c r="B330" s="3"/>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F58D6632-B7DF-415E-9037-8713859AEAEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E1128CC-6B6F-488D-810B-BEB7C9632FCC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1359">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4214,9 +4214,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table22" displayName="Table22" ref="A1:C1048475" totalsRowShown="0">
-  <sortState ref="A2:C418">
-    <sortCondition ref="A1:A1048475"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table22" displayName="Table22" ref="A1:C1048473" totalsRowShown="0">
+  <sortState ref="A2:C417">
+    <sortCondition ref="A1:A1048473"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Title"/>
@@ -4562,10 +4562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C544"/>
+  <dimension ref="A1:C542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
-      <selection activeCell="C538" sqref="C538:C544"/>
+    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="A448" sqref="A448:XFD448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6471,10 +6471,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>4</v>
@@ -6482,10 +6482,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>4</v>
@@ -6493,10 +6493,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>4</v>
@@ -6504,10 +6504,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>4</v>
@@ -6515,10 +6515,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>4</v>
@@ -6526,10 +6526,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>4</v>
@@ -6537,10 +6537,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>4</v>
@@ -6548,10 +6548,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>212</v>
+        <v>845</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>436</v>
+        <v>843</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>4</v>
@@ -6559,10 +6559,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>845</v>
+        <v>646</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>843</v>
+        <v>647</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>4</v>
@@ -6570,10 +6570,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>646</v>
+        <v>767</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>647</v>
+        <v>768</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>4</v>
@@ -6581,10 +6581,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>767</v>
+        <v>894</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>768</v>
+        <v>895</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>4</v>
@@ -6592,10 +6592,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>894</v>
+        <v>678</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>895</v>
+        <v>679</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>4</v>
@@ -6603,10 +6603,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>678</v>
+        <v>930</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>679</v>
+        <v>929</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>4</v>
@@ -6614,10 +6614,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>930</v>
+        <v>997</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>929</v>
+        <v>998</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>4</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>997</v>
+        <v>688</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>998</v>
+        <v>689</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>4</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>688</v>
+        <v>620</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>689</v>
+        <v>621</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>4</v>
@@ -6647,10 +6647,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>620</v>
+        <v>217</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>621</v>
+        <v>441</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>4</v>
@@ -6658,10 +6658,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>4</v>
@@ -6669,10 +6669,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>218</v>
+        <v>945</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>442</v>
+        <v>946</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>4</v>
@@ -6680,10 +6680,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>945</v>
+        <v>878</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>946</v>
+        <v>879</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>4</v>
@@ -6691,10 +6691,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>878</v>
+        <v>219</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>879</v>
+        <v>443</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>4</v>
@@ -6702,10 +6702,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>4</v>
@@ -6713,10 +6713,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>4</v>
@@ -6724,10 +6724,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>4</v>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>4</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>4</v>
@@ -6757,10 +6757,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>4</v>
@@ -6768,10 +6768,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>451</v>
+        <v>228</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>4</v>
@@ -6779,10 +6779,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>452</v>
+        <v>229</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>4</v>
@@ -6790,10 +6790,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>229</v>
+        <v>692</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>453</v>
+        <v>693</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>4</v>
@@ -6801,10 +6801,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>692</v>
+        <v>910</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>693</v>
+        <v>911</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>4</v>
@@ -6812,10 +6812,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>910</v>
+        <v>837</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>911</v>
+        <v>838</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>4</v>
@@ -6823,10 +6823,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>837</v>
+        <v>700</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>838</v>
+        <v>701</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>4</v>
@@ -6834,10 +6834,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>701</v>
+        <v>454</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>4</v>
@@ -6845,10 +6845,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>4</v>
@@ -6856,10 +6856,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>4</v>
@@ -6867,10 +6867,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>231</v>
+        <v>749</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>455</v>
+        <v>750</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>4</v>
@@ -6878,10 +6878,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>749</v>
+        <v>852</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>750</v>
+        <v>853</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>4</v>
@@ -6889,10 +6889,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>852</v>
+        <v>234</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>853</v>
+        <v>458</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>4</v>
@@ -6900,10 +6900,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>234</v>
+        <v>883</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>458</v>
+        <v>884</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>4</v>
@@ -6911,10 +6911,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>883</v>
+        <v>235</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>884</v>
+        <v>459</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>4</v>
@@ -6922,10 +6922,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>235</v>
+        <v>801</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>459</v>
+        <v>802</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>4</v>
@@ -6933,10 +6933,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>801</v>
+        <v>904</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>802</v>
+        <v>905</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>4</v>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>904</v>
+        <v>236</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>905</v>
+        <v>460</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>4</v>
@@ -6955,10 +6955,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>236</v>
+        <v>666</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>460</v>
+        <v>667</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>4</v>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>4</v>
@@ -6977,10 +6977,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>634</v>
+        <v>237</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>635</v>
+        <v>461</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>4</v>
@@ -6988,10 +6988,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>4</v>
@@ -6999,10 +6999,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>4</v>
@@ -7010,10 +7010,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>463</v>
+        <v>240</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>4</v>
@@ -7021,7 +7018,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>4</v>
@@ -7029,10 +7029,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>242</v>
+        <v>702</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>465</v>
+        <v>703</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>4</v>
@@ -7040,10 +7040,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>702</v>
+        <v>663</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>703</v>
+        <v>662</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>4</v>
@@ -7051,10 +7051,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>663</v>
+        <v>244</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>662</v>
+        <v>467</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>4</v>
@@ -7062,10 +7062,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>244</v>
+        <v>761</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>467</v>
+        <v>762</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>4</v>
@@ -7073,10 +7073,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>761</v>
+        <v>823</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>762</v>
+        <v>824</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>4</v>
@@ -7084,10 +7084,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>823</v>
+        <v>783</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>824</v>
+        <v>784</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>4</v>
@@ -7095,10 +7095,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>783</v>
+        <v>246</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>784</v>
+        <v>469</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>4</v>
@@ -7106,10 +7106,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>4</v>
@@ -7117,10 +7117,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>247</v>
+        <v>892</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>470</v>
+        <v>893</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>4</v>
@@ -7128,10 +7128,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>892</v>
+        <v>248</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>893</v>
+        <v>471</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>4</v>
@@ -7139,10 +7139,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>4</v>
@@ -7150,10 +7150,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>250</v>
+        <v>827</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>473</v>
+        <v>828</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>4</v>
@@ -7161,10 +7161,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>827</v>
+        <v>251</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>828</v>
+        <v>474</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>4</v>
@@ -7172,10 +7172,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>4</v>
@@ -7183,10 +7183,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>4</v>
@@ -7194,10 +7194,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>253</v>
+        <v>605</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>476</v>
+        <v>604</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>4</v>
@@ -7205,10 +7205,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>605</v>
+        <v>900</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>604</v>
+        <v>901</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>4</v>
@@ -7216,10 +7216,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>900</v>
+        <v>255</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>901</v>
+        <v>478</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>4</v>
@@ -7227,32 +7227,32 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>254</v>
+        <v>781</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>477</v>
+        <v>782</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>781</v>
+        <v>706</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>782</v>
+        <v>707</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>4</v>
@@ -7260,10 +7260,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>706</v>
+        <v>256</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>707</v>
+        <v>479</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>4</v>
@@ -7271,10 +7271,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>479</v>
+        <v>257</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>4</v>
@@ -7282,10 +7282,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>480</v>
+        <v>259</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>4</v>
@@ -7293,10 +7293,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>259</v>
+        <v>735</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>482</v>
+        <v>736</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>4</v>
@@ -7304,10 +7304,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>735</v>
+        <v>260</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>736</v>
+        <v>483</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>4</v>
@@ -7315,10 +7315,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>260</v>
+        <v>992</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>483</v>
+        <v>993</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>4</v>
@@ -7326,10 +7326,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>992</v>
+        <v>258</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>993</v>
+        <v>481</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>4</v>
@@ -7337,10 +7337,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>4</v>
@@ -7348,10 +7348,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>4</v>
@@ -7359,10 +7359,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>4</v>
@@ -7370,10 +7370,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>264</v>
+        <v>898</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>487</v>
+        <v>899</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>4</v>
@@ -7381,10 +7381,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>898</v>
+        <v>265</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>899</v>
+        <v>488</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>4</v>
@@ -7392,10 +7392,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>4</v>
@@ -7403,10 +7403,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>4</v>
@@ -7414,10 +7414,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>4</v>
@@ -7425,10 +7425,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>4</v>
@@ -7436,10 +7436,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>269</v>
+        <v>652</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>492</v>
+        <v>653</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>4</v>
@@ -7447,10 +7447,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>652</v>
+        <v>270</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>653</v>
+        <v>493</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>4</v>
@@ -7458,10 +7458,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>4</v>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>272</v>
+        <v>741</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>495</v>
+        <v>742</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>4</v>
@@ -7480,10 +7480,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>741</v>
+        <v>273</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>742</v>
+        <v>496</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>4</v>
@@ -7491,10 +7491,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>4</v>
@@ -7502,10 +7502,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>274</v>
+        <v>598</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>4</v>
@@ -7513,10 +7513,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>598</v>
+        <v>276</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>599</v>
+        <v>499</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>4</v>
@@ -7524,10 +7524,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>4</v>
@@ -7535,10 +7535,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
-        <v>277</v>
+        <v>694</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>500</v>
+        <v>695</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>4</v>
@@ -7546,32 +7546,32 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>694</v>
+        <v>723</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>723</v>
+        <v>278</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>722</v>
+        <v>501</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>4</v>
@@ -7579,10 +7579,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>4</v>
@@ -7590,10 +7590,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>4</v>
@@ -7601,10 +7601,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>4</v>
@@ -7612,10 +7612,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>4</v>
@@ -7623,10 +7623,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>4</v>
@@ -7634,10 +7634,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>4</v>
@@ -7645,10 +7645,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>4</v>
@@ -7656,10 +7656,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>4</v>
@@ -7667,10 +7667,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
-        <v>288</v>
+        <v>733</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>511</v>
+        <v>734</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>4</v>
@@ -7678,10 +7678,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>733</v>
+        <v>874</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>734</v>
+        <v>875</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>4</v>
@@ -7689,10 +7689,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>874</v>
+        <v>731</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>875</v>
+        <v>732</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>4</v>
@@ -7700,10 +7700,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>731</v>
+        <v>289</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>732</v>
+        <v>512</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>4</v>
@@ -7711,10 +7711,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
-        <v>289</v>
+        <v>649</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>512</v>
+        <v>656</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>4</v>
@@ -7722,10 +7722,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>649</v>
+        <v>290</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>656</v>
+        <v>513</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>4</v>
@@ -7733,10 +7733,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>290</v>
+        <v>963</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>513</v>
+        <v>964</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>4</v>
@@ -7744,10 +7744,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
-        <v>963</v>
+        <v>292</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>964</v>
+        <v>515</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>4</v>
@@ -7755,10 +7755,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>4</v>
@@ -7766,10 +7766,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
-        <v>293</v>
+        <v>912</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>516</v>
+        <v>913</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>4</v>
@@ -7777,10 +7777,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
-        <v>912</v>
+        <v>294</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>913</v>
+        <v>517</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>4</v>
@@ -7788,10 +7788,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
-        <v>294</v>
+        <v>870</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>517</v>
+        <v>871</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>4</v>
@@ -7799,10 +7799,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
-        <v>870</v>
+        <v>676</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>871</v>
+        <v>677</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>4</v>
@@ -7810,10 +7810,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>676</v>
+        <v>957</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>677</v>
+        <v>958</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>4</v>
@@ -7821,10 +7821,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
-        <v>957</v>
+        <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>958</v>
+        <v>518</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>4</v>
@@ -7832,10 +7832,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
-        <v>295</v>
+        <v>906</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>518</v>
+        <v>907</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>4</v>
@@ -7843,10 +7843,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
-        <v>906</v>
+        <v>296</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>907</v>
+        <v>519</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>4</v>
@@ -7854,10 +7854,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>4</v>
@@ -7865,10 +7865,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>297</v>
+        <v>896</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>520</v>
+        <v>897</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>4</v>
@@ -7876,10 +7876,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>896</v>
+        <v>829</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>897</v>
+        <v>830</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>4</v>
@@ -7887,10 +7887,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>829</v>
+        <v>862</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>830</v>
+        <v>863</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>4</v>
@@ -7898,10 +7898,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>863</v>
+        <v>298</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>4</v>
@@ -7909,7 +7906,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>4</v>
@@ -7917,10 +7917,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>4</v>
@@ -7928,10 +7928,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>4</v>
@@ -7939,10 +7939,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
-        <v>301</v>
+        <v>839</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>523</v>
+        <v>840</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>4</v>
@@ -7950,10 +7950,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
-        <v>839</v>
+        <v>302</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>840</v>
+        <v>524</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>4</v>
@@ -7961,10 +7961,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
-        <v>302</v>
+        <v>622</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>524</v>
+        <v>623</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>4</v>
@@ -7972,10 +7972,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>4</v>
@@ -7983,10 +7983,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
-        <v>636</v>
+        <v>674</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>637</v>
+        <v>675</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>4</v>
@@ -7994,10 +7994,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>4</v>
@@ -8005,10 +8005,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
-        <v>668</v>
+        <v>303</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>669</v>
+        <v>525</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>4</v>
@@ -8016,10 +8016,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>4</v>
@@ -8027,10 +8027,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>304</v>
+        <v>811</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>526</v>
+        <v>812</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>4</v>
@@ -8038,10 +8038,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>811</v>
+        <v>305</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>812</v>
+        <v>527</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>4</v>
@@ -8049,10 +8049,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>305</v>
+        <v>684</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>527</v>
+        <v>685</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>4</v>
@@ -8060,10 +8060,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>684</v>
+        <v>306</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>685</v>
+        <v>528</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>4</v>
@@ -8071,10 +8071,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>306</v>
+        <v>890</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>528</v>
+        <v>891</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>4</v>
@@ -8082,32 +8082,32 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>890</v>
+        <v>307</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>891</v>
+        <v>529</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>4</v>
@@ -8115,10 +8115,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>309</v>
+        <v>791</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>531</v>
+        <v>792</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>4</v>
@@ -8126,10 +8126,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>791</v>
+        <v>310</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>792</v>
+        <v>532</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>4</v>
@@ -8137,10 +8137,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>310</v>
+        <v>615</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>4</v>
@@ -8148,10 +8148,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>4</v>
@@ -8159,10 +8159,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>4</v>
@@ -8170,10 +8170,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>613</v>
+        <v>311</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>614</v>
+        <v>533</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>4</v>
@@ -8181,10 +8181,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>4</v>
@@ -8192,10 +8192,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>4</v>
@@ -8203,10 +8203,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>313</v>
+        <v>833</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>535</v>
+        <v>834</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>4</v>
@@ -8214,10 +8214,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>833</v>
+        <v>917</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>834</v>
+        <v>919</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>4</v>
@@ -8225,32 +8225,32 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>917</v>
+        <v>726</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>919</v>
+        <v>721</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>726</v>
+        <v>765</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>721</v>
+        <v>766</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>765</v>
+        <v>314</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>766</v>
+        <v>536</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>4</v>
@@ -8258,10 +8258,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>4</v>
@@ -8269,10 +8269,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>4</v>
@@ -8280,10 +8280,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>4</v>
@@ -8291,10 +8291,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>4</v>
@@ -8302,10 +8302,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>4</v>
@@ -8313,32 +8313,32 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>321</v>
+        <v>807</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>543</v>
+        <v>808</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>4</v>
@@ -8346,10 +8346,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>807</v>
+        <v>638</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>808</v>
+        <v>639</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>4</v>
@@ -8357,10 +8357,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>638</v>
+        <v>322</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>639</v>
+        <v>544</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>4</v>
@@ -8368,10 +8368,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>322</v>
+        <v>922</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>544</v>
+        <v>923</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>4</v>
@@ -8379,10 +8379,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>922</v>
+        <v>323</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>923</v>
+        <v>545</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>4</v>
@@ -8390,10 +8390,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>4</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>4</v>
@@ -8412,10 +8412,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>4</v>
@@ -8423,10 +8423,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>4</v>
@@ -8434,10 +8434,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>4</v>
@@ -8445,10 +8445,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>4</v>
@@ -8456,10 +8456,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>4</v>
@@ -8467,10 +8467,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>331</v>
+        <v>803</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>553</v>
+        <v>804</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>4</v>
@@ -8478,10 +8478,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>803</v>
+        <v>332</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>804</v>
+        <v>554</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>4</v>
@@ -8489,10 +8489,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>332</v>
+        <v>821</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>554</v>
+        <v>822</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>4</v>
@@ -8500,10 +8500,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>821</v>
+        <v>626</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>822</v>
+        <v>627</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>4</v>
@@ -8511,10 +8511,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>626</v>
+        <v>333</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>627</v>
+        <v>555</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>4</v>
@@ -8522,10 +8522,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>333</v>
+        <v>846</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>555</v>
+        <v>847</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>4</v>
@@ -8533,10 +8533,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>846</v>
+        <v>596</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>847</v>
+        <v>597</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>4</v>
@@ -8544,10 +8544,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>596</v>
+        <v>334</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>4</v>
@@ -8555,10 +8555,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>4</v>
@@ -8566,10 +8566,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>335</v>
+        <v>718</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>4</v>
@@ -8577,10 +8577,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>718</v>
+        <v>908</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>558</v>
+        <v>909</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>4</v>
@@ -8588,10 +8588,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>908</v>
+        <v>719</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>909</v>
+        <v>720</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>4</v>
@@ -8599,10 +8599,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>719</v>
+        <v>795</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>720</v>
+        <v>796</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>4</v>
@@ -8610,10 +8610,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>4</v>
@@ -8621,10 +8621,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
-        <v>779</v>
+        <v>336</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>780</v>
+        <v>559</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>4</v>
@@ -8632,10 +8632,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>336</v>
+        <v>835</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>559</v>
+        <v>836</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>4</v>
@@ -8643,10 +8643,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>835</v>
+        <v>337</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>836</v>
+        <v>560</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>4</v>
@@ -8654,10 +8654,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>4</v>
@@ -8665,32 +8665,32 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
-        <v>338</v>
+        <v>642</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>642</v>
+        <v>340</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>643</v>
+        <v>563</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>340</v>
+        <v>955</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>563</v>
+        <v>956</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>4</v>
@@ -8698,10 +8698,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>955</v>
+        <v>341</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>956</v>
+        <v>564</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>4</v>
@@ -8709,10 +8709,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>4</v>
@@ -8720,10 +8720,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>4</v>
@@ -8731,10 +8731,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>4</v>
@@ -8742,10 +8742,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>4</v>
@@ -8753,10 +8753,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>4</v>
@@ -8764,10 +8764,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
-        <v>346</v>
+        <v>850</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>569</v>
+        <v>851</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>4</v>
@@ -8775,10 +8775,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>850</v>
+        <v>680</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>851</v>
+        <v>681</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>4</v>
@@ -8786,10 +8786,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>4</v>
@@ -8797,10 +8797,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
-        <v>683</v>
+        <v>348</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>682</v>
+        <v>571</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>4</v>
@@ -8808,32 +8808,32 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
-        <v>350</v>
+        <v>672</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>573</v>
+        <v>673</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>4</v>
@@ -8841,10 +8841,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
-        <v>672</v>
+        <v>351</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>673</v>
+        <v>574</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>4</v>
@@ -8852,10 +8852,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
-        <v>351</v>
+        <v>670</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>574</v>
+        <v>671</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>4</v>
@@ -8863,10 +8863,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
-        <v>670</v>
+        <v>773</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>671</v>
+        <v>774</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>4</v>
@@ -8874,10 +8874,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
-        <v>773</v>
+        <v>352</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>774</v>
+        <v>575</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>4</v>
@@ -8885,10 +8885,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>4</v>
@@ -8896,10 +8896,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>4</v>
@@ -8907,10 +8907,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>4</v>
@@ -8918,10 +8918,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
-        <v>356</v>
+        <v>686</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>579</v>
+        <v>687</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>4</v>
@@ -8929,10 +8929,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
-        <v>686</v>
+        <v>357</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>687</v>
+        <v>580</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>4</v>
@@ -8940,10 +8940,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>4</v>
@@ -8951,10 +8951,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
-        <v>358</v>
+        <v>140</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>581</v>
+        <v>141</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>4</v>
@@ -8962,10 +8962,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
-        <v>140</v>
+        <v>961</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>141</v>
+        <v>962</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>4</v>
@@ -8973,10 +8973,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
-        <v>961</v>
+        <v>359</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>962</v>
+        <v>582</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>4</v>
@@ -8984,10 +8984,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
-        <v>359</v>
+        <v>606</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>4</v>
@@ -8995,10 +8995,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
-        <v>606</v>
+        <v>360</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>4</v>
@@ -9006,10 +9006,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
-        <v>360</v>
+        <v>640</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>4</v>
@@ -9017,10 +9017,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
-        <v>640</v>
+        <v>361</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>641</v>
+        <v>584</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>4</v>
@@ -9028,10 +9028,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>4</v>
@@ -9039,10 +9039,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>4</v>
@@ -9050,10 +9050,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
-        <v>363</v>
+        <v>819</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>586</v>
+        <v>820</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>4</v>
@@ -9061,10 +9061,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
-        <v>819</v>
+        <v>365</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>820</v>
+        <v>588</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>4</v>
@@ -9072,10 +9072,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>4</v>
@@ -9083,10 +9083,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>4</v>
@@ -9094,10 +9094,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
-        <v>368</v>
+        <v>831</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>591</v>
+        <v>832</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>4</v>
@@ -9105,10 +9105,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
-        <v>831</v>
+        <v>370</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>832</v>
+        <v>593</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>4</v>
@@ -9116,10 +9116,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
-        <v>370</v>
+        <v>825</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>593</v>
+        <v>826</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>4</v>
@@ -9127,10 +9127,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
-        <v>825</v>
+        <v>142</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>826</v>
+        <v>143</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>4</v>
@@ -9138,10 +9138,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>4</v>
@@ -9149,10 +9149,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
-        <v>144</v>
+        <v>787</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>145</v>
+        <v>788</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>4</v>
@@ -9160,10 +9160,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
-        <v>787</v>
+        <v>1002</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>788</v>
+        <v>1004</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>4</v>
@@ -9171,10 +9171,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>4</v>
@@ -9182,10 +9182,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>4</v>
@@ -9193,10 +9193,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>4</v>
@@ -9204,10 +9204,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>1014</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>4</v>
@@ -9215,10 +9215,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B423" s="4" t="s">
-        <v>1014</v>
+        <v>1015</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1016</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>4</v>
@@ -9226,32 +9226,32 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>4</v>
@@ -9259,10 +9259,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>4</v>
@@ -9270,10 +9270,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>4</v>
@@ -9281,10 +9281,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>4</v>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>4</v>
@@ -9303,10 +9303,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>4</v>
@@ -9314,10 +9314,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>4</v>
@@ -9325,10 +9325,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>4</v>
@@ -9336,10 +9336,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>4</v>
@@ -9347,10 +9347,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>4</v>
@@ -9358,10 +9358,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>4</v>
@@ -9369,10 +9369,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>4</v>
@@ -9380,10 +9380,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>4</v>
@@ -9391,10 +9391,10 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
-        <v>1045</v>
+        <v>1061</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>4</v>
@@ -9402,10 +9402,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>4</v>
@@ -9413,10 +9413,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>4</v>
@@ -9424,10 +9424,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>4</v>
@@ -9435,10 +9435,10 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>4</v>
@@ -9446,10 +9446,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>4</v>
@@ -9457,10 +9457,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>4</v>
@@ -9468,10 +9468,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>4</v>
@@ -9479,10 +9479,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>4</v>
@@ -9490,10 +9490,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>4</v>
@@ -9501,10 +9501,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>4</v>
@@ -9512,10 +9512,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>4</v>
@@ -9523,10 +9523,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>4</v>
@@ -9534,10 +9534,10 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>4</v>
@@ -9545,10 +9545,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>4</v>
@@ -9556,10 +9556,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>4</v>
@@ -9567,10 +9567,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>4</v>
@@ -9578,10 +9578,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>4</v>
@@ -9589,10 +9589,10 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>4</v>
@@ -9600,10 +9600,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
-        <v>1086</v>
+        <v>1097</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1085</v>
+        <v>1098</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>4</v>
@@ -9611,10 +9611,10 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
-        <v>1091</v>
+        <v>1105</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1092</v>
+        <v>1106</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>4</v>
@@ -9622,10 +9622,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
-        <v>1097</v>
+        <v>1107</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1098</v>
+        <v>1108</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>4</v>
@@ -9633,10 +9633,10 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>4</v>
@@ -9644,10 +9644,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>4</v>
@@ -9655,21 +9655,21 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="464" spans="1:3">
-      <c r="A464" s="1" t="s">
-        <v>1111</v>
+      <c r="A464" s="4" t="s">
+        <v>1119</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>4</v>
@@ -9677,21 +9677,21 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:3">
-      <c r="A466" s="4" t="s">
-        <v>1119</v>
+      <c r="A466" s="1" t="s">
+        <v>1127</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>4</v>
@@ -9699,10 +9699,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>4</v>
@@ -9710,10 +9710,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>4</v>
@@ -9721,10 +9721,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>4</v>
@@ -9732,10 +9732,10 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>4</v>
@@ -9743,10 +9743,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>4</v>
@@ -9754,10 +9754,10 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>4</v>
@@ -9765,10 +9765,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>4</v>
@@ -9776,10 +9776,10 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>4</v>
@@ -9787,10 +9787,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1142</v>
+        <v>1150</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>4</v>
@@ -9798,10 +9798,10 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
-        <v>1143</v>
+        <v>1151</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1144</v>
+        <v>1152</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>4</v>
@@ -9809,10 +9809,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>4</v>
@@ -9820,10 +9820,10 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>4</v>
@@ -9831,21 +9831,21 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="480" spans="1:3">
-      <c r="A480" s="1" t="s">
-        <v>1155</v>
+      <c r="A480" s="4" t="s">
+        <v>1159</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>4</v>
@@ -9853,10 +9853,10 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>4</v>
@@ -9864,21 +9864,21 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="4" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:3">
-      <c r="A483" s="1" t="s">
-        <v>1161</v>
+      <c r="A483" s="4" t="s">
+        <v>1165</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>4</v>
@@ -9886,21 +9886,21 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="4" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="485" spans="1:3">
-      <c r="A485" s="4" t="s">
-        <v>1165</v>
+      <c r="A485" s="1" t="s">
+        <v>1169</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>4</v>
@@ -9908,10 +9908,10 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="4" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>4</v>
@@ -9919,21 +9919,21 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:3">
-      <c r="A488" s="4" t="s">
-        <v>1171</v>
+      <c r="A488" s="1" t="s">
+        <v>1175</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>4</v>
@@ -9941,21 +9941,21 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="490" spans="1:3">
-      <c r="A490" s="1" t="s">
-        <v>1175</v>
+      <c r="A490" s="4" t="s">
+        <v>1180</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>4</v>
@@ -9963,109 +9963,109 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="492" spans="1:3">
-      <c r="A492" s="4" t="s">
-        <v>1180</v>
+      <c r="A492" s="1" t="s">
+        <v>1183</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1179</v>
+        <v>1184</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="493" spans="1:3">
-      <c r="A493" s="1" t="s">
-        <v>1181</v>
+      <c r="A493" s="4" t="s">
+        <v>1185</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:3">
-      <c r="A494" s="1" t="s">
-        <v>1183</v>
+      <c r="A494" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="495" spans="1:3">
-      <c r="A495" s="4" t="s">
-        <v>1185</v>
+      <c r="A495" s="1" t="s">
+        <v>1191</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="496" spans="1:3">
-      <c r="A496" s="4" t="s">
-        <v>1190</v>
+      <c r="A496" s="1" t="s">
+        <v>1196</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1189</v>
+        <v>1197</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:3">
-      <c r="A497" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C497" s="1" t="s">
+      <c r="A497" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C497" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
-        <v>1196</v>
+        <v>1219</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1197</v>
+        <v>1218</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="499" spans="1:3">
-      <c r="A499" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B499" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C499" s="4" t="s">
+      <c r="A499" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C499" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="500" spans="1:3">
-      <c r="A500" s="1" t="s">
-        <v>1219</v>
+      <c r="A500" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>4</v>
@@ -10073,21 +10073,21 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>1220</v>
+        <v>1225</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="502" spans="1:3">
-      <c r="A502" s="4" t="s">
-        <v>1223</v>
+      <c r="A502" s="1" t="s">
+        <v>1229</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>4</v>
@@ -10095,10 +10095,10 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B503" s="4" t="s">
-        <v>1224</v>
+        <v>1231</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1230</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>4</v>
@@ -10106,10 +10106,10 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>1228</v>
+        <v>1233</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>1232</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>4</v>
@@ -10117,10 +10117,10 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>4</v>
@@ -10128,10 +10128,10 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B506" s="4" t="s">
-        <v>1232</v>
+        <v>1245</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1244</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>4</v>
@@ -10139,10 +10139,10 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
-        <v>1237</v>
+        <v>1252</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1236</v>
+        <v>1251</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>4</v>
@@ -10150,10 +10150,10 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
-        <v>1245</v>
+        <v>1254</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1244</v>
+        <v>1253</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>4</v>
@@ -10161,10 +10161,10 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
-        <v>1252</v>
+        <v>1276</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1251</v>
+        <v>1275</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>4</v>
@@ -10172,10 +10172,10 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>4</v>
@@ -10183,10 +10183,10 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
-        <v>1276</v>
+        <v>1258</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1275</v>
+        <v>1257</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>4</v>
@@ -10194,10 +10194,10 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>4</v>
@@ -10205,10 +10205,10 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>4</v>
@@ -10216,65 +10216,65 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="1" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:3">
-      <c r="A515" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>1263</v>
+      <c r="A515" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>1267</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:3">
-      <c r="A516" s="1" t="s">
-        <v>1266</v>
+      <c r="A516" s="4" t="s">
+        <v>1269</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:3">
-      <c r="A517" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B517" s="4" t="s">
-        <v>1267</v>
+      <c r="A517" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1272</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:3">
-      <c r="A518" s="4" t="s">
-        <v>1269</v>
+      <c r="A518" s="1" t="s">
+        <v>1274</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:3">
-      <c r="A519" s="4" t="s">
-        <v>1271</v>
+      <c r="A519" s="1" t="s">
+        <v>1278</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1272</v>
+        <v>1277</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>4</v>
@@ -10282,21 +10282,21 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1273</v>
+        <v>1280</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:3">
-      <c r="A521" s="1" t="s">
-        <v>1278</v>
+      <c r="A521" s="4" t="s">
+        <v>1281</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>4</v>
@@ -10304,21 +10304,21 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="523" spans="1:3">
-      <c r="A523" s="4" t="s">
-        <v>1281</v>
+      <c r="A523" s="1" t="s">
+        <v>1285</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>4</v>
@@ -10326,21 +10326,21 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="525" spans="1:3">
-      <c r="A525" s="1" t="s">
-        <v>1285</v>
+      <c r="A525" s="4" t="s">
+        <v>1289</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>4</v>
@@ -10348,21 +10348,21 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="527" spans="1:3">
-      <c r="A527" s="4" t="s">
-        <v>1289</v>
+      <c r="A527" s="1" t="s">
+        <v>1293</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>4</v>
@@ -10370,10 +10370,10 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>4</v>
@@ -10381,10 +10381,10 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
-        <v>1293</v>
+        <v>1303</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>4</v>
@@ -10392,10 +10392,10 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
-        <v>1296</v>
+        <v>1305</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1295</v>
+        <v>1306</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>4</v>
@@ -10403,10 +10403,10 @@
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>4</v>
@@ -10414,10 +10414,10 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>4</v>
@@ -10425,10 +10425,10 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>4</v>
@@ -10436,10 +10436,10 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
-        <v>1309</v>
+        <v>1327</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1310</v>
+        <v>1328</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>4</v>
@@ -10447,10 +10447,10 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="1" t="s">
-        <v>1311</v>
+        <v>1334</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1312</v>
+        <v>1333</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>4</v>
@@ -10458,10 +10458,10 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="1" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1328</v>
+        <v>1336</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>4</v>
@@ -10469,10 +10469,10 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="1" t="s">
-        <v>1334</v>
+        <v>1347</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1333</v>
+        <v>1348</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>4</v>
@@ -10480,10 +10480,10 @@
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="1" t="s">
-        <v>1335</v>
+        <v>1349</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1336</v>
+        <v>1350</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>4</v>
@@ -10491,10 +10491,10 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="1" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>4</v>
@@ -10502,10 +10502,10 @@
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="1" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>4</v>
@@ -10513,10 +10513,10 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="1" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>4</v>
@@ -10524,34 +10524,12 @@
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="1" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3">
-      <c r="A543" s="1" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3">
-      <c r="A544" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C544" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10569,7 +10547,7 @@
   <dimension ref="A1:C597"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136:C137"/>
+      <selection activeCell="A138" sqref="A138:XFD138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12087,6 +12065,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="330" spans="2:2">
       <c r="B330" s="3"/>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E1128CC-6B6F-488D-810B-BEB7C9632FCC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C3DFBF-E861-46A1-AD10-A83897BC8573}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="1375">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4139,6 +4139,54 @@
   </si>
   <si>
     <t>tt2231461</t>
+  </si>
+  <si>
+    <t>Smallfoot</t>
+  </si>
+  <si>
+    <t>tt6182908</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>tt1270797</t>
+  </si>
+  <si>
+    <t>The Predator</t>
+  </si>
+  <si>
+    <t>tt3829266</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>tt4244998</t>
+  </si>
+  <si>
+    <t>Incredibles 2</t>
+  </si>
+  <si>
+    <t>tt3606756</t>
+  </si>
+  <si>
+    <t>Ant Man and the Wasp</t>
+  </si>
+  <si>
+    <t>tt5095030</t>
+  </si>
+  <si>
+    <t>Hotel Transylvania 3 A Monster Vacation</t>
+  </si>
+  <si>
+    <t>tt5220122</t>
+  </si>
+  <si>
+    <t>Mandy</t>
+  </si>
+  <si>
+    <t>tt6998518</t>
   </si>
 </sst>
 </file>
@@ -4562,10 +4610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C542"/>
+  <dimension ref="A1:C550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A448" sqref="A448:XFD448"/>
+    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="C542" sqref="C542:C550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10530,6 +10578,94 @@
         <v>1358</v>
       </c>
       <c r="C542" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C550" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C3DFBF-E861-46A1-AD10-A83897BC8573}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7500D7-355C-4266-95EC-14329928F9D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1383">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4187,6 +4187,30 @@
   </si>
   <si>
     <t>tt6998518</t>
+  </si>
+  <si>
+    <t>A Simple Favor</t>
+  </si>
+  <si>
+    <t>tt7040874</t>
+  </si>
+  <si>
+    <t>Goosebumps 2 Haunted Halloween.</t>
+  </si>
+  <si>
+    <t>tt5664636</t>
+  </si>
+  <si>
+    <t>Mowgli Legend of the Jungle</t>
+  </si>
+  <si>
+    <t>tt2388771</t>
+  </si>
+  <si>
+    <t>Bird Box</t>
+  </si>
+  <si>
+    <t>tt2737304</t>
   </si>
 </sst>
 </file>
@@ -4610,10 +4634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C550"/>
+  <dimension ref="A1:C556"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="C542" sqref="C542:C550"/>
+      <selection activeCell="C555" sqref="C555:C556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10666,6 +10690,72 @@
         <v>1374</v>
       </c>
       <c r="C550" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C556" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7500D7-355C-4266-95EC-14329928F9D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BACCD3-D21E-4074-AC10-9FE57499A990}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="media" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="1407">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4211,6 +4211,78 @@
   </si>
   <si>
     <t>tt2737304</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>tt0093512</t>
+  </si>
+  <si>
+    <t>Evolution</t>
+  </si>
+  <si>
+    <t>tt4291590</t>
+  </si>
+  <si>
+    <t>Polar</t>
+  </si>
+  <si>
+    <t>tt4139588</t>
+  </si>
+  <si>
+    <t>A Star is Born</t>
+  </si>
+  <si>
+    <t>tt1517451</t>
+  </si>
+  <si>
+    <t>Fair Haven</t>
+  </si>
+  <si>
+    <t>tt3520216</t>
+  </si>
+  <si>
+    <t>Gewoon Vrienden</t>
+  </si>
+  <si>
+    <t>tt7901640</t>
+  </si>
+  <si>
+    <t>Mortal Engines</t>
+  </si>
+  <si>
+    <t>tt1571234</t>
+  </si>
+  <si>
+    <t>tt7008872</t>
+  </si>
+  <si>
+    <t>Parting Glances</t>
+  </si>
+  <si>
+    <t>Boy Erased</t>
+  </si>
+  <si>
+    <t>tt0091725</t>
+  </si>
+  <si>
+    <t>Fantastic Beasts The Crimes of Grindelwald</t>
+  </si>
+  <si>
+    <t>tt4123430</t>
+  </si>
+  <si>
+    <t>The Boy Who Could Fly</t>
+  </si>
+  <si>
+    <t>tt0090768</t>
+  </si>
+  <si>
+    <t>The Last Mimzy</t>
+  </si>
+  <si>
+    <t>tt0768212</t>
   </si>
 </sst>
 </file>
@@ -4634,10 +4706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C556"/>
+  <dimension ref="A1:C563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="C555" sqref="C555:C556"/>
+    <sheetView tabSelected="1" topLeftCell="A540" workbookViewId="0">
+      <selection activeCell="C560" sqref="C560:C563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10759,6 +10831,83 @@
         <v>4</v>
       </c>
     </row>
+    <row r="557" spans="1:3">
+      <c r="A557" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10773,7 +10922,7 @@
   <dimension ref="A1:C597"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:XFD138"/>
+      <selection activeCell="C142" sqref="C142:C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12302,6 +12451,61 @@
         <v>4</v>
       </c>
     </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="330" spans="2:2">
       <c r="B330" s="3"/>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BACCD3-D21E-4074-AC10-9FE57499A990}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD099A6E-1297-4469-A108-39C7F55FC84D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="1409">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4283,6 +4283,12 @@
   </si>
   <si>
     <t>tt0768212</t>
+  </si>
+  <si>
+    <t>Spider-Man Into the Spider-Verse</t>
+  </si>
+  <si>
+    <t>tt4633694</t>
   </si>
 </sst>
 </file>
@@ -4706,10 +4712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C563"/>
+  <dimension ref="A1:C564"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A540" workbookViewId="0">
-      <selection activeCell="C560" sqref="C560:C563"/>
+      <selection activeCell="C563" sqref="C563:C564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10905,6 +10911,17 @@
         <v>1406</v>
       </c>
       <c r="C563" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C564" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD099A6E-1297-4469-A108-39C7F55FC84D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2582D31-C288-4C05-B26A-5C7B243F4645}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="1419">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4289,6 +4289,36 @@
   </si>
   <si>
     <t>tt4633694</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>tt6823368</t>
+  </si>
+  <si>
+    <t>Eyes Wide Shut</t>
+  </si>
+  <si>
+    <t>tt0120663</t>
+  </si>
+  <si>
+    <t>How to Train Your Dragon: The Hidden World</t>
+  </si>
+  <si>
+    <t>tt2386490</t>
+  </si>
+  <si>
+    <t>Bumblebee</t>
+  </si>
+  <si>
+    <t>tt4701182</t>
+  </si>
+  <si>
+    <t>Mary Poppins Returns</t>
+  </si>
+  <si>
+    <t>tt5028340</t>
   </si>
 </sst>
 </file>
@@ -4712,10 +4742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C564"/>
+  <dimension ref="A1:C569"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A540" workbookViewId="0">
-      <selection activeCell="C563" sqref="C563:C564"/>
+      <selection activeCell="C564" sqref="C564:C569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5003,7 +5033,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>664</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -5014,7 +5044,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>949</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -5322,7 +5352,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" t="s">
         <v>69</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -5366,7 +5396,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" t="s">
         <v>644</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -5377,7 +5407,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" t="s">
         <v>79</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -5520,7 +5550,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="4" t="s">
+      <c r="A73" t="s">
         <v>1193</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -6920,7 +6950,7 @@
       <c r="A200" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" t="s">
         <v>452</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -7423,7 +7453,7 @@
       <c r="A246" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" t="s">
         <v>480</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -9356,7 +9386,7 @@
       <c r="A422" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B422" s="4" t="s">
+      <c r="B422" t="s">
         <v>1014</v>
       </c>
       <c r="C422" s="1" t="s">
@@ -9815,7 +9845,7 @@
       </c>
     </row>
     <row r="464" spans="1:3">
-      <c r="A464" s="4" t="s">
+      <c r="A464" t="s">
         <v>1119</v>
       </c>
       <c r="B464" s="1" t="s">
@@ -9991,7 +10021,7 @@
       </c>
     </row>
     <row r="480" spans="1:3">
-      <c r="A480" s="4" t="s">
+      <c r="A480" t="s">
         <v>1159</v>
       </c>
       <c r="B480" s="1" t="s">
@@ -10013,7 +10043,7 @@
       </c>
     </row>
     <row r="482" spans="1:3">
-      <c r="A482" s="4" t="s">
+      <c r="A482" t="s">
         <v>1163</v>
       </c>
       <c r="B482" s="1" t="s">
@@ -10024,7 +10054,7 @@
       </c>
     </row>
     <row r="483" spans="1:3">
-      <c r="A483" s="4" t="s">
+      <c r="A483" t="s">
         <v>1165</v>
       </c>
       <c r="B483" s="1" t="s">
@@ -10035,7 +10065,7 @@
       </c>
     </row>
     <row r="484" spans="1:3">
-      <c r="A484" s="4" t="s">
+      <c r="A484" t="s">
         <v>1167</v>
       </c>
       <c r="B484" s="1" t="s">
@@ -10057,7 +10087,7 @@
       </c>
     </row>
     <row r="486" spans="1:3">
-      <c r="A486" s="4" t="s">
+      <c r="A486" t="s">
         <v>1171</v>
       </c>
       <c r="B486" s="1" t="s">
@@ -10101,7 +10131,7 @@
       </c>
     </row>
     <row r="490" spans="1:3">
-      <c r="A490" s="4" t="s">
+      <c r="A490" t="s">
         <v>1180</v>
       </c>
       <c r="B490" s="1" t="s">
@@ -10134,7 +10164,7 @@
       </c>
     </row>
     <row r="493" spans="1:3">
-      <c r="A493" s="4" t="s">
+      <c r="A493" t="s">
         <v>1185</v>
       </c>
       <c r="B493" s="1" t="s">
@@ -10145,7 +10175,7 @@
       </c>
     </row>
     <row r="494" spans="1:3">
-      <c r="A494" s="4" t="s">
+      <c r="A494" t="s">
         <v>1190</v>
       </c>
       <c r="B494" s="1" t="s">
@@ -10178,13 +10208,13 @@
       </c>
     </row>
     <row r="497" spans="1:3">
-      <c r="A497" s="4" t="s">
+      <c r="A497" t="s">
         <v>1215</v>
       </c>
-      <c r="B497" s="4" t="s">
+      <c r="B497" t="s">
         <v>1212</v>
       </c>
-      <c r="C497" s="4" t="s">
+      <c r="C497" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10211,7 +10241,7 @@
       </c>
     </row>
     <row r="500" spans="1:3">
-      <c r="A500" s="4" t="s">
+      <c r="A500" t="s">
         <v>1223</v>
       </c>
       <c r="B500" s="1" t="s">
@@ -10225,7 +10255,7 @@
       <c r="A501" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="B501" s="4" t="s">
+      <c r="B501" t="s">
         <v>1224</v>
       </c>
       <c r="C501" s="1" t="s">
@@ -10258,7 +10288,7 @@
       <c r="A504" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="B504" s="4" t="s">
+      <c r="B504" t="s">
         <v>1232</v>
       </c>
       <c r="C504" s="1" t="s">
@@ -10379,7 +10409,7 @@
       <c r="A515" t="s">
         <v>1268</v>
       </c>
-      <c r="B515" s="4" t="s">
+      <c r="B515" t="s">
         <v>1267</v>
       </c>
       <c r="C515" s="1" t="s">
@@ -10387,7 +10417,7 @@
       </c>
     </row>
     <row r="516" spans="1:3">
-      <c r="A516" s="4" t="s">
+      <c r="A516" t="s">
         <v>1269</v>
       </c>
       <c r="B516" s="1" t="s">
@@ -10398,7 +10428,7 @@
       </c>
     </row>
     <row r="517" spans="1:3">
-      <c r="A517" s="4" t="s">
+      <c r="A517" t="s">
         <v>1271</v>
       </c>
       <c r="B517" s="1" t="s">
@@ -10442,7 +10472,7 @@
       </c>
     </row>
     <row r="521" spans="1:3">
-      <c r="A521" s="4" t="s">
+      <c r="A521" t="s">
         <v>1281</v>
       </c>
       <c r="B521" s="1" t="s">
@@ -10486,7 +10516,7 @@
       </c>
     </row>
     <row r="525" spans="1:3">
-      <c r="A525" s="4" t="s">
+      <c r="A525" t="s">
         <v>1289</v>
       </c>
       <c r="B525" s="1" t="s">
@@ -10922,6 +10952,61 @@
         <v>1408</v>
       </c>
       <c r="C564" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C569" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11006,7 +11091,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>757</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -11017,7 +11102,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -11086,7 +11171,7 @@
       <c r="A13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -11991,7 +12076,7 @@
       <c r="B95" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12007,7 +12092,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="4" t="s">
+      <c r="A97" t="s">
         <v>1145</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -12057,7 +12142,7 @@
       <c r="B101" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12073,7 +12158,7 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="4" t="s">
+      <c r="A103" t="s">
         <v>1204</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -12084,7 +12169,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="4" t="s">
+      <c r="A104" t="s">
         <v>1206</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -12112,12 +12197,12 @@
       <c r="B106" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="4" t="s">
+      <c r="A107" t="s">
         <v>1214</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -12128,7 +12213,7 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="4" t="s">
+      <c r="A108" t="s">
         <v>1217</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -12186,7 +12271,7 @@
       <c r="A113" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" t="s">
         <v>1234</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -12230,7 +12315,7 @@
       <c r="A117" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" t="s">
         <v>1246</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -12271,7 +12356,7 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="4" t="s">
+      <c r="A121" t="s">
         <v>1297</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -12381,7 +12466,7 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="4" t="s">
+      <c r="A131" t="s">
         <v>1329</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -12403,7 +12488,7 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="4" t="s">
+      <c r="A133" t="s">
         <v>1337</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -12414,7 +12499,7 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="4" t="s">
+      <c r="A134" t="s">
         <v>1339</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -12447,7 +12532,7 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="4" t="s">
+      <c r="A137" t="s">
         <v>1345</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -12502,7 +12587,7 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="4" t="s">
+      <c r="A142" t="s">
         <v>1399</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -12527,37 +12612,37 @@
       <c r="B330" s="3"/>
     </row>
     <row r="562" spans="1:3">
-      <c r="A562" s="4"/>
+      <c r="A562"/>
     </row>
     <row r="563" spans="1:3">
-      <c r="C563" s="4"/>
+      <c r="C563"/>
     </row>
     <row r="575" spans="1:3">
-      <c r="A575" s="4"/>
+      <c r="A575"/>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="4"/>
+      <c r="A582"/>
     </row>
     <row r="584" spans="1:1">
-      <c r="A584" s="4"/>
+      <c r="A584"/>
     </row>
     <row r="585" spans="1:1">
-      <c r="A585" s="4"/>
+      <c r="A585"/>
     </row>
     <row r="586" spans="1:1">
-      <c r="A586" s="4"/>
+      <c r="A586"/>
     </row>
     <row r="588" spans="1:1">
-      <c r="A588" s="4"/>
+      <c r="A588"/>
     </row>
     <row r="592" spans="1:1">
-      <c r="A592" s="4"/>
+      <c r="A592"/>
     </row>
     <row r="595" spans="1:1">
-      <c r="A595" s="4"/>
+      <c r="A595"/>
     </row>
     <row r="597" spans="1:1">
-      <c r="A597" s="4"/>
+      <c r="A597"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2582D31-C288-4C05-B26A-5C7B243F4645}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA5B7DA-E739-48E4-9594-522E4F294D89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="media" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="1425">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4319,6 +4319,24 @@
   </si>
   <si>
     <t>tt5028340</t>
+  </si>
+  <si>
+    <t>What's Going on with My Sister</t>
+  </si>
+  <si>
+    <t>tt3396842</t>
+  </si>
+  <si>
+    <t>Tom Of Finland</t>
+  </si>
+  <si>
+    <t>tt5226984</t>
+  </si>
+  <si>
+    <t>Captain Marvel</t>
+  </si>
+  <si>
+    <t>tt4154664</t>
   </si>
 </sst>
 </file>
@@ -4742,10 +4760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C569"/>
+  <dimension ref="A1:C571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A540" workbookViewId="0">
-      <selection activeCell="C564" sqref="C564:C569"/>
+    <sheetView topLeftCell="A546" workbookViewId="0">
+      <selection activeCell="C569" sqref="C569:C571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11010,6 +11028,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11023,8 +11063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C597"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142:C143"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143:C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12608,6 +12648,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="330" spans="2:2">
       <c r="B330" s="3"/>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA5B7DA-E739-48E4-9594-522E4F294D89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6A1F75-2596-4593-8E3E-5FC602E79C2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="media" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="1437">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4337,6 +4337,42 @@
   </si>
   <si>
     <t>tt4154664</t>
+  </si>
+  <si>
+    <t>I Am Mother</t>
+  </si>
+  <si>
+    <t>tt6292852</t>
+  </si>
+  <si>
+    <t>Pokemon Detective Pikachu</t>
+  </si>
+  <si>
+    <t>tt5884052</t>
+  </si>
+  <si>
+    <t>tt5968394</t>
+  </si>
+  <si>
+    <t>Captive State</t>
+  </si>
+  <si>
+    <t>My Beautiful Laundrette</t>
+  </si>
+  <si>
+    <t>tt0091578</t>
+  </si>
+  <si>
+    <t>Dumbo</t>
+  </si>
+  <si>
+    <t>tt3861390</t>
+  </si>
+  <si>
+    <t>Shazam!</t>
+  </si>
+  <si>
+    <t>tt0448115</t>
   </si>
 </sst>
 </file>
@@ -4760,10 +4796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C571"/>
+  <dimension ref="A1:C576"/>
   <sheetViews>
-    <sheetView topLeftCell="A546" workbookViewId="0">
-      <selection activeCell="C569" sqref="C569:C571"/>
+    <sheetView tabSelected="1" topLeftCell="A555" workbookViewId="0">
+      <selection activeCell="C571" sqref="C571:C576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11050,6 +11086,61 @@
         <v>4</v>
       </c>
     </row>
+    <row r="572" spans="1:3">
+      <c r="A572" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11063,8 +11154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143:C144"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12659,6 +12750,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="330" spans="2:2">
       <c r="B330" s="3"/>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6A1F75-2596-4593-8E3E-5FC602E79C2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCE0A7E-9056-4943-8396-2502DDDF494A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="1437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="1455">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4373,6 +4373,60 @@
   </si>
   <si>
     <t>tt0448115</t>
+  </si>
+  <si>
+    <t>Avengers Endgame</t>
+  </si>
+  <si>
+    <t>tt4154796</t>
+  </si>
+  <si>
+    <t>Bleach</t>
+  </si>
+  <si>
+    <t>tt5979872</t>
+  </si>
+  <si>
+    <t>Alita: Battle Angel</t>
+  </si>
+  <si>
+    <t>tt0437086</t>
+  </si>
+  <si>
+    <t>Hellboy</t>
+  </si>
+  <si>
+    <t>tt2274648</t>
+  </si>
+  <si>
+    <t>Missing Link</t>
+  </si>
+  <si>
+    <t>tt6348138</t>
+  </si>
+  <si>
+    <t>Godzilla: King of the Monsters</t>
+  </si>
+  <si>
+    <t>tt3741700</t>
+  </si>
+  <si>
+    <t>Aladdin</t>
+  </si>
+  <si>
+    <t>tt6139732</t>
+  </si>
+  <si>
+    <t>Chernobyl</t>
+  </si>
+  <si>
+    <t>tt7366338</t>
+  </si>
+  <si>
+    <t>The Snow Queen 3: Fire and Ice</t>
+  </si>
+  <si>
+    <t>tt4685554</t>
   </si>
 </sst>
 </file>
@@ -4796,10 +4850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C576"/>
+  <dimension ref="A1:C585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A555" workbookViewId="0">
-      <selection activeCell="C571" sqref="C571:C576"/>
+    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
+      <selection activeCell="C585" sqref="C585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11138,6 +11192,105 @@
         <v>1436</v>
       </c>
       <c r="C576" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C585" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCE0A7E-9056-4943-8396-2502DDDF494A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4BBDF2-4B4F-49AF-ABAB-923AA74BE57E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="1455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="1475">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4427,6 +4427,66 @@
   </si>
   <si>
     <t>tt4685554</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>tt6143782</t>
+  </si>
+  <si>
+    <t>Dark Phoenix</t>
+  </si>
+  <si>
+    <t>tt6565702</t>
+  </si>
+  <si>
+    <t>John Wick Chapter 3 Parabellum</t>
+  </si>
+  <si>
+    <t>tt6146586</t>
+  </si>
+  <si>
+    <t>Men in Black International</t>
+  </si>
+  <si>
+    <t>tt2283336</t>
+  </si>
+  <si>
+    <t>Parasite</t>
+  </si>
+  <si>
+    <t>tt6751668</t>
+  </si>
+  <si>
+    <t>The Secret Life of Pets 2</t>
+  </si>
+  <si>
+    <t>tt5113040</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>tt5753856</t>
+  </si>
+  <si>
+    <t>In the Shadow of the Moon</t>
+  </si>
+  <si>
+    <t>tt8110640</t>
+  </si>
+  <si>
+    <t>Fast and Furious Presents Hobbs and Shaw</t>
+  </si>
+  <si>
+    <t>tt6806448</t>
+  </si>
+  <si>
+    <t>Spider Man - Far From Home</t>
+  </si>
+  <si>
+    <t>tt6320628</t>
   </si>
 </sst>
 </file>
@@ -4850,10 +4910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C585"/>
+  <dimension ref="A1:C595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
-      <selection activeCell="C585" sqref="C585"/>
+    <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
+      <selection activeCell="C595" sqref="C595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11291,6 +11351,116 @@
         <v>1454</v>
       </c>
       <c r="C585" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C595" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4BBDF2-4B4F-49AF-ABAB-923AA74BE57E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AC9E6A-29B0-4BE8-85EB-2C036AADCBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="1485">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4487,6 +4487,36 @@
   </si>
   <si>
     <t>tt6320628</t>
+  </si>
+  <si>
+    <t>Code 8</t>
+  </si>
+  <si>
+    <t>tt6259380</t>
+  </si>
+  <si>
+    <t>6 Underground</t>
+  </si>
+  <si>
+    <t>tt8106534</t>
+  </si>
+  <si>
+    <t>Abominable</t>
+  </si>
+  <si>
+    <t>tt6324278</t>
+  </si>
+  <si>
+    <t>Gemini Man</t>
+  </si>
+  <si>
+    <t>tt1025100</t>
+  </si>
+  <si>
+    <t>Dora and the Lost City of Gold</t>
+  </si>
+  <si>
+    <t>tt7547410</t>
   </si>
 </sst>
 </file>
@@ -4910,10 +4940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C595"/>
+  <dimension ref="A1:C600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="C595" sqref="C595"/>
+    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="C595" sqref="C595:C600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11461,6 +11491,61 @@
         <v>1474</v>
       </c>
       <c r="C595" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C600" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4BBDF2-4B4F-49AF-ABAB-923AA74BE57E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17B1DBD-97AA-4C2D-912F-DFA661AB5B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="1491">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4487,6 +4487,54 @@
   </si>
   <si>
     <t>tt6320628</t>
+  </si>
+  <si>
+    <t>Code 8</t>
+  </si>
+  <si>
+    <t>tt6259380</t>
+  </si>
+  <si>
+    <t>6 Underground</t>
+  </si>
+  <si>
+    <t>tt8106534</t>
+  </si>
+  <si>
+    <t>Abominable</t>
+  </si>
+  <si>
+    <t>tt6324278</t>
+  </si>
+  <si>
+    <t>Gemini Man</t>
+  </si>
+  <si>
+    <t>tt1025100</t>
+  </si>
+  <si>
+    <t>Dora and the Lost City of Gold</t>
+  </si>
+  <si>
+    <t>tt7547410</t>
+  </si>
+  <si>
+    <t>Frozen II</t>
+  </si>
+  <si>
+    <t>tt4520988</t>
+  </si>
+  <si>
+    <t>Maleficent Mistress of Evil</t>
+  </si>
+  <si>
+    <t>tt4777008</t>
+  </si>
+  <si>
+    <t>Joker</t>
+  </si>
+  <si>
+    <t>tt7286456</t>
   </si>
 </sst>
 </file>
@@ -4910,10 +4958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C595"/>
+  <dimension ref="A1:C603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="C595" sqref="C595"/>
+    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
+      <selection activeCell="C600" sqref="C600:C603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11461,6 +11509,94 @@
         <v>1474</v>
       </c>
       <c r="C595" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C603" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/media.xlsx
+++ b/data/media.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17B1DBD-97AA-4C2D-912F-DFA661AB5B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FC6A97-8660-46D4-B63C-01AF7B041D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4610,9 +4610,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table22" displayName="Table22" ref="A1:C1048473" totalsRowShown="0">
-  <sortState ref="A2:C417">
-    <sortCondition ref="A1:A1048473"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table22" displayName="Table22" ref="A1:C1048470" totalsRowShown="0">
+  <sortState ref="A2:C414">
+    <sortCondition ref="A1:A1048470"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Title"/>
@@ -4958,10 +4958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C603"/>
+  <dimension ref="A1:C600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
-      <selection activeCell="C600" sqref="C600:C603"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185:XFD185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5723,10 +5723,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>4</v>
@@ -5734,10 +5734,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>98</v>
+        <v>743</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>99</v>
+        <v>744</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
@@ -5745,32 +5745,32 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>743</v>
+        <v>618</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>744</v>
+        <v>619</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>618</v>
+      <c r="A72" t="s">
+        <v>1193</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>619</v>
+        <v>926</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>1193</v>
+      <c r="A73" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>926</v>
+        <v>120</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>4</v>
@@ -5778,10 +5778,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>4</v>
@@ -5789,10 +5789,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>4</v>
@@ -5800,10 +5800,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
@@ -5811,10 +5811,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>4</v>
@@ -5822,10 +5822,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>4</v>
@@ -5833,10 +5833,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>107</v>
+        <v>777</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>125</v>
+        <v>778</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>4</v>
@@ -5844,10 +5844,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>777</v>
+        <v>813</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>4</v>
@@ -5855,10 +5855,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>813</v>
+        <v>109</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>815</v>
+        <v>127</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>4</v>
@@ -5866,10 +5866,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
@@ -5877,10 +5877,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>110</v>
+        <v>737</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>128</v>
+        <v>738</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>4</v>
@@ -5888,10 +5888,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>737</v>
+        <v>111</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>738</v>
+        <v>129</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>4</v>
@@ -5899,10 +5899,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>4</v>
@@ -5910,10 +5910,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>4</v>
@@ -5921,10 +5921,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>4</v>
@@ -5932,10 +5932,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>4</v>
@@ -5943,10 +5943,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>4</v>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>117</v>
+        <v>902</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>136</v>
+        <v>903</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>4</v>
@@ -5965,10 +5965,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>902</v>
+        <v>118</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>903</v>
+        <v>137</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>4</v>
@@ -5976,10 +5976,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>4</v>
@@ -5987,10 +5987,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>119</v>
+        <v>651</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>138</v>
+        <v>655</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>4</v>
@@ -5998,10 +5998,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>651</v>
+        <v>146</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>655</v>
+        <v>371</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
@@ -6009,10 +6009,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>4</v>
@@ -6020,10 +6020,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>147</v>
+        <v>789</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>372</v>
+        <v>790</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>4</v>
@@ -6031,10 +6031,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>789</v>
+        <v>150</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>790</v>
+        <v>375</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>4</v>
@@ -6042,10 +6042,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>4</v>
@@ -6053,10 +6053,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>4</v>
@@ -6064,10 +6064,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>4</v>
@@ -6075,10 +6075,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>4</v>
@@ -6086,10 +6086,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>973</v>
+        <v>155</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>974</v>
+        <v>380</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>4</v>
@@ -6097,10 +6097,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>4</v>
@@ -6108,10 +6108,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>155</v>
+        <v>936</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>380</v>
+        <v>937</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>4</v>
@@ -6119,10 +6119,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>4</v>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>936</v>
+        <v>698</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>937</v>
+        <v>699</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>4</v>
@@ -6141,10 +6141,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>157</v>
+        <v>888</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>382</v>
+        <v>889</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>4</v>
@@ -6152,10 +6152,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>698</v>
+        <v>608</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>699</v>
+        <v>609</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>4</v>
@@ -6163,10 +6163,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>888</v>
+        <v>158</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>889</v>
+        <v>383</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>4</v>
@@ -6174,10 +6174,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>608</v>
+        <v>161</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>609</v>
+        <v>385</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>4</v>
@@ -6185,10 +6185,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>4</v>
@@ -6196,21 +6196,21 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>4</v>
@@ -6218,21 +6218,21 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>164</v>
+        <v>858</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>388</v>
+        <v>859</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>4</v>
@@ -6240,10 +6240,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>166</v>
+        <v>876</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>390</v>
+        <v>877</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>4</v>
@@ -6251,10 +6251,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>858</v>
+        <v>785</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>859</v>
+        <v>786</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>4</v>
@@ -6262,10 +6262,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>876</v>
+        <v>167</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>877</v>
+        <v>391</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>4</v>
@@ -6273,10 +6273,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>785</v>
+        <v>169</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>786</v>
+        <v>393</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>4</v>
@@ -6284,10 +6284,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>167</v>
+        <v>600</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>391</v>
+        <v>601</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>4</v>
@@ -6295,10 +6295,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>4</v>
@@ -6306,10 +6306,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>600</v>
+        <v>914</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>601</v>
+        <v>915</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>4</v>
@@ -6317,10 +6317,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>4</v>
@@ -6328,10 +6328,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>914</v>
+        <v>172</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>915</v>
+        <v>396</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>4</v>
@@ -6339,10 +6339,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>171</v>
+        <v>805</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>395</v>
+        <v>806</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>4</v>
@@ -6350,10 +6350,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>172</v>
+        <v>632</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>396</v>
+        <v>633</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>4</v>
@@ -6361,10 +6361,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>805</v>
+        <v>174</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>806</v>
+        <v>398</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>4</v>
@@ -6372,10 +6372,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>632</v>
+        <v>179</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>633</v>
+        <v>403</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>4</v>
@@ -6383,10 +6383,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>4</v>
@@ -6394,10 +6394,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>4</v>
@@ -6405,10 +6405,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>4</v>
@@ -6416,10 +6416,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>4</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>4</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>4</v>
@@ -6449,10 +6449,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>4</v>
@@ -6460,10 +6460,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>4</v>
@@ -6471,10 +6471,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>4</v>
@@ -6482,10 +6482,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>182</v>
+        <v>927</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>406</v>
+        <v>928</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>4</v>
@@ -6493,10 +6493,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>183</v>
+        <v>924</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>407</v>
+        <v>925</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>4</v>
@@ -6504,10 +6504,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>927</v>
+        <v>184</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>928</v>
+        <v>408</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>4</v>
@@ -6515,10 +6515,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>924</v>
+        <v>759</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>925</v>
+        <v>760</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>4</v>
@@ -6526,21 +6526,21 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>184</v>
+        <v>724</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>408</v>
+        <v>725</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>759</v>
+        <v>185</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>760</v>
+        <v>409</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>4</v>
@@ -6548,21 +6548,21 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>724</v>
+        <v>186</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>725</v>
+        <v>410</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>4</v>
@@ -6570,10 +6570,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>4</v>
@@ -6581,10 +6581,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>187</v>
+        <v>771</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>411</v>
+        <v>772</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>4</v>
@@ -6592,10 +6592,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>4</v>
@@ -6603,10 +6603,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>771</v>
+        <v>190</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>772</v>
+        <v>414</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>4</v>
@@ -6614,10 +6614,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>189</v>
+        <v>872</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>413</v>
+        <v>873</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>4</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>190</v>
+        <v>864</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>414</v>
+        <v>865</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>4</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>872</v>
+        <v>817</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>873</v>
+        <v>818</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>4</v>
@@ -6647,10 +6647,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>864</v>
+        <v>192</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>865</v>
+        <v>416</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>4</v>
@@ -6658,10 +6658,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>817</v>
+        <v>947</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>818</v>
+        <v>948</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>4</v>
@@ -6669,10 +6669,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>192</v>
+        <v>868</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>416</v>
+        <v>869</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>4</v>
@@ -6680,10 +6680,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>947</v>
+        <v>594</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>948</v>
+        <v>595</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>4</v>
@@ -6691,10 +6691,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>868</v>
+        <v>194</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>869</v>
+        <v>418</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>4</v>
@@ -6702,10 +6702,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>594</v>
+        <v>860</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>595</v>
+        <v>861</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>4</v>
@@ -6713,10 +6713,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>194</v>
+        <v>920</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>418</v>
+        <v>921</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>4</v>
@@ -6724,10 +6724,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>860</v>
+        <v>195</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>861</v>
+        <v>419</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>4</v>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>920</v>
+        <v>196</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>921</v>
+        <v>420</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>4</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>4</v>
@@ -6757,10 +6757,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>4</v>
@@ -6768,10 +6768,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>4</v>
@@ -6779,10 +6779,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>4</v>
@@ -6790,10 +6790,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>4</v>
@@ -6801,10 +6801,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>200</v>
+        <v>658</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>424</v>
+        <v>659</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>4</v>
@@ -6812,10 +6812,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>4</v>
@@ -6823,10 +6823,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>658</v>
+        <v>205</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>659</v>
+        <v>429</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>4</v>
@@ -6834,10 +6834,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>4</v>
@@ -6845,10 +6845,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>4</v>
@@ -6856,10 +6856,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>4</v>
@@ -6867,10 +6867,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>4</v>
@@ -6878,10 +6878,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>4</v>
@@ -6889,10 +6889,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>4</v>
@@ -6900,10 +6900,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>4</v>
@@ -6911,10 +6911,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>4</v>
@@ -6922,10 +6922,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>214</v>
+        <v>845</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>438</v>
+        <v>843</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>4</v>
@@ -6933,10 +6933,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>212</v>
+        <v>646</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>436</v>
+        <v>647</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>4</v>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>845</v>
+        <v>767</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>843</v>
+        <v>768</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>4</v>
@@ -6955,10 +6955,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>646</v>
+        <v>894</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>647</v>
+        <v>895</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>4</v>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>767</v>
+        <v>678</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>768</v>
+        <v>679</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>4</v>
@@ -6977,10 +6977,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>894</v>
+        <v>930</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>895</v>
+        <v>929</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>4</v>
@@ -6988,10 +6988,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>678</v>
+        <v>997</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>679</v>
+        <v>998</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>4</v>
@@ -6999,10 +6999,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>930</v>
+        <v>620</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>929</v>
+        <v>621</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>4</v>
@@ -7010,10 +7010,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>997</v>
+        <v>217</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>998</v>
+        <v>441</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>4</v>
@@ -7021,10 +7021,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>688</v>
+        <v>218</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>689</v>
+        <v>442</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>4</v>
@@ -7032,10 +7032,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>620</v>
+        <v>945</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>621</v>
+        <v>946</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>4</v>
@@ -7043,10 +7043,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>217</v>
+        <v>878</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>441</v>
+        <v>879</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>4</v>
@@ -7054,10 +7054,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>4</v>
@@ -7065,10 +7065,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>945</v>
+        <v>220</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>946</v>
+        <v>444</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>4</v>
@@ -7076,10 +7076,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>878</v>
+       